--- a/dcCovid-19DataSummaryToday.xlsx
+++ b/dcCovid-19DataSummaryToday.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="43">
   <si>
     <t>Testing</t>
   </si>
@@ -148,6 +148,12 @@
   </si>
   <si>
     <t>Total Number of Positive Cases of People Who Were in Shelter</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -198,15 +204,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -522,11 +540,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC62"/>
+  <dimension ref="A1:AD62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="AC1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AC8" sqref="AC8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="AD1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AD6" sqref="AD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -535,7 +553,7 @@
     <col min="2" max="2" width="62.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C1" s="1">
         <v>43897</v>
       </c>
@@ -617,8 +635,11 @@
       <c r="AC1" s="1">
         <v>43923</v>
       </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD1" s="1">
+        <v>43924</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -642,7 +663,7 @@
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -709,8 +730,11 @@
       <c r="AC3">
         <v>5584</v>
       </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD3">
+        <v>6438</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -798,8 +822,11 @@
       <c r="AC4">
         <v>757</v>
       </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD4">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -869,8 +896,11 @@
       <c r="AC5">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -910,11 +940,14 @@
       <c r="AC6">
         <v>206</v>
       </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD6">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
@@ -948,8 +981,11 @@
       <c r="AC8">
         <v>116</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD8">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
@@ -983,8 +1019,11 @@
       <c r="AC9">
         <v>433</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD9">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
@@ -1018,8 +1057,11 @@
       <c r="AC10">
         <v>223</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD10">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
@@ -1053,13 +1095,16 @@
       <c r="AC11">
         <v>210</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD11">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
@@ -1067,7 +1112,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1152,11 @@
       <c r="AC15">
         <v>23</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>9</v>
       </c>
@@ -1139,8 +1187,11 @@
       <c r="AC16">
         <v>145</v>
       </c>
-    </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD16">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>9</v>
       </c>
@@ -1171,8 +1222,11 @@
       <c r="AC17">
         <v>168</v>
       </c>
-    </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD17">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>9</v>
       </c>
@@ -1203,13 +1257,16 @@
       <c r="AC18">
         <v>158</v>
       </c>
-    </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD18">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>10</v>
       </c>
@@ -1249,8 +1306,11 @@
       <c r="AC21">
         <v>15</v>
       </c>
-    </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD21">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>10</v>
       </c>
@@ -1281,8 +1341,11 @@
       <c r="AC22">
         <v>195</v>
       </c>
-    </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD22">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>10</v>
       </c>
@@ -1313,8 +1376,11 @@
       <c r="AC23">
         <v>210</v>
       </c>
-    </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD23">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>10</v>
       </c>
@@ -1345,13 +1411,16 @@
       <c r="AC24">
         <v>175</v>
       </c>
-    </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD24">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>22</v>
       </c>
@@ -1382,8 +1451,11 @@
       <c r="AC27">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>22</v>
       </c>
@@ -1414,8 +1486,11 @@
       <c r="AC28">
         <v>132</v>
       </c>
-    </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD28">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>22</v>
       </c>
@@ -1446,8 +1521,11 @@
       <c r="AC29">
         <v>135</v>
       </c>
-    </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD29">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>22</v>
       </c>
@@ -1478,13 +1556,16 @@
       <c r="AC30">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>19</v>
       </c>
@@ -1518,8 +1599,11 @@
       <c r="AC33">
         <v>12</v>
       </c>
-    </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD33">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>19</v>
       </c>
@@ -1550,8 +1634,11 @@
       <c r="AC34">
         <v>129</v>
       </c>
-    </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD34">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>19</v>
       </c>
@@ -1582,8 +1669,11 @@
       <c r="AC35">
         <v>141</v>
       </c>
-    </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD35">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>19</v>
       </c>
@@ -1614,13 +1704,16 @@
       <c r="AC36">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>21</v>
       </c>
@@ -1639,8 +1732,11 @@
       <c r="AC39">
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>21</v>
       </c>
@@ -1659,8 +1755,11 @@
       <c r="AC40">
         <v>51</v>
       </c>
-    </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD40">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>21</v>
       </c>
@@ -1679,8 +1778,11 @@
       <c r="AC41">
         <v>53</v>
       </c>
-    </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD41">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>21</v>
       </c>
@@ -1699,8 +1801,11 @@
       <c r="AC42">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD42">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>23</v>
       </c>
@@ -1719,8 +1824,11 @@
       <c r="AC44">
         <v>2</v>
       </c>
-    </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>23</v>
       </c>
@@ -1739,8 +1847,11 @@
       <c r="AC45">
         <v>7</v>
       </c>
-    </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>23</v>
       </c>
@@ -1759,8 +1870,11 @@
       <c r="AC46">
         <v>9</v>
       </c>
-    </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD46">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>23</v>
       </c>
@@ -1779,13 +1893,16 @@
       <c r="AC47">
         <v>7</v>
       </c>
-    </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD47">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>25</v>
       </c>
@@ -1801,8 +1918,11 @@
       <c r="AC50">
         <v>12</v>
       </c>
-    </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD50">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>25</v>
       </c>
@@ -1818,8 +1938,11 @@
       <c r="AC51">
         <v>55</v>
       </c>
-    </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD51">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>25</v>
       </c>
@@ -1835,8 +1958,11 @@
       <c r="AC52">
         <v>43</v>
       </c>
-    </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD52">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="54" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>35</v>
       </c>
@@ -1852,8 +1978,11 @@
       <c r="AC54">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD54">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>35</v>
       </c>
@@ -1869,8 +1998,11 @@
       <c r="AC55">
         <v>43</v>
       </c>
-    </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD55">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="56" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>35</v>
       </c>
@@ -1886,8 +2018,11 @@
       <c r="AC56">
         <v>51</v>
       </c>
-    </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD56">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="57" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>35</v>
       </c>
@@ -1903,8 +2038,11 @@
       <c r="AC57">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD57" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="59" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>36</v>
       </c>
@@ -1920,8 +2058,11 @@
       <c r="AC59">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>36</v>
       </c>
@@ -1937,8 +2078,11 @@
       <c r="AC60">
         <v>81</v>
       </c>
-    </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD60">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="61" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>36</v>
       </c>
@@ -1954,8 +2098,11 @@
       <c r="AC61">
         <v>81</v>
       </c>
-    </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD61">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="62" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>36</v>
       </c>
@@ -1969,6 +2116,9 @@
         <v>1</v>
       </c>
       <c r="AC62">
+        <v>1</v>
+      </c>
+      <c r="AD62">
         <v>1</v>
       </c>
     </row>
@@ -1980,10 +2130,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C10"/>
+  <dimension ref="A2:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1992,86 +2142,175 @@
     <col min="2" max="2" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="9">
         <v>43921</v>
       </c>
-      <c r="C2" s="4"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
-        <v>1</v>
-      </c>
-      <c r="B3" s="6">
+      <c r="C2" s="9">
+        <v>43922</v>
+      </c>
+      <c r="D2" s="9">
+        <v>43923</v>
+      </c>
+      <c r="E2" s="9">
+        <v>43924</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5">
         <v>65</v>
       </c>
-      <c r="C3" s="5"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="C3" s="4">
+        <v>75</v>
+      </c>
+      <c r="D3">
+        <v>84</v>
+      </c>
+      <c r="E3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
         <v>2</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>60</v>
       </c>
-      <c r="C4" s="5"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="C4" s="4">
+        <v>73</v>
+      </c>
+      <c r="D4">
+        <v>79</v>
+      </c>
+      <c r="E4">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
         <v>3</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>70</v>
       </c>
-      <c r="C5" s="5"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="C5" s="4">
+        <v>73</v>
+      </c>
+      <c r="D5">
+        <v>77</v>
+      </c>
+      <c r="E5">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
         <v>4</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>85</v>
       </c>
-      <c r="C6" s="5"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="C6" s="4">
+        <v>96</v>
+      </c>
+      <c r="D6">
+        <v>108</v>
+      </c>
+      <c r="E6">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
         <v>5</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>76</v>
       </c>
-      <c r="C7" s="5"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="C7" s="4">
+        <v>83</v>
+      </c>
+      <c r="D7">
+        <v>98</v>
+      </c>
+      <c r="E7">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
         <v>6</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>101</v>
       </c>
-      <c r="C8" s="5"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="C8" s="4">
+        <v>112</v>
+      </c>
+      <c r="D8">
+        <v>130</v>
+      </c>
+      <c r="E8">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
         <v>7</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>60</v>
       </c>
-      <c r="C9" s="5"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="C9" s="4">
+        <v>66</v>
+      </c>
+      <c r="D9">
+        <v>83</v>
+      </c>
+      <c r="E9">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
         <v>8</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>44</v>
       </c>
-      <c r="C10" s="5"/>
+      <c r="C10" s="4">
+        <v>51</v>
+      </c>
+      <c r="D10">
+        <v>58</v>
+      </c>
+      <c r="E10">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="6">
+        <v>25</v>
+      </c>
+      <c r="C11" s="4">
+        <v>24</v>
+      </c>
+      <c r="D11">
+        <v>40</v>
+      </c>
+      <c r="E11">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dcCovid-19DataSummaryToday.xlsx
+++ b/dcCovid-19DataSummaryToday.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephanie.Black4\Desktop\Coronavirus\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65932FE0-7F1C-49D4-9A54-9C2EC8546CEB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="825" yWindow="1335" windowWidth="15375" windowHeight="7875"/>
+    <workbookView xWindow="3810" yWindow="165" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,17 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="43">
   <si>
     <t>Testing</t>
   </si>
@@ -159,7 +160,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -532,19 +533,19 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD62"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AE62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="AD1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AD6" sqref="AD6"/>
+      <pane xSplit="2" topLeftCell="AB1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AE1" sqref="AE1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -553,7 +554,7 @@
     <col min="2" max="2" width="62.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C1" s="1">
         <v>43897</v>
       </c>
@@ -638,8 +639,11 @@
       <c r="AD1" s="1">
         <v>43924</v>
       </c>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE1" s="1">
+        <v>43925</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -663,7 +667,7 @@
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -733,8 +737,11 @@
       <c r="AD3">
         <v>6438</v>
       </c>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE3">
+        <v>6834</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -825,8 +832,11 @@
       <c r="AD4">
         <v>902</v>
       </c>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE4">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -899,8 +909,11 @@
       <c r="AD5">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -943,11 +956,14 @@
       <c r="AD6">
         <v>235</v>
       </c>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE6">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
@@ -984,8 +1000,11 @@
       <c r="AD8">
         <v>88</v>
       </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE8">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
@@ -1022,8 +1041,11 @@
       <c r="AD9">
         <v>432</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE9">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
@@ -1060,8 +1082,11 @@
       <c r="AD10">
         <v>198</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE10">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
@@ -1098,13 +1123,16 @@
       <c r="AD11">
         <v>234</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE11">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
@@ -1112,7 +1140,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>9</v>
       </c>
@@ -1155,8 +1183,11 @@
       <c r="AD15">
         <v>25</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>9</v>
       </c>
@@ -1190,8 +1221,11 @@
       <c r="AD16">
         <v>148</v>
       </c>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE16">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>9</v>
       </c>
@@ -1225,8 +1259,11 @@
       <c r="AD17">
         <v>173</v>
       </c>
-    </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE17">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>9</v>
       </c>
@@ -1260,13 +1297,16 @@
       <c r="AD18">
         <v>165</v>
       </c>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE18">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>10</v>
       </c>
@@ -1309,8 +1349,11 @@
       <c r="AD21">
         <v>17</v>
       </c>
-    </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE21">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>10</v>
       </c>
@@ -1344,8 +1387,11 @@
       <c r="AD22">
         <v>195</v>
       </c>
-    </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE22">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>10</v>
       </c>
@@ -1379,8 +1425,11 @@
       <c r="AD23">
         <v>213</v>
       </c>
-    </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE23">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>10</v>
       </c>
@@ -1414,13 +1463,16 @@
       <c r="AD24">
         <v>194</v>
       </c>
-    </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE24">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>22</v>
       </c>
@@ -1454,8 +1506,11 @@
       <c r="AD27">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>22</v>
       </c>
@@ -1489,8 +1544,11 @@
       <c r="AD28">
         <v>137</v>
       </c>
-    </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE28">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>22</v>
       </c>
@@ -1524,8 +1582,11 @@
       <c r="AD29">
         <v>140</v>
       </c>
-    </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE29">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>22</v>
       </c>
@@ -1559,13 +1620,16 @@
       <c r="AD30">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>19</v>
       </c>
@@ -1602,8 +1666,11 @@
       <c r="AD33">
         <v>12</v>
       </c>
-    </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE33">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>19</v>
       </c>
@@ -1637,8 +1704,11 @@
       <c r="AD34">
         <v>129</v>
       </c>
-    </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE34">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>19</v>
       </c>
@@ -1672,8 +1742,11 @@
       <c r="AD35">
         <v>141</v>
       </c>
-    </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE35">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>19</v>
       </c>
@@ -1707,13 +1780,16 @@
       <c r="AD36">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>21</v>
       </c>
@@ -1735,8 +1811,11 @@
       <c r="AD39">
         <v>3</v>
       </c>
-    </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>21</v>
       </c>
@@ -1758,8 +1837,11 @@
       <c r="AD40">
         <v>53</v>
       </c>
-    </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE40">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>21</v>
       </c>
@@ -1781,8 +1863,11 @@
       <c r="AD41">
         <v>56</v>
       </c>
-    </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE41">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>21</v>
       </c>
@@ -1804,8 +1889,11 @@
       <c r="AD42">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE42">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>23</v>
       </c>
@@ -1827,8 +1915,11 @@
       <c r="AD44">
         <v>2</v>
       </c>
-    </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>23</v>
       </c>
@@ -1850,8 +1941,11 @@
       <c r="AD45">
         <v>7</v>
       </c>
-    </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>23</v>
       </c>
@@ -1873,8 +1967,11 @@
       <c r="AD46">
         <v>9</v>
       </c>
-    </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE46">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>23</v>
       </c>
@@ -1896,13 +1993,16 @@
       <c r="AD47">
         <v>7</v>
       </c>
-    </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE47">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>25</v>
       </c>
@@ -1921,8 +2021,11 @@
       <c r="AD50">
         <v>12</v>
       </c>
-    </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE50">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>25</v>
       </c>
@@ -1941,8 +2044,11 @@
       <c r="AD51">
         <v>70</v>
       </c>
-    </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE51">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>25</v>
       </c>
@@ -1961,8 +2067,11 @@
       <c r="AD52">
         <v>59</v>
       </c>
-    </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE52">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>35</v>
       </c>
@@ -1981,8 +2090,11 @@
       <c r="AD54">
         <v>9</v>
       </c>
-    </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE54">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>35</v>
       </c>
@@ -2001,8 +2113,11 @@
       <c r="AD55">
         <v>39</v>
       </c>
-    </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE55">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>35</v>
       </c>
@@ -2021,8 +2136,11 @@
       <c r="AD56">
         <v>48</v>
       </c>
-    </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE56">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>35</v>
       </c>
@@ -2041,8 +2159,11 @@
       <c r="AD57" s="10" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE57" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="59" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>36</v>
       </c>
@@ -2061,8 +2182,11 @@
       <c r="AD59">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE59">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>36</v>
       </c>
@@ -2081,8 +2205,11 @@
       <c r="AD60">
         <v>124</v>
       </c>
-    </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE60">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>36</v>
       </c>
@@ -2101,8 +2228,11 @@
       <c r="AD61">
         <v>124</v>
       </c>
-    </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE61">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="62" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>36</v>
       </c>
@@ -2119,6 +2249,9 @@
         <v>1</v>
       </c>
       <c r="AD62">
+        <v>1</v>
+      </c>
+      <c r="AE62">
         <v>1</v>
       </c>
     </row>
@@ -2129,7 +2262,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/dcCovid-19DataSummaryToday.xlsx
+++ b/dcCovid-19DataSummaryToday.xlsx
@@ -1,20 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephanie.Black4\Desktop\Coronavirus\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65932FE0-7F1C-49D4-9A54-9C2EC8546CEB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="3810" yWindow="165" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3810" yWindow="165" windowWidth="15375" windowHeight="7875" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Ward-by-Ward Data" sheetId="2" r:id="rId2"/>
+    <sheet name="Total Cases by Ward" sheetId="2" r:id="rId2"/>
+    <sheet name="Total Cases by Race" sheetId="3" r:id="rId3"/>
+    <sheet name="Deaths by Race" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -26,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="57">
   <si>
     <t>Testing</t>
   </si>
@@ -155,12 +151,54 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>Race</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>Black/African American</t>
+  </si>
+  <si>
+    <t>Asian</t>
+  </si>
+  <si>
+    <t>American Indian/Alaska Native</t>
+  </si>
+  <si>
+    <t>Other/Multi-Racial</t>
+  </si>
+  <si>
+    <t>Refused During Interview</t>
+  </si>
+  <si>
+    <t>Ethnicity</t>
+  </si>
+  <si>
+    <t>Hispanic or Latino</t>
+  </si>
+  <si>
+    <t>NOT Hispanic or Latino</t>
+  </si>
+  <si>
+    <t>Hispanic/Latinx</t>
+  </si>
+  <si>
+    <t>Non-Hispanic White</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>To Be Confirmed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -205,7 +243,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -226,6 +264,25 @@
     <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -533,19 +590,19 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE62"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AF62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="AB1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AE1" sqref="AE1"/>
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="AE1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AF63" sqref="AF63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -554,7 +611,7 @@
     <col min="2" max="2" width="62.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="C1" s="1">
         <v>43897</v>
       </c>
@@ -642,8 +699,11 @@
       <c r="AE1" s="1">
         <v>43925</v>
       </c>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF1" s="1">
+        <v>43926</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -667,7 +727,7 @@
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -740,8 +800,11 @@
       <c r="AE3">
         <v>6834</v>
       </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF3">
+        <v>7453</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -835,8 +898,11 @@
       <c r="AE4">
         <v>998</v>
       </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF4">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -912,8 +978,11 @@
       <c r="AE5">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -959,11 +1028,14 @@
       <c r="AE6">
         <v>258</v>
       </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF6">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
@@ -1003,8 +1075,11 @@
       <c r="AE8">
         <v>87</v>
       </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF8">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
@@ -1044,8 +1119,11 @@
       <c r="AE9">
         <v>432</v>
       </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF9">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
@@ -1085,8 +1163,11 @@
       <c r="AE10">
         <v>178</v>
       </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF10">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
@@ -1126,13 +1207,16 @@
       <c r="AE11">
         <v>254</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF11">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
@@ -1140,7 +1224,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>9</v>
       </c>
@@ -1186,8 +1270,11 @@
       <c r="AE15">
         <v>32</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>9</v>
       </c>
@@ -1224,8 +1311,11 @@
       <c r="AE16">
         <v>156</v>
       </c>
-    </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF16">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>9</v>
       </c>
@@ -1262,8 +1352,11 @@
       <c r="AE17">
         <v>188</v>
       </c>
-    </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF17">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>9</v>
       </c>
@@ -1300,13 +1393,16 @@
       <c r="AE18">
         <v>176</v>
       </c>
-    </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF18">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>10</v>
       </c>
@@ -1352,8 +1448,11 @@
       <c r="AE21">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF21">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>10</v>
       </c>
@@ -1390,8 +1489,11 @@
       <c r="AE22">
         <v>203</v>
       </c>
-    </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF22">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>10</v>
       </c>
@@ -1428,8 +1530,11 @@
       <c r="AE23">
         <v>224</v>
       </c>
-    </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF23">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>10</v>
       </c>
@@ -1466,13 +1571,16 @@
       <c r="AE24">
         <v>203</v>
       </c>
-    </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF24">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>22</v>
       </c>
@@ -1509,8 +1617,11 @@
       <c r="AE27">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>22</v>
       </c>
@@ -1547,8 +1658,11 @@
       <c r="AE28">
         <v>137</v>
       </c>
-    </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF28">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>22</v>
       </c>
@@ -1585,8 +1699,11 @@
       <c r="AE29">
         <v>141</v>
       </c>
-    </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF29">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>22</v>
       </c>
@@ -1623,13 +1740,16 @@
       <c r="AE30">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>19</v>
       </c>
@@ -1669,8 +1789,11 @@
       <c r="AE33">
         <v>14</v>
       </c>
-    </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF33">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>19</v>
       </c>
@@ -1707,8 +1830,11 @@
       <c r="AE34">
         <v>126</v>
       </c>
-    </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF34">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>19</v>
       </c>
@@ -1745,8 +1871,11 @@
       <c r="AE35">
         <v>140</v>
       </c>
-    </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF35">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>19</v>
       </c>
@@ -1783,13 +1912,16 @@
       <c r="AE36">
         <v>2</v>
       </c>
-    </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>21</v>
       </c>
@@ -1814,8 +1946,11 @@
       <c r="AE39">
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>21</v>
       </c>
@@ -1840,8 +1975,11 @@
       <c r="AE40">
         <v>53</v>
       </c>
-    </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF40">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>21</v>
       </c>
@@ -1866,8 +2004,11 @@
       <c r="AE41">
         <v>55</v>
       </c>
-    </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF41">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>21</v>
       </c>
@@ -1892,8 +2033,11 @@
       <c r="AE42">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF42">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>23</v>
       </c>
@@ -1918,8 +2062,11 @@
       <c r="AE44">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>23</v>
       </c>
@@ -1944,8 +2091,11 @@
       <c r="AE45">
         <v>6</v>
       </c>
-    </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>23</v>
       </c>
@@ -1970,8 +2120,11 @@
       <c r="AE46">
         <v>9</v>
       </c>
-    </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF46">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>23</v>
       </c>
@@ -1996,13 +2149,16 @@
       <c r="AE47">
         <v>7</v>
       </c>
-    </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF47">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>25</v>
       </c>
@@ -2024,8 +2180,11 @@
       <c r="AE50">
         <v>15</v>
       </c>
-    </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF50">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>25</v>
       </c>
@@ -2047,8 +2206,11 @@
       <c r="AE51">
         <v>97</v>
       </c>
-    </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF51">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>25</v>
       </c>
@@ -2070,8 +2232,11 @@
       <c r="AE52">
         <v>83</v>
       </c>
-    </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF52">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>35</v>
       </c>
@@ -2093,8 +2258,11 @@
       <c r="AE54">
         <v>14</v>
       </c>
-    </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF54">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>35</v>
       </c>
@@ -2116,8 +2284,11 @@
       <c r="AE55">
         <v>53</v>
       </c>
-    </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF55">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>35</v>
       </c>
@@ -2139,8 +2310,11 @@
       <c r="AE56">
         <v>53</v>
       </c>
-    </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF56">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="57" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>35</v>
       </c>
@@ -2162,8 +2336,11 @@
       <c r="AE57" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF57" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="59" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>36</v>
       </c>
@@ -2185,8 +2362,11 @@
       <c r="AE59">
         <v>6</v>
       </c>
-    </row>
-    <row r="60" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF59">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>36</v>
       </c>
@@ -2208,8 +2388,11 @@
       <c r="AE60">
         <v>95</v>
       </c>
-    </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF60">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="61" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>36</v>
       </c>
@@ -2231,8 +2414,11 @@
       <c r="AE61">
         <v>95</v>
       </c>
-    </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF61">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="62" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>36</v>
       </c>
@@ -2252,6 +2438,9 @@
         <v>1</v>
       </c>
       <c r="AE62">
+        <v>1</v>
+      </c>
+      <c r="AF62">
         <v>1</v>
       </c>
     </row>
@@ -2262,11 +2451,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:E11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2275,7 +2464,7 @@
     <col min="2" max="2" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>34</v>
       </c>
@@ -2291,8 +2480,14 @@
       <c r="E2" s="9">
         <v>43924</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="9">
+        <v>43925</v>
+      </c>
+      <c r="G2" s="9">
+        <v>43926</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -2308,8 +2503,14 @@
       <c r="E3">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>107</v>
+      </c>
+      <c r="G3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -2325,8 +2526,14 @@
       <c r="E4">
         <v>92</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>92</v>
+      </c>
+      <c r="G4">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -2342,8 +2549,14 @@
       <c r="E5">
         <v>79</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>83</v>
+      </c>
+      <c r="G5">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>4</v>
       </c>
@@ -2359,8 +2572,14 @@
       <c r="E6">
         <v>135</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>145</v>
+      </c>
+      <c r="G6">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -2376,8 +2595,14 @@
       <c r="E7">
         <v>122</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>126</v>
+      </c>
+      <c r="G7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>6</v>
       </c>
@@ -2393,8 +2618,14 @@
       <c r="E8">
         <v>154</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>156</v>
+      </c>
+      <c r="G8">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -2410,8 +2641,14 @@
       <c r="E9">
         <v>104</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <v>117</v>
+      </c>
+      <c r="G9">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>8</v>
       </c>
@@ -2427,8 +2664,14 @@
       <c r="E10">
         <v>76</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <v>101</v>
+      </c>
+      <c r="G10">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>41</v>
       </c>
@@ -2443,10 +2686,235 @@
       </c>
       <c r="E11">
         <v>40</v>
+      </c>
+      <c r="F11">
+        <v>71</v>
+      </c>
+      <c r="G11">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="11"/>
+      <c r="B2" s="14">
+        <v>43926</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="13">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="13"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="13">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="13">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="13">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="13">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="13">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="13"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="13">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="13">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="13">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="13">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="13">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="4"/>
+      <c r="B1" s="15">
+        <v>43926</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="7"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="13">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/dcCovid-19DataSummaryToday.xlsx
+++ b/dcCovid-19DataSummaryToday.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="3810" yWindow="165" windowWidth="15375" windowHeight="7875" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="3810" yWindow="165" windowWidth="15375" windowHeight="7875"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Overal Stats" sheetId="1" r:id="rId1"/>
     <sheet name="Total Cases by Ward" sheetId="2" r:id="rId2"/>
     <sheet name="Total Cases by Race" sheetId="3" r:id="rId3"/>
-    <sheet name="Deaths by Race" sheetId="4" r:id="rId4"/>
+    <sheet name="Lives Lost by Race" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="57">
   <si>
     <t>Testing</t>
   </si>
@@ -243,7 +243,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -266,24 +266,21 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -598,11 +595,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF62"/>
+  <dimension ref="A1:AG62"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="AE1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AF63" sqref="AF63"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="Y1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AG1" sqref="AG1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -611,7 +608,7 @@
     <col min="2" max="2" width="62.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="C1" s="1">
         <v>43897</v>
       </c>
@@ -702,8 +699,11 @@
       <c r="AF1" s="1">
         <v>43926</v>
       </c>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG1" s="1">
+        <v>43927</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -727,7 +727,7 @@
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -803,8 +803,11 @@
       <c r="AF3">
         <v>7453</v>
       </c>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG3">
+        <v>7823</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -901,8 +904,11 @@
       <c r="AF4">
         <v>1097</v>
       </c>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG4">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -981,8 +987,11 @@
       <c r="AF5">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -1031,11 +1040,14 @@
       <c r="AF6">
         <v>287</v>
       </c>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG6">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
@@ -1078,8 +1090,11 @@
       <c r="AF8">
         <v>69</v>
       </c>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG8">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
@@ -1122,8 +1137,11 @@
       <c r="AF9">
         <v>432</v>
       </c>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG9">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
@@ -1166,8 +1184,11 @@
       <c r="AF10">
         <v>177</v>
       </c>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG10">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
@@ -1210,13 +1231,16 @@
       <c r="AF11">
         <v>255</v>
       </c>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG11">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
@@ -1224,7 +1248,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>9</v>
       </c>
@@ -1273,8 +1297,11 @@
       <c r="AF15">
         <v>33</v>
       </c>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG15">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>9</v>
       </c>
@@ -1314,8 +1341,11 @@
       <c r="AF16">
         <v>196</v>
       </c>
-    </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG16">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>9</v>
       </c>
@@ -1355,8 +1385,11 @@
       <c r="AF17">
         <v>196</v>
       </c>
-    </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG17">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>9</v>
       </c>
@@ -1396,13 +1429,16 @@
       <c r="AF18">
         <v>179</v>
       </c>
-    </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG18">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>10</v>
       </c>
@@ -1451,8 +1487,11 @@
       <c r="AF21">
         <v>23</v>
       </c>
-    </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG21">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>10</v>
       </c>
@@ -1492,8 +1531,11 @@
       <c r="AF22">
         <v>212</v>
       </c>
-    </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG22">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>10</v>
       </c>
@@ -1533,8 +1575,11 @@
       <c r="AF23">
         <v>235</v>
       </c>
-    </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG23">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>10</v>
       </c>
@@ -1574,13 +1619,16 @@
       <c r="AF24">
         <v>204</v>
       </c>
-    </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG24">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>22</v>
       </c>
@@ -1620,8 +1668,11 @@
       <c r="AF27">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>22</v>
       </c>
@@ -1661,8 +1712,11 @@
       <c r="AF28">
         <v>137</v>
       </c>
-    </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG28">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>22</v>
       </c>
@@ -1702,8 +1756,11 @@
       <c r="AF29">
         <v>141</v>
       </c>
-    </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG29">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>22</v>
       </c>
@@ -1743,13 +1800,16 @@
       <c r="AF30">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>19</v>
       </c>
@@ -1792,8 +1852,11 @@
       <c r="AF33">
         <v>18</v>
       </c>
-    </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG33">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>19</v>
       </c>
@@ -1833,8 +1896,11 @@
       <c r="AF34">
         <v>153</v>
       </c>
-    </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG34">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>19</v>
       </c>
@@ -1874,8 +1940,11 @@
       <c r="AF35">
         <v>171</v>
       </c>
-    </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG35">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>19</v>
       </c>
@@ -1915,13 +1984,16 @@
       <c r="AF36">
         <v>2</v>
       </c>
-    </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>21</v>
       </c>
@@ -1949,8 +2021,11 @@
       <c r="AF39">
         <v>3</v>
       </c>
-    </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>21</v>
       </c>
@@ -1978,8 +2053,11 @@
       <c r="AF40">
         <v>66</v>
       </c>
-    </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG40">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>21</v>
       </c>
@@ -2007,8 +2085,11 @@
       <c r="AF41">
         <v>69</v>
       </c>
-    </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG41">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>21</v>
       </c>
@@ -2036,8 +2117,11 @@
       <c r="AF42">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG42">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>23</v>
       </c>
@@ -2065,8 +2149,11 @@
       <c r="AF44">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>23</v>
       </c>
@@ -2094,8 +2181,11 @@
       <c r="AF45">
         <v>6</v>
       </c>
-    </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>23</v>
       </c>
@@ -2123,8 +2213,11 @@
       <c r="AF46">
         <v>9</v>
       </c>
-    </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG46">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>23</v>
       </c>
@@ -2152,13 +2245,16 @@
       <c r="AF47">
         <v>7</v>
       </c>
-    </row>
-    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>25</v>
       </c>
@@ -2183,8 +2279,11 @@
       <c r="AF50">
         <v>17</v>
       </c>
-    </row>
-    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG50">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>25</v>
       </c>
@@ -2209,8 +2308,11 @@
       <c r="AF51">
         <v>101</v>
       </c>
-    </row>
-    <row r="52" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG51">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>25</v>
       </c>
@@ -2235,8 +2337,11 @@
       <c r="AF52">
         <v>77</v>
       </c>
-    </row>
-    <row r="54" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG52">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>35</v>
       </c>
@@ -2261,8 +2366,11 @@
       <c r="AF54">
         <v>14</v>
       </c>
-    </row>
-    <row r="55" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG54">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>35</v>
       </c>
@@ -2287,8 +2395,11 @@
       <c r="AF55">
         <v>53</v>
       </c>
-    </row>
-    <row r="56" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG55">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>35</v>
       </c>
@@ -2313,8 +2424,11 @@
       <c r="AF56">
         <v>53</v>
       </c>
-    </row>
-    <row r="57" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG56">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>35</v>
       </c>
@@ -2339,8 +2453,11 @@
       <c r="AF57" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="59" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG57" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="59" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>36</v>
       </c>
@@ -2365,8 +2482,11 @@
       <c r="AF59">
         <v>7</v>
       </c>
-    </row>
-    <row r="60" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG59">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>36</v>
       </c>
@@ -2391,8 +2511,11 @@
       <c r="AF60">
         <v>95</v>
       </c>
-    </row>
-    <row r="61" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG60">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="61" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>36</v>
       </c>
@@ -2417,8 +2540,11 @@
       <c r="AF61">
         <v>95</v>
       </c>
-    </row>
-    <row r="62" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG61">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="62" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>36</v>
       </c>
@@ -2441,6 +2567,9 @@
         <v>1</v>
       </c>
       <c r="AF62">
+        <v>1</v>
+      </c>
+      <c r="AG62">
         <v>1</v>
       </c>
     </row>
@@ -2452,10 +2581,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G11"/>
+  <dimension ref="A2:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2464,7 +2593,7 @@
     <col min="2" max="2" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>34</v>
       </c>
@@ -2486,8 +2615,11 @@
       <c r="G2" s="9">
         <v>43926</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="9">
+        <v>43927</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -2509,8 +2641,11 @@
       <c r="G3">
         <v>119</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -2532,8 +2667,11 @@
       <c r="G4">
         <v>107</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -2555,8 +2693,11 @@
       <c r="G5">
         <v>89</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>4</v>
       </c>
@@ -2578,8 +2719,11 @@
       <c r="G6">
         <v>168</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -2601,8 +2745,11 @@
       <c r="G7">
         <v>136</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>6</v>
       </c>
@@ -2624,8 +2771,11 @@
       <c r="G8">
         <v>187</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -2647,8 +2797,11 @@
       <c r="G9">
         <v>138</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>8</v>
       </c>
@@ -2670,8 +2823,11 @@
       <c r="G10">
         <v>108</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>41</v>
       </c>
@@ -2692,6 +2848,9 @@
       </c>
       <c r="G11">
         <v>44</v>
+      </c>
+      <c r="H11">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -2702,159 +2861,199 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B18"/>
+  <dimension ref="A2:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" style="16" customWidth="1"/>
     <col min="2" max="2" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="14">
+    <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15"/>
+      <c r="B2" s="12">
         <v>43926</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="C2" s="9">
+        <v>43927</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="14">
         <v>1097</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="C3">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="13"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="B4" s="14"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="14">
         <v>349</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="C5">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="14">
         <v>135</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+      <c r="C6">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="14">
         <v>303</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+      <c r="C7">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="14">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
+      <c r="C8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="14">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
+      <c r="C9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="14">
         <v>78</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
+      <c r="C10">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="14">
         <v>210</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="14">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+      <c r="C12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="13"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
+      <c r="B13" s="14"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="14">
         <v>341</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
+      <c r="C14">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="14">
         <v>98</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
+      <c r="C15">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16" s="14">
         <v>517</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
+      <c r="C16">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="14">
         <v>139</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
+    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="13">
+      <c r="B18" s="14">
         <v>2</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2862,56 +3061,73 @@
     <col min="1" max="1" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="4"/>
-      <c r="B1" s="15">
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="9">
         <v>43926</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="9">
+        <v>43927</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>43</v>
       </c>
       <c r="B2" s="7"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="11">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="11">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="C4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="11">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+      <c r="C5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="11">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+      <c r="C6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="11">
         <v>2</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/dcCovid-19DataSummaryToday.xlsx
+++ b/dcCovid-19DataSummaryToday.xlsx
@@ -595,11 +595,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG62"/>
+  <dimension ref="A1:AH62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="Y1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AG1" sqref="AG1"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="AF1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AH61" sqref="AH61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -608,7 +608,7 @@
     <col min="2" max="2" width="62.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="C1" s="1">
         <v>43897</v>
       </c>
@@ -702,8 +702,11 @@
       <c r="AG1" s="1">
         <v>43927</v>
       </c>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH1" s="1">
+        <v>43928</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -727,7 +730,7 @@
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -806,8 +809,11 @@
       <c r="AG3">
         <v>7823</v>
       </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH3">
+        <v>8283</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -907,8 +913,11 @@
       <c r="AG4">
         <v>1211</v>
       </c>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH4">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -990,8 +999,11 @@
       <c r="AG5">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -1043,11 +1055,14 @@
       <c r="AG6">
         <v>318</v>
       </c>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH6">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
@@ -1093,8 +1108,11 @@
       <c r="AG8">
         <v>104</v>
       </c>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH8">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
@@ -1140,8 +1158,11 @@
       <c r="AG9">
         <v>432</v>
       </c>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH9">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
@@ -1187,8 +1208,11 @@
       <c r="AG10">
         <v>177</v>
       </c>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
@@ -1234,13 +1258,16 @@
       <c r="AG11">
         <v>255</v>
       </c>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH11">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
@@ -1248,7 +1275,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>9</v>
       </c>
@@ -1300,8 +1327,11 @@
       <c r="AG15">
         <v>34</v>
       </c>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>9</v>
       </c>
@@ -1344,8 +1374,11 @@
       <c r="AG16">
         <v>216</v>
       </c>
-    </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH16">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>9</v>
       </c>
@@ -1388,8 +1421,11 @@
       <c r="AG17">
         <v>250</v>
       </c>
-    </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH17">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>9</v>
       </c>
@@ -1432,13 +1468,16 @@
       <c r="AG18">
         <v>179</v>
       </c>
-    </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH18">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>10</v>
       </c>
@@ -1490,8 +1529,11 @@
       <c r="AG21">
         <v>26</v>
       </c>
-    </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH21">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>10</v>
       </c>
@@ -1534,8 +1576,11 @@
       <c r="AG22">
         <v>264</v>
       </c>
-    </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH22">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>10</v>
       </c>
@@ -1578,8 +1623,11 @@
       <c r="AG23">
         <v>290</v>
       </c>
-    </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH23">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>10</v>
       </c>
@@ -1622,13 +1670,16 @@
       <c r="AG24">
         <v>203</v>
       </c>
-    </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH24">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>22</v>
       </c>
@@ -1671,8 +1722,11 @@
       <c r="AG27">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH27">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>22</v>
       </c>
@@ -1715,8 +1769,11 @@
       <c r="AG28">
         <v>196</v>
       </c>
-    </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH28">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>22</v>
       </c>
@@ -1760,7 +1817,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>22</v>
       </c>
@@ -1803,13 +1860,16 @@
       <c r="AG30">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH30">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>19</v>
       </c>
@@ -1855,8 +1915,11 @@
       <c r="AG33">
         <v>20</v>
       </c>
-    </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH33">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>19</v>
       </c>
@@ -1899,8 +1962,11 @@
       <c r="AG34">
         <v>232</v>
       </c>
-    </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH34">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>19</v>
       </c>
@@ -1943,8 +2009,11 @@
       <c r="AG35">
         <v>252</v>
       </c>
-    </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH35">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>19</v>
       </c>
@@ -1987,13 +2056,16 @@
       <c r="AG36">
         <v>2</v>
       </c>
-    </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH36">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>21</v>
       </c>
@@ -2024,8 +2096,11 @@
       <c r="AG39">
         <v>4</v>
       </c>
-    </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>21</v>
       </c>
@@ -2056,8 +2131,11 @@
       <c r="AG40">
         <v>66</v>
       </c>
-    </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH40">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>21</v>
       </c>
@@ -2088,8 +2166,11 @@
       <c r="AG41">
         <v>70</v>
       </c>
-    </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH41">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>21</v>
       </c>
@@ -2120,8 +2201,11 @@
       <c r="AG42">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH42">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>23</v>
       </c>
@@ -2152,8 +2236,11 @@
       <c r="AG44">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>23</v>
       </c>
@@ -2184,8 +2271,11 @@
       <c r="AG45">
         <v>6</v>
       </c>
-    </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>23</v>
       </c>
@@ -2216,8 +2306,11 @@
       <c r="AG46">
         <v>9</v>
       </c>
-    </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH46">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>23</v>
       </c>
@@ -2248,13 +2341,16 @@
       <c r="AG47">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>25</v>
       </c>
@@ -2282,8 +2378,11 @@
       <c r="AG50">
         <v>19</v>
       </c>
-    </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH50">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>25</v>
       </c>
@@ -2311,8 +2410,11 @@
       <c r="AG51">
         <v>107</v>
       </c>
-    </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH51">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="52" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>25</v>
       </c>
@@ -2340,8 +2442,11 @@
       <c r="AG52">
         <v>93</v>
       </c>
-    </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH52">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="54" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>35</v>
       </c>
@@ -2369,8 +2474,11 @@
       <c r="AG54">
         <v>19</v>
       </c>
-    </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH54">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>35</v>
       </c>
@@ -2398,8 +2506,11 @@
       <c r="AG55">
         <v>61</v>
       </c>
-    </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH55">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="56" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>35</v>
       </c>
@@ -2427,8 +2538,11 @@
       <c r="AG56">
         <v>61</v>
       </c>
-    </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH56">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="57" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>35</v>
       </c>
@@ -2456,8 +2570,11 @@
       <c r="AG57" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>36</v>
       </c>
@@ -2485,8 +2602,11 @@
       <c r="AG59">
         <v>9</v>
       </c>
-    </row>
-    <row r="60" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH59">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>36</v>
       </c>
@@ -2514,8 +2634,11 @@
       <c r="AG60">
         <v>119</v>
       </c>
-    </row>
-    <row r="61" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH60">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="61" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>36</v>
       </c>
@@ -2544,7 +2667,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="62" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>36</v>
       </c>
@@ -2570,6 +2693,9 @@
         <v>1</v>
       </c>
       <c r="AG62">
+        <v>1</v>
+      </c>
+      <c r="AH62">
         <v>1</v>
       </c>
     </row>
@@ -2581,10 +2707,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H11"/>
+  <dimension ref="A2:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2593,7 +2719,7 @@
     <col min="2" max="2" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>34</v>
       </c>
@@ -2618,8 +2744,11 @@
       <c r="H2" s="9">
         <v>43927</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" s="9">
+        <v>43928</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -2645,7 +2774,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -2671,7 +2800,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -2697,7 +2826,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>4</v>
       </c>
@@ -2723,7 +2852,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -2749,7 +2878,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>6</v>
       </c>
@@ -2775,7 +2904,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -2801,7 +2930,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>8</v>
       </c>
@@ -2827,7 +2956,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>41</v>
       </c>
@@ -2861,10 +2990,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C18"/>
+  <dimension ref="A2:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2873,7 +3002,7 @@
     <col min="2" max="2" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15"/>
       <c r="B2" s="12">
         <v>43926</v>
@@ -2881,8 +3010,11 @@
       <c r="C2" s="9">
         <v>43927</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="9">
+        <v>43928</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>33</v>
       </c>
@@ -2893,13 +3025,13 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="14"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>41</v>
       </c>
@@ -2910,7 +3042,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>44</v>
       </c>
@@ -2921,7 +3053,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>45</v>
       </c>
@@ -2932,7 +3064,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>46</v>
       </c>
@@ -2943,7 +3075,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>47</v>
       </c>
@@ -2954,7 +3086,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>48</v>
       </c>
@@ -2965,7 +3097,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>56</v>
       </c>
@@ -2973,7 +3105,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>49</v>
       </c>
@@ -2984,13 +3116,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>50</v>
       </c>
       <c r="B13" s="14"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>41</v>
       </c>
@@ -3001,7 +3133,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>51</v>
       </c>
@@ -3012,7 +3144,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>52</v>
       </c>
@@ -3050,10 +3182,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3061,21 +3193,24 @@
     <col min="1" max="1" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="9">
         <v>43926</v>
       </c>
       <c r="C1" s="9">
         <v>43927</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="9">
+        <v>43928</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>43</v>
       </c>
       <c r="B2" s="7"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>46</v>
       </c>
@@ -3086,7 +3221,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>45</v>
       </c>
@@ -3097,7 +3232,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>53</v>
       </c>
@@ -3108,7 +3243,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>54</v>
       </c>
@@ -3119,7 +3254,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>55</v>
       </c>

--- a/dcCovid-19DataSummaryToday.xlsx
+++ b/dcCovid-19DataSummaryToday.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elizabeth.brooks\Desktop\Docs for Posting\Coronavirus\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCAF1F19-4E0E-4BE4-ADB4-D6397DED916A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3810" yWindow="165" windowWidth="15375" windowHeight="7875"/>
+    <workbookView xWindow="890" yWindow="1100" windowWidth="17560" windowHeight="8600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overal Stats" sheetId="1" r:id="rId1"/>
@@ -12,17 +18,23 @@
     <sheet name="Total Cases by Race" sheetId="3" r:id="rId3"/>
     <sheet name="Lives Lost by Race" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="58">
   <si>
     <t>Testing</t>
   </si>
@@ -192,13 +204,16 @@
     <t>Other</t>
   </si>
   <si>
-    <t>To Be Confirmed</t>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Native Hawaiin Pacific Islander</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -587,28 +602,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH62"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AI62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="AF1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AH61" sqref="AH61"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="AH1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AI63" sqref="AI63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.5703125" customWidth="1"/>
-    <col min="2" max="2" width="62.42578125" customWidth="1"/>
+    <col min="1" max="1" width="29.54296875" customWidth="1"/>
+    <col min="2" max="2" width="62.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.35">
       <c r="C1" s="1">
         <v>43897</v>
       </c>
@@ -705,8 +720,11 @@
       <c r="AH1" s="1">
         <v>43928</v>
       </c>
-    </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI1" s="1">
+        <v>43929</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -730,7 +748,7 @@
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -812,8 +830,11 @@
       <c r="AH3">
         <v>8283</v>
       </c>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI3">
+        <v>8724</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -916,8 +937,11 @@
       <c r="AH4">
         <v>1440</v>
       </c>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI4">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -1002,8 +1026,11 @@
       <c r="AH5">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -1058,11 +1085,14 @@
       <c r="AH6">
         <v>361</v>
       </c>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI6">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
@@ -1111,8 +1141,11 @@
       <c r="AH8">
         <v>107</v>
       </c>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI8">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
@@ -1161,8 +1194,11 @@
       <c r="AH9">
         <v>438</v>
       </c>
-    </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI9">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
@@ -1211,8 +1247,11 @@
       <c r="AH10">
         <v>200</v>
       </c>
-    </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI10">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
@@ -1261,13 +1300,16 @@
       <c r="AH11">
         <v>238</v>
       </c>
-    </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI11">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.35">
       <c r="B13" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
@@ -1275,7 +1317,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>9</v>
       </c>
@@ -1330,8 +1372,11 @@
       <c r="AH15">
         <v>40</v>
       </c>
-    </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>9</v>
       </c>
@@ -1377,8 +1422,11 @@
       <c r="AH16">
         <v>197</v>
       </c>
-    </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI16">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>9</v>
       </c>
@@ -1424,8 +1472,11 @@
       <c r="AH17">
         <v>237</v>
       </c>
-    </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI17">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>9</v>
       </c>
@@ -1471,13 +1522,16 @@
       <c r="AH18">
         <v>244</v>
       </c>
-    </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI18">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.35">
       <c r="B20" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>10</v>
       </c>
@@ -1532,8 +1586,11 @@
       <c r="AH21">
         <v>31</v>
       </c>
-    </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI21">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>10</v>
       </c>
@@ -1579,8 +1636,11 @@
       <c r="AH22">
         <v>284</v>
       </c>
-    </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI22">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>10</v>
       </c>
@@ -1626,8 +1686,11 @@
       <c r="AH23">
         <v>315</v>
       </c>
-    </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI23">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="24" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>10</v>
       </c>
@@ -1673,13 +1736,16 @@
       <c r="AH24">
         <v>223</v>
       </c>
-    </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI24">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="26" spans="1:35" x14ac:dyDescent="0.35">
       <c r="B26" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>22</v>
       </c>
@@ -1725,8 +1791,11 @@
       <c r="AH27">
         <v>7</v>
       </c>
-    </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI27">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>22</v>
       </c>
@@ -1772,8 +1841,11 @@
       <c r="AH28">
         <v>212</v>
       </c>
-    </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI28">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="29" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>22</v>
       </c>
@@ -1816,8 +1888,11 @@
       <c r="AG29">
         <v>201</v>
       </c>
-    </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI29">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="30" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>22</v>
       </c>
@@ -1863,13 +1938,16 @@
       <c r="AH30">
         <v>8</v>
       </c>
-    </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI30">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:35" x14ac:dyDescent="0.35">
       <c r="B32" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>19</v>
       </c>
@@ -1918,8 +1996,11 @@
       <c r="AH33">
         <v>28</v>
       </c>
-    </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI33">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>19</v>
       </c>
@@ -1965,8 +2046,11 @@
       <c r="AH34">
         <v>230</v>
       </c>
-    </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI34">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="35" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>19</v>
       </c>
@@ -2012,8 +2096,11 @@
       <c r="AH35">
         <v>258</v>
       </c>
-    </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="36" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>19</v>
       </c>
@@ -2059,13 +2146,16 @@
       <c r="AH36">
         <v>8</v>
       </c>
-    </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI36">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:35" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>21</v>
       </c>
@@ -2099,8 +2189,11 @@
       <c r="AH39">
         <v>4</v>
       </c>
-    </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>21</v>
       </c>
@@ -2134,8 +2227,11 @@
       <c r="AH40">
         <v>73</v>
       </c>
-    </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI40">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>21</v>
       </c>
@@ -2169,8 +2265,11 @@
       <c r="AH41">
         <v>77</v>
       </c>
-    </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI41">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>21</v>
       </c>
@@ -2204,8 +2303,11 @@
       <c r="AH42">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI42">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>23</v>
       </c>
@@ -2239,8 +2341,11 @@
       <c r="AH44">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>23</v>
       </c>
@@ -2274,8 +2379,11 @@
       <c r="AH45">
         <v>6</v>
       </c>
-    </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>23</v>
       </c>
@@ -2309,8 +2417,11 @@
       <c r="AH46">
         <v>9</v>
       </c>
-    </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI46">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>23</v>
       </c>
@@ -2344,13 +2455,16 @@
       <c r="AH47">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:35" x14ac:dyDescent="0.35">
       <c r="B49" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>25</v>
       </c>
@@ -2381,8 +2495,11 @@
       <c r="AH50">
         <v>19</v>
       </c>
-    </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI50">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
         <v>25</v>
       </c>
@@ -2413,8 +2530,11 @@
       <c r="AH51">
         <v>152</v>
       </c>
-    </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI51">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="52" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
         <v>25</v>
       </c>
@@ -2445,8 +2565,11 @@
       <c r="AH52">
         <v>140</v>
       </c>
-    </row>
-    <row r="54" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI52">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="54" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>35</v>
       </c>
@@ -2477,8 +2600,11 @@
       <c r="AH54">
         <v>22</v>
       </c>
-    </row>
-    <row r="55" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI54">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="55" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
         <v>35</v>
       </c>
@@ -2509,8 +2635,11 @@
       <c r="AH55">
         <v>69</v>
       </c>
-    </row>
-    <row r="56" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI55">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="56" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
         <v>35</v>
       </c>
@@ -2541,8 +2670,11 @@
       <c r="AH56">
         <v>69</v>
       </c>
-    </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI56">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="57" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
         <v>35</v>
       </c>
@@ -2573,8 +2705,11 @@
       <c r="AH57">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
         <v>36</v>
       </c>
@@ -2605,8 +2740,11 @@
       <c r="AH59">
         <v>11</v>
       </c>
-    </row>
-    <row r="60" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI59">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
         <v>36</v>
       </c>
@@ -2637,8 +2775,11 @@
       <c r="AH60">
         <v>142</v>
       </c>
-    </row>
-    <row r="61" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI60">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="61" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
         <v>36</v>
       </c>
@@ -2667,7 +2808,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="62" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
         <v>36</v>
       </c>
@@ -2696,6 +2837,9 @@
         <v>1</v>
       </c>
       <c r="AH62">
+        <v>1</v>
+      </c>
+      <c r="AI62">
         <v>1</v>
       </c>
     </row>
@@ -2706,20 +2850,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A2:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="1" max="1" width="22.453125" customWidth="1"/>
+    <col min="2" max="2" width="9.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>34</v>
       </c>
@@ -2747,8 +2891,11 @@
       <c r="I2" s="9">
         <v>43928</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="9">
+        <v>43929</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -2773,8 +2920,14 @@
       <c r="H3">
         <v>135</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I3">
+        <v>160</v>
+      </c>
+      <c r="J3">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -2799,8 +2952,14 @@
       <c r="H4">
         <v>117</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I4">
+        <v>134</v>
+      </c>
+      <c r="J4">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -2825,8 +2984,14 @@
       <c r="H5">
         <v>95</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I5">
+        <v>104</v>
+      </c>
+      <c r="J5">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
         <v>4</v>
       </c>
@@ -2851,8 +3016,14 @@
       <c r="H6">
         <v>185</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I6">
+        <v>223</v>
+      </c>
+      <c r="J6">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -2877,8 +3048,14 @@
       <c r="H7">
         <v>150</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I7">
+        <v>179</v>
+      </c>
+      <c r="J7">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="7">
         <v>6</v>
       </c>
@@ -2903,8 +3080,14 @@
       <c r="H8">
         <v>202</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I8">
+        <v>235</v>
+      </c>
+      <c r="J8">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -2929,8 +3112,14 @@
       <c r="H9">
         <v>154</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I9">
+        <v>186</v>
+      </c>
+      <c r="J9">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="7">
         <v>8</v>
       </c>
@@ -2955,8 +3144,14 @@
       <c r="H10">
         <v>128</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I10">
+        <v>168</v>
+      </c>
+      <c r="J10">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
         <v>41</v>
       </c>
@@ -2980,6 +3175,12 @@
       </c>
       <c r="H11">
         <v>45</v>
+      </c>
+      <c r="I11">
+        <v>51</v>
+      </c>
+      <c r="J11">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -2989,20 +3190,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A2:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" style="16" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.7265625" style="16" customWidth="1"/>
+    <col min="2" max="2" width="23.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="15"/>
       <c r="B2" s="12">
         <v>43926</v>
@@ -3014,24 +3215,32 @@
         <v>43928</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="14">
+        <v>43</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="14">
         <v>1097</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>1211</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="14"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>1440</v>
+      </c>
+      <c r="E4">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="14" t="s">
         <v>41</v>
       </c>
@@ -3041,8 +3250,14 @@
       <c r="C5">
         <v>596</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>604</v>
+      </c>
+      <c r="E5">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="14" t="s">
         <v>44</v>
       </c>
@@ -3052,8 +3267,14 @@
       <c r="C6">
         <v>154</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>218</v>
+      </c>
+      <c r="E6">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="14" t="s">
         <v>45</v>
       </c>
@@ -3063,8 +3284,14 @@
       <c r="C7">
         <v>353</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>460</v>
+      </c>
+      <c r="E7">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="14" t="s">
         <v>46</v>
       </c>
@@ -3074,8 +3301,14 @@
       <c r="C8">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>18</v>
+      </c>
+      <c r="E8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="14" t="s">
         <v>47</v>
       </c>
@@ -3085,27 +3318,43 @@
       <c r="C9">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B11" s="14">
         <v>78</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>80</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" s="14">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="14" t="s">
         <v>49</v>
       </c>
@@ -3115,14 +3364,20 @@
       <c r="C12">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>11</v>
+      </c>
+      <c r="E12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="15" t="s">
         <v>50</v>
       </c>
       <c r="B13" s="14"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="14" t="s">
         <v>41</v>
       </c>
@@ -3132,8 +3387,14 @@
       <c r="C14">
         <v>520</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>585</v>
+      </c>
+      <c r="E14">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="14" t="s">
         <v>51</v>
       </c>
@@ -3143,8 +3404,14 @@
       <c r="C15">
         <v>107</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>154</v>
+      </c>
+      <c r="E15">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="14" t="s">
         <v>52</v>
       </c>
@@ -3154,24 +3421,28 @@
       <c r="C16">
         <v>580</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>696</v>
+      </c>
+      <c r="E16">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="14" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B17" s="14">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" s="14">
         <v>2</v>
       </c>
-      <c r="C18">
+      <c r="C17">
         <v>4</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -3181,19 +3452,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="1" max="1" width="17.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B1" s="9">
         <v>43926</v>
       </c>
@@ -3204,65 +3475,113 @@
         <v>43928</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>43</v>
       </c>
       <c r="B2" s="7"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3">
+        <f ca="1">SUM(B3:B8)</f>
+        <v>24</v>
+      </c>
+      <c r="C3">
+        <v>22</v>
+      </c>
+      <c r="D3">
+        <v>27</v>
+      </c>
+      <c r="E3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B4" s="11">
         <v>2</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B5" s="11">
         <v>14</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="D5">
+        <v>15</v>
+      </c>
+      <c r="E5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B6" s="11">
         <v>2</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B7" s="11">
         <v>4</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B8" s="11">
         <v>2</v>
       </c>
-      <c r="C7">
-        <v>1</v>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/dcCovid-19DataSummaryToday.xlsx
+++ b/dcCovid-19DataSummaryToday.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elizabeth.brooks\Desktop\Docs for Posting\Coronavirus\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCAF1F19-4E0E-4BE4-ADB4-D6397DED916A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="890" yWindow="1100" windowWidth="17560" windowHeight="8600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3810" yWindow="165" windowWidth="15375" windowHeight="7875"/>
   </bookViews>
   <sheets>
     <sheet name="Overal Stats" sheetId="1" r:id="rId1"/>
@@ -18,23 +12,17 @@
     <sheet name="Total Cases by Race" sheetId="3" r:id="rId3"/>
     <sheet name="Lives Lost by Race" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="66">
   <si>
     <t>Testing</t>
   </si>
@@ -129,9 +117,6 @@
     <t>Total Ventilators</t>
   </si>
   <si>
-    <t>Total Number of Residents Who Currently Are Isolated/In Quarantine</t>
-  </si>
-  <si>
     <t>Of People in Remote Quarantine, Total Number from Shelters</t>
   </si>
   <si>
@@ -208,13 +193,40 @@
   </si>
   <si>
     <t>Native Hawaiin Pacific Islander</t>
+  </si>
+  <si>
+    <t>Total Number of Personnel Who Have Tested Positive</t>
+  </si>
+  <si>
+    <t>Total Number Personnel Recovered and Returned to Work</t>
+  </si>
+  <si>
+    <t>Total Number Personnel Recovered and  Returned to Work</t>
+  </si>
+  <si>
+    <t>Total Number Personnel Tested Positive and OUT</t>
+  </si>
+  <si>
+    <t>Total Number Personnel Who Have Tested Positve and OUT</t>
+  </si>
+  <si>
+    <t>Total Number of Residents Tested Positive in Isolation</t>
+  </si>
+  <si>
+    <t>Total Number of Residents Recovered</t>
+  </si>
+  <si>
+    <t>Total Number of Residents Who Have Tested Positive</t>
+  </si>
+  <si>
+    <t>Total Number of Residents Out Due to Positive Tests/Quarantine</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,6 +249,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -258,7 +276,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -296,6 +314,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -602,28 +626,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI62"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AK67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="AH1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AI63" sqref="AI63"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="AK1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B41" sqref="A41:B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.54296875" customWidth="1"/>
-    <col min="2" max="2" width="62.453125" customWidth="1"/>
+    <col min="1" max="1" width="29.5703125" customWidth="1"/>
+    <col min="2" max="2" width="62.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="C1" s="1">
         <v>43897</v>
       </c>
@@ -723,8 +747,14 @@
       <c r="AI1" s="1">
         <v>43929</v>
       </c>
-    </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AJ1" s="1">
+        <v>43930</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>43931</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -748,7 +778,7 @@
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -833,13 +863,19 @@
       <c r="AI3">
         <v>8724</v>
       </c>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AJ3">
+        <v>9355</v>
+      </c>
+      <c r="AK3">
+        <v>10039</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -940,8 +976,14 @@
       <c r="AI4">
         <v>1523</v>
       </c>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AJ4">
+        <v>1660</v>
+      </c>
+      <c r="AK4">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -1029,8 +1071,14 @@
       <c r="AI5">
         <v>32</v>
       </c>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AJ5">
+        <v>38</v>
+      </c>
+      <c r="AK5">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -1088,11 +1136,17 @@
       <c r="AI6">
         <v>393</v>
       </c>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AJ6">
+        <v>426</v>
+      </c>
+      <c r="AK6">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
@@ -1144,8 +1198,14 @@
       <c r="AI8">
         <v>105</v>
       </c>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AJ8">
+        <v>110</v>
+      </c>
+      <c r="AK8">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
@@ -1197,8 +1257,14 @@
       <c r="AI9">
         <v>440</v>
       </c>
-    </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AJ9">
+        <v>440</v>
+      </c>
+      <c r="AK9">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
@@ -1250,8 +1316,14 @@
       <c r="AI10">
         <v>206</v>
       </c>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AJ10">
+        <v>208</v>
+      </c>
+      <c r="AK10">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
@@ -1303,13 +1375,19 @@
       <c r="AI11">
         <v>234</v>
       </c>
-    </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AJ11">
+        <v>232</v>
+      </c>
+      <c r="AK11">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
@@ -1317,12 +1395,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="S15">
         <v>8</v>
@@ -1375,947 +1453,856 @@
       <c r="AI15">
         <v>49</v>
       </c>
-    </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AJ15">
+        <v>39</v>
+      </c>
+      <c r="AK15">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
-      </c>
-      <c r="V16">
-        <v>91</v>
-      </c>
-      <c r="W16">
-        <v>108</v>
-      </c>
-      <c r="X16">
-        <v>155</v>
-      </c>
-      <c r="Y16">
-        <v>177</v>
-      </c>
-      <c r="Z16">
-        <v>158</v>
-      </c>
-      <c r="AA16">
-        <v>173</v>
-      </c>
-      <c r="AB16">
-        <v>183</v>
-      </c>
-      <c r="AC16">
-        <v>145</v>
-      </c>
-      <c r="AD16">
-        <v>148</v>
-      </c>
-      <c r="AE16">
-        <v>156</v>
-      </c>
-      <c r="AF16">
-        <v>196</v>
-      </c>
-      <c r="AG16">
-        <v>216</v>
-      </c>
-      <c r="AH16">
-        <v>197</v>
-      </c>
-      <c r="AI16">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+      <c r="AK16">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
-      </c>
-      <c r="V17">
-        <v>103</v>
-      </c>
-      <c r="W17">
-        <v>120</v>
-      </c>
-      <c r="X17">
-        <v>147</v>
-      </c>
-      <c r="Y17">
-        <v>191</v>
-      </c>
-      <c r="Z17">
-        <v>172</v>
-      </c>
-      <c r="AA17">
-        <v>192</v>
-      </c>
-      <c r="AB17">
-        <v>204</v>
-      </c>
-      <c r="AC17">
-        <v>168</v>
-      </c>
-      <c r="AD17">
-        <v>173</v>
-      </c>
-      <c r="AE17">
-        <v>188</v>
-      </c>
-      <c r="AF17">
-        <v>196</v>
-      </c>
-      <c r="AG17">
-        <v>250</v>
-      </c>
-      <c r="AH17">
-        <v>237</v>
-      </c>
-      <c r="AI17">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+      <c r="AK17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="V18">
-        <v>132</v>
+        <v>91</v>
       </c>
       <c r="W18">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="X18">
         <v>155</v>
       </c>
       <c r="Y18">
+        <v>177</v>
+      </c>
+      <c r="Z18">
+        <v>158</v>
+      </c>
+      <c r="AA18">
+        <v>173</v>
+      </c>
+      <c r="AB18">
+        <v>183</v>
+      </c>
+      <c r="AC18">
+        <v>145</v>
+      </c>
+      <c r="AD18">
+        <v>148</v>
+      </c>
+      <c r="AE18">
+        <v>156</v>
+      </c>
+      <c r="AF18">
+        <v>196</v>
+      </c>
+      <c r="AG18">
+        <v>216</v>
+      </c>
+      <c r="AH18">
+        <v>197</v>
+      </c>
+      <c r="AI18">
+        <v>207</v>
+      </c>
+      <c r="AJ18">
+        <v>230</v>
+      </c>
+      <c r="AK18">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="V19">
+        <v>103</v>
+      </c>
+      <c r="W19">
+        <v>120</v>
+      </c>
+      <c r="X19">
+        <v>147</v>
+      </c>
+      <c r="Y19">
+        <v>191</v>
+      </c>
+      <c r="Z19">
+        <v>172</v>
+      </c>
+      <c r="AA19">
+        <v>192</v>
+      </c>
+      <c r="AB19">
+        <v>204</v>
+      </c>
+      <c r="AC19">
+        <v>168</v>
+      </c>
+      <c r="AD19">
+        <v>173</v>
+      </c>
+      <c r="AE19">
+        <v>188</v>
+      </c>
+      <c r="AF19">
+        <v>196</v>
+      </c>
+      <c r="AG19">
+        <v>250</v>
+      </c>
+      <c r="AH19">
+        <v>237</v>
+      </c>
+      <c r="AI19">
+        <v>248</v>
+      </c>
+      <c r="AJ19">
+        <v>269</v>
+      </c>
+      <c r="AK19">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="V20">
+        <v>132</v>
+      </c>
+      <c r="W20">
+        <v>119</v>
+      </c>
+      <c r="X20">
+        <v>155</v>
+      </c>
+      <c r="Y20">
         <v>149</v>
       </c>
-      <c r="Z18">
+      <c r="Z20">
         <v>147</v>
       </c>
-      <c r="AA18">
+      <c r="AA20">
         <v>152</v>
       </c>
-      <c r="AB18">
+      <c r="AB20">
         <v>152</v>
       </c>
-      <c r="AC18">
+      <c r="AC20">
         <v>158</v>
       </c>
-      <c r="AD18">
+      <c r="AD20">
         <v>165</v>
       </c>
-      <c r="AE18">
+      <c r="AE20">
         <v>176</v>
       </c>
-      <c r="AF18">
+      <c r="AF20">
         <v>179</v>
       </c>
-      <c r="AG18">
+      <c r="AG20">
         <v>179</v>
       </c>
-      <c r="AH18">
+      <c r="AH20">
         <v>244</v>
       </c>
-      <c r="AI18">
+      <c r="AI20">
         <v>270</v>
       </c>
-    </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="B20" s="3" t="s">
+      <c r="AJ20">
+        <v>300</v>
+      </c>
+      <c r="AK20">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B22" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A21" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" t="s">
-        <v>11</v>
-      </c>
-      <c r="S21">
-        <v>2</v>
-      </c>
-      <c r="T21">
-        <v>2</v>
-      </c>
-      <c r="U21">
-        <v>2</v>
-      </c>
-      <c r="V21">
-        <v>3</v>
-      </c>
-      <c r="W21">
-        <v>3</v>
-      </c>
-      <c r="X21">
-        <v>4</v>
-      </c>
-      <c r="Y21">
-        <v>5</v>
-      </c>
-      <c r="Z21">
-        <v>6</v>
-      </c>
-      <c r="AA21">
-        <v>13</v>
-      </c>
-      <c r="AB21">
-        <v>12</v>
-      </c>
-      <c r="AC21">
-        <v>15</v>
-      </c>
-      <c r="AD21">
-        <v>17</v>
-      </c>
-      <c r="AE21">
-        <v>21</v>
-      </c>
-      <c r="AF21">
-        <v>23</v>
-      </c>
-      <c r="AG21">
-        <v>26</v>
-      </c>
-      <c r="AH21">
-        <v>31</v>
-      </c>
-      <c r="AI21">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" t="s">
-        <v>12</v>
-      </c>
-      <c r="V22">
-        <v>136</v>
-      </c>
-      <c r="W22">
-        <v>154</v>
-      </c>
-      <c r="X22">
-        <v>154</v>
-      </c>
-      <c r="Y22">
-        <v>156</v>
-      </c>
-      <c r="Z22">
-        <v>170</v>
-      </c>
-      <c r="AA22">
-        <v>167</v>
-      </c>
-      <c r="AB22">
-        <v>180</v>
-      </c>
-      <c r="AC22">
-        <v>195</v>
-      </c>
-      <c r="AD22">
-        <v>195</v>
-      </c>
-      <c r="AE22">
-        <v>203</v>
-      </c>
-      <c r="AF22">
-        <v>212</v>
-      </c>
-      <c r="AG22">
-        <v>264</v>
-      </c>
-      <c r="AH22">
-        <v>284</v>
-      </c>
-      <c r="AI22">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B23" t="s">
+        <v>57</v>
+      </c>
+      <c r="S23">
+        <v>2</v>
+      </c>
+      <c r="T23">
+        <v>2</v>
+      </c>
+      <c r="U23">
+        <v>2</v>
+      </c>
+      <c r="V23">
+        <v>3</v>
+      </c>
+      <c r="W23">
+        <v>3</v>
+      </c>
+      <c r="X23">
+        <v>4</v>
+      </c>
+      <c r="Y23">
+        <v>5</v>
+      </c>
+      <c r="Z23">
+        <v>6</v>
+      </c>
+      <c r="AA23">
         <v>13</v>
       </c>
-      <c r="V23">
-        <v>139</v>
-      </c>
-      <c r="W23">
-        <v>157</v>
-      </c>
-      <c r="X23">
-        <v>158</v>
-      </c>
-      <c r="Y23">
-        <v>161</v>
-      </c>
-      <c r="Z23">
-        <v>176</v>
-      </c>
-      <c r="AA23">
-        <v>180</v>
-      </c>
       <c r="AB23">
-        <v>192</v>
+        <v>12</v>
       </c>
       <c r="AC23">
-        <v>210</v>
+        <v>15</v>
       </c>
       <c r="AD23">
-        <v>213</v>
+        <v>17</v>
       </c>
       <c r="AE23">
-        <v>224</v>
+        <v>21</v>
       </c>
       <c r="AF23">
-        <v>235</v>
+        <v>23</v>
       </c>
       <c r="AG23">
-        <v>290</v>
+        <v>26</v>
       </c>
       <c r="AH23">
-        <v>315</v>
+        <v>31</v>
       </c>
       <c r="AI23">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+      <c r="AJ23">
+        <v>35</v>
+      </c>
+      <c r="AK23">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B24" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK24">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" t="s">
+        <v>12</v>
+      </c>
+      <c r="V26">
+        <v>136</v>
+      </c>
+      <c r="W26">
+        <v>154</v>
+      </c>
+      <c r="X26">
+        <v>154</v>
+      </c>
+      <c r="Y26">
+        <v>156</v>
+      </c>
+      <c r="Z26">
+        <v>170</v>
+      </c>
+      <c r="AA26">
+        <v>167</v>
+      </c>
+      <c r="AB26">
+        <v>180</v>
+      </c>
+      <c r="AC26">
+        <v>195</v>
+      </c>
+      <c r="AD26">
+        <v>195</v>
+      </c>
+      <c r="AE26">
+        <v>203</v>
+      </c>
+      <c r="AF26">
+        <v>212</v>
+      </c>
+      <c r="AG26">
+        <v>264</v>
+      </c>
+      <c r="AH26">
+        <v>284</v>
+      </c>
+      <c r="AI26">
+        <v>289</v>
+      </c>
+      <c r="AJ26">
+        <v>270</v>
+      </c>
+      <c r="AK26">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" t="s">
+        <v>13</v>
+      </c>
+      <c r="V27">
+        <v>139</v>
+      </c>
+      <c r="W27">
+        <v>157</v>
+      </c>
+      <c r="X27">
+        <v>158</v>
+      </c>
+      <c r="Y27">
+        <v>161</v>
+      </c>
+      <c r="Z27">
+        <v>176</v>
+      </c>
+      <c r="AA27">
+        <v>180</v>
+      </c>
+      <c r="AB27">
+        <v>192</v>
+      </c>
+      <c r="AC27">
+        <v>210</v>
+      </c>
+      <c r="AD27">
+        <v>213</v>
+      </c>
+      <c r="AE27">
+        <v>224</v>
+      </c>
+      <c r="AF27">
+        <v>235</v>
+      </c>
+      <c r="AG27">
+        <v>290</v>
+      </c>
+      <c r="AH27">
+        <v>315</v>
+      </c>
+      <c r="AI27">
+        <v>325</v>
+      </c>
+      <c r="AJ27">
+        <v>305</v>
+      </c>
+      <c r="AK27">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" t="s">
         <v>14</v>
       </c>
-      <c r="V24">
+      <c r="V28">
         <v>103</v>
       </c>
-      <c r="W24">
+      <c r="W28">
         <v>112</v>
       </c>
-      <c r="X24">
+      <c r="X28">
         <v>112</v>
       </c>
-      <c r="Y24">
+      <c r="Y28">
         <v>116</v>
       </c>
-      <c r="Z24">
+      <c r="Z28">
         <v>136</v>
       </c>
-      <c r="AA24">
+      <c r="AA28">
         <v>153</v>
       </c>
-      <c r="AB24">
+      <c r="AB28">
         <v>159</v>
       </c>
-      <c r="AC24">
+      <c r="AC28">
         <v>175</v>
       </c>
-      <c r="AD24">
+      <c r="AD28">
         <v>194</v>
       </c>
-      <c r="AE24">
+      <c r="AE28">
         <v>203</v>
       </c>
-      <c r="AF24">
+      <c r="AF28">
         <v>204</v>
       </c>
-      <c r="AG24">
+      <c r="AG28">
         <v>203</v>
       </c>
-      <c r="AH24">
+      <c r="AH28">
         <v>223</v>
       </c>
-      <c r="AI24">
+      <c r="AI28">
         <v>247</v>
       </c>
-    </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="B26" s="3" t="s">
+      <c r="AJ28">
+        <v>299</v>
+      </c>
+      <c r="AK28">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B30" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A27" s="2" t="s">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B31" t="s">
         <v>11</v>
       </c>
-      <c r="V27">
-        <v>1</v>
-      </c>
-      <c r="W27">
-        <v>1</v>
-      </c>
-      <c r="X27">
-        <v>1</v>
-      </c>
-      <c r="Y27">
-        <v>1</v>
-      </c>
-      <c r="Z27">
-        <v>1</v>
-      </c>
-      <c r="AA27">
-        <v>1</v>
-      </c>
-      <c r="AB27">
+      <c r="V31">
+        <v>1</v>
+      </c>
+      <c r="W31">
+        <v>1</v>
+      </c>
+      <c r="X31">
+        <v>1</v>
+      </c>
+      <c r="Y31">
+        <v>1</v>
+      </c>
+      <c r="Z31">
+        <v>1</v>
+      </c>
+      <c r="AA31">
+        <v>1</v>
+      </c>
+      <c r="AB31">
         <v>2</v>
       </c>
-      <c r="AC27">
+      <c r="AC31">
         <v>3</v>
       </c>
-      <c r="AD27">
+      <c r="AD31">
         <v>3</v>
       </c>
-      <c r="AE27">
+      <c r="AE31">
         <v>4</v>
       </c>
-      <c r="AF27">
+      <c r="AF31">
         <v>4</v>
       </c>
-      <c r="AG27">
+      <c r="AG31">
         <v>5</v>
       </c>
-      <c r="AH27">
+      <c r="AH31">
         <v>7</v>
       </c>
-      <c r="AI27">
+      <c r="AI31">
         <v>11</v>
       </c>
-    </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A28" s="2" t="s">
+      <c r="AJ31">
+        <v>11</v>
+      </c>
+      <c r="AK31">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B32" t="s">
         <v>12</v>
       </c>
-      <c r="V28">
+      <c r="V32">
         <v>16</v>
       </c>
-      <c r="W28">
+      <c r="W32">
         <v>71</v>
       </c>
-      <c r="X28">
+      <c r="X32">
         <v>71</v>
       </c>
-      <c r="Y28">
+      <c r="Y32">
         <v>71</v>
       </c>
-      <c r="Z28">
+      <c r="Z32">
         <v>102</v>
       </c>
-      <c r="AA28">
+      <c r="AA32">
         <v>112</v>
       </c>
-      <c r="AB28">
+      <c r="AB32">
         <v>114</v>
       </c>
-      <c r="AC28">
+      <c r="AC32">
         <v>132</v>
       </c>
-      <c r="AD28">
+      <c r="AD32">
         <v>137</v>
       </c>
-      <c r="AE28">
+      <c r="AE32">
         <v>137</v>
       </c>
-      <c r="AF28">
+      <c r="AF32">
         <v>137</v>
       </c>
-      <c r="AG28">
+      <c r="AG32">
         <v>196</v>
       </c>
-      <c r="AH28">
+      <c r="AH32">
         <v>212</v>
       </c>
-      <c r="AI28">
+      <c r="AI32">
         <v>201</v>
       </c>
-    </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A29" s="2" t="s">
+      <c r="AJ32">
+        <v>190</v>
+      </c>
+      <c r="AK32">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B33" t="s">
         <v>13</v>
       </c>
-      <c r="V29">
+      <c r="V33">
         <v>17</v>
       </c>
-      <c r="W29">
+      <c r="W33">
         <v>72</v>
       </c>
-      <c r="X29">
+      <c r="X33">
         <v>72</v>
       </c>
-      <c r="Y29">
+      <c r="Y33">
         <v>72</v>
       </c>
-      <c r="Z29">
+      <c r="Z33">
         <v>103</v>
       </c>
-      <c r="AA29">
+      <c r="AA33">
         <v>113</v>
       </c>
-      <c r="AB29">
+      <c r="AB33">
         <v>116</v>
       </c>
-      <c r="AC29">
+      <c r="AC33">
         <v>135</v>
       </c>
-      <c r="AD29">
+      <c r="AD33">
         <v>140</v>
       </c>
-      <c r="AE29">
+      <c r="AE33">
         <v>141</v>
       </c>
-      <c r="AF29">
+      <c r="AF33">
         <v>141</v>
       </c>
-      <c r="AG29">
+      <c r="AG33">
         <v>201</v>
       </c>
-      <c r="AI29">
+      <c r="AI33">
         <v>208</v>
       </c>
-    </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A30" s="2" t="s">
+      <c r="AJ33">
+        <v>201</v>
+      </c>
+      <c r="AK33">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B34" t="s">
         <v>14</v>
       </c>
-      <c r="V30">
+      <c r="V34">
         <v>0</v>
       </c>
-      <c r="W30">
+      <c r="W34">
         <v>0</v>
       </c>
-      <c r="X30">
+      <c r="X34">
         <v>0</v>
       </c>
-      <c r="Y30">
+      <c r="Y34">
         <v>0</v>
       </c>
-      <c r="Z30">
+      <c r="Z34">
         <v>0</v>
       </c>
-      <c r="AA30">
+      <c r="AA34">
         <v>0</v>
       </c>
-      <c r="AB30">
+      <c r="AB34">
         <v>0</v>
       </c>
-      <c r="AC30">
-        <v>1</v>
-      </c>
-      <c r="AD30">
-        <v>1</v>
-      </c>
-      <c r="AE30">
-        <v>1</v>
-      </c>
-      <c r="AF30">
-        <v>1</v>
-      </c>
-      <c r="AG30">
+      <c r="AC34">
+        <v>1</v>
+      </c>
+      <c r="AD34">
+        <v>1</v>
+      </c>
+      <c r="AE34">
+        <v>1</v>
+      </c>
+      <c r="AF34">
+        <v>1</v>
+      </c>
+      <c r="AG34">
         <v>2</v>
       </c>
-      <c r="AH30">
+      <c r="AH34">
         <v>8</v>
       </c>
-      <c r="AI30">
+      <c r="AI34">
         <v>8</v>
       </c>
-    </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="B32" s="3" t="s">
+      <c r="AJ34">
+        <v>14</v>
+      </c>
+      <c r="AK34">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B36" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A33" s="2" t="s">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B33" t="s">
-        <v>15</v>
-      </c>
-      <c r="U33">
+      <c r="B37" t="s">
+        <v>64</v>
+      </c>
+      <c r="U37">
         <v>0</v>
       </c>
-      <c r="V33">
-        <v>1</v>
-      </c>
-      <c r="W33">
-        <v>1</v>
-      </c>
-      <c r="X33">
+      <c r="V37">
+        <v>1</v>
+      </c>
+      <c r="W37">
+        <v>1</v>
+      </c>
+      <c r="X37">
         <v>3</v>
       </c>
-      <c r="Y33">
+      <c r="Y37">
         <v>4</v>
       </c>
-      <c r="Z33">
+      <c r="Z37">
         <v>5</v>
       </c>
-      <c r="AA33">
+      <c r="AA37">
         <v>6</v>
       </c>
-      <c r="AB33">
+      <c r="AB37">
         <v>6</v>
       </c>
-      <c r="AC33">
+      <c r="AC37">
         <v>12</v>
       </c>
-      <c r="AD33">
+      <c r="AD37">
         <v>12</v>
       </c>
-      <c r="AE33">
+      <c r="AE37">
         <v>14</v>
       </c>
-      <c r="AF33">
+      <c r="AF37">
         <v>18</v>
       </c>
-      <c r="AG33">
+      <c r="AG37">
         <v>20</v>
       </c>
-      <c r="AH33">
+      <c r="AH37">
         <v>28</v>
       </c>
-      <c r="AI33">
+      <c r="AI37">
         <v>37</v>
       </c>
-    </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A34" s="2" t="s">
+      <c r="AJ37">
+        <v>33</v>
+      </c>
+      <c r="AK37">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B38" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK38">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" t="s">
+        <v>63</v>
+      </c>
+      <c r="AK39">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B40" t="s">
         <v>16</v>
       </c>
-      <c r="V34">
+      <c r="V40">
         <v>36</v>
       </c>
-      <c r="W34">
+      <c r="W40">
         <v>39</v>
       </c>
-      <c r="X34">
+      <c r="X40">
         <v>85</v>
       </c>
-      <c r="Y34">
+      <c r="Y40">
         <v>83</v>
       </c>
-      <c r="Z34">
+      <c r="Z40">
         <v>83</v>
       </c>
-      <c r="AA34">
+      <c r="AA40">
         <v>82</v>
       </c>
-      <c r="AB34">
+      <c r="AB40">
         <v>80</v>
       </c>
-      <c r="AC34">
+      <c r="AC40">
         <v>129</v>
       </c>
-      <c r="AD34">
+      <c r="AD40">
         <v>129</v>
       </c>
-      <c r="AE34">
+      <c r="AE40">
         <v>126</v>
       </c>
-      <c r="AF34">
+      <c r="AF40">
         <v>153</v>
       </c>
-      <c r="AG34">
+      <c r="AG40">
         <v>232</v>
       </c>
-      <c r="AH34">
+      <c r="AH40">
         <v>230</v>
       </c>
-      <c r="AI34">
+      <c r="AI40">
         <v>230</v>
       </c>
-    </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A35" s="2" t="s">
+      <c r="AJ40">
+        <v>230</v>
+      </c>
+      <c r="AK40">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B35" t="s">
-        <v>31</v>
-      </c>
-      <c r="V35">
-        <v>37</v>
-      </c>
-      <c r="W35">
-        <v>40</v>
-      </c>
-      <c r="X35">
-        <v>88</v>
-      </c>
-      <c r="Y35">
-        <v>87</v>
-      </c>
-      <c r="Z35">
-        <v>88</v>
-      </c>
-      <c r="AA35">
-        <v>88</v>
-      </c>
-      <c r="AB35">
-        <v>86</v>
-      </c>
-      <c r="AC35">
-        <v>141</v>
-      </c>
-      <c r="AD35">
-        <v>141</v>
-      </c>
-      <c r="AE35">
-        <v>140</v>
-      </c>
-      <c r="AF35">
-        <v>171</v>
-      </c>
-      <c r="AG35">
-        <v>252</v>
-      </c>
-      <c r="AH35">
-        <v>258</v>
-      </c>
-      <c r="AI35">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A36" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B36" t="s">
-        <v>18</v>
-      </c>
-      <c r="V36">
-        <v>67</v>
-      </c>
-      <c r="W36">
-        <v>67</v>
-      </c>
-      <c r="X36">
-        <v>67</v>
-      </c>
-      <c r="Y36">
-        <v>67</v>
-      </c>
-      <c r="Z36">
-        <v>67</v>
-      </c>
-      <c r="AA36">
-        <v>67</v>
-      </c>
-      <c r="AB36">
-        <v>67</v>
-      </c>
-      <c r="AC36">
+      <c r="B41" t="s">
+        <v>65</v>
+      </c>
+      <c r="AK41">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="43" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B44" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z44">
         <v>0</v>
-      </c>
-      <c r="AD36">
-        <v>0</v>
-      </c>
-      <c r="AE36">
-        <v>2</v>
-      </c>
-      <c r="AF36">
-        <v>2</v>
-      </c>
-      <c r="AG36">
-        <v>2</v>
-      </c>
-      <c r="AH36">
-        <v>8</v>
-      </c>
-      <c r="AI36">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="B38" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A39" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B39" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z39">
-        <v>0</v>
-      </c>
-      <c r="AA39">
-        <v>1</v>
-      </c>
-      <c r="AB39">
-        <v>2</v>
-      </c>
-      <c r="AC39">
-        <v>2</v>
-      </c>
-      <c r="AD39">
-        <v>3</v>
-      </c>
-      <c r="AE39">
-        <v>2</v>
-      </c>
-      <c r="AF39">
-        <v>3</v>
-      </c>
-      <c r="AG39">
-        <v>4</v>
-      </c>
-      <c r="AH39">
-        <v>4</v>
-      </c>
-      <c r="AI39">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A40" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B40" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z40">
-        <v>40</v>
-      </c>
-      <c r="AA40">
-        <v>54</v>
-      </c>
-      <c r="AB40">
-        <v>54</v>
-      </c>
-      <c r="AC40">
-        <v>51</v>
-      </c>
-      <c r="AD40">
-        <v>53</v>
-      </c>
-      <c r="AE40">
-        <v>53</v>
-      </c>
-      <c r="AF40">
-        <v>66</v>
-      </c>
-      <c r="AG40">
-        <v>66</v>
-      </c>
-      <c r="AH40">
-        <v>73</v>
-      </c>
-      <c r="AI40">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A41" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B41" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z41">
-        <v>40</v>
-      </c>
-      <c r="AA41">
-        <v>55</v>
-      </c>
-      <c r="AB41">
-        <v>56</v>
-      </c>
-      <c r="AC41">
-        <v>53</v>
-      </c>
-      <c r="AD41">
-        <v>56</v>
-      </c>
-      <c r="AE41">
-        <v>55</v>
-      </c>
-      <c r="AF41">
-        <v>69</v>
-      </c>
-      <c r="AG41">
-        <v>70</v>
-      </c>
-      <c r="AH41">
-        <v>77</v>
-      </c>
-      <c r="AI41">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A42" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B42" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z42">
-        <v>8</v>
-      </c>
-      <c r="AA42">
-        <v>8</v>
-      </c>
-      <c r="AB42">
-        <v>8</v>
-      </c>
-      <c r="AC42">
-        <v>8</v>
-      </c>
-      <c r="AD42">
-        <v>8</v>
-      </c>
-      <c r="AE42">
-        <v>8</v>
-      </c>
-      <c r="AF42">
-        <v>8</v>
-      </c>
-      <c r="AG42">
-        <v>8</v>
-      </c>
-      <c r="AH42">
-        <v>8</v>
-      </c>
-      <c r="AI42">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A44" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B44" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z44">
-        <v>1</v>
       </c>
       <c r="AA44">
         <v>1</v>
@@ -2327,520 +2314,780 @@
         <v>2</v>
       </c>
       <c r="AD44">
+        <v>3</v>
+      </c>
+      <c r="AE44">
         <v>2</v>
-      </c>
-      <c r="AE44">
-        <v>3</v>
       </c>
       <c r="AF44">
         <v>3</v>
       </c>
       <c r="AG44">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH44">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI44">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+      <c r="AJ44">
+        <v>5</v>
+      </c>
+      <c r="AK44">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B45" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="Z45">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="AA45">
         <v>54</v>
       </c>
       <c r="AB45">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="AC45">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="AD45">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="AE45">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="AF45">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="AG45">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="AH45">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="AI45">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.35">
+        <v>87</v>
+      </c>
+      <c r="AJ45">
+        <v>87</v>
+      </c>
+      <c r="AK45">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B46" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="Z46">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="AA46">
         <v>55</v>
       </c>
       <c r="AB46">
+        <v>56</v>
+      </c>
+      <c r="AC46">
+        <v>53</v>
+      </c>
+      <c r="AD46">
+        <v>56</v>
+      </c>
+      <c r="AE46">
+        <v>55</v>
+      </c>
+      <c r="AF46">
+        <v>69</v>
+      </c>
+      <c r="AG46">
+        <v>70</v>
+      </c>
+      <c r="AH46">
+        <v>77</v>
+      </c>
+      <c r="AI46">
+        <v>91</v>
+      </c>
+      <c r="AJ46">
+        <v>92</v>
+      </c>
+      <c r="AK46">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="47" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B47" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z47">
         <v>8</v>
-      </c>
-      <c r="AC46">
-        <v>9</v>
-      </c>
-      <c r="AD46">
-        <v>9</v>
-      </c>
-      <c r="AE46">
-        <v>9</v>
-      </c>
-      <c r="AF46">
-        <v>9</v>
-      </c>
-      <c r="AG46">
-        <v>9</v>
-      </c>
-      <c r="AH46">
-        <v>9</v>
-      </c>
-      <c r="AI46">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A47" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B47" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z47">
-        <v>0</v>
       </c>
       <c r="AA47">
         <v>8</v>
       </c>
       <c r="AB47">
+        <v>8</v>
+      </c>
+      <c r="AC47">
+        <v>8</v>
+      </c>
+      <c r="AD47">
+        <v>8</v>
+      </c>
+      <c r="AE47">
+        <v>8</v>
+      </c>
+      <c r="AF47">
+        <v>8</v>
+      </c>
+      <c r="AG47">
+        <v>8</v>
+      </c>
+      <c r="AH47">
+        <v>8</v>
+      </c>
+      <c r="AI47">
+        <v>8</v>
+      </c>
+      <c r="AJ47">
+        <v>8</v>
+      </c>
+      <c r="AK47">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B49" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z49">
+        <v>1</v>
+      </c>
+      <c r="AA49">
+        <v>1</v>
+      </c>
+      <c r="AB49">
+        <v>2</v>
+      </c>
+      <c r="AC49">
+        <v>2</v>
+      </c>
+      <c r="AD49">
+        <v>2</v>
+      </c>
+      <c r="AE49">
+        <v>3</v>
+      </c>
+      <c r="AF49">
+        <v>3</v>
+      </c>
+      <c r="AG49">
+        <v>3</v>
+      </c>
+      <c r="AH49">
+        <v>3</v>
+      </c>
+      <c r="AI49">
+        <v>3</v>
+      </c>
+      <c r="AJ49">
+        <v>4</v>
+      </c>
+      <c r="AK49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B50" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z50">
         <v>7</v>
       </c>
-      <c r="AC47">
+      <c r="AA50">
+        <v>54</v>
+      </c>
+      <c r="AB50">
+        <v>6</v>
+      </c>
+      <c r="AC50">
         <v>7</v>
       </c>
-      <c r="AD47">
+      <c r="AD50">
         <v>7</v>
       </c>
-      <c r="AE47">
+      <c r="AE50">
+        <v>6</v>
+      </c>
+      <c r="AF50">
+        <v>6</v>
+      </c>
+      <c r="AG50">
+        <v>6</v>
+      </c>
+      <c r="AH50">
+        <v>6</v>
+      </c>
+      <c r="AI50">
+        <v>6</v>
+      </c>
+      <c r="AJ50">
         <v>7</v>
       </c>
-      <c r="AF47">
+      <c r="AK50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B51" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z51">
+        <v>8</v>
+      </c>
+      <c r="AA51">
+        <v>55</v>
+      </c>
+      <c r="AB51">
+        <v>8</v>
+      </c>
+      <c r="AC51">
+        <v>9</v>
+      </c>
+      <c r="AD51">
+        <v>9</v>
+      </c>
+      <c r="AE51">
+        <v>9</v>
+      </c>
+      <c r="AF51">
+        <v>9</v>
+      </c>
+      <c r="AG51">
+        <v>9</v>
+      </c>
+      <c r="AH51">
+        <v>9</v>
+      </c>
+      <c r="AI51">
+        <v>9</v>
+      </c>
+      <c r="AJ51">
+        <v>11</v>
+      </c>
+      <c r="AK51">
         <v>7</v>
       </c>
-      <c r="AG47">
+    </row>
+    <row r="52" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B52" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z52">
         <v>0</v>
       </c>
-      <c r="AH47">
+      <c r="AA52">
+        <v>8</v>
+      </c>
+      <c r="AB52">
+        <v>7</v>
+      </c>
+      <c r="AC52">
+        <v>7</v>
+      </c>
+      <c r="AD52">
+        <v>7</v>
+      </c>
+      <c r="AE52">
+        <v>7</v>
+      </c>
+      <c r="AF52">
+        <v>7</v>
+      </c>
+      <c r="AG52">
         <v>0</v>
       </c>
-      <c r="AI47">
+      <c r="AH52">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="B49" s="2" t="s">
+      <c r="AI52">
+        <v>0</v>
+      </c>
+      <c r="AJ52">
+        <v>0</v>
+      </c>
+      <c r="AK52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B54" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A50" s="2" t="s">
+    <row r="55" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B55" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA55">
+        <v>5</v>
+      </c>
+      <c r="AB55">
+        <v>8</v>
+      </c>
+      <c r="AC55">
+        <v>12</v>
+      </c>
+      <c r="AD55">
+        <v>12</v>
+      </c>
+      <c r="AE55">
+        <v>15</v>
+      </c>
+      <c r="AF55">
+        <v>17</v>
+      </c>
+      <c r="AG55">
+        <v>19</v>
+      </c>
+      <c r="AH55">
+        <v>19</v>
+      </c>
+      <c r="AI55">
+        <v>22</v>
+      </c>
+      <c r="AJ55">
+        <v>22</v>
+      </c>
+      <c r="AK55">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="56" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B56" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA56">
+        <v>48</v>
+      </c>
+      <c r="AB56">
+        <v>55</v>
+      </c>
+      <c r="AC56">
+        <v>55</v>
+      </c>
+      <c r="AD56">
+        <v>70</v>
+      </c>
+      <c r="AE56">
+        <v>97</v>
+      </c>
+      <c r="AF56">
+        <v>101</v>
+      </c>
+      <c r="AG56">
+        <v>107</v>
+      </c>
+      <c r="AH56">
+        <v>152</v>
+      </c>
+      <c r="AI56">
+        <v>155</v>
+      </c>
+      <c r="AJ56">
+        <v>161</v>
+      </c>
+      <c r="AK56">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="57" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B57" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA57">
+        <v>35</v>
+      </c>
+      <c r="AB57">
+        <v>43</v>
+      </c>
+      <c r="AC57">
+        <v>43</v>
+      </c>
+      <c r="AD57">
+        <v>59</v>
+      </c>
+      <c r="AE57">
+        <v>83</v>
+      </c>
+      <c r="AF57">
+        <v>77</v>
+      </c>
+      <c r="AG57">
+        <v>93</v>
+      </c>
+      <c r="AH57">
+        <v>140</v>
+      </c>
+      <c r="AI57">
+        <v>145</v>
+      </c>
+      <c r="AJ57">
+        <v>145</v>
+      </c>
+      <c r="AK57">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="59" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B59" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA59">
+        <v>5</v>
+      </c>
+      <c r="AB59">
+        <v>5</v>
+      </c>
+      <c r="AC59">
+        <v>8</v>
+      </c>
+      <c r="AD59">
+        <v>9</v>
+      </c>
+      <c r="AE59">
+        <v>14</v>
+      </c>
+      <c r="AF59">
+        <v>14</v>
+      </c>
+      <c r="AG59">
+        <v>19</v>
+      </c>
+      <c r="AH59">
+        <v>22</v>
+      </c>
+      <c r="AI59">
+        <v>29</v>
+      </c>
+      <c r="AJ59">
+        <v>30</v>
+      </c>
+      <c r="AK59">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="60" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B60" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA60">
+        <v>22</v>
+      </c>
+      <c r="AB60">
         <v>40</v>
       </c>
-      <c r="AA50">
-        <v>5</v>
-      </c>
-      <c r="AB50">
-        <v>8</v>
-      </c>
-      <c r="AC50">
-        <v>12</v>
-      </c>
-      <c r="AD50">
-        <v>12</v>
-      </c>
-      <c r="AE50">
-        <v>15</v>
-      </c>
-      <c r="AF50">
-        <v>17</v>
-      </c>
-      <c r="AG50">
-        <v>19</v>
-      </c>
-      <c r="AH50">
-        <v>19</v>
-      </c>
-      <c r="AI50">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A51" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B51" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA51">
+      <c r="AC60">
+        <v>43</v>
+      </c>
+      <c r="AD60">
+        <v>39</v>
+      </c>
+      <c r="AE60">
+        <v>53</v>
+      </c>
+      <c r="AF60">
+        <v>53</v>
+      </c>
+      <c r="AG60">
+        <v>61</v>
+      </c>
+      <c r="AH60">
+        <v>69</v>
+      </c>
+      <c r="AI60">
+        <v>73</v>
+      </c>
+      <c r="AJ60">
+        <v>73</v>
+      </c>
+      <c r="AK60">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="61" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B61" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA61">
+        <v>27</v>
+      </c>
+      <c r="AB61">
+        <v>45</v>
+      </c>
+      <c r="AC61">
+        <v>51</v>
+      </c>
+      <c r="AD61">
         <v>48</v>
       </c>
-      <c r="AB51">
-        <v>55</v>
-      </c>
-      <c r="AC51">
-        <v>55</v>
-      </c>
-      <c r="AD51">
-        <v>70</v>
-      </c>
-      <c r="AE51">
-        <v>97</v>
-      </c>
-      <c r="AF51">
-        <v>101</v>
-      </c>
-      <c r="AG51">
-        <v>107</v>
-      </c>
-      <c r="AH51">
-        <v>152</v>
-      </c>
-      <c r="AI51">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A52" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B52" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA52">
-        <v>35</v>
-      </c>
-      <c r="AB52">
-        <v>43</v>
-      </c>
-      <c r="AC52">
-        <v>43</v>
-      </c>
-      <c r="AD52">
-        <v>59</v>
-      </c>
-      <c r="AE52">
-        <v>83</v>
-      </c>
-      <c r="AF52">
+      <c r="AE61">
+        <v>53</v>
+      </c>
+      <c r="AF61">
+        <v>53</v>
+      </c>
+      <c r="AG61">
+        <v>61</v>
+      </c>
+      <c r="AH61">
+        <v>69</v>
+      </c>
+      <c r="AI61">
+        <v>73</v>
+      </c>
+      <c r="AJ61">
+        <v>73</v>
+      </c>
+      <c r="AK61">
         <v>77</v>
       </c>
-      <c r="AG52">
-        <v>93</v>
-      </c>
-      <c r="AH52">
-        <v>140</v>
-      </c>
-      <c r="AI52">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A54" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B54" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA54">
-        <v>5</v>
-      </c>
-      <c r="AB54">
-        <v>5</v>
-      </c>
-      <c r="AC54">
-        <v>8</v>
-      </c>
-      <c r="AD54">
-        <v>9</v>
-      </c>
-      <c r="AE54">
+    </row>
+    <row r="62" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B62" t="s">
         <v>14</v>
-      </c>
-      <c r="AF54">
-        <v>14</v>
-      </c>
-      <c r="AG54">
-        <v>19</v>
-      </c>
-      <c r="AH54">
-        <v>22</v>
-      </c>
-      <c r="AI54">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A55" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B55" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA55">
-        <v>22</v>
-      </c>
-      <c r="AB55">
-        <v>40</v>
-      </c>
-      <c r="AC55">
-        <v>43</v>
-      </c>
-      <c r="AD55">
-        <v>39</v>
-      </c>
-      <c r="AE55">
-        <v>53</v>
-      </c>
-      <c r="AF55">
-        <v>53</v>
-      </c>
-      <c r="AG55">
-        <v>61</v>
-      </c>
-      <c r="AH55">
-        <v>69</v>
-      </c>
-      <c r="AI55">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A56" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B56" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA56">
-        <v>27</v>
-      </c>
-      <c r="AB56">
-        <v>45</v>
-      </c>
-      <c r="AC56">
-        <v>51</v>
-      </c>
-      <c r="AD56">
-        <v>48</v>
-      </c>
-      <c r="AE56">
-        <v>53</v>
-      </c>
-      <c r="AF56">
-        <v>53</v>
-      </c>
-      <c r="AG56">
-        <v>61</v>
-      </c>
-      <c r="AH56">
-        <v>69</v>
-      </c>
-      <c r="AI56">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A57" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B57" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA57">
-        <v>0</v>
-      </c>
-      <c r="AB57">
-        <v>0</v>
-      </c>
-      <c r="AC57">
-        <v>0</v>
-      </c>
-      <c r="AD57" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE57" t="s">
-        <v>42</v>
-      </c>
-      <c r="AF57" t="s">
-        <v>42</v>
-      </c>
-      <c r="AG57" t="s">
-        <v>42</v>
-      </c>
-      <c r="AH57">
-        <v>1</v>
-      </c>
-      <c r="AI57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A59" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B59" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA59">
-        <v>1</v>
-      </c>
-      <c r="AB59">
-        <v>1</v>
-      </c>
-      <c r="AC59">
-        <v>3</v>
-      </c>
-      <c r="AD59">
-        <v>5</v>
-      </c>
-      <c r="AE59">
-        <v>6</v>
-      </c>
-      <c r="AF59">
-        <v>7</v>
-      </c>
-      <c r="AG59">
-        <v>9</v>
-      </c>
-      <c r="AH59">
-        <v>11</v>
-      </c>
-      <c r="AI59">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A60" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B60" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA60">
-        <v>17</v>
-      </c>
-      <c r="AB60">
-        <v>18</v>
-      </c>
-      <c r="AC60">
-        <v>81</v>
-      </c>
-      <c r="AD60">
-        <v>124</v>
-      </c>
-      <c r="AE60">
-        <v>95</v>
-      </c>
-      <c r="AF60">
-        <v>95</v>
-      </c>
-      <c r="AG60">
-        <v>119</v>
-      </c>
-      <c r="AH60">
-        <v>142</v>
-      </c>
-      <c r="AI60">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A61" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B61" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA61">
-        <v>18</v>
-      </c>
-      <c r="AB61">
-        <v>18</v>
-      </c>
-      <c r="AC61">
-        <v>81</v>
-      </c>
-      <c r="AD61">
-        <v>124</v>
-      </c>
-      <c r="AE61">
-        <v>95</v>
-      </c>
-      <c r="AF61">
-        <v>95</v>
-      </c>
-      <c r="AG61">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A62" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B62" t="s">
-        <v>18</v>
       </c>
       <c r="AA62">
         <v>0</v>
       </c>
       <c r="AB62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC62">
-        <v>1</v>
-      </c>
-      <c r="AD62">
-        <v>1</v>
-      </c>
-      <c r="AE62">
-        <v>1</v>
-      </c>
-      <c r="AF62">
-        <v>1</v>
-      </c>
-      <c r="AG62">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AD62" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE62" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF62" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG62" t="s">
+        <v>41</v>
       </c>
       <c r="AH62">
         <v>1</v>
       </c>
       <c r="AI62">
         <v>1</v>
+      </c>
+      <c r="AJ62">
+        <v>2</v>
+      </c>
+      <c r="AK62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B64" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA64">
+        <v>1</v>
+      </c>
+      <c r="AB64">
+        <v>1</v>
+      </c>
+      <c r="AC64">
+        <v>3</v>
+      </c>
+      <c r="AD64">
+        <v>5</v>
+      </c>
+      <c r="AE64">
+        <v>6</v>
+      </c>
+      <c r="AF64">
+        <v>7</v>
+      </c>
+      <c r="AG64">
+        <v>9</v>
+      </c>
+      <c r="AH64">
+        <v>11</v>
+      </c>
+      <c r="AI64">
+        <v>14</v>
+      </c>
+      <c r="AJ64">
+        <v>15</v>
+      </c>
+      <c r="AK64">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B65" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA65">
+        <v>17</v>
+      </c>
+      <c r="AB65">
+        <v>18</v>
+      </c>
+      <c r="AC65">
+        <v>81</v>
+      </c>
+      <c r="AD65">
+        <v>124</v>
+      </c>
+      <c r="AE65">
+        <v>95</v>
+      </c>
+      <c r="AF65">
+        <v>95</v>
+      </c>
+      <c r="AG65">
+        <v>119</v>
+      </c>
+      <c r="AH65">
+        <v>142</v>
+      </c>
+      <c r="AI65">
+        <v>142</v>
+      </c>
+      <c r="AJ65">
+        <v>142</v>
+      </c>
+      <c r="AK65">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="66" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B66" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA66">
+        <v>18</v>
+      </c>
+      <c r="AB66">
+        <v>18</v>
+      </c>
+      <c r="AC66">
+        <v>81</v>
+      </c>
+      <c r="AD66">
+        <v>124</v>
+      </c>
+      <c r="AE66">
+        <v>95</v>
+      </c>
+      <c r="AF66">
+        <v>95</v>
+      </c>
+      <c r="AG66">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="67" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B67" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA67">
+        <v>0</v>
+      </c>
+      <c r="AB67">
+        <v>1</v>
+      </c>
+      <c r="AC67">
+        <v>1</v>
+      </c>
+      <c r="AD67">
+        <v>1</v>
+      </c>
+      <c r="AE67">
+        <v>1</v>
+      </c>
+      <c r="AF67">
+        <v>1</v>
+      </c>
+      <c r="AG67">
+        <v>1</v>
+      </c>
+      <c r="AH67">
+        <v>1</v>
+      </c>
+      <c r="AI67">
+        <v>1</v>
+      </c>
+      <c r="AJ67">
+        <v>1</v>
+      </c>
+      <c r="AK67">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2850,22 +3097,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:J11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:L11"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.453125" customWidth="1"/>
-    <col min="2" max="2" width="9.453125" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" s="9">
         <v>43921</v>
@@ -2894,8 +3141,14 @@
       <c r="J2" s="9">
         <v>43929</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K2" s="9">
+        <v>43930</v>
+      </c>
+      <c r="L2" s="9">
+        <v>43931</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -2926,8 +3179,14 @@
       <c r="J3">
         <v>172</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K3" s="17">
+        <v>183</v>
+      </c>
+      <c r="L3">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -2958,8 +3217,14 @@
       <c r="J4">
         <v>137</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K4" s="17">
+        <v>145</v>
+      </c>
+      <c r="L4">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -2990,8 +3255,14 @@
       <c r="J5">
         <v>113</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K5" s="17">
+        <v>128</v>
+      </c>
+      <c r="L5">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>4</v>
       </c>
@@ -3022,8 +3293,14 @@
       <c r="J6">
         <v>244</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K6" s="17">
+        <v>267</v>
+      </c>
+      <c r="L6">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -3054,8 +3331,14 @@
       <c r="J7">
         <v>198</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K7" s="17">
+        <v>210</v>
+      </c>
+      <c r="L7">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>6</v>
       </c>
@@ -3086,8 +3369,14 @@
       <c r="J8">
         <v>241</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K8" s="17">
+        <v>255</v>
+      </c>
+      <c r="L8">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -3118,8 +3407,14 @@
       <c r="J9">
         <v>219</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K9" s="17">
+        <v>238</v>
+      </c>
+      <c r="L9">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>8</v>
       </c>
@@ -3150,10 +3445,16 @@
       <c r="J10">
         <v>178</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K10" s="17">
+        <v>192</v>
+      </c>
+      <c r="L10">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B11" s="6">
         <v>25</v>
@@ -3181,6 +3482,12 @@
       </c>
       <c r="J11">
         <v>21</v>
+      </c>
+      <c r="K11" s="17">
+        <v>42</v>
+      </c>
+      <c r="L11">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -3190,20 +3497,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A2:E17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14:G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.7265625" style="16" customWidth="1"/>
-    <col min="2" max="2" width="23.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" style="16" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15"/>
       <c r="B2" s="12">
         <v>43926</v>
@@ -3214,235 +3521,328 @@
       <c r="D2" s="9">
         <v>43928</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E2" s="9">
+        <v>43929</v>
+      </c>
+      <c r="F2" s="9">
+        <v>43930</v>
+      </c>
+      <c r="G2" s="9">
+        <v>43931</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" s="12"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B4" s="14">
         <v>1097</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="16">
         <v>1211</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="16">
         <v>1440</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="16">
         <v>1523</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F4" s="16">
+        <v>1660</v>
+      </c>
+      <c r="G4" s="16">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" s="14">
         <v>349</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="16">
         <v>596</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="16">
         <v>604</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="16">
         <v>536</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F5" s="18">
+        <v>516</v>
+      </c>
+      <c r="G5" s="16">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B6" s="14">
         <v>135</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="16">
         <v>154</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="16">
         <v>218</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="16">
         <v>253</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F6" s="18">
+        <v>281</v>
+      </c>
+      <c r="G6" s="16">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B7" s="14">
         <v>303</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="16">
         <v>353</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="16">
         <v>460</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="16">
         <v>542</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F7" s="18">
+        <v>642</v>
+      </c>
+      <c r="G7" s="16">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B8" s="14">
         <v>12</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="16">
         <v>14</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="16">
         <v>18</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="16">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="F8" s="18">
+        <v>21</v>
+      </c>
+      <c r="G8" s="16">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="14">
+        <v>1</v>
+      </c>
+      <c r="C9" s="16">
+        <v>4</v>
+      </c>
+      <c r="D9" s="16">
+        <v>5</v>
+      </c>
+      <c r="E9" s="16">
+        <v>6</v>
+      </c>
+      <c r="F9" s="18">
+        <v>6</v>
+      </c>
+      <c r="G9" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16">
+        <v>1</v>
+      </c>
+      <c r="E10" s="16">
+        <v>1</v>
+      </c>
+      <c r="F10" s="18">
+        <v>1</v>
+      </c>
+      <c r="G10" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
         <v>47</v>
-      </c>
-      <c r="B9" s="14">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>4</v>
-      </c>
-      <c r="D9">
-        <v>5</v>
-      </c>
-      <c r="E9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" s="14"/>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="14" t="s">
-        <v>48</v>
       </c>
       <c r="B11" s="14">
         <v>78</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="16">
         <v>80</v>
       </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
+      <c r="D11" s="16">
+        <v>1</v>
+      </c>
+      <c r="E11" s="16">
         <v>153</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F11" s="18">
+        <v>179</v>
+      </c>
+      <c r="G11" s="16">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B12" s="14">
         <v>9</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="16">
         <v>10</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="16">
         <v>11</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="16">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F12" s="18">
+        <v>14</v>
+      </c>
+      <c r="G12" s="16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B13" s="14"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B14" s="14">
         <v>341</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="16">
         <v>520</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="16">
         <v>585</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="16">
         <v>550</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F14" s="18">
+        <v>564</v>
+      </c>
+      <c r="G14" s="16">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B15" s="14">
         <v>98</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="16">
         <v>107</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="16">
         <v>154</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="16">
         <v>169</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F15" s="18">
+        <v>188</v>
+      </c>
+      <c r="G15" s="16">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B16" s="14">
         <v>517</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="16">
         <v>580</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="16">
         <v>696</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="16">
         <v>799</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F16" s="18">
+        <v>903</v>
+      </c>
+      <c r="G16" s="16">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B17" s="14">
         <v>2</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="16">
         <v>4</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="16">
         <v>5</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="16">
         <v>5</v>
+      </c>
+      <c r="F17" s="18">
+        <v>5</v>
+      </c>
+      <c r="G17" s="16">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -3452,19 +3852,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.81640625" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="9">
         <v>43926</v>
       </c>
@@ -3474,16 +3874,25 @@
       <c r="D1" s="9">
         <v>43928</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E1" s="9">
+        <v>43929</v>
+      </c>
+      <c r="F1" s="9">
+        <v>43930</v>
+      </c>
+      <c r="G1" s="9">
+        <v>43931</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" s="7"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B3">
         <f ca="1">SUM(B3:B8)</f>
@@ -3498,10 +3907,16 @@
       <c r="E3">
         <v>32</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F3">
+        <v>38</v>
+      </c>
+      <c r="G3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B4" s="11">
         <v>2</v>
@@ -3515,10 +3930,16 @@
       <c r="E4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B5" s="11">
         <v>14</v>
@@ -3532,10 +3953,16 @@
       <c r="E5">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F5">
+        <v>25</v>
+      </c>
+      <c r="G5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B6" s="11">
         <v>2</v>
@@ -3549,10 +3976,16 @@
       <c r="E6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F6">
+        <v>6</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7" s="11">
         <v>4</v>
@@ -3566,10 +3999,16 @@
       <c r="E7">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8" s="11">
         <v>2</v>
@@ -3581,6 +4020,12 @@
         <v>0</v>
       </c>
       <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
         <v>0</v>
       </c>
     </row>

--- a/dcCovid-19DataSummaryToday.xlsx
+++ b/dcCovid-19DataSummaryToday.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="71">
   <si>
     <t>Testing</t>
   </si>
@@ -75,9 +75,6 @@
     <t>Total Number of Residents in Quarantine Due to COVID-19</t>
   </si>
   <si>
-    <t>Total Number of Residents Who Currently are Isolated/In Quarantine</t>
-  </si>
-  <si>
     <t>Total Number of Residents No Longer Isolated/In Quarantine</t>
   </si>
   <si>
@@ -220,6 +217,24 @@
   </si>
   <si>
     <t>Total Number of Residents Out Due to Positive Tests/Quarantine</t>
+  </si>
+  <si>
+    <t>Total Number Tested Positive OUT</t>
+  </si>
+  <si>
+    <t>Total Number Recovered aand Returned to Work</t>
+  </si>
+  <si>
+    <t>Total Number of Residents Returned to General Population</t>
+  </si>
+  <si>
+    <t>Total Number Recovered</t>
+  </si>
+  <si>
+    <t>Total Number of Residents Returned to General Population After Recovery</t>
+  </si>
+  <si>
+    <t>Total Number of Residents Not in General Population Due to Positive Tests/Quarantine</t>
   </si>
 </sst>
 </file>
@@ -626,7 +641,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -634,11 +649,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK67"/>
+  <dimension ref="A1:AL75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="AK1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B41" sqref="A41:B41"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="AL1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,7 +662,7 @@
     <col min="2" max="2" width="62.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C1" s="1">
         <v>43897</v>
       </c>
@@ -753,8 +768,11 @@
       <c r="AK1" s="1">
         <v>43931</v>
       </c>
-    </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL1" s="1">
+        <v>43932</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -778,12 +796,12 @@
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I3">
         <v>69</v>
@@ -869,13 +887,16 @@
       <c r="AK3">
         <v>10039</v>
       </c>
-    </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL3">
+        <v>10640</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -982,13 +1003,16 @@
       <c r="AK4">
         <v>1778</v>
       </c>
-    </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL4">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1077,13 +1101,16 @@
       <c r="AK5">
         <v>47</v>
       </c>
-    </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S6">
         <v>17</v>
@@ -1142,11 +1169,14 @@
       <c r="AK6">
         <v>447</v>
       </c>
-    </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL6">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
@@ -1204,13 +1234,16 @@
       <c r="AK8">
         <v>95</v>
       </c>
-    </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL8">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U9">
         <v>405</v>
@@ -1263,8 +1296,11 @@
       <c r="AK9">
         <v>441</v>
       </c>
-    </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL9">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
@@ -1322,8 +1358,11 @@
       <c r="AK10">
         <v>210</v>
       </c>
-    </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL10">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
@@ -1381,13 +1420,16 @@
       <c r="AK11">
         <v>231</v>
       </c>
-    </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL11">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
@@ -1395,12 +1437,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S15">
         <v>8</v>
@@ -1459,30 +1501,39 @@
       <c r="AK15">
         <v>56</v>
       </c>
-    </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK16">
         <v>44</v>
       </c>
-    </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL16">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AK17">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>9</v>
       </c>
@@ -1537,8 +1588,11 @@
       <c r="AK18">
         <v>205</v>
       </c>
-    </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL18">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>9</v>
       </c>
@@ -1593,8 +1647,11 @@
       <c r="AK19">
         <v>249</v>
       </c>
-    </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL19">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>9</v>
       </c>
@@ -1649,18 +1706,21 @@
       <c r="AK20">
         <v>323</v>
       </c>
-    </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL20">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S23">
         <v>2</v>
@@ -1719,30 +1779,39 @@
       <c r="AK23">
         <v>51</v>
       </c>
-    </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL23">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK24">
         <v>47</v>
       </c>
-    </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL24">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AK25">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>10</v>
       </c>
@@ -1797,8 +1866,11 @@
       <c r="AK26">
         <v>262</v>
       </c>
-    </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL26">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>10</v>
       </c>
@@ -1853,8 +1925,11 @@
       <c r="AK27">
         <v>309</v>
       </c>
-    </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL27">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>10</v>
       </c>
@@ -1909,18 +1984,21 @@
       <c r="AK28">
         <v>330</v>
       </c>
-    </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL28">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B30" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="V31">
         <v>1</v>
@@ -1970,1123 +2048,1295 @@
       <c r="AK31">
         <v>15</v>
       </c>
-    </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL31">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B32" t="s">
+        <v>65</v>
+      </c>
+      <c r="AL32">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" t="s">
         <v>12</v>
       </c>
-      <c r="V32">
+      <c r="V34">
         <v>16</v>
       </c>
-      <c r="W32">
+      <c r="W34">
         <v>71</v>
       </c>
-      <c r="X32">
+      <c r="X34">
         <v>71</v>
       </c>
-      <c r="Y32">
+      <c r="Y34">
         <v>71</v>
       </c>
-      <c r="Z32">
+      <c r="Z34">
         <v>102</v>
       </c>
-      <c r="AA32">
+      <c r="AA34">
         <v>112</v>
       </c>
-      <c r="AB32">
+      <c r="AB34">
         <v>114</v>
       </c>
-      <c r="AC32">
+      <c r="AC34">
         <v>132</v>
       </c>
-      <c r="AD32">
+      <c r="AD34">
         <v>137</v>
       </c>
-      <c r="AE32">
+      <c r="AE34">
         <v>137</v>
       </c>
-      <c r="AF32">
+      <c r="AF34">
         <v>137</v>
       </c>
-      <c r="AG32">
+      <c r="AG34">
         <v>196</v>
       </c>
-      <c r="AH32">
+      <c r="AH34">
         <v>212</v>
       </c>
-      <c r="AI32">
+      <c r="AI34">
         <v>201</v>
       </c>
-      <c r="AJ32">
+      <c r="AJ34">
         <v>190</v>
       </c>
-      <c r="AK32">
+      <c r="AK34">
         <v>159</v>
       </c>
-    </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="AL34">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B35" t="s">
         <v>13</v>
       </c>
-      <c r="V33">
+      <c r="V35">
         <v>17</v>
       </c>
-      <c r="W33">
+      <c r="W35">
         <v>72</v>
       </c>
-      <c r="X33">
+      <c r="X35">
         <v>72</v>
       </c>
-      <c r="Y33">
+      <c r="Y35">
         <v>72</v>
       </c>
-      <c r="Z33">
+      <c r="Z35">
         <v>103</v>
       </c>
-      <c r="AA33">
+      <c r="AA35">
         <v>113</v>
       </c>
-      <c r="AB33">
+      <c r="AB35">
         <v>116</v>
       </c>
-      <c r="AC33">
+      <c r="AC35">
         <v>135</v>
       </c>
-      <c r="AD33">
+      <c r="AD35">
         <v>140</v>
       </c>
-      <c r="AE33">
+      <c r="AE35">
         <v>141</v>
       </c>
-      <c r="AF33">
+      <c r="AF35">
         <v>141</v>
       </c>
-      <c r="AG33">
+      <c r="AG35">
         <v>201</v>
       </c>
-      <c r="AI33">
+      <c r="AI35">
         <v>208</v>
       </c>
-      <c r="AJ33">
+      <c r="AJ35">
         <v>201</v>
       </c>
-      <c r="AK33">
+      <c r="AK35">
         <v>174</v>
       </c>
-    </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="AL35">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="36" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36" t="s">
         <v>14</v>
       </c>
-      <c r="V34">
+      <c r="V36">
         <v>0</v>
       </c>
-      <c r="W34">
+      <c r="W36">
         <v>0</v>
       </c>
-      <c r="X34">
+      <c r="X36">
         <v>0</v>
       </c>
-      <c r="Y34">
+      <c r="Y36">
         <v>0</v>
       </c>
-      <c r="Z34">
+      <c r="Z36">
         <v>0</v>
       </c>
-      <c r="AA34">
+      <c r="AA36">
         <v>0</v>
       </c>
-      <c r="AB34">
+      <c r="AB36">
         <v>0</v>
       </c>
-      <c r="AC34">
+      <c r="AC36">
         <v>1</v>
       </c>
-      <c r="AD34">
+      <c r="AD36">
         <v>1</v>
       </c>
-      <c r="AE34">
+      <c r="AE36">
         <v>1</v>
       </c>
-      <c r="AF34">
+      <c r="AF36">
         <v>1</v>
       </c>
-      <c r="AG34">
+      <c r="AG36">
         <v>2</v>
       </c>
-      <c r="AH34">
+      <c r="AH36">
         <v>8</v>
       </c>
-      <c r="AI34">
+      <c r="AI36">
         <v>8</v>
       </c>
-      <c r="AJ34">
+      <c r="AJ36">
         <v>14</v>
       </c>
-      <c r="AK34">
+      <c r="AK36">
         <v>27</v>
       </c>
-    </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="B36" s="3" t="s">
+      <c r="AL36">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="B38" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B37" t="s">
-        <v>64</v>
-      </c>
-      <c r="U37">
-        <v>0</v>
-      </c>
-      <c r="V37">
-        <v>1</v>
-      </c>
-      <c r="W37">
-        <v>1</v>
-      </c>
-      <c r="X37">
-        <v>3</v>
-      </c>
-      <c r="Y37">
-        <v>4</v>
-      </c>
-      <c r="Z37">
-        <v>5</v>
-      </c>
-      <c r="AA37">
-        <v>6</v>
-      </c>
-      <c r="AB37">
-        <v>6</v>
-      </c>
-      <c r="AC37">
-        <v>12</v>
-      </c>
-      <c r="AD37">
-        <v>12</v>
-      </c>
-      <c r="AE37">
-        <v>14</v>
-      </c>
-      <c r="AF37">
+    <row r="39" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="AG37">
-        <v>20</v>
-      </c>
-      <c r="AH37">
-        <v>28</v>
-      </c>
-      <c r="AI37">
-        <v>37</v>
-      </c>
-      <c r="AJ37">
-        <v>33</v>
-      </c>
-      <c r="AK37">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B38" t="s">
-        <v>62</v>
-      </c>
-      <c r="AK38">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="B39" t="s">
         <v>63</v>
       </c>
+      <c r="U39">
+        <v>0</v>
+      </c>
+      <c r="V39">
+        <v>1</v>
+      </c>
+      <c r="W39">
+        <v>1</v>
+      </c>
+      <c r="X39">
+        <v>3</v>
+      </c>
+      <c r="Y39">
+        <v>4</v>
+      </c>
+      <c r="Z39">
+        <v>5</v>
+      </c>
+      <c r="AA39">
+        <v>6</v>
+      </c>
+      <c r="AB39">
+        <v>6</v>
+      </c>
+      <c r="AC39">
+        <v>12</v>
+      </c>
+      <c r="AD39">
+        <v>12</v>
+      </c>
+      <c r="AE39">
+        <v>14</v>
+      </c>
+      <c r="AF39">
+        <v>18</v>
+      </c>
+      <c r="AG39">
+        <v>20</v>
+      </c>
+      <c r="AH39">
+        <v>28</v>
+      </c>
+      <c r="AI39">
+        <v>37</v>
+      </c>
+      <c r="AJ39">
+        <v>33</v>
+      </c>
       <c r="AK39">
+        <v>47</v>
+      </c>
+      <c r="AL39">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B40" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK40">
+        <v>38</v>
+      </c>
+      <c r="AL40">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B41" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK41">
         <v>9</v>
       </c>
-    </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
+      <c r="AL41">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B42" t="s">
+        <v>16</v>
+      </c>
+      <c r="V42">
+        <v>36</v>
+      </c>
+      <c r="W42">
+        <v>39</v>
+      </c>
+      <c r="X42">
+        <v>85</v>
+      </c>
+      <c r="Y42">
+        <v>83</v>
+      </c>
+      <c r="Z42">
+        <v>83</v>
+      </c>
+      <c r="AA42">
+        <v>82</v>
+      </c>
+      <c r="AB42">
+        <v>80</v>
+      </c>
+      <c r="AC42">
+        <v>129</v>
+      </c>
+      <c r="AD42">
+        <v>129</v>
+      </c>
+      <c r="AE42">
+        <v>126</v>
+      </c>
+      <c r="AF42">
+        <v>153</v>
+      </c>
+      <c r="AG42">
+        <v>232</v>
+      </c>
+      <c r="AH42">
+        <v>230</v>
+      </c>
+      <c r="AI42">
+        <v>230</v>
+      </c>
+      <c r="AJ42">
+        <v>230</v>
+      </c>
+      <c r="AK42">
+        <v>224</v>
+      </c>
+      <c r="AL42">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="43" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B43" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK43">
+        <v>262</v>
+      </c>
+      <c r="AL43">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="44" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B44" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL44">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
         <v>19</v>
       </c>
-      <c r="B40" t="s">
-        <v>16</v>
-      </c>
-      <c r="V40">
-        <v>36</v>
-      </c>
-      <c r="W40">
-        <v>39</v>
-      </c>
-      <c r="X40">
-        <v>85</v>
-      </c>
-      <c r="Y40">
-        <v>83</v>
-      </c>
-      <c r="Z40">
-        <v>83</v>
-      </c>
-      <c r="AA40">
-        <v>82</v>
-      </c>
-      <c r="AB40">
-        <v>80</v>
-      </c>
-      <c r="AC40">
-        <v>129</v>
-      </c>
-      <c r="AD40">
-        <v>129</v>
-      </c>
-      <c r="AE40">
-        <v>126</v>
-      </c>
-      <c r="AF40">
-        <v>153</v>
-      </c>
-      <c r="AG40">
-        <v>232</v>
-      </c>
-      <c r="AH40">
-        <v>230</v>
-      </c>
-      <c r="AI40">
-        <v>230</v>
-      </c>
-      <c r="AJ40">
-        <v>230</v>
-      </c>
-      <c r="AK40">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B41" t="s">
+    </row>
+    <row r="47" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>1</v>
+      </c>
+      <c r="AB47">
+        <v>2</v>
+      </c>
+      <c r="AC47">
+        <v>2</v>
+      </c>
+      <c r="AD47">
+        <v>3</v>
+      </c>
+      <c r="AE47">
+        <v>2</v>
+      </c>
+      <c r="AF47">
+        <v>3</v>
+      </c>
+      <c r="AG47">
+        <v>4</v>
+      </c>
+      <c r="AH47">
+        <v>4</v>
+      </c>
+      <c r="AI47">
+        <v>4</v>
+      </c>
+      <c r="AJ47">
+        <v>5</v>
+      </c>
+      <c r="AK47">
+        <v>6</v>
+      </c>
+      <c r="AL47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B48" t="s">
         <v>65</v>
       </c>
-      <c r="AK41">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="43" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
+      <c r="AL48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="44" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B44" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z44">
+      <c r="B49" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL49">
         <v>0</v>
       </c>
-      <c r="AA44">
-        <v>1</v>
-      </c>
-      <c r="AB44">
-        <v>2</v>
-      </c>
-      <c r="AC44">
-        <v>2</v>
-      </c>
-      <c r="AD44">
-        <v>3</v>
-      </c>
-      <c r="AE44">
-        <v>2</v>
-      </c>
-      <c r="AF44">
-        <v>3</v>
-      </c>
-      <c r="AG44">
-        <v>4</v>
-      </c>
-      <c r="AH44">
-        <v>4</v>
-      </c>
-      <c r="AI44">
-        <v>4</v>
-      </c>
-      <c r="AJ44">
-        <v>5</v>
-      </c>
-      <c r="AK44">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B45" t="s">
+    </row>
+    <row r="50" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B50" t="s">
         <v>12</v>
       </c>
-      <c r="Z45">
+      <c r="Z50">
         <v>40</v>
-      </c>
-      <c r="AA45">
-        <v>54</v>
-      </c>
-      <c r="AB45">
-        <v>54</v>
-      </c>
-      <c r="AC45">
-        <v>51</v>
-      </c>
-      <c r="AD45">
-        <v>53</v>
-      </c>
-      <c r="AE45">
-        <v>53</v>
-      </c>
-      <c r="AF45">
-        <v>66</v>
-      </c>
-      <c r="AG45">
-        <v>66</v>
-      </c>
-      <c r="AH45">
-        <v>73</v>
-      </c>
-      <c r="AI45">
-        <v>87</v>
-      </c>
-      <c r="AJ45">
-        <v>87</v>
-      </c>
-      <c r="AK45">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="46" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B46" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z46">
-        <v>40</v>
-      </c>
-      <c r="AA46">
-        <v>55</v>
-      </c>
-      <c r="AB46">
-        <v>56</v>
-      </c>
-      <c r="AC46">
-        <v>53</v>
-      </c>
-      <c r="AD46">
-        <v>56</v>
-      </c>
-      <c r="AE46">
-        <v>55</v>
-      </c>
-      <c r="AF46">
-        <v>69</v>
-      </c>
-      <c r="AG46">
-        <v>70</v>
-      </c>
-      <c r="AH46">
-        <v>77</v>
-      </c>
-      <c r="AI46">
-        <v>91</v>
-      </c>
-      <c r="AJ46">
-        <v>92</v>
-      </c>
-      <c r="AK46">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="47" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B47" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z47">
-        <v>8</v>
-      </c>
-      <c r="AA47">
-        <v>8</v>
-      </c>
-      <c r="AB47">
-        <v>8</v>
-      </c>
-      <c r="AC47">
-        <v>8</v>
-      </c>
-      <c r="AD47">
-        <v>8</v>
-      </c>
-      <c r="AE47">
-        <v>8</v>
-      </c>
-      <c r="AF47">
-        <v>8</v>
-      </c>
-      <c r="AG47">
-        <v>8</v>
-      </c>
-      <c r="AH47">
-        <v>8</v>
-      </c>
-      <c r="AI47">
-        <v>8</v>
-      </c>
-      <c r="AJ47">
-        <v>8</v>
-      </c>
-      <c r="AK47">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B49" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z49">
-        <v>1</v>
-      </c>
-      <c r="AA49">
-        <v>1</v>
-      </c>
-      <c r="AB49">
-        <v>2</v>
-      </c>
-      <c r="AC49">
-        <v>2</v>
-      </c>
-      <c r="AD49">
-        <v>2</v>
-      </c>
-      <c r="AE49">
-        <v>3</v>
-      </c>
-      <c r="AF49">
-        <v>3</v>
-      </c>
-      <c r="AG49">
-        <v>3</v>
-      </c>
-      <c r="AH49">
-        <v>3</v>
-      </c>
-      <c r="AI49">
-        <v>3</v>
-      </c>
-      <c r="AJ49">
-        <v>4</v>
-      </c>
-      <c r="AK49">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B50" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z50">
-        <v>7</v>
       </c>
       <c r="AA50">
         <v>54</v>
       </c>
       <c r="AB50">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="AC50">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="AD50">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="AE50">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="AF50">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="AG50">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="AH50">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="AI50">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="AJ50">
-        <v>7</v>
+        <v>87</v>
       </c>
       <c r="AK50">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:37" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="AL50">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="51" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B51" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="Z51">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="AA51">
         <v>55</v>
       </c>
       <c r="AB51">
+        <v>56</v>
+      </c>
+      <c r="AC51">
+        <v>53</v>
+      </c>
+      <c r="AD51">
+        <v>56</v>
+      </c>
+      <c r="AE51">
+        <v>55</v>
+      </c>
+      <c r="AF51">
+        <v>69</v>
+      </c>
+      <c r="AG51">
+        <v>70</v>
+      </c>
+      <c r="AH51">
+        <v>77</v>
+      </c>
+      <c r="AI51">
+        <v>91</v>
+      </c>
+      <c r="AJ51">
+        <v>92</v>
+      </c>
+      <c r="AK51">
+        <v>87</v>
+      </c>
+      <c r="AL51">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="52" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B52" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z52">
         <v>8</v>
-      </c>
-      <c r="AC51">
-        <v>9</v>
-      </c>
-      <c r="AD51">
-        <v>9</v>
-      </c>
-      <c r="AE51">
-        <v>9</v>
-      </c>
-      <c r="AF51">
-        <v>9</v>
-      </c>
-      <c r="AG51">
-        <v>9</v>
-      </c>
-      <c r="AH51">
-        <v>9</v>
-      </c>
-      <c r="AI51">
-        <v>9</v>
-      </c>
-      <c r="AJ51">
-        <v>11</v>
-      </c>
-      <c r="AK51">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="52" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B52" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z52">
-        <v>0</v>
       </c>
       <c r="AA52">
         <v>8</v>
       </c>
       <c r="AB52">
+        <v>8</v>
+      </c>
+      <c r="AC52">
+        <v>8</v>
+      </c>
+      <c r="AD52">
+        <v>8</v>
+      </c>
+      <c r="AE52">
+        <v>8</v>
+      </c>
+      <c r="AF52">
+        <v>8</v>
+      </c>
+      <c r="AG52">
+        <v>8</v>
+      </c>
+      <c r="AH52">
+        <v>8</v>
+      </c>
+      <c r="AI52">
+        <v>8</v>
+      </c>
+      <c r="AJ52">
+        <v>8</v>
+      </c>
+      <c r="AK52">
+        <v>8</v>
+      </c>
+      <c r="AL52">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B54" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z54">
+        <v>1</v>
+      </c>
+      <c r="AA54">
+        <v>1</v>
+      </c>
+      <c r="AB54">
+        <v>2</v>
+      </c>
+      <c r="AC54">
+        <v>2</v>
+      </c>
+      <c r="AD54">
+        <v>2</v>
+      </c>
+      <c r="AE54">
+        <v>3</v>
+      </c>
+      <c r="AF54">
+        <v>3</v>
+      </c>
+      <c r="AG54">
+        <v>3</v>
+      </c>
+      <c r="AH54">
+        <v>3</v>
+      </c>
+      <c r="AI54">
+        <v>3</v>
+      </c>
+      <c r="AJ54">
+        <v>4</v>
+      </c>
+      <c r="AK54">
+        <v>4</v>
+      </c>
+      <c r="AL54">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B55" t="s">
+        <v>65</v>
+      </c>
+      <c r="AL55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B56" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B57" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z57">
         <v>7</v>
       </c>
-      <c r="AC52">
+      <c r="AA57">
+        <v>54</v>
+      </c>
+      <c r="AB57">
+        <v>6</v>
+      </c>
+      <c r="AC57">
         <v>7</v>
       </c>
-      <c r="AD52">
+      <c r="AD57">
         <v>7</v>
       </c>
-      <c r="AE52">
+      <c r="AE57">
+        <v>6</v>
+      </c>
+      <c r="AF57">
+        <v>6</v>
+      </c>
+      <c r="AG57">
+        <v>6</v>
+      </c>
+      <c r="AH57">
+        <v>6</v>
+      </c>
+      <c r="AI57">
+        <v>6</v>
+      </c>
+      <c r="AJ57">
         <v>7</v>
       </c>
-      <c r="AF52">
+      <c r="AK57">
+        <v>3</v>
+      </c>
+      <c r="AL57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B58" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z58">
+        <v>8</v>
+      </c>
+      <c r="AA58">
+        <v>55</v>
+      </c>
+      <c r="AB58">
+        <v>8</v>
+      </c>
+      <c r="AC58">
+        <v>9</v>
+      </c>
+      <c r="AD58">
+        <v>9</v>
+      </c>
+      <c r="AE58">
+        <v>9</v>
+      </c>
+      <c r="AF58">
+        <v>9</v>
+      </c>
+      <c r="AG58">
+        <v>9</v>
+      </c>
+      <c r="AH58">
+        <v>9</v>
+      </c>
+      <c r="AI58">
+        <v>9</v>
+      </c>
+      <c r="AJ58">
+        <v>11</v>
+      </c>
+      <c r="AK58">
         <v>7</v>
       </c>
-      <c r="AG52">
+      <c r="AL58">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B59" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z59">
         <v>0</v>
       </c>
-      <c r="AH52">
+      <c r="AA59">
+        <v>8</v>
+      </c>
+      <c r="AB59">
+        <v>7</v>
+      </c>
+      <c r="AC59">
+        <v>7</v>
+      </c>
+      <c r="AD59">
+        <v>7</v>
+      </c>
+      <c r="AE59">
+        <v>7</v>
+      </c>
+      <c r="AF59">
+        <v>7</v>
+      </c>
+      <c r="AG59">
         <v>0</v>
       </c>
-      <c r="AI52">
+      <c r="AH59">
         <v>0</v>
       </c>
-      <c r="AJ52">
+      <c r="AI59">
         <v>0</v>
       </c>
-      <c r="AK52">
+      <c r="AJ59">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="B54" s="2" t="s">
+      <c r="AK59">
+        <v>0</v>
+      </c>
+      <c r="AL59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B60" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="B62" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="63" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="55" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
+      <c r="B63" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA63">
+        <v>5</v>
+      </c>
+      <c r="AB63">
+        <v>8</v>
+      </c>
+      <c r="AC63">
+        <v>12</v>
+      </c>
+      <c r="AD63">
+        <v>12</v>
+      </c>
+      <c r="AE63">
+        <v>15</v>
+      </c>
+      <c r="AF63">
+        <v>17</v>
+      </c>
+      <c r="AG63">
+        <v>19</v>
+      </c>
+      <c r="AH63">
+        <v>19</v>
+      </c>
+      <c r="AI63">
+        <v>22</v>
+      </c>
+      <c r="AJ63">
+        <v>22</v>
+      </c>
+      <c r="AK63">
+        <v>27</v>
+      </c>
+      <c r="AL63">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="64" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B64" t="s">
         <v>25</v>
       </c>
-      <c r="B55" t="s">
+      <c r="AA64">
+        <v>48</v>
+      </c>
+      <c r="AB64">
+        <v>55</v>
+      </c>
+      <c r="AC64">
+        <v>55</v>
+      </c>
+      <c r="AD64">
+        <v>70</v>
+      </c>
+      <c r="AE64">
+        <v>97</v>
+      </c>
+      <c r="AF64">
+        <v>101</v>
+      </c>
+      <c r="AG64">
+        <v>107</v>
+      </c>
+      <c r="AH64">
+        <v>152</v>
+      </c>
+      <c r="AI64">
+        <v>155</v>
+      </c>
+      <c r="AJ64">
+        <v>161</v>
+      </c>
+      <c r="AK64">
+        <v>189</v>
+      </c>
+      <c r="AL64">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="65" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B65" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA65">
+        <v>35</v>
+      </c>
+      <c r="AB65">
+        <v>43</v>
+      </c>
+      <c r="AC65">
+        <v>43</v>
+      </c>
+      <c r="AD65">
+        <v>59</v>
+      </c>
+      <c r="AE65">
+        <v>83</v>
+      </c>
+      <c r="AF65">
+        <v>77</v>
+      </c>
+      <c r="AG65">
+        <v>93</v>
+      </c>
+      <c r="AH65">
+        <v>140</v>
+      </c>
+      <c r="AI65">
+        <v>145</v>
+      </c>
+      <c r="AJ65">
+        <v>145</v>
+      </c>
+      <c r="AK65">
+        <v>187</v>
+      </c>
+      <c r="AL65">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="67" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B67" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA67">
+        <v>5</v>
+      </c>
+      <c r="AB67">
+        <v>5</v>
+      </c>
+      <c r="AC67">
+        <v>8</v>
+      </c>
+      <c r="AD67">
+        <v>9</v>
+      </c>
+      <c r="AE67">
+        <v>14</v>
+      </c>
+      <c r="AF67">
+        <v>14</v>
+      </c>
+      <c r="AG67">
+        <v>19</v>
+      </c>
+      <c r="AH67">
+        <v>22</v>
+      </c>
+      <c r="AI67">
+        <v>29</v>
+      </c>
+      <c r="AJ67">
+        <v>30</v>
+      </c>
+      <c r="AK67">
+        <v>33</v>
+      </c>
+      <c r="AL67">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="68" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B68" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA68">
+        <v>22</v>
+      </c>
+      <c r="AB68">
+        <v>40</v>
+      </c>
+      <c r="AC68">
+        <v>43</v>
+      </c>
+      <c r="AD68">
         <v>39</v>
       </c>
-      <c r="AA55">
+      <c r="AE68">
+        <v>53</v>
+      </c>
+      <c r="AF68">
+        <v>53</v>
+      </c>
+      <c r="AG68">
+        <v>61</v>
+      </c>
+      <c r="AH68">
+        <v>69</v>
+      </c>
+      <c r="AI68">
+        <v>73</v>
+      </c>
+      <c r="AJ68">
+        <v>73</v>
+      </c>
+      <c r="AK68">
+        <v>77</v>
+      </c>
+      <c r="AL68">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="69" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B69" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA69">
+        <v>27</v>
+      </c>
+      <c r="AB69">
+        <v>45</v>
+      </c>
+      <c r="AC69">
+        <v>51</v>
+      </c>
+      <c r="AD69">
+        <v>48</v>
+      </c>
+      <c r="AE69">
+        <v>53</v>
+      </c>
+      <c r="AF69">
+        <v>53</v>
+      </c>
+      <c r="AG69">
+        <v>61</v>
+      </c>
+      <c r="AH69">
+        <v>69</v>
+      </c>
+      <c r="AI69">
+        <v>73</v>
+      </c>
+      <c r="AJ69">
+        <v>73</v>
+      </c>
+      <c r="AK69">
+        <v>77</v>
+      </c>
+      <c r="AL69">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="70" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B70" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA70">
+        <v>0</v>
+      </c>
+      <c r="AB70">
+        <v>0</v>
+      </c>
+      <c r="AC70">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE70" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF70" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG70" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH70">
+        <v>1</v>
+      </c>
+      <c r="AI70">
+        <v>1</v>
+      </c>
+      <c r="AJ70">
+        <v>2</v>
+      </c>
+      <c r="AK70">
+        <v>2</v>
+      </c>
+      <c r="AL70">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B72" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA72">
+        <v>1</v>
+      </c>
+      <c r="AB72">
+        <v>1</v>
+      </c>
+      <c r="AC72">
+        <v>3</v>
+      </c>
+      <c r="AD72">
         <v>5</v>
       </c>
-      <c r="AB55">
-        <v>8</v>
-      </c>
-      <c r="AC55">
-        <v>12</v>
-      </c>
-      <c r="AD55">
-        <v>12</v>
-      </c>
-      <c r="AE55">
+      <c r="AE72">
+        <v>6</v>
+      </c>
+      <c r="AF72">
+        <v>7</v>
+      </c>
+      <c r="AG72">
+        <v>9</v>
+      </c>
+      <c r="AH72">
+        <v>11</v>
+      </c>
+      <c r="AI72">
+        <v>14</v>
+      </c>
+      <c r="AJ72">
         <v>15</v>
       </c>
-      <c r="AF55">
+      <c r="AK72">
         <v>17</v>
       </c>
-      <c r="AG55">
-        <v>19</v>
-      </c>
-      <c r="AH55">
-        <v>19</v>
-      </c>
-      <c r="AI55">
-        <v>22</v>
-      </c>
-      <c r="AJ55">
-        <v>22</v>
-      </c>
-      <c r="AK55">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="56" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B56" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA56">
-        <v>48</v>
-      </c>
-      <c r="AB56">
-        <v>55</v>
-      </c>
-      <c r="AC56">
-        <v>55</v>
-      </c>
-      <c r="AD56">
-        <v>70</v>
-      </c>
-      <c r="AE56">
-        <v>97</v>
-      </c>
-      <c r="AF56">
-        <v>101</v>
-      </c>
-      <c r="AG56">
-        <v>107</v>
-      </c>
-      <c r="AH56">
-        <v>152</v>
-      </c>
-      <c r="AI56">
-        <v>155</v>
-      </c>
-      <c r="AJ56">
-        <v>161</v>
-      </c>
-      <c r="AK56">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="57" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B57" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA57">
-        <v>35</v>
-      </c>
-      <c r="AB57">
-        <v>43</v>
-      </c>
-      <c r="AC57">
-        <v>43</v>
-      </c>
-      <c r="AD57">
-        <v>59</v>
-      </c>
-      <c r="AE57">
-        <v>83</v>
-      </c>
-      <c r="AF57">
-        <v>77</v>
-      </c>
-      <c r="AG57">
-        <v>93</v>
-      </c>
-      <c r="AH57">
-        <v>140</v>
-      </c>
-      <c r="AI57">
-        <v>145</v>
-      </c>
-      <c r="AJ57">
-        <v>145</v>
-      </c>
-      <c r="AK57">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="59" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
+      <c r="AL72">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="73" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B59" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA59">
-        <v>5</v>
-      </c>
-      <c r="AB59">
-        <v>5</v>
-      </c>
-      <c r="AC59">
-        <v>8</v>
-      </c>
-      <c r="AD59">
-        <v>9</v>
-      </c>
-      <c r="AE59">
-        <v>14</v>
-      </c>
-      <c r="AF59">
-        <v>14</v>
-      </c>
-      <c r="AG59">
-        <v>19</v>
-      </c>
-      <c r="AH59">
-        <v>22</v>
-      </c>
-      <c r="AI59">
-        <v>29</v>
-      </c>
-      <c r="AJ59">
-        <v>30</v>
-      </c>
-      <c r="AK59">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="60" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
+      <c r="B73" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA73">
+        <v>17</v>
+      </c>
+      <c r="AB73">
+        <v>18</v>
+      </c>
+      <c r="AC73">
+        <v>81</v>
+      </c>
+      <c r="AD73">
+        <v>124</v>
+      </c>
+      <c r="AE73">
+        <v>95</v>
+      </c>
+      <c r="AF73">
+        <v>95</v>
+      </c>
+      <c r="AG73">
+        <v>119</v>
+      </c>
+      <c r="AH73">
+        <v>142</v>
+      </c>
+      <c r="AI73">
+        <v>142</v>
+      </c>
+      <c r="AJ73">
+        <v>142</v>
+      </c>
+      <c r="AK73">
+        <v>144</v>
+      </c>
+      <c r="AL73">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="74" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B60" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA60">
-        <v>22</v>
-      </c>
-      <c r="AB60">
-        <v>40</v>
-      </c>
-      <c r="AC60">
-        <v>43</v>
-      </c>
-      <c r="AD60">
-        <v>39</v>
-      </c>
-      <c r="AE60">
-        <v>53</v>
-      </c>
-      <c r="AF60">
-        <v>53</v>
-      </c>
-      <c r="AG60">
-        <v>61</v>
-      </c>
-      <c r="AH60">
-        <v>69</v>
-      </c>
-      <c r="AI60">
-        <v>73</v>
-      </c>
-      <c r="AJ60">
-        <v>73</v>
-      </c>
-      <c r="AK60">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="61" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
+      <c r="B74" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA74">
+        <v>18</v>
+      </c>
+      <c r="AB74">
+        <v>18</v>
+      </c>
+      <c r="AC74">
+        <v>81</v>
+      </c>
+      <c r="AD74">
+        <v>124</v>
+      </c>
+      <c r="AE74">
+        <v>95</v>
+      </c>
+      <c r="AF74">
+        <v>95</v>
+      </c>
+      <c r="AG74">
+        <v>119</v>
+      </c>
+      <c r="AL74">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="75" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B61" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA61">
-        <v>27</v>
-      </c>
-      <c r="AB61">
-        <v>45</v>
-      </c>
-      <c r="AC61">
-        <v>51</v>
-      </c>
-      <c r="AD61">
-        <v>48</v>
-      </c>
-      <c r="AE61">
-        <v>53</v>
-      </c>
-      <c r="AF61">
-        <v>53</v>
-      </c>
-      <c r="AG61">
-        <v>61</v>
-      </c>
-      <c r="AH61">
-        <v>69</v>
-      </c>
-      <c r="AI61">
-        <v>73</v>
-      </c>
-      <c r="AJ61">
-        <v>73</v>
-      </c>
-      <c r="AK61">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="62" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B62" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA62">
+      <c r="B75" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA75">
         <v>0</v>
       </c>
-      <c r="AB62">
-        <v>0</v>
-      </c>
-      <c r="AC62">
-        <v>0</v>
-      </c>
-      <c r="AD62" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE62" t="s">
-        <v>41</v>
-      </c>
-      <c r="AF62" t="s">
-        <v>41</v>
-      </c>
-      <c r="AG62" t="s">
-        <v>41</v>
-      </c>
-      <c r="AH62">
+      <c r="AB75">
         <v>1</v>
       </c>
-      <c r="AI62">
+      <c r="AC75">
         <v>1</v>
       </c>
-      <c r="AJ62">
+      <c r="AD75">
+        <v>1</v>
+      </c>
+      <c r="AE75">
+        <v>1</v>
+      </c>
+      <c r="AF75">
+        <v>1</v>
+      </c>
+      <c r="AG75">
+        <v>1</v>
+      </c>
+      <c r="AH75">
+        <v>1</v>
+      </c>
+      <c r="AI75">
+        <v>1</v>
+      </c>
+      <c r="AJ75">
+        <v>1</v>
+      </c>
+      <c r="AK75">
         <v>2</v>
       </c>
-      <c r="AK62">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B64" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA64">
-        <v>1</v>
-      </c>
-      <c r="AB64">
-        <v>1</v>
-      </c>
-      <c r="AC64">
-        <v>3</v>
-      </c>
-      <c r="AD64">
-        <v>5</v>
-      </c>
-      <c r="AE64">
-        <v>6</v>
-      </c>
-      <c r="AF64">
-        <v>7</v>
-      </c>
-      <c r="AG64">
-        <v>9</v>
-      </c>
-      <c r="AH64">
-        <v>11</v>
-      </c>
-      <c r="AI64">
-        <v>14</v>
-      </c>
-      <c r="AJ64">
-        <v>15</v>
-      </c>
-      <c r="AK64">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="65" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B65" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA65">
-        <v>17</v>
-      </c>
-      <c r="AB65">
-        <v>18</v>
-      </c>
-      <c r="AC65">
-        <v>81</v>
-      </c>
-      <c r="AD65">
-        <v>124</v>
-      </c>
-      <c r="AE65">
-        <v>95</v>
-      </c>
-      <c r="AF65">
-        <v>95</v>
-      </c>
-      <c r="AG65">
-        <v>119</v>
-      </c>
-      <c r="AH65">
-        <v>142</v>
-      </c>
-      <c r="AI65">
-        <v>142</v>
-      </c>
-      <c r="AJ65">
-        <v>142</v>
-      </c>
-      <c r="AK65">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="66" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B66" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA66">
-        <v>18</v>
-      </c>
-      <c r="AB66">
-        <v>18</v>
-      </c>
-      <c r="AC66">
-        <v>81</v>
-      </c>
-      <c r="AD66">
-        <v>124</v>
-      </c>
-      <c r="AE66">
-        <v>95</v>
-      </c>
-      <c r="AF66">
-        <v>95</v>
-      </c>
-      <c r="AG66">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="67" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B67" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA67">
-        <v>0</v>
-      </c>
-      <c r="AB67">
-        <v>1</v>
-      </c>
-      <c r="AC67">
-        <v>1</v>
-      </c>
-      <c r="AD67">
-        <v>1</v>
-      </c>
-      <c r="AE67">
-        <v>1</v>
-      </c>
-      <c r="AF67">
-        <v>1</v>
-      </c>
-      <c r="AG67">
-        <v>1</v>
-      </c>
-      <c r="AH67">
-        <v>1</v>
-      </c>
-      <c r="AI67">
-        <v>1</v>
-      </c>
-      <c r="AJ67">
-        <v>1</v>
-      </c>
-      <c r="AK67">
+      <c r="AL75">
         <v>2</v>
       </c>
     </row>
@@ -3098,10 +3348,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L11"/>
+  <dimension ref="A2:M11"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3110,9 +3360,9 @@
     <col min="2" max="2" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" s="9">
         <v>43921</v>
@@ -3147,8 +3397,11 @@
       <c r="L2" s="9">
         <v>43931</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2" s="9">
+        <v>43932</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -3185,8 +3438,11 @@
       <c r="L3">
         <v>202</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M3">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -3223,8 +3479,11 @@
       <c r="L4">
         <v>151</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M4">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -3261,8 +3520,11 @@
       <c r="L5">
         <v>139</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M5">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>4</v>
       </c>
@@ -3299,8 +3561,11 @@
       <c r="L6">
         <v>288</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M6">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -3337,8 +3602,11 @@
       <c r="L7">
         <v>231</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M7">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>6</v>
       </c>
@@ -3375,8 +3643,11 @@
       <c r="L8">
         <v>266</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M8">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -3413,8 +3684,11 @@
       <c r="L9">
         <v>266</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M9">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>8</v>
       </c>
@@ -3451,10 +3725,13 @@
       <c r="L10">
         <v>202</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M10">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B11" s="6">
         <v>25</v>
@@ -3488,6 +3765,9 @@
       </c>
       <c r="L11">
         <v>33</v>
+      </c>
+      <c r="M11">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -3498,10 +3778,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G17"/>
+  <dimension ref="A2:H17"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14:G17"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3510,7 +3790,7 @@
     <col min="2" max="2" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15"/>
       <c r="B2" s="12">
         <v>43926</v>
@@ -3530,18 +3810,21 @@
       <c r="G2" s="9">
         <v>43931</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H2" s="9">
+        <v>43932</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3" s="12"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B4" s="14">
         <v>1097</v>
@@ -3561,10 +3844,13 @@
       <c r="G4" s="16">
         <v>1778</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="16">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5" s="14">
         <v>349</v>
@@ -3584,10 +3870,13 @@
       <c r="G5" s="16">
         <v>355</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6" s="14">
         <v>135</v>
@@ -3607,10 +3896,13 @@
       <c r="G6" s="16">
         <v>339</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B7" s="14">
         <v>303</v>
@@ -3630,10 +3922,13 @@
       <c r="G7" s="16">
         <v>812</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B8" s="14">
         <v>12</v>
@@ -3653,10 +3948,13 @@
       <c r="G8" s="16">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B9" s="14">
         <v>1</v>
@@ -3676,10 +3974,13 @@
       <c r="G9" s="16">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B10" s="14"/>
       <c r="C10" s="16"/>
@@ -3695,10 +3996,13 @@
       <c r="G10" s="16">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B11" s="14">
         <v>78</v>
@@ -3718,10 +4022,13 @@
       <c r="G11" s="16">
         <v>226</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H11">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B12" s="14">
         <v>9</v>
@@ -3741,10 +4048,13 @@
       <c r="G12" s="16">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B13" s="14"/>
       <c r="C13" s="16"/>
@@ -3753,9 +4063,9 @@
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B14" s="14">
         <v>341</v>
@@ -3775,10 +4085,13 @@
       <c r="G14" s="16">
         <v>443</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B15" s="14">
         <v>98</v>
@@ -3798,10 +4111,13 @@
       <c r="G15" s="16">
         <v>227</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B16" s="14">
         <v>517</v>
@@ -3821,10 +4137,13 @@
       <c r="G16" s="16">
         <v>1104</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H16">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B17" s="14">
         <v>2</v>
@@ -3843,6 +4162,9 @@
       </c>
       <c r="G17" s="16">
         <v>4</v>
+      </c>
+      <c r="H17">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -3853,10 +4175,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3864,7 +4186,7 @@
     <col min="1" max="1" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="9">
         <v>43926</v>
       </c>
@@ -3883,16 +4205,19 @@
       <c r="G1" s="9">
         <v>43931</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="9">
+        <v>43932</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" s="7"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B3">
         <f ca="1">SUM(B3:B8)</f>
@@ -3913,10 +4238,13 @@
       <c r="G3">
         <v>47</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B4" s="11">
         <v>2</v>
@@ -3936,10 +4264,13 @@
       <c r="G4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" s="11">
         <v>14</v>
@@ -3959,10 +4290,13 @@
       <c r="G5">
         <v>34</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6" s="11">
         <v>2</v>
@@ -3982,10 +4316,13 @@
       <c r="G6">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B7" s="11">
         <v>4</v>
@@ -4005,10 +4342,13 @@
       <c r="G7">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B8" s="11">
         <v>2</v>
@@ -4026,6 +4366,9 @@
         <v>0</v>
       </c>
       <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>0</v>
       </c>
     </row>

--- a/dcCovid-19DataSummaryToday.xlsx
+++ b/dcCovid-19DataSummaryToday.xlsx
@@ -649,11 +649,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL75"/>
+  <dimension ref="A1:AM75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane xSplit="2" topLeftCell="AL1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B61" sqref="B61"/>
+      <selection pane="topRight" activeCell="AM63" sqref="AM63:AM75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -662,7 +662,7 @@
     <col min="2" max="2" width="62.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="C1" s="1">
         <v>43897</v>
       </c>
@@ -771,8 +771,11 @@
       <c r="AL1" s="1">
         <v>43932</v>
       </c>
-    </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM1" s="1">
+        <v>43933</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -796,7 +799,7 @@
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -890,8 +893,11 @@
       <c r="AL3">
         <v>10640</v>
       </c>
-    </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM3">
+        <v>10934</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1006,8 +1012,11 @@
       <c r="AL4">
         <v>1875</v>
       </c>
-    </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM4">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -1104,8 +1113,11 @@
       <c r="AL5">
         <v>50</v>
       </c>
-    </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM5">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -1172,11 +1184,14 @@
       <c r="AL6">
         <v>493</v>
       </c>
-    </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM6">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
@@ -1237,8 +1252,11 @@
       <c r="AL8">
         <v>121</v>
       </c>
-    </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM8">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
@@ -1299,8 +1317,11 @@
       <c r="AL9">
         <v>442</v>
       </c>
-    </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM9">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
@@ -1361,8 +1382,11 @@
       <c r="AL10">
         <v>215</v>
       </c>
-    </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM10">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
@@ -1423,13 +1447,16 @@
       <c r="AL11">
         <v>227</v>
       </c>
-    </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM11">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
@@ -1437,7 +1464,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>9</v>
       </c>
@@ -1505,7 +1532,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>9</v>
       </c>
@@ -2490,7 +2517,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>20</v>
       </c>
@@ -2501,7 +2528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>20</v>
       </c>
@@ -2548,7 +2575,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="51" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>20</v>
       </c>
@@ -2595,7 +2622,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>20</v>
       </c>
@@ -2642,7 +2669,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>22</v>
       </c>
@@ -2689,7 +2716,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>22</v>
       </c>
@@ -2700,7 +2727,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>22</v>
       </c>
@@ -2711,7 +2738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>22</v>
       </c>
@@ -2758,7 +2785,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>22</v>
       </c>
@@ -2805,7 +2832,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>22</v>
       </c>
@@ -2852,7 +2879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>22</v>
       </c>
@@ -2863,12 +2890,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B62" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="63" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>24</v>
       </c>
@@ -2911,8 +2938,11 @@
       <c r="AL63">
         <v>34</v>
       </c>
-    </row>
-    <row r="64" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM63">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="64" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>24</v>
       </c>
@@ -2955,8 +2985,11 @@
       <c r="AL64">
         <v>222</v>
       </c>
-    </row>
-    <row r="65" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM64">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="65" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>24</v>
       </c>
@@ -2999,8 +3032,11 @@
       <c r="AL65">
         <v>202</v>
       </c>
-    </row>
-    <row r="67" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM65">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="67" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>33</v>
       </c>
@@ -3043,8 +3079,11 @@
       <c r="AL67">
         <v>38</v>
       </c>
-    </row>
-    <row r="68" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM67">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="68" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>33</v>
       </c>
@@ -3087,8 +3126,11 @@
       <c r="AL68">
         <v>33</v>
       </c>
-    </row>
-    <row r="69" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM68">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="69" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>33</v>
       </c>
@@ -3131,8 +3173,11 @@
       <c r="AL69">
         <v>71</v>
       </c>
-    </row>
-    <row r="70" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM69">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="70" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>33</v>
       </c>
@@ -3175,8 +3220,11 @@
       <c r="AL70">
         <v>9</v>
       </c>
-    </row>
-    <row r="72" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM70">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>34</v>
       </c>
@@ -3219,8 +3267,11 @@
       <c r="AL72">
         <v>21</v>
       </c>
-    </row>
-    <row r="73" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM72">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="73" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>34</v>
       </c>
@@ -3263,8 +3314,11 @@
       <c r="AL73">
         <v>123</v>
       </c>
-    </row>
-    <row r="74" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM73">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="74" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>34</v>
       </c>
@@ -3295,8 +3349,11 @@
       <c r="AL74">
         <v>144</v>
       </c>
-    </row>
-    <row r="75" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM74">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="75" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>34</v>
       </c>
@@ -3337,6 +3394,9 @@
         <v>2</v>
       </c>
       <c r="AL75">
+        <v>2</v>
+      </c>
+      <c r="AM75">
         <v>2</v>
       </c>
     </row>
@@ -3348,10 +3408,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M11"/>
+  <dimension ref="A2:N11"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="N3" sqref="N3:N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3360,7 +3420,7 @@
     <col min="2" max="2" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>32</v>
       </c>
@@ -3400,8 +3460,11 @@
       <c r="M2" s="9">
         <v>43932</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N2" s="9">
+        <v>43933</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -3441,8 +3504,11 @@
       <c r="M3">
         <v>218</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N3">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -3482,8 +3548,11 @@
       <c r="M4">
         <v>160</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N4">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -3523,8 +3592,11 @@
       <c r="M5">
         <v>143</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N5">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>4</v>
       </c>
@@ -3564,8 +3636,11 @@
       <c r="M6">
         <v>303</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N6">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -3605,8 +3680,11 @@
       <c r="M7">
         <v>250</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N7">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>6</v>
       </c>
@@ -3646,8 +3724,11 @@
       <c r="M8">
         <v>281</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N8">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -3687,8 +3768,11 @@
       <c r="M9">
         <v>284</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N9">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>8</v>
       </c>
@@ -3728,8 +3812,11 @@
       <c r="M10">
         <v>218</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N10">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>39</v>
       </c>
@@ -3768,6 +3855,9 @@
       </c>
       <c r="M11">
         <v>18</v>
+      </c>
+      <c r="N11">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -3778,10 +3868,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H17"/>
+  <dimension ref="A2:I17"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3790,7 +3880,7 @@
     <col min="2" max="2" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15"/>
       <c r="B2" s="12">
         <v>43926</v>
@@ -3813,8 +3903,11 @@
       <c r="H2" s="9">
         <v>43932</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I2" s="9">
+        <v>43933</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>41</v>
       </c>
@@ -3822,7 +3915,7 @@
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>54</v>
       </c>
@@ -3847,8 +3940,11 @@
       <c r="H4" s="16">
         <v>1875</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>39</v>
       </c>
@@ -3873,8 +3969,11 @@
       <c r="H5">
         <v>379</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>42</v>
       </c>
@@ -3899,8 +3998,11 @@
       <c r="H6">
         <v>354</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>43</v>
       </c>
@@ -3925,8 +4027,11 @@
       <c r="H7">
         <v>852</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>44</v>
       </c>
@@ -3951,8 +4056,11 @@
       <c r="H8">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="I8">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>45</v>
       </c>
@@ -3977,8 +4085,11 @@
       <c r="H9">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="I9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>55</v>
       </c>
@@ -3999,8 +4110,11 @@
       <c r="H10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>46</v>
       </c>
@@ -4025,8 +4139,11 @@
       <c r="H11">
         <v>242</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="I11">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>47</v>
       </c>
@@ -4051,8 +4168,11 @@
       <c r="H12">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>48</v>
       </c>
@@ -4063,7 +4183,7 @@
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>39</v>
       </c>
@@ -4088,8 +4208,11 @@
       <c r="H14">
         <v>483</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>49</v>
       </c>
@@ -4114,8 +4237,11 @@
       <c r="H15">
         <v>241</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>50</v>
       </c>
@@ -4140,8 +4266,11 @@
       <c r="H16">
         <v>1146</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="I16">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>47</v>
       </c>
@@ -4164,6 +4293,9 @@
         <v>4</v>
       </c>
       <c r="H17">
+        <v>5</v>
+      </c>
+      <c r="I17">
         <v>5</v>
       </c>
     </row>
@@ -4175,10 +4307,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4186,7 +4318,7 @@
     <col min="1" max="1" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="9">
         <v>43926</v>
       </c>
@@ -4208,14 +4340,17 @@
       <c r="H1" s="9">
         <v>43932</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="9">
+        <v>43933</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>41</v>
       </c>
       <c r="B2" s="7"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>54</v>
       </c>
@@ -4241,8 +4376,11 @@
       <c r="H3">
         <v>50</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>44</v>
       </c>
@@ -4267,8 +4405,11 @@
       <c r="H4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="I4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>43</v>
       </c>
@@ -4293,8 +4434,11 @@
       <c r="H5">
         <v>36</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>51</v>
       </c>
@@ -4319,8 +4463,11 @@
       <c r="H6">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="I6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>52</v>
       </c>
@@ -4345,8 +4492,11 @@
       <c r="H7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>53</v>
       </c>
@@ -4369,6 +4519,9 @@
         <v>0</v>
       </c>
       <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
         <v>0</v>
       </c>
     </row>

--- a/dcCovid-19DataSummaryToday.xlsx
+++ b/dcCovid-19DataSummaryToday.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dcgovict-my.sharepoint.com/personal/ramona_yun1_dc_gov/Documents/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C884A327-19F6-4EC6-805C-F52B66916DDD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3810" yWindow="165" windowWidth="15375" windowHeight="7875"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overal Stats" sheetId="1" r:id="rId1"/>
@@ -12,10 +18,16 @@
     <sheet name="Total Cases by Race" sheetId="3" r:id="rId3"/>
     <sheet name="Lives Lost by Race" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -240,7 +252,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -291,7 +303,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -335,6 +347,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -641,28 +654,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM75"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AN75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="A54" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane xSplit="2" topLeftCell="AL1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AM63" sqref="AM63:AM75"/>
+      <selection pane="topRight" activeCell="AN76" sqref="AN76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.5703125" customWidth="1"/>
-    <col min="2" max="2" width="62.42578125" customWidth="1"/>
+    <col min="1" max="1" width="29.5546875" customWidth="1"/>
+    <col min="2" max="2" width="62.44140625" customWidth="1"/>
+    <col min="40" max="40" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
       <c r="C1" s="1">
         <v>43897</v>
       </c>
@@ -774,8 +788,11 @@
       <c r="AM1" s="1">
         <v>43933</v>
       </c>
-    </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN1" s="1">
+        <v>43934</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -799,7 +816,7 @@
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -896,8 +913,11 @@
       <c r="AM3">
         <v>10934</v>
       </c>
-    </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN3" s="19">
+        <v>11518</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1015,8 +1035,11 @@
       <c r="AM4">
         <v>1955</v>
       </c>
-    </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN4" s="19">
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -1116,8 +1139,11 @@
       <c r="AM5">
         <v>52</v>
       </c>
-    </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN5">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -1187,11 +1213,14 @@
       <c r="AM6">
         <v>507</v>
       </c>
-    </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN6">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
@@ -1255,8 +1284,11 @@
       <c r="AM8">
         <v>105</v>
       </c>
-    </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN8">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
@@ -1320,8 +1352,11 @@
       <c r="AM9">
         <v>444</v>
       </c>
-    </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN9">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
@@ -1385,8 +1420,11 @@
       <c r="AM10">
         <v>218</v>
       </c>
-    </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN10">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
@@ -1450,13 +1488,16 @@
       <c r="AM11">
         <v>226</v>
       </c>
-    </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN11">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
@@ -1464,7 +1505,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>9</v>
       </c>
@@ -1531,8 +1572,11 @@
       <c r="AL15">
         <v>58</v>
       </c>
-    </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN15">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>9</v>
       </c>
@@ -1545,8 +1589,11 @@
       <c r="AL16">
         <v>44</v>
       </c>
-    </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AN16">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>9</v>
       </c>
@@ -1559,8 +1606,11 @@
       <c r="AL17">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AN17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>9</v>
       </c>
@@ -1618,8 +1668,11 @@
       <c r="AL18">
         <v>183</v>
       </c>
-    </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AN18">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>9</v>
       </c>
@@ -1677,8 +1730,11 @@
       <c r="AL19">
         <v>227</v>
       </c>
-    </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AN19">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="20" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>9</v>
       </c>
@@ -1736,13 +1792,16 @@
       <c r="AL20">
         <v>353</v>
       </c>
-    </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AN20">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="22" spans="1:40" x14ac:dyDescent="0.3">
       <c r="B22" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>10</v>
       </c>
@@ -1809,8 +1868,11 @@
       <c r="AL23">
         <v>51</v>
       </c>
-    </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AN23">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>10</v>
       </c>
@@ -1823,8 +1885,11 @@
       <c r="AL24">
         <v>46</v>
       </c>
-    </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AN24">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>10</v>
       </c>
@@ -1837,8 +1902,11 @@
       <c r="AL25">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AN25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>10</v>
       </c>
@@ -1896,8 +1964,11 @@
       <c r="AL26">
         <v>224</v>
       </c>
-    </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AN26">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="27" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>10</v>
       </c>
@@ -1955,8 +2026,11 @@
       <c r="AL27">
         <v>290</v>
       </c>
-    </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AN27">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="28" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>10</v>
       </c>
@@ -2014,13 +2088,16 @@
       <c r="AL28">
         <v>364</v>
       </c>
-    </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AN28">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="30" spans="1:40" x14ac:dyDescent="0.3">
       <c r="B30" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>21</v>
       </c>
@@ -2078,8 +2155,11 @@
       <c r="AL31">
         <v>15</v>
       </c>
-    </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AN31">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>21</v>
       </c>
@@ -2089,8 +2169,11 @@
       <c r="AL32">
         <v>15</v>
       </c>
-    </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AN32">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>21</v>
       </c>
@@ -2100,8 +2183,11 @@
       <c r="AL33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AN33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>21</v>
       </c>
@@ -2159,8 +2245,11 @@
       <c r="AL34">
         <v>159</v>
       </c>
-    </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AN34">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="35" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>21</v>
       </c>
@@ -2215,8 +2304,11 @@
       <c r="AL35">
         <v>174</v>
       </c>
-    </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AN35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="36" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>21</v>
       </c>
@@ -2274,13 +2366,16 @@
       <c r="AL36">
         <v>27</v>
       </c>
-    </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AN36">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:40" x14ac:dyDescent="0.3">
       <c r="B38" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>18</v>
       </c>
@@ -2341,8 +2436,11 @@
       <c r="AL39">
         <v>52</v>
       </c>
-    </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AN39">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>18</v>
       </c>
@@ -2355,8 +2453,11 @@
       <c r="AL40">
         <v>43</v>
       </c>
-    </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AN40">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>18</v>
       </c>
@@ -2369,8 +2470,11 @@
       <c r="AL41">
         <v>9</v>
       </c>
-    </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AN41">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>18</v>
       </c>
@@ -2428,8 +2532,11 @@
       <c r="AL42">
         <v>224</v>
       </c>
-    </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AN42">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="43" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>18</v>
       </c>
@@ -2442,8 +2549,11 @@
       <c r="AL43">
         <v>267</v>
       </c>
-    </row>
-    <row r="44" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AN43">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="44" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>18</v>
       </c>
@@ -2453,13 +2563,16 @@
       <c r="AL44">
         <v>9</v>
       </c>
-    </row>
-    <row r="46" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AN44">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:40" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>20</v>
       </c>
@@ -2505,8 +2618,11 @@
       <c r="AL47">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AN47">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>20</v>
       </c>
@@ -2516,8 +2632,11 @@
       <c r="AL48">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN48">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>20</v>
       </c>
@@ -2527,8 +2646,11 @@
       <c r="AL49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>20</v>
       </c>
@@ -2574,8 +2696,11 @@
       <c r="AL50">
         <v>87</v>
       </c>
-    </row>
-    <row r="51" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN50">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>20</v>
       </c>
@@ -2621,8 +2746,11 @@
       <c r="AL51">
         <v>92</v>
       </c>
-    </row>
-    <row r="52" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN51">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="52" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>20</v>
       </c>
@@ -2668,8 +2796,11 @@
       <c r="AL52">
         <v>8</v>
       </c>
-    </row>
-    <row r="54" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN52">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>22</v>
       </c>
@@ -2715,8 +2846,11 @@
       <c r="AL54">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN54">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>22</v>
       </c>
@@ -2726,8 +2860,11 @@
       <c r="AL55">
         <v>4</v>
       </c>
-    </row>
-    <row r="56" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>22</v>
       </c>
@@ -2737,8 +2874,11 @@
       <c r="AL56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>22</v>
       </c>
@@ -2784,8 +2924,11 @@
       <c r="AL57">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>22</v>
       </c>
@@ -2831,8 +2974,11 @@
       <c r="AL58">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN58">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>22</v>
       </c>
@@ -2878,8 +3024,11 @@
       <c r="AL59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>22</v>
       </c>
@@ -2889,13 +3038,16 @@
       <c r="AL60">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:40" x14ac:dyDescent="0.3">
       <c r="B62" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="63" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>24</v>
       </c>
@@ -2941,8 +3093,11 @@
       <c r="AM63">
         <v>48</v>
       </c>
-    </row>
-    <row r="64" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN63">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>24</v>
       </c>
@@ -2988,8 +3143,11 @@
       <c r="AM64">
         <v>248</v>
       </c>
-    </row>
-    <row r="65" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN64">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="65" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>24</v>
       </c>
@@ -3035,8 +3193,11 @@
       <c r="AM65">
         <v>248</v>
       </c>
-    </row>
-    <row r="67" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN65">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="67" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>33</v>
       </c>
@@ -3082,8 +3243,11 @@
       <c r="AM67">
         <v>38</v>
       </c>
-    </row>
-    <row r="68" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN67">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="68" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>33</v>
       </c>
@@ -3129,8 +3293,11 @@
       <c r="AM68">
         <v>33</v>
       </c>
-    </row>
-    <row r="69" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN68">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="69" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>33</v>
       </c>
@@ -3176,8 +3343,11 @@
       <c r="AM69">
         <v>71</v>
       </c>
-    </row>
-    <row r="70" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN69">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="70" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>33</v>
       </c>
@@ -3223,8 +3393,11 @@
       <c r="AM70">
         <v>9</v>
       </c>
-    </row>
-    <row r="72" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN70">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>34</v>
       </c>
@@ -3270,8 +3443,11 @@
       <c r="AM72">
         <v>21</v>
       </c>
-    </row>
-    <row r="73" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN72">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="73" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>34</v>
       </c>
@@ -3317,8 +3493,11 @@
       <c r="AM73">
         <v>144</v>
       </c>
-    </row>
-    <row r="74" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN73">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="74" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>34</v>
       </c>
@@ -3352,8 +3531,11 @@
       <c r="AM74">
         <v>144</v>
       </c>
-    </row>
-    <row r="75" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN74">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="75" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>34</v>
       </c>
@@ -3397,6 +3579,9 @@
         <v>2</v>
       </c>
       <c r="AM75">
+        <v>2</v>
+      </c>
+      <c r="AN75">
         <v>2</v>
       </c>
     </row>
@@ -3407,20 +3592,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A2:O11"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3:N11"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="1" max="1" width="22.44140625" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" customWidth="1"/>
+    <col min="15" max="15" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>32</v>
       </c>
@@ -3463,8 +3649,11 @@
       <c r="N2" s="9">
         <v>43933</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O2" s="9">
+        <v>43934</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -3507,8 +3696,11 @@
       <c r="N3">
         <v>223</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O3">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -3551,8 +3743,11 @@
       <c r="N4">
         <v>180</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O4">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -3595,8 +3790,11 @@
       <c r="N5">
         <v>146</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O5">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>4</v>
       </c>
@@ -3639,8 +3837,11 @@
       <c r="N6">
         <v>312</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O6">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -3683,8 +3884,11 @@
       <c r="N7">
         <v>257</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O7">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>6</v>
       </c>
@@ -3727,8 +3931,11 @@
       <c r="N8">
         <v>288</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O8">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -3771,8 +3978,11 @@
       <c r="N9">
         <v>292</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O9">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>8</v>
       </c>
@@ -3815,8 +4025,11 @@
       <c r="N10">
         <v>228</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O10">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>39</v>
       </c>
@@ -3858,6 +4071,9 @@
       </c>
       <c r="N11">
         <v>29</v>
+      </c>
+      <c r="O11">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -3867,20 +4083,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A2:J17"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" style="16" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" style="16" customWidth="1"/>
+    <col min="2" max="2" width="23.5546875" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15"/>
       <c r="B2" s="12">
         <v>43926</v>
@@ -3906,8 +4123,11 @@
       <c r="I2" s="9">
         <v>43933</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J2" s="9">
+        <v>43934</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>41</v>
       </c>
@@ -3915,7 +4135,7 @@
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>54</v>
       </c>
@@ -3943,8 +4163,11 @@
       <c r="I4">
         <v>1955</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4">
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>39</v>
       </c>
@@ -3972,8 +4195,11 @@
       <c r="I5">
         <v>391</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>42</v>
       </c>
@@ -4001,8 +4227,11 @@
       <c r="I6">
         <v>365</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>43</v>
       </c>
@@ -4030,8 +4259,11 @@
       <c r="I7">
         <v>884</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>44</v>
       </c>
@@ -4059,8 +4291,11 @@
       <c r="I8">
         <v>29</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>45</v>
       </c>
@@ -4088,8 +4323,11 @@
       <c r="I9">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>55</v>
       </c>
@@ -4113,8 +4351,11 @@
       <c r="I10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
         <v>46</v>
       </c>
@@ -4142,8 +4383,11 @@
       <c r="I11">
         <v>256</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J11">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
         <v>47</v>
       </c>
@@ -4171,8 +4415,11 @@
       <c r="I12">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>48</v>
       </c>
@@ -4183,7 +4430,7 @@
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
         <v>39</v>
       </c>
@@ -4211,8 +4458,11 @@
       <c r="I14">
         <v>496</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
         <v>49</v>
       </c>
@@ -4240,8 +4490,11 @@
       <c r="I15">
         <v>263</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
         <v>50</v>
       </c>
@@ -4269,8 +4522,11 @@
       <c r="I16">
         <v>1191</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J16">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
         <v>47</v>
       </c>
@@ -4297,6 +4553,9 @@
       </c>
       <c r="I17">
         <v>5</v>
+      </c>
+      <c r="J17">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4565,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" customWidth="1"/>
+    <col min="10" max="10" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B1" s="9">
         <v>43926</v>
       </c>
@@ -4343,14 +4603,17 @@
       <c r="I1" s="9">
         <v>43933</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="9">
+        <v>43934</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>41</v>
       </c>
       <c r="B2" s="7"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>54</v>
       </c>
@@ -4379,8 +4642,11 @@
       <c r="I3">
         <v>52</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>44</v>
       </c>
@@ -4408,8 +4674,11 @@
       <c r="I4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>43</v>
       </c>
@@ -4437,8 +4706,11 @@
       <c r="I5">
         <v>38</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>51</v>
       </c>
@@ -4466,8 +4738,11 @@
       <c r="I6">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>52</v>
       </c>
@@ -4495,8 +4770,11 @@
       <c r="I7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>53</v>
       </c>
@@ -4522,10 +4800,275 @@
         <v>0</v>
       </c>
       <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C154F8D92A1190498EC67EE37256270A" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a145d1f7d2fc6bfdea86e9d796031e6c">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8e61eea9-d51d-4f9c-960b-1b037651d93e" xmlns:ns4="248ed0f8-11d3-4141-bb91-6b69a0801941" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="87b2ee5a90a671ef9b646f531a040769" ns3:_="" ns4:_="">
+    <xsd:import namespace="8e61eea9-d51d-4f9c-960b-1b037651d93e"/>
+    <xsd:import namespace="248ed0f8-11d3-4141-bb91-6b69a0801941"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns3:SharingHintHash" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceDateTaken" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="8e61eea9-d51d-4f9c-960b-1b037651d93e" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="8" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="9" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="SharingHintHash" ma:index="10" nillable="true" ma:displayName="Sharing Hint Hash" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="248ed0f8-11d3-4141-bb91-6b69a0801941" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="11" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="12" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="13" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="17" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE449021-9205-42BF-A2AE-CC419CEBA6BF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8e61eea9-d51d-4f9c-960b-1b037651d93e"/>
+    <ds:schemaRef ds:uri="248ed0f8-11d3-4141-bb91-6b69a0801941"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD396E8E-4714-4CC9-8EAA-3025B907ED6D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8DEDEF4E-2681-4E64-A6E5-9E41742A3664}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="8e61eea9-d51d-4f9c-960b-1b037651d93e"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="248ed0f8-11d3-4141-bb91-6b69a0801941"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/dcCovid-19DataSummaryToday.xlsx
+++ b/dcCovid-19DataSummaryToday.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dcgovict-my.sharepoint.com/personal/ramona_yun1_dc_gov/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dcgovict-my.sharepoint.com/personal/ramona_yun1_dc_gov/Documents/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C884A327-19F6-4EC6-805C-F52B66916DDD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="133" documentId="8_{C884A327-19F6-4EC6-805C-F52B66916DDD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{B427225E-94CB-400E-B9F6-CCC977D3543D}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overal Stats" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="75">
   <si>
     <t>Testing</t>
   </si>
@@ -247,6 +247,18 @@
   </si>
   <si>
     <t>Total Number of Residents Not in General Population Due to Positive Tests/Quarantine</t>
+  </si>
+  <si>
+    <t>Total Number of Lives Among Residents</t>
+  </si>
+  <si>
+    <t>Total Number of Lives Among Personnel</t>
+  </si>
+  <si>
+    <t>Total Number of Lives Lost Among IIC</t>
+  </si>
+  <si>
+    <t>Total Number of Lives Lost Among Individuals in the Homeless Service System</t>
   </si>
 </sst>
 </file>
@@ -662,21 +674,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN75"/>
+  <dimension ref="A1:AO79"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="AL1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AN76" sqref="AN76"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="AF1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AF62" sqref="AF62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29.5546875" customWidth="1"/>
     <col min="2" max="2" width="62.44140625" customWidth="1"/>
-    <col min="40" max="40" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="40" max="41" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.3">
       <c r="C1" s="1">
         <v>43897</v>
       </c>
@@ -791,8 +803,11 @@
       <c r="AN1" s="1">
         <v>43934</v>
       </c>
-    </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO1" s="1">
+        <v>43935</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -816,7 +831,7 @@
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -916,8 +931,11 @@
       <c r="AN3" s="19">
         <v>11518</v>
       </c>
-    </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO3">
+        <v>11525</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1038,8 +1056,11 @@
       <c r="AN4" s="19">
         <v>2058</v>
       </c>
-    </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO4">
+        <v>2197</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -1142,8 +1163,11 @@
       <c r="AN5">
         <v>67</v>
       </c>
-    </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO5">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -1216,11 +1240,14 @@
       <c r="AN6">
         <v>518</v>
       </c>
-    </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO6">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
@@ -1287,8 +1314,11 @@
       <c r="AN8">
         <v>94</v>
       </c>
-    </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO8">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
@@ -1355,8 +1385,11 @@
       <c r="AN9">
         <v>442</v>
       </c>
-    </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO9">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
@@ -1423,8 +1456,11 @@
       <c r="AN10">
         <v>212</v>
       </c>
-    </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO10">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
@@ -1491,13 +1527,16 @@
       <c r="AN11">
         <v>230</v>
       </c>
-    </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO11">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
@@ -1505,7 +1544,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>9</v>
       </c>
@@ -1575,8 +1614,11 @@
       <c r="AN15">
         <v>65</v>
       </c>
-    </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO15">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>9</v>
       </c>
@@ -1592,8 +1634,11 @@
       <c r="AN16">
         <v>50</v>
       </c>
-    </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO16">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>9</v>
       </c>
@@ -1609,8 +1654,11 @@
       <c r="AN17">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO17">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>9</v>
       </c>
@@ -1671,8 +1719,11 @@
       <c r="AN18">
         <v>102</v>
       </c>
-    </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>9</v>
       </c>
@@ -1733,8 +1784,11 @@
       <c r="AN19">
         <v>152</v>
       </c>
-    </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO19">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="20" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>9</v>
       </c>
@@ -1795,13 +1849,16 @@
       <c r="AN20">
         <v>403</v>
       </c>
-    </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO20">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="22" spans="1:41" x14ac:dyDescent="0.3">
       <c r="B22" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>10</v>
       </c>
@@ -1871,8 +1928,11 @@
       <c r="AN23">
         <v>58</v>
       </c>
-    </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO23">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>10</v>
       </c>
@@ -1888,8 +1948,11 @@
       <c r="AN24">
         <v>52</v>
       </c>
-    </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO24">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>10</v>
       </c>
@@ -1905,8 +1968,11 @@
       <c r="AN25">
         <v>6</v>
       </c>
-    </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>10</v>
       </c>
@@ -1967,8 +2033,11 @@
       <c r="AN26">
         <v>236</v>
       </c>
-    </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO26">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="27" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>10</v>
       </c>
@@ -2029,8 +2098,11 @@
       <c r="AN27">
         <v>288</v>
       </c>
-    </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO27">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="28" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>10</v>
       </c>
@@ -2091,13 +2163,16 @@
       <c r="AN28">
         <v>395</v>
       </c>
-    </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO28">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="30" spans="1:41" x14ac:dyDescent="0.3">
       <c r="B30" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>21</v>
       </c>
@@ -2158,8 +2233,11 @@
       <c r="AN31">
         <v>18</v>
       </c>
-    </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO31">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>21</v>
       </c>
@@ -2172,8 +2250,11 @@
       <c r="AN32">
         <v>18</v>
       </c>
-    </row>
-    <row r="33" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO32">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>21</v>
       </c>
@@ -2186,8 +2267,11 @@
       <c r="AN33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>21</v>
       </c>
@@ -2248,8 +2332,11 @@
       <c r="AN34">
         <v>167</v>
       </c>
-    </row>
-    <row r="35" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO34">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="35" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>21</v>
       </c>
@@ -2307,8 +2394,11 @@
       <c r="AN35">
         <v>185</v>
       </c>
-    </row>
-    <row r="36" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="36" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>21</v>
       </c>
@@ -2369,13 +2459,16 @@
       <c r="AN36">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO36">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:41" x14ac:dyDescent="0.3">
       <c r="B38" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>18</v>
       </c>
@@ -2439,8 +2532,11 @@
       <c r="AN39">
         <v>53</v>
       </c>
-    </row>
-    <row r="40" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO39">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>18</v>
       </c>
@@ -2456,8 +2552,11 @@
       <c r="AN40">
         <v>44</v>
       </c>
-    </row>
-    <row r="41" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO40">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>18</v>
       </c>
@@ -2473,8 +2572,11 @@
       <c r="AN41">
         <v>9</v>
       </c>
-    </row>
-    <row r="42" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO41">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>18</v>
       </c>
@@ -2535,8 +2637,11 @@
       <c r="AN42">
         <v>385</v>
       </c>
-    </row>
-    <row r="43" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO42">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="43" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>18</v>
       </c>
@@ -2552,8 +2657,11 @@
       <c r="AN43">
         <v>429</v>
       </c>
-    </row>
-    <row r="44" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO43">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="44" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>18</v>
       </c>
@@ -2566,360 +2674,345 @@
       <c r="AN44">
         <v>9</v>
       </c>
-    </row>
-    <row r="46" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="B46" t="s">
+      <c r="AO44">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B45" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A46" s="2"/>
+    </row>
+    <row r="47" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B47" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z47">
-        <v>0</v>
-      </c>
-      <c r="AA47">
-        <v>1</v>
-      </c>
-      <c r="AB47">
-        <v>2</v>
-      </c>
-      <c r="AC47">
-        <v>2</v>
-      </c>
-      <c r="AD47">
-        <v>3</v>
-      </c>
-      <c r="AE47">
-        <v>2</v>
-      </c>
-      <c r="AF47">
-        <v>3</v>
-      </c>
-      <c r="AG47">
-        <v>4</v>
-      </c>
-      <c r="AH47">
-        <v>4</v>
-      </c>
-      <c r="AI47">
-        <v>4</v>
-      </c>
-      <c r="AJ47">
-        <v>5</v>
-      </c>
-      <c r="AK47">
-        <v>6</v>
-      </c>
-      <c r="AL47">
-        <v>5</v>
-      </c>
-      <c r="AN47">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B48" t="s">
-        <v>65</v>
+        <v>11</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>1</v>
+      </c>
+      <c r="AB48">
+        <v>2</v>
+      </c>
+      <c r="AC48">
+        <v>2</v>
+      </c>
+      <c r="AD48">
+        <v>3</v>
+      </c>
+      <c r="AE48">
+        <v>2</v>
+      </c>
+      <c r="AF48">
+        <v>3</v>
+      </c>
+      <c r="AG48">
+        <v>4</v>
+      </c>
+      <c r="AH48">
+        <v>4</v>
+      </c>
+      <c r="AI48">
+        <v>4</v>
+      </c>
+      <c r="AJ48">
+        <v>5</v>
+      </c>
+      <c r="AK48">
+        <v>6</v>
       </c>
       <c r="AL48">
         <v>5</v>
       </c>
       <c r="AN48">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:40" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="AO48">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B49" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="AL49">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AN49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:40" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="AO49">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B50" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z50">
-        <v>40</v>
-      </c>
-      <c r="AA50">
-        <v>54</v>
-      </c>
-      <c r="AB50">
-        <v>54</v>
-      </c>
-      <c r="AC50">
-        <v>51</v>
-      </c>
-      <c r="AD50">
-        <v>53</v>
-      </c>
-      <c r="AE50">
-        <v>53</v>
-      </c>
-      <c r="AF50">
-        <v>66</v>
-      </c>
-      <c r="AG50">
-        <v>66</v>
-      </c>
-      <c r="AH50">
-        <v>73</v>
-      </c>
-      <c r="AI50">
-        <v>87</v>
-      </c>
-      <c r="AJ50">
-        <v>87</v>
-      </c>
-      <c r="AK50">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="AL50">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="AN50">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="51" spans="1:40" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AO50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B51" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z51">
         <v>40</v>
       </c>
       <c r="AA51">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AB51">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AC51">
+        <v>51</v>
+      </c>
+      <c r="AD51">
         <v>53</v>
       </c>
-      <c r="AD51">
-        <v>56</v>
-      </c>
       <c r="AE51">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AF51">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="AG51">
+        <v>66</v>
+      </c>
+      <c r="AH51">
+        <v>73</v>
+      </c>
+      <c r="AI51">
+        <v>87</v>
+      </c>
+      <c r="AJ51">
+        <v>87</v>
+      </c>
+      <c r="AK51">
+        <v>81</v>
+      </c>
+      <c r="AL51">
+        <v>87</v>
+      </c>
+      <c r="AN51">
+        <v>81</v>
+      </c>
+      <c r="AO51">
         <v>70</v>
       </c>
-      <c r="AH51">
-        <v>77</v>
-      </c>
-      <c r="AI51">
-        <v>91</v>
-      </c>
-      <c r="AJ51">
-        <v>92</v>
-      </c>
-      <c r="AK51">
-        <v>87</v>
-      </c>
-      <c r="AL51">
-        <v>92</v>
-      </c>
-      <c r="AN51">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="52" spans="1:40" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B52" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z52">
+        <v>40</v>
+      </c>
+      <c r="AA52">
+        <v>55</v>
+      </c>
+      <c r="AB52">
+        <v>56</v>
+      </c>
+      <c r="AC52">
+        <v>53</v>
+      </c>
+      <c r="AD52">
+        <v>56</v>
+      </c>
+      <c r="AE52">
+        <v>55</v>
+      </c>
+      <c r="AF52">
+        <v>69</v>
+      </c>
+      <c r="AG52">
+        <v>70</v>
+      </c>
+      <c r="AH52">
+        <v>77</v>
+      </c>
+      <c r="AI52">
+        <v>91</v>
+      </c>
+      <c r="AJ52">
+        <v>92</v>
+      </c>
+      <c r="AK52">
+        <v>87</v>
+      </c>
+      <c r="AL52">
+        <v>92</v>
+      </c>
+      <c r="AN52">
+        <v>87</v>
+      </c>
+      <c r="AO52">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B53" t="s">
         <v>14</v>
       </c>
-      <c r="Z52">
+      <c r="Z53">
         <v>8</v>
       </c>
-      <c r="AA52">
+      <c r="AA53">
         <v>8</v>
       </c>
-      <c r="AB52">
+      <c r="AB53">
         <v>8</v>
       </c>
-      <c r="AC52">
+      <c r="AC53">
         <v>8</v>
       </c>
-      <c r="AD52">
+      <c r="AD53">
         <v>8</v>
       </c>
-      <c r="AE52">
+      <c r="AE53">
         <v>8</v>
       </c>
-      <c r="AF52">
+      <c r="AF53">
         <v>8</v>
       </c>
-      <c r="AG52">
+      <c r="AG53">
         <v>8</v>
       </c>
-      <c r="AH52">
+      <c r="AH53">
         <v>8</v>
       </c>
-      <c r="AI52">
+      <c r="AI53">
         <v>8</v>
       </c>
-      <c r="AJ52">
+      <c r="AJ53">
         <v>8</v>
       </c>
-      <c r="AK52">
+      <c r="AK53">
         <v>8</v>
       </c>
-      <c r="AL52">
+      <c r="AL53">
         <v>8</v>
       </c>
-      <c r="AN52">
+      <c r="AN53">
         <v>8</v>
       </c>
-    </row>
-    <row r="54" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO53">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B54" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z54">
+        <v>72</v>
+      </c>
+      <c r="AO54">
         <v>1</v>
       </c>
-      <c r="AA54">
-        <v>1</v>
-      </c>
-      <c r="AB54">
-        <v>2</v>
-      </c>
-      <c r="AC54">
-        <v>2</v>
-      </c>
-      <c r="AD54">
-        <v>2</v>
-      </c>
-      <c r="AE54">
-        <v>3</v>
-      </c>
-      <c r="AF54">
-        <v>3</v>
-      </c>
-      <c r="AG54">
-        <v>3</v>
-      </c>
-      <c r="AH54">
-        <v>3</v>
-      </c>
-      <c r="AI54">
-        <v>3</v>
-      </c>
-      <c r="AJ54">
-        <v>4</v>
-      </c>
-      <c r="AK54">
-        <v>4</v>
-      </c>
-      <c r="AL54">
-        <v>4</v>
-      </c>
-      <c r="AN54">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A55" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B55" t="s">
-        <v>65</v>
-      </c>
-      <c r="AL55">
-        <v>4</v>
-      </c>
-      <c r="AN55">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:40" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B56" t="s">
-        <v>68</v>
+        <v>15</v>
+      </c>
+      <c r="Z56">
+        <v>1</v>
+      </c>
+      <c r="AA56">
+        <v>1</v>
+      </c>
+      <c r="AB56">
+        <v>2</v>
+      </c>
+      <c r="AC56">
+        <v>2</v>
+      </c>
+      <c r="AD56">
+        <v>2</v>
+      </c>
+      <c r="AE56">
+        <v>3</v>
+      </c>
+      <c r="AF56">
+        <v>3</v>
+      </c>
+      <c r="AG56">
+        <v>3</v>
+      </c>
+      <c r="AH56">
+        <v>3</v>
+      </c>
+      <c r="AI56">
+        <v>3</v>
+      </c>
+      <c r="AJ56">
+        <v>4</v>
+      </c>
+      <c r="AK56">
+        <v>4</v>
       </c>
       <c r="AL56">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AN56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:40" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="AO56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B57" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z57">
-        <v>7</v>
-      </c>
-      <c r="AA57">
-        <v>54</v>
-      </c>
-      <c r="AB57">
-        <v>6</v>
-      </c>
-      <c r="AC57">
-        <v>7</v>
-      </c>
-      <c r="AD57">
-        <v>7</v>
-      </c>
-      <c r="AE57">
-        <v>6</v>
-      </c>
-      <c r="AF57">
-        <v>6</v>
-      </c>
-      <c r="AG57">
-        <v>6</v>
-      </c>
-      <c r="AH57">
-        <v>6</v>
-      </c>
-      <c r="AI57">
-        <v>6</v>
-      </c>
-      <c r="AJ57">
-        <v>7</v>
-      </c>
-      <c r="AK57">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="AL57">
         <v>4</v>
@@ -2927,72 +3020,42 @@
       <c r="AN57">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B58" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z58">
-        <v>8</v>
-      </c>
-      <c r="AA58">
-        <v>55</v>
-      </c>
-      <c r="AB58">
-        <v>8</v>
-      </c>
-      <c r="AC58">
-        <v>9</v>
-      </c>
-      <c r="AD58">
-        <v>9</v>
-      </c>
-      <c r="AE58">
-        <v>9</v>
-      </c>
-      <c r="AF58">
-        <v>9</v>
-      </c>
-      <c r="AG58">
-        <v>9</v>
-      </c>
-      <c r="AH58">
-        <v>9</v>
-      </c>
-      <c r="AI58">
-        <v>9</v>
-      </c>
-      <c r="AJ58">
-        <v>11</v>
-      </c>
-      <c r="AK58">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="AL58">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AN58">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="59" spans="1:40" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="AO58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B59" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Z59">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AA59">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="AB59">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AC59">
         <v>7</v>
@@ -3001,588 +3064,755 @@
         <v>7</v>
       </c>
       <c r="AE59">
+        <v>6</v>
+      </c>
+      <c r="AF59">
+        <v>6</v>
+      </c>
+      <c r="AG59">
+        <v>6</v>
+      </c>
+      <c r="AH59">
+        <v>6</v>
+      </c>
+      <c r="AI59">
+        <v>6</v>
+      </c>
+      <c r="AJ59">
         <v>7</v>
       </c>
-      <c r="AF59">
-        <v>7</v>
-      </c>
-      <c r="AG59">
-        <v>0</v>
-      </c>
-      <c r="AH59">
-        <v>0</v>
-      </c>
-      <c r="AI59">
-        <v>0</v>
-      </c>
-      <c r="AJ59">
-        <v>0</v>
-      </c>
       <c r="AK59">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AL59">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AN59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:40" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="AO59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B60" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z60">
+        <v>8</v>
+      </c>
+      <c r="AA60">
+        <v>55</v>
+      </c>
+      <c r="AB60">
+        <v>8</v>
+      </c>
+      <c r="AC60">
+        <v>9</v>
+      </c>
+      <c r="AD60">
+        <v>9</v>
+      </c>
+      <c r="AE60">
+        <v>9</v>
+      </c>
+      <c r="AF60">
+        <v>9</v>
+      </c>
+      <c r="AG60">
+        <v>9</v>
+      </c>
+      <c r="AH60">
+        <v>9</v>
+      </c>
+      <c r="AI60">
+        <v>9</v>
+      </c>
+      <c r="AJ60">
+        <v>11</v>
+      </c>
+      <c r="AK60">
+        <v>7</v>
+      </c>
+      <c r="AL60">
+        <v>8</v>
+      </c>
+      <c r="AN60">
+        <v>6</v>
+      </c>
+      <c r="AO60">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B61" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+      <c r="AA61">
+        <v>8</v>
+      </c>
+      <c r="AB61">
+        <v>7</v>
+      </c>
+      <c r="AC61">
+        <v>7</v>
+      </c>
+      <c r="AD61">
+        <v>7</v>
+      </c>
+      <c r="AE61">
+        <v>7</v>
+      </c>
+      <c r="AF61">
+        <v>7</v>
+      </c>
+      <c r="AG61">
+        <v>0</v>
+      </c>
+      <c r="AH61">
+        <v>0</v>
+      </c>
+      <c r="AI61">
+        <v>0</v>
+      </c>
+      <c r="AJ61">
+        <v>0</v>
+      </c>
+      <c r="AK61">
+        <v>0</v>
+      </c>
+      <c r="AL61">
+        <v>0</v>
+      </c>
+      <c r="AN61">
+        <v>0</v>
+      </c>
+      <c r="AO61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B62" t="s">
         <v>69</v>
       </c>
-      <c r="AL60">
+      <c r="AL62">
         <v>0</v>
       </c>
-      <c r="AN60">
+      <c r="AN62">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="B62" s="2" t="s">
+      <c r="AO62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="B64" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="63" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A63" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B63" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA63">
-        <v>5</v>
-      </c>
-      <c r="AB63">
-        <v>8</v>
-      </c>
-      <c r="AC63">
-        <v>12</v>
-      </c>
-      <c r="AD63">
-        <v>12</v>
-      </c>
-      <c r="AE63">
-        <v>15</v>
-      </c>
-      <c r="AF63">
-        <v>17</v>
-      </c>
-      <c r="AG63">
-        <v>19</v>
-      </c>
-      <c r="AH63">
-        <v>19</v>
-      </c>
-      <c r="AI63">
-        <v>22</v>
-      </c>
-      <c r="AJ63">
-        <v>22</v>
-      </c>
-      <c r="AK63">
-        <v>27</v>
-      </c>
-      <c r="AL63">
-        <v>34</v>
-      </c>
-      <c r="AM63">
-        <v>48</v>
-      </c>
-      <c r="AN63">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="64" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A64" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B64" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA64">
-        <v>48</v>
-      </c>
-      <c r="AB64">
-        <v>55</v>
-      </c>
-      <c r="AC64">
-        <v>55</v>
-      </c>
-      <c r="AD64">
-        <v>70</v>
-      </c>
-      <c r="AE64">
-        <v>97</v>
-      </c>
-      <c r="AF64">
-        <v>101</v>
-      </c>
-      <c r="AG64">
-        <v>107</v>
-      </c>
-      <c r="AH64">
-        <v>152</v>
-      </c>
-      <c r="AI64">
-        <v>155</v>
-      </c>
-      <c r="AJ64">
-        <v>161</v>
-      </c>
-      <c r="AK64">
-        <v>189</v>
-      </c>
-      <c r="AL64">
-        <v>222</v>
-      </c>
-      <c r="AM64">
-        <v>248</v>
-      </c>
-      <c r="AN64">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="65" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B65" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA65">
+        <v>5</v>
+      </c>
+      <c r="AB65">
+        <v>8</v>
+      </c>
+      <c r="AC65">
+        <v>12</v>
+      </c>
+      <c r="AD65">
+        <v>12</v>
+      </c>
+      <c r="AE65">
+        <v>15</v>
+      </c>
+      <c r="AF65">
+        <v>17</v>
+      </c>
+      <c r="AG65">
+        <v>19</v>
+      </c>
+      <c r="AH65">
+        <v>19</v>
+      </c>
+      <c r="AI65">
+        <v>22</v>
+      </c>
+      <c r="AJ65">
+        <v>22</v>
+      </c>
+      <c r="AK65">
+        <v>27</v>
+      </c>
+      <c r="AL65">
+        <v>34</v>
+      </c>
+      <c r="AM65">
+        <v>48</v>
+      </c>
+      <c r="AN65">
+        <v>62</v>
+      </c>
+      <c r="AO65">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="66" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B66" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA66">
+        <v>48</v>
+      </c>
+      <c r="AB66">
+        <v>55</v>
+      </c>
+      <c r="AC66">
+        <v>55</v>
+      </c>
+      <c r="AD66">
+        <v>70</v>
+      </c>
+      <c r="AE66">
+        <v>97</v>
+      </c>
+      <c r="AF66">
+        <v>101</v>
+      </c>
+      <c r="AG66">
+        <v>107</v>
+      </c>
+      <c r="AH66">
+        <v>152</v>
+      </c>
+      <c r="AI66">
+        <v>155</v>
+      </c>
+      <c r="AJ66">
+        <v>161</v>
+      </c>
+      <c r="AK66">
+        <v>189</v>
+      </c>
+      <c r="AL66">
+        <v>222</v>
+      </c>
+      <c r="AM66">
+        <v>248</v>
+      </c>
+      <c r="AN66">
+        <v>258</v>
+      </c>
+      <c r="AO66">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="67" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B67" t="s">
         <v>30</v>
       </c>
-      <c r="AA65">
+      <c r="AA67">
         <v>35</v>
       </c>
-      <c r="AB65">
+      <c r="AB67">
         <v>43</v>
       </c>
-      <c r="AC65">
+      <c r="AC67">
         <v>43</v>
       </c>
-      <c r="AD65">
+      <c r="AD67">
         <v>59</v>
       </c>
-      <c r="AE65">
+      <c r="AE67">
         <v>83</v>
       </c>
-      <c r="AF65">
+      <c r="AF67">
         <v>77</v>
       </c>
-      <c r="AG65">
+      <c r="AG67">
         <v>93</v>
       </c>
-      <c r="AH65">
+      <c r="AH67">
         <v>140</v>
       </c>
-      <c r="AI65">
+      <c r="AI67">
         <v>145</v>
       </c>
-      <c r="AJ65">
+      <c r="AJ67">
         <v>145</v>
       </c>
-      <c r="AK65">
+      <c r="AK67">
         <v>187</v>
       </c>
-      <c r="AL65">
+      <c r="AL67">
         <v>202</v>
       </c>
-      <c r="AM65">
+      <c r="AM67">
         <v>248</v>
       </c>
-      <c r="AN65">
+      <c r="AN67">
         <v>225</v>
       </c>
-    </row>
-    <row r="67" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A67" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B67" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA67">
-        <v>5</v>
-      </c>
-      <c r="AB67">
-        <v>5</v>
-      </c>
-      <c r="AC67">
-        <v>8</v>
-      </c>
-      <c r="AD67">
-        <v>9</v>
-      </c>
-      <c r="AE67">
-        <v>14</v>
-      </c>
-      <c r="AF67">
-        <v>14</v>
-      </c>
-      <c r="AG67">
-        <v>19</v>
-      </c>
-      <c r="AH67">
-        <v>22</v>
-      </c>
-      <c r="AI67">
-        <v>29</v>
-      </c>
-      <c r="AJ67">
-        <v>30</v>
-      </c>
-      <c r="AK67">
-        <v>33</v>
-      </c>
-      <c r="AL67">
-        <v>38</v>
-      </c>
-      <c r="AM67">
-        <v>38</v>
-      </c>
-      <c r="AN67">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="68" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO67">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="68" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B68" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA68">
-        <v>22</v>
-      </c>
-      <c r="AB68">
-        <v>40</v>
-      </c>
-      <c r="AC68">
-        <v>43</v>
-      </c>
-      <c r="AD68">
-        <v>39</v>
-      </c>
-      <c r="AE68">
-        <v>53</v>
-      </c>
-      <c r="AF68">
-        <v>53</v>
-      </c>
-      <c r="AG68">
-        <v>61</v>
-      </c>
-      <c r="AH68">
-        <v>69</v>
-      </c>
-      <c r="AI68">
-        <v>73</v>
-      </c>
-      <c r="AJ68">
-        <v>73</v>
-      </c>
-      <c r="AK68">
-        <v>77</v>
-      </c>
-      <c r="AL68">
-        <v>33</v>
-      </c>
-      <c r="AM68">
-        <v>33</v>
-      </c>
-      <c r="AN68">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="69" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A69" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B69" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA69">
-        <v>27</v>
-      </c>
-      <c r="AB69">
-        <v>45</v>
-      </c>
-      <c r="AC69">
-        <v>51</v>
-      </c>
-      <c r="AD69">
-        <v>48</v>
-      </c>
-      <c r="AE69">
-        <v>53</v>
-      </c>
-      <c r="AF69">
-        <v>53</v>
-      </c>
-      <c r="AG69">
-        <v>61</v>
-      </c>
-      <c r="AH69">
-        <v>69</v>
-      </c>
-      <c r="AI69">
-        <v>73</v>
-      </c>
-      <c r="AJ69">
-        <v>73</v>
-      </c>
-      <c r="AK69">
-        <v>77</v>
-      </c>
-      <c r="AL69">
-        <v>71</v>
-      </c>
-      <c r="AM69">
-        <v>71</v>
-      </c>
-      <c r="AN69">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="70" spans="1:40" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+      <c r="AO68">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B70" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA70">
+        <v>5</v>
+      </c>
+      <c r="AB70">
+        <v>5</v>
+      </c>
+      <c r="AC70">
+        <v>8</v>
+      </c>
+      <c r="AD70">
+        <v>9</v>
+      </c>
+      <c r="AE70">
         <v>14</v>
       </c>
-      <c r="AA70">
+      <c r="AF70">
+        <v>14</v>
+      </c>
+      <c r="AG70">
+        <v>19</v>
+      </c>
+      <c r="AH70">
+        <v>22</v>
+      </c>
+      <c r="AI70">
+        <v>29</v>
+      </c>
+      <c r="AJ70">
+        <v>30</v>
+      </c>
+      <c r="AK70">
+        <v>33</v>
+      </c>
+      <c r="AL70">
+        <v>38</v>
+      </c>
+      <c r="AM70">
+        <v>38</v>
+      </c>
+      <c r="AN70">
+        <v>43</v>
+      </c>
+      <c r="AO70">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="71" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B71" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA71">
+        <v>22</v>
+      </c>
+      <c r="AB71">
+        <v>40</v>
+      </c>
+      <c r="AC71">
+        <v>43</v>
+      </c>
+      <c r="AD71">
+        <v>39</v>
+      </c>
+      <c r="AE71">
+        <v>53</v>
+      </c>
+      <c r="AF71">
+        <v>53</v>
+      </c>
+      <c r="AG71">
+        <v>61</v>
+      </c>
+      <c r="AH71">
+        <v>69</v>
+      </c>
+      <c r="AI71">
+        <v>73</v>
+      </c>
+      <c r="AJ71">
+        <v>73</v>
+      </c>
+      <c r="AK71">
+        <v>77</v>
+      </c>
+      <c r="AL71">
+        <v>33</v>
+      </c>
+      <c r="AM71">
+        <v>33</v>
+      </c>
+      <c r="AN71">
+        <v>23</v>
+      </c>
+      <c r="AO71">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="72" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B72" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA72">
+        <v>27</v>
+      </c>
+      <c r="AB72">
+        <v>45</v>
+      </c>
+      <c r="AC72">
+        <v>51</v>
+      </c>
+      <c r="AD72">
+        <v>48</v>
+      </c>
+      <c r="AE72">
+        <v>53</v>
+      </c>
+      <c r="AF72">
+        <v>53</v>
+      </c>
+      <c r="AG72">
+        <v>61</v>
+      </c>
+      <c r="AH72">
+        <v>69</v>
+      </c>
+      <c r="AI72">
+        <v>73</v>
+      </c>
+      <c r="AJ72">
+        <v>73</v>
+      </c>
+      <c r="AK72">
+        <v>77</v>
+      </c>
+      <c r="AL72">
+        <v>71</v>
+      </c>
+      <c r="AM72">
+        <v>71</v>
+      </c>
+      <c r="AN72">
+        <v>66</v>
+      </c>
+      <c r="AO72">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B73" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA73">
         <v>0</v>
       </c>
-      <c r="AB70">
+      <c r="AB73">
         <v>0</v>
       </c>
-      <c r="AC70">
+      <c r="AC73">
         <v>0</v>
       </c>
-      <c r="AD70" s="10" t="s">
+      <c r="AD73" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="AE70" t="s">
+      <c r="AE73" t="s">
         <v>40</v>
       </c>
-      <c r="AF70" t="s">
+      <c r="AF73" t="s">
         <v>40</v>
       </c>
-      <c r="AG70" t="s">
+      <c r="AG73" t="s">
         <v>40</v>
       </c>
-      <c r="AH70">
+      <c r="AH73">
         <v>1</v>
       </c>
-      <c r="AI70">
+      <c r="AI73">
         <v>1</v>
       </c>
-      <c r="AJ70">
+      <c r="AJ73">
         <v>2</v>
       </c>
-      <c r="AK70">
+      <c r="AK73">
         <v>2</v>
       </c>
-      <c r="AL70">
+      <c r="AL73">
         <v>9</v>
       </c>
-      <c r="AM70">
+      <c r="AM73">
         <v>9</v>
       </c>
-      <c r="AN70">
+      <c r="AN73">
         <v>9</v>
       </c>
-    </row>
-    <row r="72" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A72" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B72" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA72">
-        <v>1</v>
-      </c>
-      <c r="AB72">
-        <v>1</v>
-      </c>
-      <c r="AC72">
-        <v>3</v>
-      </c>
-      <c r="AD72">
-        <v>5</v>
-      </c>
-      <c r="AE72">
-        <v>6</v>
-      </c>
-      <c r="AF72">
-        <v>7</v>
-      </c>
-      <c r="AG72">
+      <c r="AO73">
         <v>9</v>
       </c>
-      <c r="AH72">
-        <v>11</v>
-      </c>
-      <c r="AI72">
-        <v>14</v>
-      </c>
-      <c r="AJ72">
-        <v>15</v>
-      </c>
-      <c r="AK72">
-        <v>17</v>
-      </c>
-      <c r="AL72">
-        <v>21</v>
-      </c>
-      <c r="AM72">
-        <v>21</v>
-      </c>
-      <c r="AN72">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="73" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A73" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B73" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA73">
-        <v>17</v>
-      </c>
-      <c r="AB73">
-        <v>18</v>
-      </c>
-      <c r="AC73">
-        <v>81</v>
-      </c>
-      <c r="AD73">
-        <v>124</v>
-      </c>
-      <c r="AE73">
-        <v>95</v>
-      </c>
-      <c r="AF73">
-        <v>95</v>
-      </c>
-      <c r="AG73">
-        <v>119</v>
-      </c>
-      <c r="AH73">
-        <v>142</v>
-      </c>
-      <c r="AI73">
-        <v>142</v>
-      </c>
-      <c r="AJ73">
-        <v>142</v>
-      </c>
-      <c r="AK73">
-        <v>144</v>
-      </c>
-      <c r="AL73">
-        <v>123</v>
-      </c>
-      <c r="AM73">
-        <v>144</v>
-      </c>
-      <c r="AN73">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="74" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A74" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B74" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA74">
-        <v>18</v>
-      </c>
-      <c r="AB74">
-        <v>18</v>
-      </c>
-      <c r="AC74">
-        <v>81</v>
-      </c>
-      <c r="AD74">
-        <v>124</v>
-      </c>
-      <c r="AE74">
-        <v>95</v>
-      </c>
-      <c r="AF74">
-        <v>95</v>
-      </c>
-      <c r="AG74">
-        <v>119</v>
-      </c>
-      <c r="AL74">
-        <v>144</v>
-      </c>
-      <c r="AM74">
-        <v>144</v>
-      </c>
-      <c r="AN74">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="75" spans="1:40" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B75" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="AA75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB75">
         <v>1</v>
       </c>
       <c r="AC75">
+        <v>3</v>
+      </c>
+      <c r="AD75">
+        <v>5</v>
+      </c>
+      <c r="AE75">
+        <v>6</v>
+      </c>
+      <c r="AF75">
+        <v>7</v>
+      </c>
+      <c r="AG75">
+        <v>9</v>
+      </c>
+      <c r="AH75">
+        <v>11</v>
+      </c>
+      <c r="AI75">
+        <v>14</v>
+      </c>
+      <c r="AJ75">
+        <v>15</v>
+      </c>
+      <c r="AK75">
+        <v>17</v>
+      </c>
+      <c r="AL75">
+        <v>21</v>
+      </c>
+      <c r="AM75">
+        <v>21</v>
+      </c>
+      <c r="AN75">
+        <v>28</v>
+      </c>
+      <c r="AO75">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="76" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B76" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA76">
+        <v>17</v>
+      </c>
+      <c r="AB76">
+        <v>18</v>
+      </c>
+      <c r="AC76">
+        <v>81</v>
+      </c>
+      <c r="AD76">
+        <v>124</v>
+      </c>
+      <c r="AE76">
+        <v>95</v>
+      </c>
+      <c r="AF76">
+        <v>95</v>
+      </c>
+      <c r="AG76">
+        <v>119</v>
+      </c>
+      <c r="AH76">
+        <v>142</v>
+      </c>
+      <c r="AI76">
+        <v>142</v>
+      </c>
+      <c r="AJ76">
+        <v>142</v>
+      </c>
+      <c r="AK76">
+        <v>144</v>
+      </c>
+      <c r="AL76">
+        <v>123</v>
+      </c>
+      <c r="AM76">
+        <v>144</v>
+      </c>
+      <c r="AN76">
+        <v>105</v>
+      </c>
+      <c r="AO76">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="77" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B77" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA77">
+        <v>18</v>
+      </c>
+      <c r="AB77">
+        <v>18</v>
+      </c>
+      <c r="AC77">
+        <v>81</v>
+      </c>
+      <c r="AD77">
+        <v>124</v>
+      </c>
+      <c r="AE77">
+        <v>95</v>
+      </c>
+      <c r="AF77">
+        <v>95</v>
+      </c>
+      <c r="AG77">
+        <v>119</v>
+      </c>
+      <c r="AL77">
+        <v>144</v>
+      </c>
+      <c r="AM77">
+        <v>144</v>
+      </c>
+      <c r="AN77">
+        <v>105</v>
+      </c>
+      <c r="AO77">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="78" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B78" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA78">
+        <v>0</v>
+      </c>
+      <c r="AB78">
         <v>1</v>
       </c>
-      <c r="AD75">
+      <c r="AC78">
         <v>1</v>
       </c>
-      <c r="AE75">
+      <c r="AD78">
         <v>1</v>
       </c>
-      <c r="AF75">
+      <c r="AE78">
         <v>1</v>
       </c>
-      <c r="AG75">
+      <c r="AF78">
         <v>1</v>
       </c>
-      <c r="AH75">
+      <c r="AG78">
         <v>1</v>
       </c>
-      <c r="AI75">
+      <c r="AH78">
         <v>1</v>
       </c>
-      <c r="AJ75">
+      <c r="AI78">
         <v>1</v>
       </c>
-      <c r="AK75">
+      <c r="AJ78">
+        <v>1</v>
+      </c>
+      <c r="AK78">
         <v>2</v>
       </c>
-      <c r="AL75">
+      <c r="AL78">
         <v>2</v>
       </c>
-      <c r="AM75">
+      <c r="AM78">
         <v>2</v>
       </c>
-      <c r="AN75">
+      <c r="AN78">
         <v>2</v>
+      </c>
+      <c r="AO78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B79" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO79">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -3593,20 +3823,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:O11"/>
+  <dimension ref="A2:P11"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.44140625" customWidth="1"/>
     <col min="2" max="2" width="9.44140625" customWidth="1"/>
-    <col min="15" max="15" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>32</v>
       </c>
@@ -3652,8 +3882,11 @@
       <c r="O2" s="9">
         <v>43934</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P2" s="9">
+        <v>43935</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -3699,8 +3932,11 @@
       <c r="O3">
         <v>230</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P3">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -3746,8 +3982,11 @@
       <c r="O4">
         <v>182</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P4">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -3793,8 +4032,11 @@
       <c r="O5">
         <v>149</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P5">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>4</v>
       </c>
@@ -3840,8 +4082,11 @@
       <c r="O6">
         <v>326</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P6">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -3887,8 +4132,11 @@
       <c r="O7">
         <v>262</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P7">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>6</v>
       </c>
@@ -3934,8 +4182,11 @@
       <c r="O8">
         <v>290</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P8">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -3981,8 +4232,11 @@
       <c r="O9">
         <v>296</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P9">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>8</v>
       </c>
@@ -4028,8 +4282,11 @@
       <c r="O10">
         <v>237</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P10">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>39</v>
       </c>
@@ -4074,6 +4331,9 @@
       </c>
       <c r="O11">
         <v>86</v>
+      </c>
+      <c r="P11">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -4084,20 +4344,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A2:J17"/>
+  <dimension ref="A2:K17"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.6640625" style="16" customWidth="1"/>
     <col min="2" max="2" width="23.5546875" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15"/>
       <c r="B2" s="12">
         <v>43926</v>
@@ -4126,8 +4386,11 @@
       <c r="J2" s="9">
         <v>43934</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K2" s="9">
+        <v>43935</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>41</v>
       </c>
@@ -4135,7 +4398,7 @@
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>54</v>
       </c>
@@ -4166,8 +4429,11 @@
       <c r="J4">
         <v>2058</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K4">
+        <v>2197</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>39</v>
       </c>
@@ -4198,8 +4464,11 @@
       <c r="J5">
         <v>400</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K5">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>42</v>
       </c>
@@ -4230,8 +4499,11 @@
       <c r="J6">
         <v>388</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K6">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>43</v>
       </c>
@@ -4262,8 +4534,11 @@
       <c r="J7">
         <v>932</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K7">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>44</v>
       </c>
@@ -4294,8 +4569,11 @@
       <c r="J8">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="K8">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>45</v>
       </c>
@@ -4326,8 +4604,11 @@
       <c r="J9">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="K9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>55</v>
       </c>
@@ -4354,8 +4635,11 @@
       <c r="J10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
         <v>46</v>
       </c>
@@ -4386,8 +4670,11 @@
       <c r="J11">
         <v>275</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K11">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
         <v>47</v>
       </c>
@@ -4418,8 +4705,11 @@
       <c r="J12">
         <v>26</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>48</v>
       </c>
@@ -4430,7 +4720,7 @@
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
         <v>39</v>
       </c>
@@ -4461,8 +4751,11 @@
       <c r="J14">
         <v>501</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K14">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
         <v>49</v>
       </c>
@@ -4493,8 +4786,11 @@
       <c r="J15">
         <v>299</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K15">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
         <v>50</v>
       </c>
@@ -4525,8 +4821,11 @@
       <c r="J16">
         <v>1252</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K16">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
         <v>47</v>
       </c>
@@ -4555,6 +4854,9 @@
         <v>5</v>
       </c>
       <c r="J17">
+        <v>6</v>
+      </c>
+      <c r="K17">
         <v>6</v>
       </c>
     </row>
@@ -4566,10 +4868,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4578,7 +4880,7 @@
     <col min="10" max="10" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B1" s="9">
         <v>43926</v>
       </c>
@@ -4606,14 +4908,17 @@
       <c r="J1" s="9">
         <v>43934</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K1" s="9">
+        <v>43935</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>41</v>
       </c>
       <c r="B2" s="7"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>54</v>
       </c>
@@ -4645,8 +4950,11 @@
       <c r="J3">
         <v>67</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>44</v>
       </c>
@@ -4677,8 +4985,11 @@
       <c r="J4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="K4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>43</v>
       </c>
@@ -4709,8 +5020,11 @@
       <c r="J5">
         <v>51</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K5">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>51</v>
       </c>
@@ -4741,8 +5055,11 @@
       <c r="J6">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>52</v>
       </c>
@@ -4773,8 +5090,11 @@
       <c r="J7">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>53</v>
       </c>
@@ -4803,6 +5123,9 @@
         <v>0</v>
       </c>
       <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
         <v>0</v>
       </c>
     </row>
@@ -5059,16 +5382,16 @@
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8DEDEF4E-2681-4E64-A6E5-9E41742A3664}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="248ed0f8-11d3-4141-bb91-6b69a0801941"/>
     <ds:schemaRef ds:uri="8e61eea9-d51d-4f9c-960b-1b037651d93e"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="248ed0f8-11d3-4141-bb91-6b69a0801941"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/dcCovid-19DataSummaryToday.xlsx
+++ b/dcCovid-19DataSummaryToday.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dcgovict-my.sharepoint.com/personal/ramona_yun1_dc_gov/Documents/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="133" documentId="8_{C884A327-19F6-4EC6-805C-F52B66916DDD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{B427225E-94CB-400E-B9F6-CCC977D3543D}"/>
+  <xr:revisionPtr revIDLastSave="236" documentId="8_{C884A327-19F6-4EC6-805C-F52B66916DDD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{6FAC7698-CF08-4F3E-987E-2BB2033184DF}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -265,7 +265,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -294,6 +294,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -315,7 +321,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -359,7 +365,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -674,21 +682,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AO79"/>
+  <dimension ref="A1:AP79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="AF1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AF62" sqref="AF62"/>
+      <pane xSplit="2" topLeftCell="AH1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29.5546875" customWidth="1"/>
     <col min="2" max="2" width="62.44140625" customWidth="1"/>
-    <col min="40" max="41" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="40" max="42" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.3">
       <c r="C1" s="1">
         <v>43897</v>
       </c>
@@ -806,8 +814,11 @@
       <c r="AO1" s="1">
         <v>43935</v>
       </c>
-    </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP1" s="1">
+        <v>43936</v>
+      </c>
+    </row>
+    <row r="2" spans="1:42" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -831,7 +842,7 @@
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -929,13 +940,16 @@
         <v>10934</v>
       </c>
       <c r="AN3" s="19">
-        <v>11518</v>
-      </c>
-      <c r="AO3">
+        <v>11284</v>
+      </c>
+      <c r="AO3" s="20">
         <v>11525</v>
       </c>
-    </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP3">
+        <v>12150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1056,11 +1070,14 @@
       <c r="AN4" s="19">
         <v>2058</v>
       </c>
-      <c r="AO4">
+      <c r="AO4" s="20">
         <v>2197</v>
       </c>
-    </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP4">
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -1166,8 +1183,11 @@
       <c r="AO5">
         <v>72</v>
       </c>
-    </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP5">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -1243,11 +1263,14 @@
       <c r="AO6">
         <v>530</v>
       </c>
-    </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP6">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
@@ -1317,8 +1340,11 @@
       <c r="AO8">
         <v>89</v>
       </c>
-    </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP8">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
@@ -1388,8 +1414,11 @@
       <c r="AO9">
         <v>441</v>
       </c>
-    </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP9">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="10" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
@@ -1459,8 +1488,11 @@
       <c r="AO10">
         <v>212</v>
       </c>
-    </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP10">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
@@ -1530,13 +1562,16 @@
       <c r="AO11">
         <v>229</v>
       </c>
-    </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="13" spans="1:42" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
@@ -1544,7 +1579,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>9</v>
       </c>
@@ -1617,8 +1652,11 @@
       <c r="AO15">
         <v>67</v>
       </c>
-    </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP15">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>9</v>
       </c>
@@ -1637,8 +1675,11 @@
       <c r="AO16">
         <v>37</v>
       </c>
-    </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP16">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>9</v>
       </c>
@@ -1657,8 +1698,11 @@
       <c r="AO17">
         <v>30</v>
       </c>
-    </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP17">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>9</v>
       </c>
@@ -1722,8 +1766,11 @@
       <c r="AO18">
         <v>100</v>
       </c>
-    </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP18">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>9</v>
       </c>
@@ -1787,8 +1834,11 @@
       <c r="AO19">
         <v>137</v>
       </c>
-    </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP19">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>9</v>
       </c>
@@ -1852,13 +1902,16 @@
       <c r="AO20">
         <v>446</v>
       </c>
-    </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP20">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="22" spans="1:42" x14ac:dyDescent="0.3">
       <c r="B22" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>10</v>
       </c>
@@ -1931,8 +1984,11 @@
       <c r="AO23">
         <v>59</v>
       </c>
-    </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP23">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>10</v>
       </c>
@@ -1951,8 +2007,11 @@
       <c r="AO24">
         <v>52</v>
       </c>
-    </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP24">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>10</v>
       </c>
@@ -1971,8 +2030,11 @@
       <c r="AO25">
         <v>7</v>
       </c>
-    </row>
-    <row r="26" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>10</v>
       </c>
@@ -2036,8 +2098,11 @@
       <c r="AO26">
         <v>169</v>
       </c>
-    </row>
-    <row r="27" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP26">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="27" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>10</v>
       </c>
@@ -2101,8 +2166,11 @@
       <c r="AO27">
         <v>221</v>
       </c>
-    </row>
-    <row r="28" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP27">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="28" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>10</v>
       </c>
@@ -2166,13 +2234,16 @@
       <c r="AO28">
         <v>446</v>
       </c>
-    </row>
-    <row r="30" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP28">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="30" spans="1:42" x14ac:dyDescent="0.3">
       <c r="B30" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>21</v>
       </c>
@@ -2236,8 +2307,11 @@
       <c r="AO31">
         <v>18</v>
       </c>
-    </row>
-    <row r="32" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP31">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>21</v>
       </c>
@@ -2253,8 +2327,11 @@
       <c r="AO32">
         <v>18</v>
       </c>
-    </row>
-    <row r="33" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP32">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>21</v>
       </c>
@@ -2270,8 +2347,11 @@
       <c r="AO33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>21</v>
       </c>
@@ -2335,8 +2415,11 @@
       <c r="AO34">
         <v>167</v>
       </c>
-    </row>
-    <row r="35" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP34">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="35" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>21</v>
       </c>
@@ -2397,8 +2480,11 @@
       <c r="AO35">
         <v>185</v>
       </c>
-    </row>
-    <row r="36" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP35">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="36" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>21</v>
       </c>
@@ -2462,13 +2548,16 @@
       <c r="AO36">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP36">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:42" x14ac:dyDescent="0.3">
       <c r="B38" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>18</v>
       </c>
@@ -2535,8 +2624,11 @@
       <c r="AO39">
         <v>56</v>
       </c>
-    </row>
-    <row r="40" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP39">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>18</v>
       </c>
@@ -2555,8 +2647,11 @@
       <c r="AO40">
         <v>23</v>
       </c>
-    </row>
-    <row r="41" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP40">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>18</v>
       </c>
@@ -2575,8 +2670,11 @@
       <c r="AO41">
         <v>32</v>
       </c>
-    </row>
-    <row r="42" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>18</v>
       </c>
@@ -2640,8 +2738,11 @@
       <c r="AO42">
         <v>429</v>
       </c>
-    </row>
-    <row r="43" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP42">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="43" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>18</v>
       </c>
@@ -2660,8 +2761,11 @@
       <c r="AO43">
         <v>452</v>
       </c>
-    </row>
-    <row r="44" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP43">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="44" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>18</v>
       </c>
@@ -2677,8 +2781,11 @@
       <c r="AO44">
         <v>32</v>
       </c>
-    </row>
-    <row r="45" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP44">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>18</v>
       </c>
@@ -2688,16 +2795,19 @@
       <c r="AO45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
     </row>
-    <row r="47" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:42" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>20</v>
       </c>
@@ -2749,8 +2859,11 @@
       <c r="AO48">
         <v>9</v>
       </c>
-    </row>
-    <row r="49" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP48">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>20</v>
       </c>
@@ -2766,8 +2879,11 @@
       <c r="AO49">
         <v>9</v>
       </c>
-    </row>
-    <row r="50" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP49">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>20</v>
       </c>
@@ -2783,8 +2899,11 @@
       <c r="AO50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>20</v>
       </c>
@@ -2836,8 +2955,11 @@
       <c r="AO51">
         <v>70</v>
       </c>
-    </row>
-    <row r="52" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP51">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="52" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>20</v>
       </c>
@@ -2889,8 +3011,11 @@
       <c r="AO52">
         <v>79</v>
       </c>
-    </row>
-    <row r="53" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP52">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="53" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>20</v>
       </c>
@@ -2942,8 +3067,11 @@
       <c r="AO53">
         <v>35</v>
       </c>
-    </row>
-    <row r="54" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP53">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>20</v>
       </c>
@@ -2953,8 +3081,11 @@
       <c r="AO54">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>22</v>
       </c>
@@ -3006,8 +3137,11 @@
       <c r="AO56">
         <v>4</v>
       </c>
-    </row>
-    <row r="57" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP56">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>22</v>
       </c>
@@ -3023,8 +3157,11 @@
       <c r="AO57">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>22</v>
       </c>
@@ -3040,8 +3177,11 @@
       <c r="AO58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>22</v>
       </c>
@@ -3093,8 +3233,11 @@
       <c r="AO59">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>22</v>
       </c>
@@ -3146,8 +3289,11 @@
       <c r="AO60">
         <v>7</v>
       </c>
-    </row>
-    <row r="61" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>22</v>
       </c>
@@ -3199,8 +3345,11 @@
       <c r="AO61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>22</v>
       </c>
@@ -3216,13 +3365,16 @@
       <c r="AO62">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:42" x14ac:dyDescent="0.3">
       <c r="B64" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="65" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>24</v>
       </c>
@@ -3274,8 +3426,11 @@
       <c r="AO65">
         <v>76</v>
       </c>
-    </row>
-    <row r="66" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP65">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="66" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>24</v>
       </c>
@@ -3327,8 +3482,11 @@
       <c r="AO66">
         <v>284</v>
       </c>
-    </row>
-    <row r="67" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP66">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="67" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>24</v>
       </c>
@@ -3380,8 +3538,11 @@
       <c r="AO67">
         <v>229</v>
       </c>
-    </row>
-    <row r="68" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP67">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="68" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>24</v>
       </c>
@@ -3391,8 +3552,11 @@
       <c r="AO68">
         <v>4</v>
       </c>
-    </row>
-    <row r="70" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP68">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>33</v>
       </c>
@@ -3444,8 +3608,11 @@
       <c r="AO70">
         <v>47</v>
       </c>
-    </row>
-    <row r="71" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP70">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="71" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>33</v>
       </c>
@@ -3497,8 +3664,11 @@
       <c r="AO71">
         <v>23</v>
       </c>
-    </row>
-    <row r="72" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP71">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="72" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>33</v>
       </c>
@@ -3550,8 +3720,11 @@
       <c r="AO72">
         <v>70</v>
       </c>
-    </row>
-    <row r="73" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP72">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>33</v>
       </c>
@@ -3603,8 +3776,11 @@
       <c r="AO73">
         <v>9</v>
       </c>
-    </row>
-    <row r="75" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP73">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="75" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>34</v>
       </c>
@@ -3656,8 +3832,11 @@
       <c r="AO75">
         <v>28</v>
       </c>
-    </row>
-    <row r="76" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP75">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="76" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>34</v>
       </c>
@@ -3709,8 +3888,11 @@
       <c r="AO76">
         <v>105</v>
       </c>
-    </row>
-    <row r="77" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP76">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="77" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>34</v>
       </c>
@@ -3750,8 +3932,11 @@
       <c r="AO77">
         <v>105</v>
       </c>
-    </row>
-    <row r="78" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP77">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="78" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>34</v>
       </c>
@@ -3803,8 +3988,11 @@
       <c r="AO78">
         <v>2</v>
       </c>
-    </row>
-    <row r="79" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>34</v>
       </c>
@@ -3812,6 +4000,9 @@
         <v>73</v>
       </c>
       <c r="AO79">
+        <v>4</v>
+      </c>
+      <c r="AP79">
         <v>4</v>
       </c>
     </row>
@@ -3823,20 +4014,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:P11"/>
+  <dimension ref="A2:Q11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.44140625" customWidth="1"/>
     <col min="2" max="2" width="9.44140625" customWidth="1"/>
-    <col min="15" max="16" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>32</v>
       </c>
@@ -3885,8 +4076,11 @@
       <c r="P2" s="9">
         <v>43935</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q2" s="21">
+        <v>43936</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -3935,8 +4129,11 @@
       <c r="P3">
         <v>243</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q3">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -3985,8 +4182,11 @@
       <c r="P4">
         <v>183</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q4">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -4035,8 +4235,11 @@
       <c r="P5">
         <v>161</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q5">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>4</v>
       </c>
@@ -4085,8 +4288,11 @@
       <c r="P6">
         <v>361</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q6">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -4135,8 +4341,11 @@
       <c r="P7">
         <v>278</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q7">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>6</v>
       </c>
@@ -4185,8 +4394,11 @@
       <c r="P8">
         <v>298</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q8">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -4235,8 +4447,11 @@
       <c r="P9">
         <v>322</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q9">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>8</v>
       </c>
@@ -4285,8 +4500,11 @@
       <c r="P10">
         <v>259</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q10">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>39</v>
       </c>
@@ -4334,6 +4552,9 @@
       </c>
       <c r="P11">
         <v>92</v>
+      </c>
+      <c r="Q11">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -4344,20 +4565,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A2:K17"/>
+  <dimension ref="A2:L17"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.6640625" style="16" customWidth="1"/>
     <col min="2" max="2" width="23.5546875" customWidth="1"/>
-    <col min="10" max="11" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15"/>
       <c r="B2" s="12">
         <v>43926</v>
@@ -4389,8 +4610,11 @@
       <c r="K2" s="9">
         <v>43935</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="L2" s="9">
+        <v>43936</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>41</v>
       </c>
@@ -4398,7 +4622,7 @@
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>54</v>
       </c>
@@ -4432,8 +4656,11 @@
       <c r="K4">
         <v>2197</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L4">
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>39</v>
       </c>
@@ -4467,8 +4694,11 @@
       <c r="K5">
         <v>410</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L5">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>42</v>
       </c>
@@ -4502,8 +4732,11 @@
       <c r="K6">
         <v>411</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L6">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>43</v>
       </c>
@@ -4537,8 +4770,11 @@
       <c r="K7">
         <v>1009</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L7">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>44</v>
       </c>
@@ -4572,8 +4808,11 @@
       <c r="K8">
         <v>31</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L8">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>45</v>
       </c>
@@ -4607,8 +4846,11 @@
       <c r="K9">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>55</v>
       </c>
@@ -4638,8 +4880,11 @@
       <c r="K10">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
         <v>46</v>
       </c>
@@ -4673,8 +4918,11 @@
       <c r="K11">
         <v>300</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L11">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
         <v>47</v>
       </c>
@@ -4708,8 +4956,11 @@
       <c r="K12">
         <v>27</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>48</v>
       </c>
@@ -4720,7 +4971,7 @@
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
         <v>39</v>
       </c>
@@ -4754,8 +5005,11 @@
       <c r="K14">
         <v>527</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L14">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
         <v>49</v>
       </c>
@@ -4789,8 +5043,11 @@
       <c r="K15">
         <v>324</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L15">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
         <v>50</v>
       </c>
@@ -4824,8 +5081,11 @@
       <c r="K16">
         <v>1340</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L16">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
         <v>47</v>
       </c>
@@ -4858,6 +5118,9 @@
       </c>
       <c r="K17">
         <v>6</v>
+      </c>
+      <c r="L17">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -4868,10 +5131,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4880,7 +5143,7 @@
     <col min="10" max="10" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B1" s="9">
         <v>43926</v>
       </c>
@@ -4911,14 +5174,17 @@
       <c r="K1" s="9">
         <v>43935</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1" s="9">
+        <v>43936</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>41</v>
       </c>
       <c r="B2" s="7"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>54</v>
       </c>
@@ -4953,8 +5219,11 @@
       <c r="K3">
         <v>72</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>44</v>
       </c>
@@ -4988,8 +5257,11 @@
       <c r="K4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>43</v>
       </c>
@@ -5023,8 +5295,11 @@
       <c r="K5">
         <v>54</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L5">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>51</v>
       </c>
@@ -5058,8 +5333,11 @@
       <c r="K6">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>52</v>
       </c>
@@ -5093,8 +5371,11 @@
       <c r="K7">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>53</v>
       </c>
@@ -5126,6 +5407,9 @@
         <v>0</v>
       </c>
       <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
         <v>0</v>
       </c>
     </row>
@@ -5382,15 +5666,15 @@
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8DEDEF4E-2681-4E64-A6E5-9E41742A3664}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="248ed0f8-11d3-4141-bb91-6b69a0801941"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="248ed0f8-11d3-4141-bb91-6b69a0801941"/>
     <ds:schemaRef ds:uri="8e61eea9-d51d-4f9c-960b-1b037651d93e"/>
   </ds:schemaRefs>
 </ds:datastoreItem>

--- a/dcCovid-19DataSummaryToday.xlsx
+++ b/dcCovid-19DataSummaryToday.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dcgovict-my.sharepoint.com/personal/ramona_yun1_dc_gov/Documents/Documents/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="236" documentId="8_{C884A327-19F6-4EC6-805C-F52B66916DDD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{6FAC7698-CF08-4F3E-987E-2BB2033184DF}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Overal Stats" sheetId="1" r:id="rId1"/>
@@ -18,7 +12,7 @@
     <sheet name="Total Cases by Race" sheetId="3" r:id="rId3"/>
     <sheet name="Lives Lost by Race" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029" calcCompleted="0"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -264,7 +258,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -321,7 +315,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -367,7 +361,6 @@
     </xf>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -674,29 +667,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AP79"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AQ79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="AH1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B4" sqref="B4"/>
+      <pane xSplit="2" topLeftCell="AP1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AQ38" sqref="AQ38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.5546875" customWidth="1"/>
-    <col min="2" max="2" width="62.44140625" customWidth="1"/>
-    <col min="40" max="42" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.5703125" customWidth="1"/>
+    <col min="2" max="2" width="62.42578125" customWidth="1"/>
+    <col min="40" max="43" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.3">
       <c r="C1" s="1">
         <v>43897</v>
       </c>
@@ -817,8 +810,11 @@
       <c r="AP1" s="1">
         <v>43936</v>
       </c>
-    </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ1" s="1">
+        <v>43937</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -842,7 +838,7 @@
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -948,8 +944,11 @@
       <c r="AP3">
         <v>12150</v>
       </c>
-    </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ3">
+        <v>12643</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1076,8 +1075,11 @@
       <c r="AP4">
         <v>2350</v>
       </c>
-    </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ4">
+        <v>2476</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -1186,8 +1188,11 @@
       <c r="AP5">
         <v>81</v>
       </c>
-    </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ5">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -1266,11 +1271,14 @@
       <c r="AP6">
         <v>552</v>
       </c>
-    </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ6">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
@@ -1343,8 +1351,11 @@
       <c r="AP8">
         <v>101</v>
       </c>
-    </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ8">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
@@ -1417,8 +1428,11 @@
       <c r="AP9">
         <v>443</v>
       </c>
-    </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ9">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="10" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
@@ -1491,8 +1505,11 @@
       <c r="AP10">
         <v>203</v>
       </c>
-    </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ10">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="11" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
@@ -1565,13 +1582,16 @@
       <c r="AP11">
         <v>240</v>
       </c>
-    </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ11">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="13" spans="1:43" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
@@ -1579,7 +1599,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>9</v>
       </c>
@@ -1655,8 +1675,11 @@
       <c r="AP15">
         <v>68</v>
       </c>
-    </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>9</v>
       </c>
@@ -1678,8 +1701,11 @@
       <c r="AP16">
         <v>36</v>
       </c>
-    </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ16">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>9</v>
       </c>
@@ -1701,8 +1727,11 @@
       <c r="AP17">
         <v>32</v>
       </c>
-    </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ17">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>9</v>
       </c>
@@ -1769,8 +1798,11 @@
       <c r="AP18">
         <v>91</v>
       </c>
-    </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ18">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>9</v>
       </c>
@@ -1837,8 +1869,11 @@
       <c r="AP19">
         <v>127</v>
       </c>
-    </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ19">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>9</v>
       </c>
@@ -1905,13 +1940,16 @@
       <c r="AP20">
         <v>476</v>
       </c>
-    </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ20">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="22" spans="1:43" x14ac:dyDescent="0.3">
       <c r="B22" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>10</v>
       </c>
@@ -1987,8 +2025,11 @@
       <c r="AP23">
         <v>68</v>
       </c>
-    </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ23">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>10</v>
       </c>
@@ -2010,8 +2051,11 @@
       <c r="AP24">
         <v>58</v>
       </c>
-    </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ24">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>10</v>
       </c>
@@ -2033,8 +2077,11 @@
       <c r="AP25">
         <v>10</v>
       </c>
-    </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>10</v>
       </c>
@@ -2101,8 +2148,11 @@
       <c r="AP26">
         <v>178</v>
       </c>
-    </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ26">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="27" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>10</v>
       </c>
@@ -2169,8 +2219,11 @@
       <c r="AP27">
         <v>236</v>
       </c>
-    </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ27">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="28" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>10</v>
       </c>
@@ -2237,13 +2290,16 @@
       <c r="AP28">
         <v>496</v>
       </c>
-    </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ28">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="30" spans="1:43" x14ac:dyDescent="0.3">
       <c r="B30" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>21</v>
       </c>
@@ -2310,8 +2366,11 @@
       <c r="AP31">
         <v>19</v>
       </c>
-    </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>21</v>
       </c>
@@ -2330,8 +2389,11 @@
       <c r="AP32">
         <v>19</v>
       </c>
-    </row>
-    <row r="33" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ32">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>21</v>
       </c>
@@ -2350,8 +2412,11 @@
       <c r="AP33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>21</v>
       </c>
@@ -2418,8 +2483,11 @@
       <c r="AP34">
         <v>149</v>
       </c>
-    </row>
-    <row r="35" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ34">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="35" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>21</v>
       </c>
@@ -2483,8 +2551,11 @@
       <c r="AP35">
         <v>168</v>
       </c>
-    </row>
-    <row r="36" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ35">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="36" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>21</v>
       </c>
@@ -2551,13 +2622,16 @@
       <c r="AP36">
         <v>53</v>
       </c>
-    </row>
-    <row r="38" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ36">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:43" x14ac:dyDescent="0.3">
       <c r="B38" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>18</v>
       </c>
@@ -2627,8 +2701,11 @@
       <c r="AP39">
         <v>62</v>
       </c>
-    </row>
-    <row r="40" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ39">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>18</v>
       </c>
@@ -2650,8 +2727,11 @@
       <c r="AP40">
         <v>21</v>
       </c>
-    </row>
-    <row r="41" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ40">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>18</v>
       </c>
@@ -2673,8 +2753,11 @@
       <c r="AP41">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ41">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>18</v>
       </c>
@@ -2741,8 +2824,11 @@
       <c r="AP42">
         <v>414</v>
       </c>
-    </row>
-    <row r="43" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ42">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="43" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>18</v>
       </c>
@@ -2764,8 +2850,11 @@
       <c r="AP43">
         <v>435</v>
       </c>
-    </row>
-    <row r="44" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ43">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="44" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>18</v>
       </c>
@@ -2784,8 +2873,11 @@
       <c r="AP44">
         <v>40</v>
       </c>
-    </row>
-    <row r="45" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ44">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>18</v>
       </c>
@@ -2798,16 +2890,19 @@
       <c r="AP45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
     </row>
-    <row r="47" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:43" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>20</v>
       </c>
@@ -2862,8 +2957,11 @@
       <c r="AP48">
         <v>10</v>
       </c>
-    </row>
-    <row r="49" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ48">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>20</v>
       </c>
@@ -2882,8 +2980,11 @@
       <c r="AP49">
         <v>9</v>
       </c>
-    </row>
-    <row r="50" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ49">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>20</v>
       </c>
@@ -2902,8 +3003,11 @@
       <c r="AP50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>20</v>
       </c>
@@ -2958,8 +3062,11 @@
       <c r="AP51">
         <v>62</v>
       </c>
-    </row>
-    <row r="52" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ51">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="52" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>20</v>
       </c>
@@ -3014,8 +3121,11 @@
       <c r="AP52">
         <v>71</v>
       </c>
-    </row>
-    <row r="53" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ52">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>20</v>
       </c>
@@ -3070,8 +3180,11 @@
       <c r="AP53">
         <v>40</v>
       </c>
-    </row>
-    <row r="54" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ53">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="54" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>20</v>
       </c>
@@ -3084,8 +3197,11 @@
       <c r="AP54">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>22</v>
       </c>
@@ -3140,8 +3256,11 @@
       <c r="AP56">
         <v>6</v>
       </c>
-    </row>
-    <row r="57" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ56">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>22</v>
       </c>
@@ -3160,8 +3279,11 @@
       <c r="AP57">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ57">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>22</v>
       </c>
@@ -3180,8 +3302,11 @@
       <c r="AP58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>22</v>
       </c>
@@ -3236,8 +3361,11 @@
       <c r="AP59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>22</v>
       </c>
@@ -3292,8 +3420,11 @@
       <c r="AP60">
         <v>5</v>
       </c>
-    </row>
-    <row r="61" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ60">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>22</v>
       </c>
@@ -3348,8 +3479,11 @@
       <c r="AP61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>22</v>
       </c>
@@ -3368,13 +3502,16 @@
       <c r="AP62">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:43" x14ac:dyDescent="0.3">
       <c r="B64" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="65" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>24</v>
       </c>
@@ -3429,8 +3566,11 @@
       <c r="AP65">
         <v>77</v>
       </c>
-    </row>
-    <row r="66" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ65">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="66" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>24</v>
       </c>
@@ -3485,8 +3625,11 @@
       <c r="AP66">
         <v>301</v>
       </c>
-    </row>
-    <row r="67" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ66">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="67" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>24</v>
       </c>
@@ -3541,8 +3684,11 @@
       <c r="AP67">
         <v>257</v>
       </c>
-    </row>
-    <row r="68" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ67">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="68" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>24</v>
       </c>
@@ -3555,8 +3701,11 @@
       <c r="AP68">
         <v>4</v>
       </c>
-    </row>
-    <row r="70" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ68">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>33</v>
       </c>
@@ -3611,8 +3760,11 @@
       <c r="AP70">
         <v>47</v>
       </c>
-    </row>
-    <row r="71" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ70">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="71" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>33</v>
       </c>
@@ -3667,8 +3819,11 @@
       <c r="AP71">
         <v>24</v>
       </c>
-    </row>
-    <row r="72" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ71">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="72" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>33</v>
       </c>
@@ -3723,8 +3878,11 @@
       <c r="AP72">
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ72">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="73" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>33</v>
       </c>
@@ -3779,8 +3937,11 @@
       <c r="AP73">
         <v>19</v>
       </c>
-    </row>
-    <row r="75" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ73">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="75" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>34</v>
       </c>
@@ -3835,8 +3996,11 @@
       <c r="AP75">
         <v>32</v>
       </c>
-    </row>
-    <row r="76" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ75">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="76" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>34</v>
       </c>
@@ -3891,8 +4055,11 @@
       <c r="AP76">
         <v>105</v>
       </c>
-    </row>
-    <row r="77" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ76">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>34</v>
       </c>
@@ -3935,8 +4102,11 @@
       <c r="AP77">
         <v>105</v>
       </c>
-    </row>
-    <row r="78" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ77">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="78" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>34</v>
       </c>
@@ -3991,8 +4161,11 @@
       <c r="AP78">
         <v>2</v>
       </c>
-    </row>
-    <row r="79" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>34</v>
       </c>
@@ -4003,6 +4176,9 @@
         <v>4</v>
       </c>
       <c r="AP79">
+        <v>4</v>
+      </c>
+      <c r="AQ79">
         <v>4</v>
       </c>
     </row>
@@ -4013,21 +4189,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:Q11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:R11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.44140625" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" customWidth="1"/>
-    <col min="15" max="17" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="15" max="18" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>32</v>
       </c>
@@ -4076,11 +4252,14 @@
       <c r="P2" s="9">
         <v>43935</v>
       </c>
-      <c r="Q2" s="21">
+      <c r="Q2" s="9">
         <v>43936</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R2" s="9">
+        <v>43937</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -4132,8 +4311,11 @@
       <c r="Q3">
         <v>264</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R3">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -4185,8 +4367,11 @@
       <c r="Q4">
         <v>193</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R4">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -4238,8 +4423,11 @@
       <c r="Q5">
         <v>169</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R5">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>4</v>
       </c>
@@ -4291,8 +4479,11 @@
       <c r="Q6">
         <v>389</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R6">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -4344,8 +4535,11 @@
       <c r="Q7">
         <v>311</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R7">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>6</v>
       </c>
@@ -4397,8 +4591,11 @@
       <c r="Q8">
         <v>313</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R8">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -4450,8 +4647,11 @@
       <c r="Q9">
         <v>361</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R9">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>8</v>
       </c>
@@ -4503,8 +4703,11 @@
       <c r="Q10">
         <v>293</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R10">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>39</v>
       </c>
@@ -4555,6 +4758,9 @@
       </c>
       <c r="Q11">
         <v>57</v>
+      </c>
+      <c r="R11">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -4564,21 +4770,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A2:L17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:M17"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" style="16" customWidth="1"/>
-    <col min="2" max="2" width="23.5546875" customWidth="1"/>
-    <col min="10" max="12" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" style="16" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
+    <col min="10" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="2" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="15"/>
       <c r="B2" s="12">
         <v>43926</v>
@@ -4613,8 +4819,11 @@
       <c r="L2" s="9">
         <v>43936</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M2" s="9">
+        <v>43937</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="2" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>41</v>
       </c>
@@ -4622,7 +4831,7 @@
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>54</v>
       </c>
@@ -4659,8 +4868,11 @@
       <c r="L4">
         <v>2350</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M4">
+        <v>2476</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>39</v>
       </c>
@@ -4697,8 +4909,11 @@
       <c r="L5">
         <v>404</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M5">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>42</v>
       </c>
@@ -4735,8 +4950,11 @@
       <c r="L6">
         <v>439</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M6">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>43</v>
       </c>
@@ -4773,8 +4991,11 @@
       <c r="L7">
         <v>1089</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M7">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>44</v>
       </c>
@@ -4811,8 +5032,11 @@
       <c r="L8">
         <v>35</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="M8">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>45</v>
       </c>
@@ -4849,8 +5073,11 @@
       <c r="L9">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="M9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>55</v>
       </c>
@@ -4883,8 +5110,11 @@
       <c r="L10">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
         <v>46</v>
       </c>
@@ -4921,8 +5151,11 @@
       <c r="L11">
         <v>345</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M11">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
         <v>47</v>
       </c>
@@ -4959,8 +5192,11 @@
       <c r="L12">
         <v>27</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>48</v>
       </c>
@@ -4971,7 +5207,7 @@
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
         <v>39</v>
       </c>
@@ -5008,8 +5244,11 @@
       <c r="L14">
         <v>539</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M14">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
         <v>49</v>
       </c>
@@ -5046,8 +5285,11 @@
       <c r="L15">
         <v>361</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M15">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
         <v>50</v>
       </c>
@@ -5084,8 +5326,11 @@
       <c r="L16">
         <v>1445</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M16">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
         <v>47</v>
       </c>
@@ -5121,6 +5366,9 @@
       </c>
       <c r="L17">
         <v>5</v>
+      </c>
+      <c r="M17">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -5130,20 +5378,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:L8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4:M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" customWidth="1"/>
-    <col min="10" max="10" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="2" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B1" s="9">
         <v>43926</v>
       </c>
@@ -5177,14 +5425,17 @@
       <c r="L1" s="9">
         <v>43936</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M1" s="9">
+        <v>43937</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>41</v>
       </c>
       <c r="B2" s="7"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>54</v>
       </c>
@@ -5222,8 +5473,11 @@
       <c r="L3">
         <v>81</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>44</v>
       </c>
@@ -5260,8 +5514,11 @@
       <c r="L4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="M4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>43</v>
       </c>
@@ -5298,8 +5555,11 @@
       <c r="L5">
         <v>61</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M5">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>51</v>
       </c>
@@ -5336,8 +5596,11 @@
       <c r="L6">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>52</v>
       </c>
@@ -5374,8 +5637,11 @@
       <c r="L7">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>53</v>
       </c>
@@ -5410,6 +5676,9 @@
         <v>0</v>
       </c>
       <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
         <v>0</v>
       </c>
     </row>
@@ -5419,6 +5688,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C154F8D92A1190498EC67EE37256270A" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a145d1f7d2fc6bfdea86e9d796031e6c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8e61eea9-d51d-4f9c-960b-1b037651d93e" xmlns:ns4="248ed0f8-11d3-4141-bb91-6b69a0801941" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="87b2ee5a90a671ef9b646f531a040769" ns3:_="" ns4:_="">
     <xsd:import namespace="8e61eea9-d51d-4f9c-960b-1b037651d93e"/>
@@ -5621,22 +5905,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD396E8E-4714-4CC9-8EAA-3025B907ED6D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8DEDEF4E-2681-4E64-A6E5-9E41742A3664}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="8e61eea9-d51d-4f9c-960b-1b037651d93e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="248ed0f8-11d3-4141-bb91-6b69a0801941"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE449021-9205-42BF-A2AE-CC419CEBA6BF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5653,29 +5947,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD396E8E-4714-4CC9-8EAA-3025B907ED6D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8DEDEF4E-2681-4E64-A6E5-9E41742A3664}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="248ed0f8-11d3-4141-bb91-6b69a0801941"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="8e61eea9-d51d-4f9c-960b-1b037651d93e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/dcCovid-19DataSummaryToday.xlsx
+++ b/dcCovid-19DataSummaryToday.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dcgovict-my.sharepoint.com/personal/ramona_yun1_dc_gov/Documents/Documents/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="431" documentId="8_{C884A327-19F6-4EC6-805C-F52B66916DDD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{71F1DDA9-C952-4042-ADAB-97DF69D38DB8}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overal Stats" sheetId="1" r:id="rId1"/>
@@ -12,7 +18,7 @@
     <sheet name="Total Cases by Race" sheetId="3" r:id="rId3"/>
     <sheet name="Lives Lost by Race" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -258,7 +264,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -667,29 +673,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AQ79"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AR79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="AP1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AQ38" sqref="AQ38"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="AN1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A61" sqref="A61:XFD61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.5703125" customWidth="1"/>
-    <col min="2" max="2" width="62.42578125" customWidth="1"/>
-    <col min="40" max="43" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.5546875" customWidth="1"/>
+    <col min="2" max="2" width="62.44140625" customWidth="1"/>
+    <col min="40" max="44" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.3">
       <c r="C1" s="1">
         <v>43897</v>
       </c>
@@ -813,8 +819,11 @@
       <c r="AQ1" s="1">
         <v>43937</v>
       </c>
-    </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR1" s="1">
+        <v>43938</v>
+      </c>
+    </row>
+    <row r="2" spans="1:44" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -838,7 +847,7 @@
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -945,10 +954,13 @@
         <v>12150</v>
       </c>
       <c r="AQ3">
-        <v>12643</v>
-      </c>
-    </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.3">
+        <v>12646</v>
+      </c>
+      <c r="AR3">
+        <v>13268</v>
+      </c>
+    </row>
+    <row r="4" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1078,8 +1090,11 @@
       <c r="AQ4">
         <v>2476</v>
       </c>
-    </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR4">
+        <v>2666</v>
+      </c>
+    </row>
+    <row r="5" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -1191,8 +1206,11 @@
       <c r="AQ5">
         <v>86</v>
       </c>
-    </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR5">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -1274,11 +1292,14 @@
       <c r="AQ6">
         <v>573</v>
       </c>
-    </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR6">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="7" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
@@ -1354,8 +1375,11 @@
       <c r="AQ8">
         <v>98</v>
       </c>
-    </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR8">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
@@ -1431,8 +1455,11 @@
       <c r="AQ9">
         <v>443</v>
       </c>
-    </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR9">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="10" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
@@ -1508,8 +1535,11 @@
       <c r="AQ10">
         <v>204</v>
       </c>
-    </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR10">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="11" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
@@ -1585,13 +1615,16 @@
       <c r="AQ11">
         <v>239</v>
       </c>
-    </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR11">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="13" spans="1:44" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
@@ -1599,7 +1632,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>9</v>
       </c>
@@ -1678,8 +1711,11 @@
       <c r="AQ15">
         <v>74</v>
       </c>
-    </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>9</v>
       </c>
@@ -1704,8 +1740,11 @@
       <c r="AQ16">
         <v>41</v>
       </c>
-    </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR16">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>9</v>
       </c>
@@ -1730,8 +1769,11 @@
       <c r="AQ17">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR17">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>9</v>
       </c>
@@ -1801,8 +1843,11 @@
       <c r="AQ18">
         <v>119</v>
       </c>
-    </row>
-    <row r="19" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR18">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>9</v>
       </c>
@@ -1872,8 +1917,11 @@
       <c r="AQ19">
         <v>119</v>
       </c>
-    </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR19">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="20" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>9</v>
       </c>
@@ -1944,12 +1992,12 @@
         <v>502</v>
       </c>
     </row>
-    <row r="22" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:44" x14ac:dyDescent="0.3">
       <c r="B22" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>10</v>
       </c>
@@ -2028,8 +2076,11 @@
       <c r="AQ23">
         <v>74</v>
       </c>
-    </row>
-    <row r="24" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR23">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>10</v>
       </c>
@@ -2054,8 +2105,11 @@
       <c r="AQ24">
         <v>57</v>
       </c>
-    </row>
-    <row r="25" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR24">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>10</v>
       </c>
@@ -2080,8 +2134,11 @@
       <c r="AQ25">
         <v>17</v>
       </c>
-    </row>
-    <row r="26" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>10</v>
       </c>
@@ -2151,8 +2208,11 @@
       <c r="AQ26">
         <v>139</v>
       </c>
-    </row>
-    <row r="27" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR26">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="27" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>10</v>
       </c>
@@ -2222,8 +2282,11 @@
       <c r="AQ27">
         <v>196</v>
       </c>
-    </row>
-    <row r="28" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR27">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="28" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>10</v>
       </c>
@@ -2293,13 +2356,16 @@
       <c r="AQ28">
         <v>559</v>
       </c>
-    </row>
-    <row r="30" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR28">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="30" spans="1:44" x14ac:dyDescent="0.3">
       <c r="B30" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>21</v>
       </c>
@@ -2369,8 +2435,11 @@
       <c r="AQ31">
         <v>20</v>
       </c>
-    </row>
-    <row r="32" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR31">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>21</v>
       </c>
@@ -2392,8 +2461,11 @@
       <c r="AQ32">
         <v>20</v>
       </c>
-    </row>
-    <row r="33" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR32">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>21</v>
       </c>
@@ -2415,8 +2487,11 @@
       <c r="AQ33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>21</v>
       </c>
@@ -2486,8 +2561,11 @@
       <c r="AQ34">
         <v>149</v>
       </c>
-    </row>
-    <row r="35" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR34">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="35" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>21</v>
       </c>
@@ -2554,8 +2632,11 @@
       <c r="AQ35">
         <v>168</v>
       </c>
-    </row>
-    <row r="36" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR35">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="36" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>21</v>
       </c>
@@ -2625,13 +2706,16 @@
       <c r="AQ36">
         <v>53</v>
       </c>
-    </row>
-    <row r="38" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR36">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" spans="1:44" x14ac:dyDescent="0.3">
       <c r="B38" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>18</v>
       </c>
@@ -2704,8 +2788,11 @@
       <c r="AQ39">
         <v>65</v>
       </c>
-    </row>
-    <row r="40" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR39">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>18</v>
       </c>
@@ -2730,8 +2817,11 @@
       <c r="AQ40">
         <v>22</v>
       </c>
-    </row>
-    <row r="41" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR40">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>18</v>
       </c>
@@ -2756,8 +2846,11 @@
       <c r="AQ41">
         <v>43</v>
       </c>
-    </row>
-    <row r="42" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR41">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>18</v>
       </c>
@@ -2827,8 +2920,11 @@
       <c r="AQ42">
         <v>512</v>
       </c>
-    </row>
-    <row r="43" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR42">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="43" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>18</v>
       </c>
@@ -2853,8 +2949,11 @@
       <c r="AQ43">
         <v>534</v>
       </c>
-    </row>
-    <row r="44" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR43">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="44" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>18</v>
       </c>
@@ -2876,8 +2975,11 @@
       <c r="AQ44">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR44">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>18</v>
       </c>
@@ -2893,16 +2995,19 @@
       <c r="AQ45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
     </row>
-    <row r="47" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:44" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>20</v>
       </c>
@@ -2960,8 +3065,11 @@
       <c r="AQ48">
         <v>13</v>
       </c>
-    </row>
-    <row r="49" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR48">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>20</v>
       </c>
@@ -2983,8 +3091,11 @@
       <c r="AQ49">
         <v>12</v>
       </c>
-    </row>
-    <row r="50" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR49">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>20</v>
       </c>
@@ -3006,8 +3117,11 @@
       <c r="AQ50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>20</v>
       </c>
@@ -3065,8 +3179,11 @@
       <c r="AQ51">
         <v>63</v>
       </c>
-    </row>
-    <row r="52" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR51">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="52" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>20</v>
       </c>
@@ -3124,8 +3241,11 @@
       <c r="AQ52">
         <v>75</v>
       </c>
-    </row>
-    <row r="53" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR52">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>20</v>
       </c>
@@ -3183,8 +3303,11 @@
       <c r="AQ53">
         <v>46</v>
       </c>
-    </row>
-    <row r="54" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR53">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>20</v>
       </c>
@@ -3200,8 +3323,11 @@
       <c r="AQ54">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>22</v>
       </c>
@@ -3259,8 +3385,11 @@
       <c r="AQ56">
         <v>7</v>
       </c>
-    </row>
-    <row r="57" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR56">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>22</v>
       </c>
@@ -3282,8 +3411,11 @@
       <c r="AQ57">
         <v>6</v>
       </c>
-    </row>
-    <row r="58" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR57">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>22</v>
       </c>
@@ -3305,8 +3437,11 @@
       <c r="AQ58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>22</v>
       </c>
@@ -3364,8 +3499,11 @@
       <c r="AQ59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR59">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>22</v>
       </c>
@@ -3423,8 +3561,11 @@
       <c r="AQ60">
         <v>6</v>
       </c>
-    </row>
-    <row r="61" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR60">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>22</v>
       </c>
@@ -3482,8 +3623,11 @@
       <c r="AQ61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>22</v>
       </c>
@@ -3505,13 +3649,16 @@
       <c r="AQ62">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:44" x14ac:dyDescent="0.3">
       <c r="B64" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="65" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>24</v>
       </c>
@@ -3569,8 +3716,11 @@
       <c r="AQ65">
         <v>88</v>
       </c>
-    </row>
-    <row r="66" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR65">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="66" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>24</v>
       </c>
@@ -3628,8 +3778,11 @@
       <c r="AQ66">
         <v>282</v>
       </c>
-    </row>
-    <row r="67" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR66">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="67" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>24</v>
       </c>
@@ -3687,8 +3840,11 @@
       <c r="AQ67">
         <v>262</v>
       </c>
-    </row>
-    <row r="68" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR67">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="68" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>24</v>
       </c>
@@ -3704,8 +3860,11 @@
       <c r="AQ68">
         <v>5</v>
       </c>
-    </row>
-    <row r="70" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR68">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>33</v>
       </c>
@@ -3763,8 +3922,11 @@
       <c r="AQ70">
         <v>51</v>
       </c>
-    </row>
-    <row r="71" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR70">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="71" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>33</v>
       </c>
@@ -3822,8 +3984,11 @@
       <c r="AQ71">
         <v>31</v>
       </c>
-    </row>
-    <row r="72" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR71">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="72" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>33</v>
       </c>
@@ -3881,8 +4046,11 @@
       <c r="AQ72">
         <v>82</v>
       </c>
-    </row>
-    <row r="73" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR72">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="73" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>33</v>
       </c>
@@ -3940,8 +4108,11 @@
       <c r="AQ73">
         <v>22</v>
       </c>
-    </row>
-    <row r="75" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR73">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="75" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>34</v>
       </c>
@@ -3999,8 +4170,11 @@
       <c r="AQ75">
         <v>33</v>
       </c>
-    </row>
-    <row r="76" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR75">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="76" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>34</v>
       </c>
@@ -4058,8 +4232,11 @@
       <c r="AQ76">
         <v>74</v>
       </c>
-    </row>
-    <row r="77" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR76">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>34</v>
       </c>
@@ -4105,8 +4282,11 @@
       <c r="AQ77">
         <v>74</v>
       </c>
-    </row>
-    <row r="78" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR77">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="78" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>34</v>
       </c>
@@ -4164,8 +4344,11 @@
       <c r="AQ78">
         <v>2</v>
       </c>
-    </row>
-    <row r="79" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>34</v>
       </c>
@@ -4179,6 +4362,9 @@
         <v>4</v>
       </c>
       <c r="AQ79">
+        <v>4</v>
+      </c>
+      <c r="AR79">
         <v>4</v>
       </c>
     </row>
@@ -4189,21 +4375,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:R11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A2:S11"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" customWidth="1"/>
-    <col min="15" max="18" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.44140625" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" customWidth="1"/>
+    <col min="15" max="18" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>32</v>
       </c>
@@ -4258,8 +4444,11 @@
       <c r="R2" s="9">
         <v>43937</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S2" s="9">
+        <v>43938</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -4314,8 +4503,11 @@
       <c r="R3">
         <v>282</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S3">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -4370,8 +4562,11 @@
       <c r="R4">
         <v>207</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S4">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -4426,8 +4621,11 @@
       <c r="R5">
         <v>176</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S5">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>4</v>
       </c>
@@ -4482,8 +4680,11 @@
       <c r="R6">
         <v>423</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S6">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -4538,8 +4739,11 @@
       <c r="R7">
         <v>328</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S7">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>6</v>
       </c>
@@ -4594,8 +4798,11 @@
       <c r="R8">
         <v>337</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S8">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -4650,8 +4857,11 @@
       <c r="R9">
         <v>382</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S9">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>8</v>
       </c>
@@ -4706,8 +4916,11 @@
       <c r="R10">
         <v>316</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S10">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>39</v>
       </c>
@@ -4761,6 +4974,9 @@
       </c>
       <c r="R11">
         <v>25</v>
+      </c>
+      <c r="S11">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -4770,21 +4986,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A2:N17"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" style="16" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" customWidth="1"/>
-    <col min="10" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" style="16" customWidth="1"/>
+    <col min="2" max="2" width="23.5546875" customWidth="1"/>
+    <col min="10" max="12" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" s="2" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15"/>
       <c r="B2" s="12">
         <v>43926</v>
@@ -4822,8 +5038,11 @@
       <c r="M2" s="9">
         <v>43937</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" s="2" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="N2" s="9">
+        <v>43938</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>41</v>
       </c>
@@ -4831,7 +5050,7 @@
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
     </row>
-    <row r="4" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>54</v>
       </c>
@@ -4871,8 +5090,11 @@
       <c r="M4">
         <v>2476</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="N4">
+        <v>2666</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>39</v>
       </c>
@@ -4912,8 +5134,11 @@
       <c r="M5">
         <v>383</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="N5">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>42</v>
       </c>
@@ -4953,8 +5178,11 @@
       <c r="M6">
         <v>461</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="N6">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>43</v>
       </c>
@@ -4994,8 +5222,11 @@
       <c r="M7">
         <v>1171</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="N7">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>44</v>
       </c>
@@ -5035,8 +5266,11 @@
       <c r="M8">
         <v>36</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" ht="28.9" x14ac:dyDescent="0.3">
+      <c r="N8">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>45</v>
       </c>
@@ -5076,8 +5310,11 @@
       <c r="M9">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" ht="28.9" x14ac:dyDescent="0.3">
+      <c r="N9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>55</v>
       </c>
@@ -5113,8 +5350,11 @@
       <c r="M10">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="N10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
         <v>46</v>
       </c>
@@ -5154,8 +5394,11 @@
       <c r="M11">
         <v>386</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="N11">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
         <v>47</v>
       </c>
@@ -5195,8 +5438,11 @@
       <c r="M12">
         <v>28</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="N12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>48</v>
       </c>
@@ -5207,7 +5453,7 @@
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
     </row>
-    <row r="14" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
         <v>39</v>
       </c>
@@ -5247,8 +5493,11 @@
       <c r="M14">
         <v>544</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="N14">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
         <v>49</v>
       </c>
@@ -5288,8 +5537,11 @@
       <c r="M15">
         <v>403</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="N15">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
         <v>50</v>
       </c>
@@ -5329,8 +5581,11 @@
       <c r="M16">
         <v>1522</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="N16">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
         <v>47</v>
       </c>
@@ -5368,6 +5623,9 @@
         <v>5</v>
       </c>
       <c r="M17">
+        <v>7</v>
+      </c>
+      <c r="N17">
         <v>7</v>
       </c>
     </row>
@@ -5378,20 +5636,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4:M8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" customWidth="1"/>
+    <col min="10" max="10" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B1" s="9">
         <v>43926</v>
       </c>
@@ -5428,14 +5686,17 @@
       <c r="M1" s="9">
         <v>43937</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="N1" s="9">
+        <v>43938</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>41</v>
       </c>
       <c r="B2" s="7"/>
     </row>
-    <row r="3" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>54</v>
       </c>
@@ -5476,8 +5737,11 @@
       <c r="M3">
         <v>86</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="N3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>44</v>
       </c>
@@ -5517,8 +5781,11 @@
       <c r="M4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="28.9" x14ac:dyDescent="0.3">
+      <c r="N4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>43</v>
       </c>
@@ -5558,8 +5825,11 @@
       <c r="M5">
         <v>66</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="N5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>51</v>
       </c>
@@ -5599,8 +5869,11 @@
       <c r="M6">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="N6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>52</v>
       </c>
@@ -5640,8 +5913,11 @@
       <c r="M7">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="N7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>53</v>
       </c>
@@ -5679,6 +5955,9 @@
         <v>0</v>
       </c>
       <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
         <v>0</v>
       </c>
     </row>
@@ -5688,21 +5967,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C154F8D92A1190498EC67EE37256270A" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a145d1f7d2fc6bfdea86e9d796031e6c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8e61eea9-d51d-4f9c-960b-1b037651d93e" xmlns:ns4="248ed0f8-11d3-4141-bb91-6b69a0801941" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="87b2ee5a90a671ef9b646f531a040769" ns3:_="" ns4:_="">
     <xsd:import namespace="8e61eea9-d51d-4f9c-960b-1b037651d93e"/>
@@ -5905,32 +6169,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD396E8E-4714-4CC9-8EAA-3025B907ED6D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8DEDEF4E-2681-4E64-A6E5-9E41742A3664}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="8e61eea9-d51d-4f9c-960b-1b037651d93e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="248ed0f8-11d3-4141-bb91-6b69a0801941"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE449021-9205-42BF-A2AE-CC419CEBA6BF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5947,4 +6201,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD396E8E-4714-4CC9-8EAA-3025B907ED6D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8DEDEF4E-2681-4E64-A6E5-9E41742A3664}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8e61eea9-d51d-4f9c-960b-1b037651d93e"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="248ed0f8-11d3-4141-bb91-6b69a0801941"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/dcCovid-19DataSummaryToday.xlsx
+++ b/dcCovid-19DataSummaryToday.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dcgovict-my.sharepoint.com/personal/ramona_yun1_dc_gov/Documents/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="431" documentId="8_{C884A327-19F6-4EC6-805C-F52B66916DDD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{71F1DDA9-C952-4042-ADAB-97DF69D38DB8}"/>
+  <xr:revisionPtr revIDLastSave="532" documentId="8_{C884A327-19F6-4EC6-805C-F52B66916DDD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{5633416B-E455-4ECA-9444-D36F0D8B3267}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="76">
   <si>
     <t>Testing</t>
   </si>
@@ -259,6 +259,9 @@
   </si>
   <si>
     <t>Total Number of Lives Lost Among Individuals in the Homeless Service System</t>
+  </si>
+  <si>
+    <t>Total Number of Lives Lost Among Personnel</t>
   </si>
 </sst>
 </file>
@@ -681,21 +684,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AR79"/>
+  <dimension ref="A1:AS80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="AN1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A61" sqref="A61:XFD61"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="AK1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AS81" sqref="AS81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29.5546875" customWidth="1"/>
     <col min="2" max="2" width="62.44140625" customWidth="1"/>
-    <col min="40" max="44" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="40" max="45" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.3">
       <c r="C1" s="1">
         <v>43897</v>
       </c>
@@ -822,8 +825,11 @@
       <c r="AR1" s="1">
         <v>43938</v>
       </c>
-    </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS1" s="1">
+        <v>43939</v>
+      </c>
+    </row>
+    <row r="2" spans="1:45" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -847,7 +853,7 @@
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -959,8 +965,11 @@
       <c r="AR3">
         <v>13268</v>
       </c>
-    </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS3">
+        <v>13699</v>
+      </c>
+    </row>
+    <row r="4" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1093,8 +1102,11 @@
       <c r="AR4">
         <v>2666</v>
       </c>
-    </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS4">
+        <v>2793</v>
+      </c>
+    </row>
+    <row r="5" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -1209,8 +1221,11 @@
       <c r="AR5">
         <v>91</v>
       </c>
-    </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS5">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -1295,11 +1310,14 @@
       <c r="AR6">
         <v>608</v>
       </c>
-    </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS6">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="7" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
@@ -1378,8 +1396,11 @@
       <c r="AR8">
         <v>87</v>
       </c>
-    </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS8">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
@@ -1458,8 +1479,11 @@
       <c r="AR9">
         <v>443</v>
       </c>
-    </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS9">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="10" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
@@ -1538,8 +1562,11 @@
       <c r="AR10">
         <v>205</v>
       </c>
-    </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS10">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="11" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
@@ -1618,13 +1645,16 @@
       <c r="AR11">
         <v>238</v>
       </c>
-    </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="13" spans="1:45" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
@@ -1632,7 +1662,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>9</v>
       </c>
@@ -1714,8 +1744,11 @@
       <c r="AR15">
         <v>74</v>
       </c>
-    </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS15">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>9</v>
       </c>
@@ -1743,8 +1776,11 @@
       <c r="AR16">
         <v>41</v>
       </c>
-    </row>
-    <row r="17" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS16">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>9</v>
       </c>
@@ -1772,8 +1808,11 @@
       <c r="AR17">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS17">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>9</v>
       </c>
@@ -1846,8 +1885,11 @@
       <c r="AR18">
         <v>96</v>
       </c>
-    </row>
-    <row r="19" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS18">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>9</v>
       </c>
@@ -1920,8 +1962,11 @@
       <c r="AR19">
         <v>137</v>
       </c>
-    </row>
-    <row r="20" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS19">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="20" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>9</v>
       </c>
@@ -1991,13 +2036,19 @@
       <c r="AQ20">
         <v>502</v>
       </c>
-    </row>
-    <row r="22" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AR20">
+        <v>519</v>
+      </c>
+      <c r="AS20">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="22" spans="1:45" x14ac:dyDescent="0.3">
       <c r="B22" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>10</v>
       </c>
@@ -2079,8 +2130,11 @@
       <c r="AR23">
         <v>76</v>
       </c>
-    </row>
-    <row r="24" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS23">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>10</v>
       </c>
@@ -2108,8 +2162,11 @@
       <c r="AR24">
         <v>59</v>
       </c>
-    </row>
-    <row r="25" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS24">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>10</v>
       </c>
@@ -2137,8 +2194,11 @@
       <c r="AR25">
         <v>17</v>
       </c>
-    </row>
-    <row r="26" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>10</v>
       </c>
@@ -2211,8 +2271,11 @@
       <c r="AR26">
         <v>144</v>
       </c>
-    </row>
-    <row r="27" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS26">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="27" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>10</v>
       </c>
@@ -2285,8 +2348,11 @@
       <c r="AR27">
         <v>203</v>
       </c>
-    </row>
-    <row r="28" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS27">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="28" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>10</v>
       </c>
@@ -2359,13 +2425,16 @@
       <c r="AR28">
         <v>571</v>
       </c>
-    </row>
-    <row r="30" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS28">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="30" spans="1:45" x14ac:dyDescent="0.3">
       <c r="B30" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>21</v>
       </c>
@@ -2438,8 +2507,11 @@
       <c r="AR31">
         <v>23</v>
       </c>
-    </row>
-    <row r="32" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS31">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>21</v>
       </c>
@@ -2464,8 +2536,11 @@
       <c r="AR32">
         <v>20</v>
       </c>
-    </row>
-    <row r="33" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS32">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>21</v>
       </c>
@@ -2490,8 +2565,11 @@
       <c r="AR33">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>21</v>
       </c>
@@ -2564,8 +2642,11 @@
       <c r="AR34">
         <v>147</v>
       </c>
-    </row>
-    <row r="35" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS34">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="35" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>21</v>
       </c>
@@ -2635,8 +2716,11 @@
       <c r="AR35">
         <v>167</v>
       </c>
-    </row>
-    <row r="36" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS35">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="36" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>21</v>
       </c>
@@ -2709,1303 +2793,1336 @@
       <c r="AR36">
         <v>54</v>
       </c>
-    </row>
-    <row r="38" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="B38" s="3" t="s">
+      <c r="AS36">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A38" s="2"/>
+    </row>
+    <row r="39" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="B39" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B39" t="s">
-        <v>63</v>
-      </c>
-      <c r="U39">
-        <v>0</v>
-      </c>
-      <c r="V39">
-        <v>1</v>
-      </c>
-      <c r="W39">
-        <v>1</v>
-      </c>
-      <c r="X39">
-        <v>3</v>
-      </c>
-      <c r="Y39">
-        <v>4</v>
-      </c>
-      <c r="Z39">
-        <v>5</v>
-      </c>
-      <c r="AA39">
-        <v>6</v>
-      </c>
-      <c r="AB39">
-        <v>6</v>
-      </c>
-      <c r="AC39">
-        <v>12</v>
-      </c>
-      <c r="AD39">
-        <v>12</v>
-      </c>
-      <c r="AE39">
-        <v>14</v>
-      </c>
-      <c r="AF39">
-        <v>18</v>
-      </c>
-      <c r="AG39">
-        <v>20</v>
-      </c>
-      <c r="AH39">
-        <v>28</v>
-      </c>
-      <c r="AI39">
-        <v>37</v>
-      </c>
-      <c r="AJ39">
-        <v>33</v>
-      </c>
-      <c r="AK39">
-        <v>47</v>
-      </c>
-      <c r="AL39">
-        <v>52</v>
-      </c>
-      <c r="AN39">
-        <v>53</v>
-      </c>
-      <c r="AO39">
-        <v>56</v>
-      </c>
-      <c r="AP39">
-        <v>62</v>
-      </c>
-      <c r="AQ39">
-        <v>65</v>
-      </c>
-      <c r="AR39">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="40" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B40" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="U40">
+        <v>0</v>
+      </c>
+      <c r="V40">
+        <v>1</v>
+      </c>
+      <c r="W40">
+        <v>1</v>
+      </c>
+      <c r="X40">
+        <v>3</v>
+      </c>
+      <c r="Y40">
+        <v>4</v>
+      </c>
+      <c r="Z40">
+        <v>5</v>
+      </c>
+      <c r="AA40">
+        <v>6</v>
+      </c>
+      <c r="AB40">
+        <v>6</v>
+      </c>
+      <c r="AC40">
+        <v>12</v>
+      </c>
+      <c r="AD40">
+        <v>12</v>
+      </c>
+      <c r="AE40">
+        <v>14</v>
+      </c>
+      <c r="AF40">
+        <v>18</v>
+      </c>
+      <c r="AG40">
+        <v>20</v>
+      </c>
+      <c r="AH40">
+        <v>28</v>
+      </c>
+      <c r="AI40">
+        <v>37</v>
+      </c>
+      <c r="AJ40">
+        <v>33</v>
       </c>
       <c r="AK40">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="AL40">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AN40">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="AO40">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="AP40">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="AQ40">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="AR40">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="41" spans="1:44" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+      <c r="AS40">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B41" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK41">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="AL41">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="AN41">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="AO41">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="AP41">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="AQ41">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="AR41">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="42" spans="1:44" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="AS41">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B42" t="s">
-        <v>16</v>
-      </c>
-      <c r="V42">
-        <v>36</v>
-      </c>
-      <c r="W42">
-        <v>39</v>
-      </c>
-      <c r="X42">
-        <v>85</v>
-      </c>
-      <c r="Y42">
-        <v>83</v>
-      </c>
-      <c r="Z42">
-        <v>83</v>
-      </c>
-      <c r="AA42">
-        <v>82</v>
-      </c>
-      <c r="AB42">
-        <v>80</v>
-      </c>
-      <c r="AC42">
-        <v>129</v>
-      </c>
-      <c r="AD42">
-        <v>129</v>
-      </c>
-      <c r="AE42">
-        <v>126</v>
-      </c>
-      <c r="AF42">
-        <v>153</v>
-      </c>
-      <c r="AG42">
-        <v>232</v>
-      </c>
-      <c r="AH42">
-        <v>230</v>
-      </c>
-      <c r="AI42">
-        <v>230</v>
-      </c>
-      <c r="AJ42">
-        <v>230</v>
+        <v>62</v>
       </c>
       <c r="AK42">
-        <v>224</v>
+        <v>9</v>
       </c>
       <c r="AL42">
-        <v>224</v>
+        <v>9</v>
       </c>
       <c r="AN42">
-        <v>385</v>
+        <v>9</v>
       </c>
       <c r="AO42">
-        <v>429</v>
+        <v>32</v>
       </c>
       <c r="AP42">
-        <v>414</v>
+        <v>40</v>
       </c>
       <c r="AQ42">
-        <v>512</v>
+        <v>43</v>
       </c>
       <c r="AR42">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="43" spans="1:44" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="AS42">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B43" t="s">
-        <v>64</v>
+        <v>16</v>
+      </c>
+      <c r="V43">
+        <v>36</v>
+      </c>
+      <c r="W43">
+        <v>39</v>
+      </c>
+      <c r="X43">
+        <v>85</v>
+      </c>
+      <c r="Y43">
+        <v>83</v>
+      </c>
+      <c r="Z43">
+        <v>83</v>
+      </c>
+      <c r="AA43">
+        <v>82</v>
+      </c>
+      <c r="AB43">
+        <v>80</v>
+      </c>
+      <c r="AC43">
+        <v>129</v>
+      </c>
+      <c r="AD43">
+        <v>129</v>
+      </c>
+      <c r="AE43">
+        <v>126</v>
+      </c>
+      <c r="AF43">
+        <v>153</v>
+      </c>
+      <c r="AG43">
+        <v>232</v>
+      </c>
+      <c r="AH43">
+        <v>230</v>
+      </c>
+      <c r="AI43">
+        <v>230</v>
+      </c>
+      <c r="AJ43">
+        <v>230</v>
       </c>
       <c r="AK43">
-        <v>262</v>
+        <v>224</v>
       </c>
       <c r="AL43">
-        <v>267</v>
+        <v>224</v>
       </c>
       <c r="AN43">
+        <v>385</v>
+      </c>
+      <c r="AO43">
         <v>429</v>
       </c>
-      <c r="AO43">
-        <v>452</v>
-      </c>
       <c r="AP43">
-        <v>435</v>
+        <v>414</v>
       </c>
       <c r="AQ43">
-        <v>534</v>
+        <v>512</v>
       </c>
       <c r="AR43">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="44" spans="1:44" x14ac:dyDescent="0.3">
+        <v>505</v>
+      </c>
+      <c r="AS43">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="44" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B44" t="s">
-        <v>67</v>
+        <v>64</v>
+      </c>
+      <c r="AK44">
+        <v>262</v>
       </c>
       <c r="AL44">
-        <v>9</v>
+        <v>267</v>
       </c>
       <c r="AN44">
-        <v>9</v>
+        <v>429</v>
       </c>
       <c r="AO44">
-        <v>32</v>
+        <v>452</v>
       </c>
       <c r="AP44">
-        <v>40</v>
+        <v>435</v>
       </c>
       <c r="AQ44">
-        <v>43</v>
+        <v>534</v>
       </c>
       <c r="AR44">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:44" x14ac:dyDescent="0.3">
+        <v>536</v>
+      </c>
+      <c r="AS44">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="45" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B45" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL45">
+        <v>9</v>
+      </c>
+      <c r="AN45">
+        <v>9</v>
+      </c>
+      <c r="AO45">
+        <v>32</v>
+      </c>
+      <c r="AP45">
+        <v>40</v>
+      </c>
+      <c r="AQ45">
+        <v>43</v>
+      </c>
+      <c r="AR45">
+        <v>43</v>
+      </c>
+      <c r="AS45">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B46" t="s">
         <v>71</v>
       </c>
-      <c r="AO45">
-        <v>1</v>
-      </c>
-      <c r="AP45">
-        <v>1</v>
-      </c>
-      <c r="AQ45">
-        <v>1</v>
-      </c>
-      <c r="AR45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A46" s="2"/>
-    </row>
-    <row r="47" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="B47" t="s">
+      <c r="AO46">
+        <v>1</v>
+      </c>
+      <c r="AP46">
+        <v>1</v>
+      </c>
+      <c r="AQ46">
+        <v>1</v>
+      </c>
+      <c r="AR46">
+        <v>1</v>
+      </c>
+      <c r="AS46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A47" s="2"/>
+    </row>
+    <row r="48" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A48" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B48" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z48">
-        <v>0</v>
-      </c>
-      <c r="AA48">
-        <v>1</v>
-      </c>
-      <c r="AB48">
-        <v>2</v>
-      </c>
-      <c r="AC48">
-        <v>2</v>
-      </c>
-      <c r="AD48">
-        <v>3</v>
-      </c>
-      <c r="AE48">
-        <v>2</v>
-      </c>
-      <c r="AF48">
-        <v>3</v>
-      </c>
-      <c r="AG48">
-        <v>4</v>
-      </c>
-      <c r="AH48">
-        <v>4</v>
-      </c>
-      <c r="AI48">
-        <v>4</v>
-      </c>
-      <c r="AJ48">
-        <v>5</v>
-      </c>
-      <c r="AK48">
-        <v>6</v>
-      </c>
-      <c r="AL48">
-        <v>5</v>
-      </c>
-      <c r="AN48">
-        <v>7</v>
-      </c>
-      <c r="AO48">
-        <v>9</v>
-      </c>
-      <c r="AP48">
-        <v>10</v>
-      </c>
-      <c r="AQ48">
-        <v>13</v>
-      </c>
-      <c r="AR48">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="49" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B49" t="s">
-        <v>65</v>
+        <v>11</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>1</v>
+      </c>
+      <c r="AB49">
+        <v>2</v>
+      </c>
+      <c r="AC49">
+        <v>2</v>
+      </c>
+      <c r="AD49">
+        <v>3</v>
+      </c>
+      <c r="AE49">
+        <v>2</v>
+      </c>
+      <c r="AF49">
+        <v>3</v>
+      </c>
+      <c r="AG49">
+        <v>4</v>
+      </c>
+      <c r="AH49">
+        <v>4</v>
+      </c>
+      <c r="AI49">
+        <v>4</v>
+      </c>
+      <c r="AJ49">
+        <v>5</v>
+      </c>
+      <c r="AK49">
+        <v>6</v>
       </c>
       <c r="AL49">
         <v>5</v>
       </c>
       <c r="AN49">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO49">
         <v>9</v>
       </c>
       <c r="AP49">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AQ49">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AR49">
         <v>14</v>
       </c>
-    </row>
-    <row r="50" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS49">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B50" t="s">
+        <v>65</v>
+      </c>
+      <c r="AL50">
+        <v>5</v>
+      </c>
+      <c r="AN50">
+        <v>6</v>
+      </c>
+      <c r="AO50">
+        <v>9</v>
+      </c>
+      <c r="AP50">
+        <v>9</v>
+      </c>
+      <c r="AQ50">
+        <v>12</v>
+      </c>
+      <c r="AR50">
         <v>14</v>
       </c>
-      <c r="AL50">
-        <v>0</v>
-      </c>
-      <c r="AN50">
-        <v>0</v>
-      </c>
-      <c r="AO50">
-        <v>0</v>
-      </c>
-      <c r="AP50">
-        <v>0</v>
-      </c>
-      <c r="AQ50">
-        <v>0</v>
-      </c>
-      <c r="AR50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS50">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B51" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z51">
-        <v>40</v>
-      </c>
-      <c r="AA51">
-        <v>54</v>
-      </c>
-      <c r="AB51">
-        <v>54</v>
-      </c>
-      <c r="AC51">
-        <v>51</v>
-      </c>
-      <c r="AD51">
-        <v>53</v>
-      </c>
-      <c r="AE51">
-        <v>53</v>
-      </c>
-      <c r="AF51">
-        <v>66</v>
-      </c>
-      <c r="AG51">
-        <v>66</v>
-      </c>
-      <c r="AH51">
-        <v>73</v>
-      </c>
-      <c r="AI51">
-        <v>87</v>
-      </c>
-      <c r="AJ51">
-        <v>87</v>
-      </c>
-      <c r="AK51">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="AL51">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="AN51">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="AO51">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AP51">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="AQ51">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="AR51">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="52" spans="1:44" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AS51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B52" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z52">
         <v>40</v>
       </c>
       <c r="AA52">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AB52">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AC52">
+        <v>51</v>
+      </c>
+      <c r="AD52">
         <v>53</v>
       </c>
-      <c r="AD52">
-        <v>56</v>
-      </c>
       <c r="AE52">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AF52">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="AG52">
+        <v>66</v>
+      </c>
+      <c r="AH52">
+        <v>73</v>
+      </c>
+      <c r="AI52">
+        <v>87</v>
+      </c>
+      <c r="AJ52">
+        <v>87</v>
+      </c>
+      <c r="AK52">
+        <v>81</v>
+      </c>
+      <c r="AL52">
+        <v>87</v>
+      </c>
+      <c r="AN52">
+        <v>81</v>
+      </c>
+      <c r="AO52">
         <v>70</v>
       </c>
-      <c r="AH52">
-        <v>77</v>
-      </c>
-      <c r="AI52">
-        <v>91</v>
-      </c>
-      <c r="AJ52">
-        <v>92</v>
-      </c>
-      <c r="AK52">
-        <v>87</v>
-      </c>
-      <c r="AL52">
-        <v>92</v>
-      </c>
-      <c r="AN52">
-        <v>87</v>
-      </c>
-      <c r="AO52">
-        <v>79</v>
-      </c>
       <c r="AP52">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="AQ52">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="AR52">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="53" spans="1:44" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+      <c r="AS52">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="53" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B53" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z53">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="AA53">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="AB53">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="AC53">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="AD53">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="AE53">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="AF53">
-        <v>8</v>
+        <v>69</v>
       </c>
       <c r="AG53">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="AH53">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="AI53">
-        <v>8</v>
+        <v>91</v>
       </c>
       <c r="AJ53">
-        <v>8</v>
+        <v>92</v>
       </c>
       <c r="AK53">
-        <v>8</v>
+        <v>87</v>
       </c>
       <c r="AL53">
-        <v>8</v>
+        <v>92</v>
       </c>
       <c r="AN53">
-        <v>8</v>
+        <v>87</v>
       </c>
       <c r="AO53">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="AP53">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="AQ53">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="AR53">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="54" spans="1:44" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+      <c r="AS53">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B54" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z54">
+        <v>8</v>
+      </c>
+      <c r="AA54">
+        <v>8</v>
+      </c>
+      <c r="AB54">
+        <v>8</v>
+      </c>
+      <c r="AC54">
+        <v>8</v>
+      </c>
+      <c r="AD54">
+        <v>8</v>
+      </c>
+      <c r="AE54">
+        <v>8</v>
+      </c>
+      <c r="AF54">
+        <v>8</v>
+      </c>
+      <c r="AG54">
+        <v>8</v>
+      </c>
+      <c r="AH54">
+        <v>8</v>
+      </c>
+      <c r="AI54">
+        <v>8</v>
+      </c>
+      <c r="AJ54">
+        <v>8</v>
+      </c>
+      <c r="AK54">
+        <v>8</v>
+      </c>
+      <c r="AL54">
+        <v>8</v>
+      </c>
+      <c r="AN54">
+        <v>8</v>
+      </c>
+      <c r="AO54">
+        <v>35</v>
+      </c>
+      <c r="AP54">
+        <v>40</v>
+      </c>
+      <c r="AQ54">
+        <v>46</v>
+      </c>
+      <c r="AR54">
+        <v>50</v>
+      </c>
+      <c r="AS54">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B55" t="s">
         <v>72</v>
       </c>
-      <c r="AO54">
-        <v>1</v>
-      </c>
-      <c r="AP54">
-        <v>1</v>
-      </c>
-      <c r="AQ54">
-        <v>1</v>
-      </c>
-      <c r="AR54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A56" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B56" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z56">
-        <v>1</v>
-      </c>
-      <c r="AA56">
-        <v>1</v>
-      </c>
-      <c r="AB56">
-        <v>2</v>
-      </c>
-      <c r="AC56">
-        <v>2</v>
-      </c>
-      <c r="AD56">
-        <v>2</v>
-      </c>
-      <c r="AE56">
-        <v>3</v>
-      </c>
-      <c r="AF56">
-        <v>3</v>
-      </c>
-      <c r="AG56">
-        <v>3</v>
-      </c>
-      <c r="AH56">
-        <v>3</v>
-      </c>
-      <c r="AI56">
-        <v>3</v>
-      </c>
-      <c r="AJ56">
-        <v>4</v>
-      </c>
-      <c r="AK56">
-        <v>4</v>
-      </c>
-      <c r="AL56">
-        <v>4</v>
-      </c>
-      <c r="AN56">
-        <v>4</v>
-      </c>
-      <c r="AO56">
-        <v>4</v>
-      </c>
-      <c r="AP56">
-        <v>6</v>
-      </c>
-      <c r="AQ56">
-        <v>7</v>
-      </c>
-      <c r="AR56">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="57" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AO55">
+        <v>1</v>
+      </c>
+      <c r="AP55">
+        <v>1</v>
+      </c>
+      <c r="AQ55">
+        <v>1</v>
+      </c>
+      <c r="AR55">
+        <v>1</v>
+      </c>
+      <c r="AS55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B57" t="s">
-        <v>65</v>
+        <v>15</v>
+      </c>
+      <c r="Z57">
+        <v>1</v>
+      </c>
+      <c r="AA57">
+        <v>1</v>
+      </c>
+      <c r="AB57">
+        <v>2</v>
+      </c>
+      <c r="AC57">
+        <v>2</v>
+      </c>
+      <c r="AD57">
+        <v>2</v>
+      </c>
+      <c r="AE57">
+        <v>3</v>
+      </c>
+      <c r="AF57">
+        <v>3</v>
+      </c>
+      <c r="AG57">
+        <v>3</v>
+      </c>
+      <c r="AH57">
+        <v>3</v>
+      </c>
+      <c r="AI57">
+        <v>3</v>
+      </c>
+      <c r="AJ57">
+        <v>4</v>
+      </c>
+      <c r="AK57">
+        <v>4</v>
       </c>
       <c r="AL57">
         <v>4</v>
       </c>
       <c r="AN57">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO57">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AP57">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ57">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AR57">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="58" spans="1:44" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="AS57">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B58" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="AL58">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AN58">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO58">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AP58">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AQ58">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AR58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:44" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="AS58">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B59" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z59">
-        <v>7</v>
-      </c>
-      <c r="AA59">
-        <v>54</v>
-      </c>
-      <c r="AB59">
-        <v>6</v>
-      </c>
-      <c r="AC59">
-        <v>7</v>
-      </c>
-      <c r="AD59">
-        <v>7</v>
-      </c>
-      <c r="AE59">
-        <v>6</v>
-      </c>
-      <c r="AF59">
-        <v>6</v>
-      </c>
-      <c r="AG59">
-        <v>6</v>
-      </c>
-      <c r="AH59">
-        <v>6</v>
-      </c>
-      <c r="AI59">
-        <v>6</v>
-      </c>
-      <c r="AJ59">
-        <v>7</v>
-      </c>
-      <c r="AK59">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="AL59">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AN59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AO59">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AP59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR59">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="60" spans="1:44" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="AS59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B60" t="s">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="Z60">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AA60">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AB60">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AC60">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AD60">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AE60">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AF60">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AG60">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AH60">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AI60">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AJ60">
+        <v>7</v>
+      </c>
+      <c r="AK60">
+        <v>3</v>
+      </c>
+      <c r="AL60">
+        <v>4</v>
+      </c>
+      <c r="AN60">
+        <v>3</v>
+      </c>
+      <c r="AO60">
+        <v>4</v>
+      </c>
+      <c r="AP60">
+        <v>0</v>
+      </c>
+      <c r="AQ60">
+        <v>0</v>
+      </c>
+      <c r="AR60">
+        <v>10</v>
+      </c>
+      <c r="AS60">
         <v>11</v>
       </c>
-      <c r="AK60">
-        <v>7</v>
-      </c>
-      <c r="AL60">
-        <v>8</v>
-      </c>
-      <c r="AN60">
-        <v>6</v>
-      </c>
-      <c r="AO60">
-        <v>7</v>
-      </c>
-      <c r="AP60">
-        <v>5</v>
-      </c>
-      <c r="AQ60">
-        <v>6</v>
-      </c>
-      <c r="AR60">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="61" spans="1:44" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B61" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z61">
+        <v>8</v>
+      </c>
+      <c r="AA61">
+        <v>55</v>
+      </c>
+      <c r="AB61">
+        <v>8</v>
+      </c>
+      <c r="AC61">
+        <v>9</v>
+      </c>
+      <c r="AD61">
+        <v>9</v>
+      </c>
+      <c r="AE61">
+        <v>9</v>
+      </c>
+      <c r="AF61">
+        <v>9</v>
+      </c>
+      <c r="AG61">
+        <v>9</v>
+      </c>
+      <c r="AH61">
+        <v>9</v>
+      </c>
+      <c r="AI61">
+        <v>9</v>
+      </c>
+      <c r="AJ61">
+        <v>11</v>
+      </c>
+      <c r="AK61">
+        <v>7</v>
+      </c>
+      <c r="AL61">
+        <v>8</v>
+      </c>
+      <c r="AN61">
+        <v>6</v>
+      </c>
+      <c r="AO61">
+        <v>7</v>
+      </c>
+      <c r="AP61">
+        <v>5</v>
+      </c>
+      <c r="AQ61">
+        <v>6</v>
+      </c>
+      <c r="AR61">
+        <v>16</v>
+      </c>
+      <c r="AS61">
         <v>17</v>
       </c>
-      <c r="Z61">
-        <v>0</v>
-      </c>
-      <c r="AA61">
-        <v>8</v>
-      </c>
-      <c r="AB61">
-        <v>7</v>
-      </c>
-      <c r="AC61">
-        <v>7</v>
-      </c>
-      <c r="AD61">
-        <v>7</v>
-      </c>
-      <c r="AE61">
-        <v>7</v>
-      </c>
-      <c r="AF61">
-        <v>7</v>
-      </c>
-      <c r="AG61">
-        <v>0</v>
-      </c>
-      <c r="AH61">
-        <v>0</v>
-      </c>
-      <c r="AI61">
-        <v>0</v>
-      </c>
-      <c r="AJ61">
-        <v>0</v>
-      </c>
-      <c r="AK61">
-        <v>0</v>
-      </c>
-      <c r="AL61">
-        <v>0</v>
-      </c>
-      <c r="AN61">
-        <v>0</v>
-      </c>
-      <c r="AO61">
-        <v>0</v>
-      </c>
-      <c r="AP61">
-        <v>0</v>
-      </c>
-      <c r="AQ61">
-        <v>0</v>
-      </c>
-      <c r="AR61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:44" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B62" t="s">
-        <v>69</v>
+        <v>17</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+      <c r="AA62">
+        <v>8</v>
+      </c>
+      <c r="AB62">
+        <v>7</v>
+      </c>
+      <c r="AC62">
+        <v>7</v>
+      </c>
+      <c r="AD62">
+        <v>7</v>
+      </c>
+      <c r="AE62">
+        <v>7</v>
+      </c>
+      <c r="AF62">
+        <v>7</v>
+      </c>
+      <c r="AG62">
+        <v>0</v>
+      </c>
+      <c r="AH62">
+        <v>0</v>
+      </c>
+      <c r="AI62">
+        <v>0</v>
+      </c>
+      <c r="AJ62">
+        <v>0</v>
+      </c>
+      <c r="AK62">
+        <v>0</v>
       </c>
       <c r="AL62">
         <v>0</v>
       </c>
       <c r="AN62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="B64" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B63" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL63">
+        <v>0</v>
+      </c>
+      <c r="AN63">
+        <v>1</v>
+      </c>
+      <c r="AO63">
+        <v>1</v>
+      </c>
+      <c r="AP63">
+        <v>1</v>
+      </c>
+      <c r="AQ63">
+        <v>1</v>
+      </c>
+      <c r="AR63">
+        <v>1</v>
+      </c>
+      <c r="AS63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="B65" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="65" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A65" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B65" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA65">
-        <v>5</v>
-      </c>
-      <c r="AB65">
-        <v>8</v>
-      </c>
-      <c r="AC65">
-        <v>12</v>
-      </c>
-      <c r="AD65">
-        <v>12</v>
-      </c>
-      <c r="AE65">
-        <v>15</v>
-      </c>
-      <c r="AF65">
-        <v>17</v>
-      </c>
-      <c r="AG65">
-        <v>19</v>
-      </c>
-      <c r="AH65">
-        <v>19</v>
-      </c>
-      <c r="AI65">
-        <v>22</v>
-      </c>
-      <c r="AJ65">
-        <v>22</v>
-      </c>
-      <c r="AK65">
-        <v>27</v>
-      </c>
-      <c r="AL65">
-        <v>34</v>
-      </c>
-      <c r="AM65">
-        <v>48</v>
-      </c>
-      <c r="AN65">
-        <v>62</v>
-      </c>
-      <c r="AO65">
-        <v>76</v>
-      </c>
-      <c r="AP65">
-        <v>77</v>
-      </c>
-      <c r="AQ65">
-        <v>88</v>
-      </c>
-      <c r="AR65">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="66" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B66" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="AA66">
+        <v>5</v>
+      </c>
+      <c r="AB66">
+        <v>8</v>
+      </c>
+      <c r="AC66">
+        <v>12</v>
+      </c>
+      <c r="AD66">
+        <v>12</v>
+      </c>
+      <c r="AE66">
+        <v>15</v>
+      </c>
+      <c r="AF66">
+        <v>17</v>
+      </c>
+      <c r="AG66">
+        <v>19</v>
+      </c>
+      <c r="AH66">
+        <v>19</v>
+      </c>
+      <c r="AI66">
+        <v>22</v>
+      </c>
+      <c r="AJ66">
+        <v>22</v>
+      </c>
+      <c r="AK66">
+        <v>27</v>
+      </c>
+      <c r="AL66">
+        <v>34</v>
+      </c>
+      <c r="AM66">
         <v>48</v>
       </c>
-      <c r="AB66">
-        <v>55</v>
-      </c>
-      <c r="AC66">
-        <v>55</v>
-      </c>
-      <c r="AD66">
-        <v>70</v>
-      </c>
-      <c r="AE66">
-        <v>97</v>
-      </c>
-      <c r="AF66">
-        <v>101</v>
-      </c>
-      <c r="AG66">
-        <v>107</v>
-      </c>
-      <c r="AH66">
-        <v>152</v>
-      </c>
-      <c r="AI66">
-        <v>155</v>
-      </c>
-      <c r="AJ66">
-        <v>161</v>
-      </c>
-      <c r="AK66">
-        <v>189</v>
-      </c>
-      <c r="AL66">
-        <v>222</v>
-      </c>
-      <c r="AM66">
-        <v>248</v>
-      </c>
       <c r="AN66">
-        <v>258</v>
+        <v>62</v>
       </c>
       <c r="AO66">
-        <v>284</v>
+        <v>76</v>
       </c>
       <c r="AP66">
-        <v>301</v>
+        <v>77</v>
       </c>
       <c r="AQ66">
-        <v>282</v>
+        <v>88</v>
       </c>
       <c r="AR66">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="67" spans="1:44" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+      <c r="AS66">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="67" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B67" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AA67">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="AB67">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="AC67">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="AD67">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="AE67">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="AF67">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="AG67">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="AH67">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="AI67">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="AJ67">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="AK67">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AL67">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="AM67">
         <v>248</v>
       </c>
       <c r="AN67">
-        <v>225</v>
+        <v>258</v>
       </c>
       <c r="AO67">
-        <v>229</v>
+        <v>284</v>
       </c>
       <c r="AP67">
-        <v>257</v>
+        <v>301</v>
       </c>
       <c r="AQ67">
-        <v>262</v>
+        <v>282</v>
       </c>
       <c r="AR67">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="68" spans="1:44" x14ac:dyDescent="0.3">
+        <v>268</v>
+      </c>
+      <c r="AS67">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="68" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B68" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA68">
+        <v>35</v>
+      </c>
+      <c r="AB68">
+        <v>43</v>
+      </c>
+      <c r="AC68">
+        <v>43</v>
+      </c>
+      <c r="AD68">
+        <v>59</v>
+      </c>
+      <c r="AE68">
+        <v>83</v>
+      </c>
+      <c r="AF68">
+        <v>77</v>
+      </c>
+      <c r="AG68">
+        <v>93</v>
+      </c>
+      <c r="AH68">
+        <v>140</v>
+      </c>
+      <c r="AI68">
+        <v>145</v>
+      </c>
+      <c r="AJ68">
+        <v>145</v>
+      </c>
+      <c r="AK68">
+        <v>187</v>
+      </c>
+      <c r="AL68">
+        <v>202</v>
+      </c>
+      <c r="AM68">
+        <v>248</v>
+      </c>
+      <c r="AN68">
+        <v>225</v>
+      </c>
+      <c r="AO68">
+        <v>229</v>
+      </c>
+      <c r="AP68">
+        <v>257</v>
+      </c>
+      <c r="AQ68">
+        <v>262</v>
+      </c>
+      <c r="AR68">
+        <v>255</v>
+      </c>
+      <c r="AS68">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="69" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B69" t="s">
         <v>74</v>
       </c>
-      <c r="AO68">
+      <c r="AO69">
         <v>4</v>
       </c>
-      <c r="AP68">
+      <c r="AP69">
         <v>4</v>
       </c>
-      <c r="AQ68">
+      <c r="AQ69">
         <v>5</v>
       </c>
-      <c r="AR68">
+      <c r="AR69">
         <v>5</v>
       </c>
-    </row>
-    <row r="70" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A70" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B70" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA70">
-        <v>5</v>
-      </c>
-      <c r="AB70">
-        <v>5</v>
-      </c>
-      <c r="AC70">
-        <v>8</v>
-      </c>
-      <c r="AD70">
-        <v>9</v>
-      </c>
-      <c r="AE70">
-        <v>14</v>
-      </c>
-      <c r="AF70">
-        <v>14</v>
-      </c>
-      <c r="AG70">
-        <v>19</v>
-      </c>
-      <c r="AH70">
-        <v>22</v>
-      </c>
-      <c r="AI70">
-        <v>29</v>
-      </c>
-      <c r="AJ70">
-        <v>30</v>
-      </c>
-      <c r="AK70">
-        <v>33</v>
-      </c>
-      <c r="AL70">
-        <v>38</v>
-      </c>
-      <c r="AM70">
-        <v>38</v>
-      </c>
-      <c r="AN70">
-        <v>43</v>
-      </c>
-      <c r="AO70">
-        <v>47</v>
-      </c>
-      <c r="AP70">
-        <v>47</v>
-      </c>
-      <c r="AQ70">
-        <v>51</v>
-      </c>
-      <c r="AR70">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="71" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS69">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B71" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA71">
+        <v>5</v>
+      </c>
+      <c r="AB71">
+        <v>5</v>
+      </c>
+      <c r="AC71">
+        <v>8</v>
+      </c>
+      <c r="AD71">
+        <v>9</v>
+      </c>
+      <c r="AE71">
+        <v>14</v>
+      </c>
+      <c r="AF71">
+        <v>14</v>
+      </c>
+      <c r="AG71">
+        <v>19</v>
+      </c>
+      <c r="AH71">
         <v>22</v>
       </c>
-      <c r="AB71">
-        <v>40</v>
-      </c>
-      <c r="AC71">
+      <c r="AI71">
+        <v>29</v>
+      </c>
+      <c r="AJ71">
+        <v>30</v>
+      </c>
+      <c r="AK71">
+        <v>33</v>
+      </c>
+      <c r="AL71">
+        <v>38</v>
+      </c>
+      <c r="AM71">
+        <v>38</v>
+      </c>
+      <c r="AN71">
         <v>43</v>
       </c>
-      <c r="AD71">
-        <v>39</v>
-      </c>
-      <c r="AE71">
-        <v>53</v>
-      </c>
-      <c r="AF71">
-        <v>53</v>
-      </c>
-      <c r="AG71">
-        <v>61</v>
-      </c>
-      <c r="AH71">
-        <v>69</v>
-      </c>
-      <c r="AI71">
-        <v>73</v>
-      </c>
-      <c r="AJ71">
-        <v>73</v>
-      </c>
-      <c r="AK71">
-        <v>77</v>
-      </c>
-      <c r="AL71">
-        <v>33</v>
-      </c>
-      <c r="AM71">
-        <v>33</v>
-      </c>
-      <c r="AN71">
-        <v>23</v>
-      </c>
       <c r="AO71">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="AP71">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="AQ71">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="AR71">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="72" spans="1:44" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+      <c r="AS71">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="72" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B72" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA72">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AB72">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AC72">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AD72">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="AE72">
         <v>53</v>
@@ -4029,222 +4146,234 @@
         <v>77</v>
       </c>
       <c r="AL72">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="AM72">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="AN72">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="AO72">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="AP72">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="AQ72">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="AR72">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="73" spans="1:44" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="AS72">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="73" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B73" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA73">
+        <v>27</v>
+      </c>
+      <c r="AB73">
+        <v>45</v>
+      </c>
+      <c r="AC73">
+        <v>51</v>
+      </c>
+      <c r="AD73">
+        <v>48</v>
+      </c>
+      <c r="AE73">
+        <v>53</v>
+      </c>
+      <c r="AF73">
+        <v>53</v>
+      </c>
+      <c r="AG73">
+        <v>61</v>
+      </c>
+      <c r="AH73">
+        <v>69</v>
+      </c>
+      <c r="AI73">
+        <v>73</v>
+      </c>
+      <c r="AJ73">
+        <v>73</v>
+      </c>
+      <c r="AK73">
+        <v>77</v>
+      </c>
+      <c r="AL73">
+        <v>71</v>
+      </c>
+      <c r="AM73">
+        <v>71</v>
+      </c>
+      <c r="AN73">
+        <v>66</v>
+      </c>
+      <c r="AO73">
+        <v>70</v>
+      </c>
+      <c r="AP73">
+        <v>71</v>
+      </c>
+      <c r="AQ73">
+        <v>82</v>
+      </c>
+      <c r="AR73">
+        <v>85</v>
+      </c>
+      <c r="AS73">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="74" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B74" t="s">
         <v>14</v>
       </c>
-      <c r="AA73">
+      <c r="AA74">
         <v>0</v>
       </c>
-      <c r="AB73">
+      <c r="AB74">
         <v>0</v>
       </c>
-      <c r="AC73">
+      <c r="AC74">
         <v>0</v>
       </c>
-      <c r="AD73" s="10" t="s">
+      <c r="AD74" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="AE73" t="s">
+      <c r="AE74" t="s">
         <v>40</v>
       </c>
-      <c r="AF73" t="s">
+      <c r="AF74" t="s">
         <v>40</v>
       </c>
-      <c r="AG73" t="s">
+      <c r="AG74" t="s">
         <v>40</v>
       </c>
-      <c r="AH73">
-        <v>1</v>
-      </c>
-      <c r="AI73">
-        <v>1</v>
-      </c>
-      <c r="AJ73">
+      <c r="AH74">
+        <v>1</v>
+      </c>
+      <c r="AI74">
+        <v>1</v>
+      </c>
+      <c r="AJ74">
         <v>2</v>
       </c>
-      <c r="AK73">
+      <c r="AK74">
         <v>2</v>
       </c>
-      <c r="AL73">
+      <c r="AL74">
         <v>9</v>
       </c>
-      <c r="AM73">
+      <c r="AM74">
         <v>9</v>
       </c>
-      <c r="AN73">
+      <c r="AN74">
         <v>9</v>
       </c>
-      <c r="AO73">
+      <c r="AO74">
         <v>9</v>
       </c>
-      <c r="AP73">
+      <c r="AP74">
         <v>19</v>
       </c>
-      <c r="AQ73">
+      <c r="AQ74">
         <v>22</v>
       </c>
-      <c r="AR73">
+      <c r="AR74">
         <v>22</v>
       </c>
-    </row>
-    <row r="75" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A75" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B75" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA75">
-        <v>1</v>
-      </c>
-      <c r="AB75">
-        <v>1</v>
-      </c>
-      <c r="AC75">
-        <v>3</v>
-      </c>
-      <c r="AD75">
-        <v>5</v>
-      </c>
-      <c r="AE75">
-        <v>6</v>
-      </c>
-      <c r="AF75">
-        <v>7</v>
-      </c>
-      <c r="AG75">
-        <v>9</v>
-      </c>
-      <c r="AH75">
-        <v>11</v>
-      </c>
-      <c r="AI75">
-        <v>14</v>
-      </c>
-      <c r="AJ75">
-        <v>15</v>
-      </c>
-      <c r="AK75">
-        <v>17</v>
-      </c>
-      <c r="AL75">
-        <v>21</v>
-      </c>
-      <c r="AM75">
-        <v>21</v>
-      </c>
-      <c r="AN75">
-        <v>28</v>
-      </c>
-      <c r="AO75">
-        <v>28</v>
-      </c>
-      <c r="AP75">
-        <v>32</v>
-      </c>
-      <c r="AQ75">
-        <v>33</v>
-      </c>
-      <c r="AR75">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="76" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS74">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="76" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B76" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA76">
+        <v>1</v>
+      </c>
+      <c r="AB76">
+        <v>1</v>
+      </c>
+      <c r="AC76">
+        <v>3</v>
+      </c>
+      <c r="AD76">
+        <v>5</v>
+      </c>
+      <c r="AE76">
+        <v>6</v>
+      </c>
+      <c r="AF76">
+        <v>7</v>
+      </c>
+      <c r="AG76">
+        <v>9</v>
+      </c>
+      <c r="AH76">
+        <v>11</v>
+      </c>
+      <c r="AI76">
+        <v>14</v>
+      </c>
+      <c r="AJ76">
+        <v>15</v>
+      </c>
+      <c r="AK76">
+        <v>17</v>
+      </c>
+      <c r="AL76">
+        <v>21</v>
+      </c>
+      <c r="AM76">
+        <v>21</v>
+      </c>
+      <c r="AN76">
+        <v>28</v>
+      </c>
+      <c r="AO76">
+        <v>28</v>
+      </c>
+      <c r="AP76">
+        <v>32</v>
+      </c>
+      <c r="AQ76">
+        <v>33</v>
+      </c>
+      <c r="AR76">
         <v>36</v>
       </c>
-      <c r="AA76">
-        <v>17</v>
-      </c>
-      <c r="AB76">
-        <v>18</v>
-      </c>
-      <c r="AC76">
-        <v>81</v>
-      </c>
-      <c r="AD76">
-        <v>124</v>
-      </c>
-      <c r="AE76">
-        <v>95</v>
-      </c>
-      <c r="AF76">
-        <v>95</v>
-      </c>
-      <c r="AG76">
-        <v>119</v>
-      </c>
-      <c r="AH76">
-        <v>142</v>
-      </c>
-      <c r="AI76">
-        <v>142</v>
-      </c>
-      <c r="AJ76">
-        <v>142</v>
-      </c>
-      <c r="AK76">
-        <v>144</v>
-      </c>
-      <c r="AL76">
-        <v>123</v>
-      </c>
-      <c r="AM76">
-        <v>144</v>
-      </c>
-      <c r="AN76">
-        <v>105</v>
-      </c>
-      <c r="AO76">
-        <v>105</v>
-      </c>
-      <c r="AP76">
-        <v>105</v>
-      </c>
-      <c r="AQ76">
-        <v>74</v>
-      </c>
-      <c r="AR76">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="77" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS76">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="77" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B77" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA77">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AB77">
         <v>18</v>
@@ -4264,8 +4393,20 @@
       <c r="AG77">
         <v>119</v>
       </c>
+      <c r="AH77">
+        <v>142</v>
+      </c>
+      <c r="AI77">
+        <v>142</v>
+      </c>
+      <c r="AJ77">
+        <v>142</v>
+      </c>
+      <c r="AK77">
+        <v>144</v>
+      </c>
       <c r="AL77">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="AM77">
         <v>144</v>
@@ -4285,86 +4426,148 @@
       <c r="AR77">
         <v>74</v>
       </c>
-    </row>
-    <row r="78" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS77">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="78" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B78" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="AA78">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AB78">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="AC78">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="AD78">
-        <v>1</v>
+        <v>124</v>
       </c>
       <c r="AE78">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="AF78">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="AG78">
-        <v>1</v>
-      </c>
-      <c r="AH78">
-        <v>1</v>
-      </c>
-      <c r="AI78">
-        <v>1</v>
-      </c>
-      <c r="AJ78">
-        <v>1</v>
-      </c>
-      <c r="AK78">
-        <v>2</v>
+        <v>119</v>
       </c>
       <c r="AL78">
-        <v>2</v>
+        <v>144</v>
       </c>
       <c r="AM78">
-        <v>2</v>
+        <v>144</v>
       </c>
       <c r="AN78">
-        <v>2</v>
+        <v>105</v>
       </c>
       <c r="AO78">
-        <v>2</v>
+        <v>105</v>
       </c>
       <c r="AP78">
-        <v>2</v>
+        <v>105</v>
       </c>
       <c r="AQ78">
-        <v>2</v>
+        <v>74</v>
       </c>
       <c r="AR78">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:44" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+      <c r="AS78">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="79" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B79" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA79">
+        <v>0</v>
+      </c>
+      <c r="AB79">
+        <v>1</v>
+      </c>
+      <c r="AC79">
+        <v>1</v>
+      </c>
+      <c r="AD79">
+        <v>1</v>
+      </c>
+      <c r="AE79">
+        <v>1</v>
+      </c>
+      <c r="AF79">
+        <v>1</v>
+      </c>
+      <c r="AG79">
+        <v>1</v>
+      </c>
+      <c r="AH79">
+        <v>1</v>
+      </c>
+      <c r="AI79">
+        <v>1</v>
+      </c>
+      <c r="AJ79">
+        <v>1</v>
+      </c>
+      <c r="AK79">
+        <v>2</v>
+      </c>
+      <c r="AL79">
+        <v>2</v>
+      </c>
+      <c r="AM79">
+        <v>2</v>
+      </c>
+      <c r="AN79">
+        <v>2</v>
+      </c>
+      <c r="AO79">
+        <v>2</v>
+      </c>
+      <c r="AP79">
+        <v>2</v>
+      </c>
+      <c r="AQ79">
+        <v>2</v>
+      </c>
+      <c r="AR79">
+        <v>2</v>
+      </c>
+      <c r="AS79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B80" t="s">
         <v>73</v>
       </c>
-      <c r="AO79">
+      <c r="AO80">
         <v>4</v>
       </c>
-      <c r="AP79">
+      <c r="AP80">
         <v>4</v>
       </c>
-      <c r="AQ79">
+      <c r="AQ80">
         <v>4</v>
       </c>
-      <c r="AR79">
+      <c r="AR80">
+        <v>4</v>
+      </c>
+      <c r="AS80">
         <v>4</v>
       </c>
     </row>
@@ -4376,10 +4579,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:S11"/>
+  <dimension ref="A2:T11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+      <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4389,7 +4592,7 @@
     <col min="15" max="18" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>32</v>
       </c>
@@ -4447,8 +4650,11 @@
       <c r="S2" s="9">
         <v>43938</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T2" s="9">
+        <v>43939</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -4506,8 +4712,11 @@
       <c r="S3">
         <v>309</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T3">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -4565,8 +4774,11 @@
       <c r="S4">
         <v>215</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T4">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -4624,8 +4836,11 @@
       <c r="S5">
         <v>205</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T5">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>4</v>
       </c>
@@ -4683,8 +4898,11 @@
       <c r="S6">
         <v>459</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T6">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -4742,8 +4960,11 @@
       <c r="S7">
         <v>350</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T7">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>6</v>
       </c>
@@ -4801,8 +5022,11 @@
       <c r="S8">
         <v>353</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T8">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -4860,8 +5084,11 @@
       <c r="S9">
         <v>402</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T9">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>8</v>
       </c>
@@ -4919,8 +5146,11 @@
       <c r="S10">
         <v>339</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T10">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>39</v>
       </c>
@@ -4977,6 +5207,9 @@
       </c>
       <c r="S11">
         <v>34</v>
+      </c>
+      <c r="T11">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -4987,10 +5220,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A2:N17"/>
+  <dimension ref="A2:O17"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5000,7 +5233,7 @@
     <col min="10" max="12" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15"/>
       <c r="B2" s="12">
         <v>43926</v>
@@ -5041,8 +5274,11 @@
       <c r="N2" s="9">
         <v>43938</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O2" s="9">
+        <v>43939</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>41</v>
       </c>
@@ -5050,7 +5286,7 @@
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>54</v>
       </c>
@@ -5093,8 +5329,11 @@
       <c r="N4">
         <v>2666</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O4">
+        <v>2793</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>39</v>
       </c>
@@ -5137,8 +5376,11 @@
       <c r="N5">
         <v>413</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O5">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>42</v>
       </c>
@@ -5181,8 +5423,11 @@
       <c r="N6">
         <v>473</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O6">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>43</v>
       </c>
@@ -5225,8 +5470,11 @@
       <c r="N7">
         <v>1271</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O7">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>44</v>
       </c>
@@ -5269,8 +5517,11 @@
       <c r="N8">
         <v>38</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="O8">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>45</v>
       </c>
@@ -5313,8 +5564,11 @@
       <c r="N9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="O9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>55</v>
       </c>
@@ -5353,8 +5607,11 @@
       <c r="N10">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
         <v>46</v>
       </c>
@@ -5397,8 +5654,11 @@
       <c r="N11">
         <v>431</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O11">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
         <v>47</v>
       </c>
@@ -5441,8 +5701,11 @@
       <c r="N12">
         <v>27</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>48</v>
       </c>
@@ -5453,7 +5716,7 @@
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
         <v>39</v>
       </c>
@@ -5496,8 +5759,11 @@
       <c r="N14">
         <v>607</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O14">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
         <v>49</v>
       </c>
@@ -5540,8 +5806,11 @@
       <c r="N15">
         <v>439</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O15">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
         <v>50</v>
       </c>
@@ -5584,8 +5853,11 @@
       <c r="N16">
         <v>1613</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O16">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
         <v>47</v>
       </c>
@@ -5627,6 +5899,9 @@
       </c>
       <c r="N17">
         <v>7</v>
+      </c>
+      <c r="O17">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -5637,10 +5912,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5649,7 +5924,7 @@
     <col min="10" max="10" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B1" s="9">
         <v>43926</v>
       </c>
@@ -5689,14 +5964,17 @@
       <c r="N1" s="9">
         <v>43938</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O1" s="9">
+        <v>43939</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>41</v>
       </c>
       <c r="B2" s="7"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>54</v>
       </c>
@@ -5740,8 +6018,11 @@
       <c r="N3">
         <v>91</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>44</v>
       </c>
@@ -5784,8 +6065,11 @@
       <c r="N4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="O4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>43</v>
       </c>
@@ -5828,8 +6112,11 @@
       <c r="N5">
         <v>71</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O5">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>51</v>
       </c>
@@ -5872,8 +6159,11 @@
       <c r="N6">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>52</v>
       </c>
@@ -5916,8 +6206,11 @@
       <c r="N7">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>53</v>
       </c>
@@ -5958,6 +6251,9 @@
         <v>0</v>
       </c>
       <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
         <v>0</v>
       </c>
     </row>
@@ -6214,16 +6510,16 @@
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8DEDEF4E-2681-4E64-A6E5-9E41742A3664}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="8e61eea9-d51d-4f9c-960b-1b037651d93e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="248ed0f8-11d3-4141-bb91-6b69a0801941"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8e61eea9-d51d-4f9c-960b-1b037651d93e"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="248ed0f8-11d3-4141-bb91-6b69a0801941"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/dcCovid-19DataSummaryToday.xlsx
+++ b/dcCovid-19DataSummaryToday.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dcgovict-my.sharepoint.com/personal/ramona_yun1_dc_gov/Documents/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="532" documentId="8_{C884A327-19F6-4EC6-805C-F52B66916DDD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{5633416B-E455-4ECA-9444-D36F0D8B3267}"/>
+  <xr:revisionPtr revIDLastSave="666" documentId="8_{C884A327-19F6-4EC6-805C-F52B66916DDD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{2C2F0EE6-02F6-4A27-9C9B-DB5F0031253F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="Total Cases by Ward" sheetId="2" r:id="rId2"/>
     <sheet name="Total Cases by Race" sheetId="3" r:id="rId3"/>
     <sheet name="Lives Lost by Race" sheetId="4" r:id="rId4"/>
+    <sheet name="Lives Lost by Ward" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="77">
   <si>
     <t>Testing</t>
   </si>
@@ -262,6 +263,9 @@
   </si>
   <si>
     <t>Total Number of Lives Lost Among Personnel</t>
+  </si>
+  <si>
+    <t>Homeless</t>
   </si>
 </sst>
 </file>
@@ -324,7 +328,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -370,6 +374,12 @@
     </xf>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -684,21 +694,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AS80"/>
+  <dimension ref="A1:AT80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="AK1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AS81" sqref="AS81"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="AO1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AT1" sqref="AT1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29.5546875" customWidth="1"/>
     <col min="2" max="2" width="62.44140625" customWidth="1"/>
-    <col min="40" max="45" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="40" max="46" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.3">
       <c r="C1" s="1">
         <v>43897</v>
       </c>
@@ -828,8 +838,11 @@
       <c r="AS1" s="1">
         <v>43939</v>
       </c>
-    </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AT1" s="1">
+        <v>43940</v>
+      </c>
+    </row>
+    <row r="2" spans="1:46" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -853,7 +866,7 @@
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -968,8 +981,11 @@
       <c r="AS3">
         <v>13699</v>
       </c>
-    </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AT3">
+        <v>14113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1105,8 +1121,11 @@
       <c r="AS4">
         <v>2793</v>
       </c>
-    </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AT4">
+        <v>2927</v>
+      </c>
+    </row>
+    <row r="5" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -1224,8 +1243,11 @@
       <c r="AS5">
         <v>96</v>
       </c>
-    </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AT5">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -1313,11 +1335,14 @@
       <c r="AS6">
         <v>622</v>
       </c>
-    </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AT6">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="7" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
@@ -1399,8 +1424,11 @@
       <c r="AS8">
         <v>80</v>
       </c>
-    </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AT8">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
@@ -1482,8 +1510,11 @@
       <c r="AS9">
         <v>443</v>
       </c>
-    </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AT9">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="10" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
@@ -1565,8 +1596,11 @@
       <c r="AS10">
         <v>203</v>
       </c>
-    </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AT10">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="11" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
@@ -1648,13 +1682,16 @@
       <c r="AS11">
         <v>240</v>
       </c>
-    </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AT11">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="13" spans="1:46" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
@@ -1662,7 +1699,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>9</v>
       </c>
@@ -1747,8 +1784,11 @@
       <c r="AS15">
         <v>76</v>
       </c>
-    </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AT15">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>9</v>
       </c>
@@ -1779,8 +1819,11 @@
       <c r="AS16">
         <v>43</v>
       </c>
-    </row>
-    <row r="17" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AT16">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>9</v>
       </c>
@@ -1811,8 +1854,11 @@
       <c r="AS17">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AT17">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>9</v>
       </c>
@@ -1888,8 +1934,11 @@
       <c r="AS18">
         <v>93</v>
       </c>
-    </row>
-    <row r="19" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AT18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>9</v>
       </c>
@@ -1965,8 +2014,11 @@
       <c r="AS19">
         <v>136</v>
       </c>
-    </row>
-    <row r="20" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AT19">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="20" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>9</v>
       </c>
@@ -2042,13 +2094,16 @@
       <c r="AS20">
         <v>528</v>
       </c>
-    </row>
-    <row r="22" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AT20">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="22" spans="1:46" x14ac:dyDescent="0.3">
       <c r="B22" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>10</v>
       </c>
@@ -2133,8 +2188,11 @@
       <c r="AS23">
         <v>81</v>
       </c>
-    </row>
-    <row r="24" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AT23">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>10</v>
       </c>
@@ -2165,8 +2223,11 @@
       <c r="AS24">
         <v>60</v>
       </c>
-    </row>
-    <row r="25" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AT24">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>10</v>
       </c>
@@ -2197,8 +2258,11 @@
       <c r="AS25">
         <v>21</v>
       </c>
-    </row>
-    <row r="26" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AT25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>10</v>
       </c>
@@ -2274,8 +2338,11 @@
       <c r="AS26">
         <v>136</v>
       </c>
-    </row>
-    <row r="27" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AT26">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="27" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>10</v>
       </c>
@@ -2351,8 +2418,11 @@
       <c r="AS27">
         <v>196</v>
       </c>
-    </row>
-    <row r="28" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AT27">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="28" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>10</v>
       </c>
@@ -2428,13 +2498,16 @@
       <c r="AS28">
         <v>580</v>
       </c>
-    </row>
-    <row r="30" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AT28">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="30" spans="1:46" x14ac:dyDescent="0.3">
       <c r="B30" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>21</v>
       </c>
@@ -2510,8 +2583,11 @@
       <c r="AS31">
         <v>26</v>
       </c>
-    </row>
-    <row r="32" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AT31">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>21</v>
       </c>
@@ -2539,8 +2615,11 @@
       <c r="AS32">
         <v>18</v>
       </c>
-    </row>
-    <row r="33" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AT32">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>21</v>
       </c>
@@ -2568,8 +2647,11 @@
       <c r="AS33">
         <v>7</v>
       </c>
-    </row>
-    <row r="34" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AT33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>21</v>
       </c>
@@ -2645,8 +2727,11 @@
       <c r="AS34">
         <v>134</v>
       </c>
-    </row>
-    <row r="35" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AT34">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="35" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>21</v>
       </c>
@@ -2719,8 +2804,11 @@
       <c r="AS35">
         <v>152</v>
       </c>
-    </row>
-    <row r="36" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AT35">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="36" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>21</v>
       </c>
@@ -2796,8 +2884,11 @@
       <c r="AS36">
         <v>63</v>
       </c>
-    </row>
-    <row r="37" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AT36">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>21</v>
       </c>
@@ -2807,16 +2898,19 @@
       <c r="AS37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AT37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
     </row>
-    <row r="39" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:46" x14ac:dyDescent="0.3">
       <c r="B39" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>18</v>
       </c>
@@ -2895,8 +2989,11 @@
       <c r="AS40">
         <v>82</v>
       </c>
-    </row>
-    <row r="41" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AT40">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>18</v>
       </c>
@@ -2927,8 +3024,11 @@
       <c r="AS41">
         <v>31</v>
       </c>
-    </row>
-    <row r="42" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AT41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>18</v>
       </c>
@@ -2959,8 +3059,11 @@
       <c r="AS42">
         <v>50</v>
       </c>
-    </row>
-    <row r="43" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AT42">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>18</v>
       </c>
@@ -3036,8 +3139,11 @@
       <c r="AS43">
         <v>849</v>
       </c>
-    </row>
-    <row r="44" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AT43">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="44" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>18</v>
       </c>
@@ -3068,8 +3174,11 @@
       <c r="AS44">
         <v>880</v>
       </c>
-    </row>
-    <row r="45" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AT44">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="45" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>18</v>
       </c>
@@ -3097,8 +3206,11 @@
       <c r="AS45">
         <v>50</v>
       </c>
-    </row>
-    <row r="46" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AT45">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>18</v>
       </c>
@@ -3120,16 +3232,19 @@
       <c r="AS46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AT46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
     </row>
-    <row r="48" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:46" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>20</v>
       </c>
@@ -3193,8 +3308,11 @@
       <c r="AS49">
         <v>14</v>
       </c>
-    </row>
-    <row r="50" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AT49">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>20</v>
       </c>
@@ -3222,8 +3340,11 @@
       <c r="AS50">
         <v>13</v>
       </c>
-    </row>
-    <row r="51" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AT50">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>20</v>
       </c>
@@ -3251,8 +3372,11 @@
       <c r="AS51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AT51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>20</v>
       </c>
@@ -3316,8 +3440,11 @@
       <c r="AS52">
         <v>64</v>
       </c>
-    </row>
-    <row r="53" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AT52">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="53" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>20</v>
       </c>
@@ -3381,8 +3508,11 @@
       <c r="AS53">
         <v>77</v>
       </c>
-    </row>
-    <row r="54" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AT53">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>20</v>
       </c>
@@ -3446,8 +3576,11 @@
       <c r="AS54">
         <v>50</v>
       </c>
-    </row>
-    <row r="55" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AT54">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>20</v>
       </c>
@@ -3469,8 +3602,11 @@
       <c r="AS55">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AT55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>22</v>
       </c>
@@ -3534,8 +3670,11 @@
       <c r="AS57">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AT57">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>22</v>
       </c>
@@ -3563,8 +3702,11 @@
       <c r="AS58">
         <v>7</v>
       </c>
-    </row>
-    <row r="59" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AT58">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>22</v>
       </c>
@@ -3592,8 +3734,11 @@
       <c r="AS59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AT59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>22</v>
       </c>
@@ -3657,8 +3802,11 @@
       <c r="AS60">
         <v>11</v>
       </c>
-    </row>
-    <row r="61" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AT60">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>22</v>
       </c>
@@ -3722,8 +3870,11 @@
       <c r="AS61">
         <v>17</v>
       </c>
-    </row>
-    <row r="62" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AT61">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>22</v>
       </c>
@@ -3787,8 +3938,11 @@
       <c r="AS62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AT62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>22</v>
       </c>
@@ -3816,13 +3970,16 @@
       <c r="AS63">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AT63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:46" x14ac:dyDescent="0.3">
       <c r="B65" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="66" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>24</v>
       </c>
@@ -3886,8 +4043,11 @@
       <c r="AS66">
         <v>94</v>
       </c>
-    </row>
-    <row r="67" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AT66">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="67" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>24</v>
       </c>
@@ -3951,8 +4111,11 @@
       <c r="AS67">
         <v>280</v>
       </c>
-    </row>
-    <row r="68" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AT67">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="68" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>24</v>
       </c>
@@ -4016,8 +4179,11 @@
       <c r="AS68">
         <v>243</v>
       </c>
-    </row>
-    <row r="69" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AT68">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="69" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>24</v>
       </c>
@@ -4039,8 +4205,11 @@
       <c r="AS69">
         <v>6</v>
       </c>
-    </row>
-    <row r="71" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AT69">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>33</v>
       </c>
@@ -4104,8 +4273,11 @@
       <c r="AS71">
         <v>56</v>
       </c>
-    </row>
-    <row r="72" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AT71">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="72" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>33</v>
       </c>
@@ -4169,8 +4341,11 @@
       <c r="AS72">
         <v>26</v>
       </c>
-    </row>
-    <row r="73" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AT72">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="73" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>33</v>
       </c>
@@ -4234,8 +4409,11 @@
       <c r="AS73">
         <v>82</v>
       </c>
-    </row>
-    <row r="74" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AT73">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="74" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>33</v>
       </c>
@@ -4299,8 +4477,11 @@
       <c r="AS74">
         <v>22</v>
       </c>
-    </row>
-    <row r="76" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AT74">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="76" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>34</v>
       </c>
@@ -4364,8 +4545,11 @@
       <c r="AS76">
         <v>36</v>
       </c>
-    </row>
-    <row r="77" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AT76">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="77" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>34</v>
       </c>
@@ -4429,8 +4613,11 @@
       <c r="AS77">
         <v>74</v>
       </c>
-    </row>
-    <row r="78" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AT77">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="78" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>34</v>
       </c>
@@ -4482,8 +4669,11 @@
       <c r="AS78">
         <v>74</v>
       </c>
-    </row>
-    <row r="79" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AT78">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="79" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>34</v>
       </c>
@@ -4547,8 +4737,11 @@
       <c r="AS79">
         <v>2</v>
       </c>
-    </row>
-    <row r="80" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AT79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>34</v>
       </c>
@@ -4568,6 +4761,9 @@
         <v>4</v>
       </c>
       <c r="AS80">
+        <v>4</v>
+      </c>
+      <c r="AT80">
         <v>4</v>
       </c>
     </row>
@@ -4579,10 +4775,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:T11"/>
+  <dimension ref="A2:U11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4592,7 +4788,7 @@
     <col min="15" max="18" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>32</v>
       </c>
@@ -4653,8 +4849,11 @@
       <c r="T2" s="9">
         <v>43939</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U2" s="9">
+        <v>43940</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -4715,8 +4914,11 @@
       <c r="T3">
         <v>330</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U3">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -4777,8 +4979,11 @@
       <c r="T4">
         <v>218</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U4">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -4839,8 +5044,11 @@
       <c r="T5">
         <v>211</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U5">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>4</v>
       </c>
@@ -4901,8 +5109,11 @@
       <c r="T6">
         <v>477</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U6">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -4963,8 +5174,11 @@
       <c r="T7">
         <v>363</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U7">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>6</v>
       </c>
@@ -5025,8 +5239,11 @@
       <c r="T8">
         <v>355</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U8">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -5087,8 +5304,11 @@
       <c r="T9">
         <v>440</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U9">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>8</v>
       </c>
@@ -5149,8 +5369,11 @@
       <c r="T10">
         <v>354</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U10">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>39</v>
       </c>
@@ -5210,6 +5433,9 @@
       </c>
       <c r="T11">
         <v>45</v>
+      </c>
+      <c r="U11">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -5220,10 +5446,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A2:O17"/>
+  <dimension ref="A2:P17"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5233,7 +5459,7 @@
     <col min="10" max="12" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15"/>
       <c r="B2" s="12">
         <v>43926</v>
@@ -5277,8 +5503,11 @@
       <c r="O2" s="9">
         <v>43939</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="P2" s="9">
+        <v>43940</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>41</v>
       </c>
@@ -5286,7 +5515,7 @@
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>54</v>
       </c>
@@ -5332,8 +5561,11 @@
       <c r="O4">
         <v>2793</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P4">
+        <v>2927</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>39</v>
       </c>
@@ -5379,8 +5611,11 @@
       <c r="O5">
         <v>358</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P5">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>42</v>
       </c>
@@ -5426,8 +5661,11 @@
       <c r="O6">
         <v>548</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P6">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>43</v>
       </c>
@@ -5473,8 +5711,11 @@
       <c r="O7">
         <v>1403</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P7">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>44</v>
       </c>
@@ -5520,8 +5761,11 @@
       <c r="O8">
         <v>51</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="P8">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>45</v>
       </c>
@@ -5567,8 +5811,11 @@
       <c r="O9">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="P9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>55</v>
       </c>
@@ -5610,8 +5857,11 @@
       <c r="O10">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
         <v>46</v>
       </c>
@@ -5657,8 +5907,11 @@
       <c r="O11">
         <v>390</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P11">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
         <v>47</v>
       </c>
@@ -5704,8 +5957,11 @@
       <c r="O12">
         <v>25</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>48</v>
       </c>
@@ -5716,7 +5972,7 @@
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
         <v>39</v>
       </c>
@@ -5762,8 +6018,11 @@
       <c r="O14">
         <v>500</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P14">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
         <v>49</v>
       </c>
@@ -5809,8 +6068,11 @@
       <c r="O15">
         <v>494</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P15">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
         <v>50</v>
       </c>
@@ -5856,8 +6118,11 @@
       <c r="O16">
         <v>1783</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P16">
+        <v>1832</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
         <v>47</v>
       </c>
@@ -5901,6 +6166,9 @@
         <v>7</v>
       </c>
       <c r="O17">
+        <v>16</v>
+      </c>
+      <c r="P17">
         <v>16</v>
       </c>
     </row>
@@ -5912,10 +6180,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5924,7 +6192,7 @@
     <col min="10" max="10" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B1" s="9">
         <v>43926</v>
       </c>
@@ -5967,14 +6235,17 @@
       <c r="O1" s="9">
         <v>43939</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P1" s="9">
+        <v>43940</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>41</v>
       </c>
       <c r="B2" s="7"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>54</v>
       </c>
@@ -6021,8 +6292,11 @@
       <c r="O3">
         <v>96</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>44</v>
       </c>
@@ -6068,8 +6342,11 @@
       <c r="O4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="P4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>43</v>
       </c>
@@ -6115,8 +6392,11 @@
       <c r="O5">
         <v>75</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P5">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>51</v>
       </c>
@@ -6162,8 +6442,11 @@
       <c r="O6">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>52</v>
       </c>
@@ -6209,8 +6492,11 @@
       <c r="O7">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>53</v>
       </c>
@@ -6254,6 +6540,123 @@
         <v>0</v>
       </c>
       <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48DE713F-971D-4CE1-B1A8-BE60A2507C58}">
+  <dimension ref="A2:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="9">
+        <v>43940</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="21">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
+        <v>1</v>
+      </c>
+      <c r="B4" s="22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
+        <v>2</v>
+      </c>
+      <c r="B5" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
+        <v>3</v>
+      </c>
+      <c r="B6" s="22">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
+        <v>4</v>
+      </c>
+      <c r="B7" s="22">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
+        <v>5</v>
+      </c>
+      <c r="B8" s="22">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
+        <v>6</v>
+      </c>
+      <c r="B9" s="22">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
+        <v>7</v>
+      </c>
+      <c r="B10" s="22">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
+        <v>8</v>
+      </c>
+      <c r="B11" s="22">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="22">
         <v>0</v>
       </c>
     </row>
@@ -6466,18 +6869,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6500,26 +6903,26 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8DEDEF4E-2681-4E64-A6E5-9E41742A3664}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="248ed0f8-11d3-4141-bb91-6b69a0801941"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="8e61eea9-d51d-4f9c-960b-1b037651d93e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD396E8E-4714-4CC9-8EAA-3025B907ED6D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8DEDEF4E-2681-4E64-A6E5-9E41742A3664}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="8e61eea9-d51d-4f9c-960b-1b037651d93e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="248ed0f8-11d3-4141-bb91-6b69a0801941"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/dcCovid-19DataSummaryToday.xlsx
+++ b/dcCovid-19DataSummaryToday.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dcgovict-my.sharepoint.com/personal/ramona_yun1_dc_gov/Documents/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="666" documentId="8_{C884A327-19F6-4EC6-805C-F52B66916DDD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{2C2F0EE6-02F6-4A27-9C9B-DB5F0031253F}"/>
+  <xr:revisionPtr revIDLastSave="774" documentId="8_{C884A327-19F6-4EC6-805C-F52B66916DDD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{09447612-0F80-4C50-B99D-BE02F3D0BAEA}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -694,21 +694,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AT80"/>
+  <dimension ref="A1:AU80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane xSplit="2" topLeftCell="AO1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AT1" sqref="AT1"/>
+      <selection pane="topRight" activeCell="AU1" sqref="AU1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29.5546875" customWidth="1"/>
     <col min="2" max="2" width="62.44140625" customWidth="1"/>
-    <col min="40" max="46" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="40" max="47" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.3">
       <c r="C1" s="1">
         <v>43897</v>
       </c>
@@ -841,8 +841,11 @@
       <c r="AT1" s="1">
         <v>43940</v>
       </c>
-    </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="AU1" s="1">
+        <v>43941</v>
+      </c>
+    </row>
+    <row r="2" spans="1:47" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -866,7 +869,7 @@
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -984,8 +987,11 @@
       <c r="AT3">
         <v>14113</v>
       </c>
-    </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="AU3">
+        <v>14939</v>
+      </c>
+    </row>
+    <row r="4" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1124,8 +1130,11 @@
       <c r="AT4">
         <v>2927</v>
       </c>
-    </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="AU4">
+        <v>3098</v>
+      </c>
+    </row>
+    <row r="5" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -1246,8 +1255,11 @@
       <c r="AT5">
         <v>105</v>
       </c>
-    </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="AU5">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -1338,11 +1350,14 @@
       <c r="AT6">
         <v>630</v>
       </c>
-    </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="AU6">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="7" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
@@ -1427,8 +1442,11 @@
       <c r="AT8">
         <v>77</v>
       </c>
-    </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="AU8">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
@@ -1513,8 +1531,11 @@
       <c r="AT9">
         <v>444</v>
       </c>
-    </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="AU9">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="10" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
@@ -1599,8 +1620,11 @@
       <c r="AT10">
         <v>198</v>
       </c>
-    </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="AU10">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="11" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
@@ -1685,13 +1709,16 @@
       <c r="AT11">
         <v>246</v>
       </c>
-    </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="AU11">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="13" spans="1:47" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
@@ -1699,7 +1726,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>9</v>
       </c>
@@ -1787,8 +1814,11 @@
       <c r="AT15">
         <v>76</v>
       </c>
-    </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="AU15">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>9</v>
       </c>
@@ -1822,8 +1852,11 @@
       <c r="AT16">
         <v>39</v>
       </c>
-    </row>
-    <row r="17" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="AU16">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>9</v>
       </c>
@@ -1857,8 +1890,11 @@
       <c r="AT17">
         <v>37</v>
       </c>
-    </row>
-    <row r="18" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="AU17">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>9</v>
       </c>
@@ -1937,8 +1973,11 @@
       <c r="AT18">
         <v>100</v>
       </c>
-    </row>
-    <row r="19" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="AU18">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>9</v>
       </c>
@@ -2017,8 +2056,11 @@
       <c r="AT19">
         <v>139</v>
       </c>
-    </row>
-    <row r="20" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="AU19">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>9</v>
       </c>
@@ -2097,13 +2139,16 @@
       <c r="AT20">
         <v>544</v>
       </c>
-    </row>
-    <row r="22" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="AU20">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="22" spans="1:47" x14ac:dyDescent="0.3">
       <c r="B22" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>10</v>
       </c>
@@ -2191,8 +2236,11 @@
       <c r="AT23">
         <v>82</v>
       </c>
-    </row>
-    <row r="24" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="AU23">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>10</v>
       </c>
@@ -2226,8 +2274,11 @@
       <c r="AT24">
         <v>61</v>
       </c>
-    </row>
-    <row r="25" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="AU24">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>10</v>
       </c>
@@ -2261,8 +2312,11 @@
       <c r="AT25">
         <v>21</v>
       </c>
-    </row>
-    <row r="26" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="AU25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>10</v>
       </c>
@@ -2341,8 +2395,11 @@
       <c r="AT26">
         <v>135</v>
       </c>
-    </row>
-    <row r="27" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="AU26">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="27" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>10</v>
       </c>
@@ -2421,8 +2478,11 @@
       <c r="AT27">
         <v>196</v>
       </c>
-    </row>
-    <row r="28" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="AU27">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="28" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>10</v>
       </c>
@@ -2501,13 +2561,16 @@
       <c r="AT28">
         <v>580</v>
       </c>
-    </row>
-    <row r="30" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="AU28">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="30" spans="1:47" x14ac:dyDescent="0.3">
       <c r="B30" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>21</v>
       </c>
@@ -2586,8 +2649,11 @@
       <c r="AT31">
         <v>25</v>
       </c>
-    </row>
-    <row r="32" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="AU31">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>21</v>
       </c>
@@ -2618,8 +2684,11 @@
       <c r="AT32">
         <v>18</v>
       </c>
-    </row>
-    <row r="33" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="AU32">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>21</v>
       </c>
@@ -2650,8 +2719,11 @@
       <c r="AT33">
         <v>7</v>
       </c>
-    </row>
-    <row r="34" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="AU33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>21</v>
       </c>
@@ -2730,8 +2802,11 @@
       <c r="AT34">
         <v>134</v>
       </c>
-    </row>
-    <row r="35" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="AU34">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="35" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>21</v>
       </c>
@@ -2807,8 +2882,11 @@
       <c r="AT35">
         <v>152</v>
       </c>
-    </row>
-    <row r="36" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="AU35">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="36" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>21</v>
       </c>
@@ -2887,8 +2965,11 @@
       <c r="AT36">
         <v>63</v>
       </c>
-    </row>
-    <row r="37" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="AU36">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="37" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>21</v>
       </c>
@@ -2901,16 +2982,19 @@
       <c r="AT37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="AU37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
     </row>
-    <row r="39" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:47" x14ac:dyDescent="0.3">
       <c r="B39" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>18</v>
       </c>
@@ -2992,8 +3076,11 @@
       <c r="AT40">
         <v>90</v>
       </c>
-    </row>
-    <row r="41" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="AU40">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="41" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>18</v>
       </c>
@@ -3027,8 +3114,11 @@
       <c r="AT41">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="AU41">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>18</v>
       </c>
@@ -3062,8 +3152,11 @@
       <c r="AT42">
         <v>50</v>
       </c>
-    </row>
-    <row r="43" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="AU42">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>18</v>
       </c>
@@ -3142,8 +3235,11 @@
       <c r="AT43">
         <v>840</v>
       </c>
-    </row>
-    <row r="44" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="AU43">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="44" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>18</v>
       </c>
@@ -3177,8 +3273,11 @@
       <c r="AT44">
         <v>880</v>
       </c>
-    </row>
-    <row r="45" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="AU44">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>18</v>
       </c>
@@ -3209,8 +3308,11 @@
       <c r="AT45">
         <v>50</v>
       </c>
-    </row>
-    <row r="46" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="AU45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="46" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>18</v>
       </c>
@@ -3235,16 +3337,19 @@
       <c r="AT46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="AU46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
     </row>
-    <row r="48" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:47" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>20</v>
       </c>
@@ -3311,8 +3416,11 @@
       <c r="AT49">
         <v>14</v>
       </c>
-    </row>
-    <row r="50" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="AU49">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>20</v>
       </c>
@@ -3343,8 +3451,11 @@
       <c r="AT50">
         <v>13</v>
       </c>
-    </row>
-    <row r="51" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="AU50">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>20</v>
       </c>
@@ -3375,8 +3486,11 @@
       <c r="AT51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="AU51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>20</v>
       </c>
@@ -3443,8 +3557,11 @@
       <c r="AT52">
         <v>64</v>
       </c>
-    </row>
-    <row r="53" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="AU52">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>20</v>
       </c>
@@ -3511,8 +3628,11 @@
       <c r="AT53">
         <v>77</v>
       </c>
-    </row>
-    <row r="54" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="AU53">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>20</v>
       </c>
@@ -3579,8 +3699,11 @@
       <c r="AT54">
         <v>50</v>
       </c>
-    </row>
-    <row r="55" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="AU54">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="55" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>20</v>
       </c>
@@ -3605,8 +3728,11 @@
       <c r="AT55">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="AU55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>22</v>
       </c>
@@ -3673,8 +3799,11 @@
       <c r="AT57">
         <v>9</v>
       </c>
-    </row>
-    <row r="58" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="AU57">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>22</v>
       </c>
@@ -3705,8 +3834,11 @@
       <c r="AT58">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="AU58">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>22</v>
       </c>
@@ -3737,8 +3869,11 @@
       <c r="AT59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="AU59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>22</v>
       </c>
@@ -3805,8 +3940,11 @@
       <c r="AT60">
         <v>11</v>
       </c>
-    </row>
-    <row r="61" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="AU60">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="61" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>22</v>
       </c>
@@ -3873,8 +4011,11 @@
       <c r="AT61">
         <v>19</v>
       </c>
-    </row>
-    <row r="62" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="AU61">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="62" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>22</v>
       </c>
@@ -3941,8 +4082,11 @@
       <c r="AT62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="AU62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>22</v>
       </c>
@@ -3973,13 +4117,16 @@
       <c r="AT63">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="AU63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:47" x14ac:dyDescent="0.3">
       <c r="B65" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="66" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>24</v>
       </c>
@@ -4046,8 +4193,11 @@
       <c r="AT66">
         <v>107</v>
       </c>
-    </row>
-    <row r="67" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="AU66">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="67" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>24</v>
       </c>
@@ -4114,8 +4264,11 @@
       <c r="AT67">
         <v>227</v>
       </c>
-    </row>
-    <row r="68" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="AU67">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="68" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>24</v>
       </c>
@@ -4182,8 +4335,11 @@
       <c r="AT68">
         <v>227</v>
       </c>
-    </row>
-    <row r="69" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="AU68">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="69" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>24</v>
       </c>
@@ -4208,8 +4364,11 @@
       <c r="AT69">
         <v>6</v>
       </c>
-    </row>
-    <row r="71" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="AU69">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>33</v>
       </c>
@@ -4276,8 +4435,11 @@
       <c r="AT71">
         <v>57</v>
       </c>
-    </row>
-    <row r="72" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="AU71">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="72" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>33</v>
       </c>
@@ -4344,8 +4506,11 @@
       <c r="AT72">
         <v>26</v>
       </c>
-    </row>
-    <row r="73" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="AU72">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="73" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>33</v>
       </c>
@@ -4412,8 +4577,11 @@
       <c r="AT73">
         <v>83</v>
       </c>
-    </row>
-    <row r="74" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="AU73">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="74" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>33</v>
       </c>
@@ -4480,8 +4648,11 @@
       <c r="AT74">
         <v>22</v>
       </c>
-    </row>
-    <row r="76" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="AU74">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="76" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>34</v>
       </c>
@@ -4548,8 +4719,11 @@
       <c r="AT76">
         <v>37</v>
       </c>
-    </row>
-    <row r="77" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="AU76">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="77" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>34</v>
       </c>
@@ -4616,8 +4790,11 @@
       <c r="AT77">
         <v>74</v>
       </c>
-    </row>
-    <row r="78" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="AU77">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="78" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>34</v>
       </c>
@@ -4672,8 +4849,11 @@
       <c r="AT78">
         <v>74</v>
       </c>
-    </row>
-    <row r="79" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="AU78">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="79" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>34</v>
       </c>
@@ -4740,8 +4920,11 @@
       <c r="AT79">
         <v>2</v>
       </c>
-    </row>
-    <row r="80" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="AU79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>34</v>
       </c>
@@ -4765,6 +4948,9 @@
       </c>
       <c r="AT80">
         <v>4</v>
+      </c>
+      <c r="AU80">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -4775,10 +4961,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:U11"/>
+  <dimension ref="A2:V11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4788,7 +4974,7 @@
     <col min="15" max="18" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>32</v>
       </c>
@@ -4852,8 +5038,11 @@
       <c r="U2" s="9">
         <v>43940</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V2" s="9">
+        <v>43941</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -4917,8 +5106,11 @@
       <c r="U3">
         <v>344</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V3">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -4982,8 +5174,11 @@
       <c r="U4">
         <v>225</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V4">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -5047,8 +5242,11 @@
       <c r="U5">
         <v>226</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V5">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>4</v>
       </c>
@@ -5112,8 +5310,11 @@
       <c r="U6">
         <v>499</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V6">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -5177,8 +5378,11 @@
       <c r="U7">
         <v>383</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V7">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>6</v>
       </c>
@@ -5242,8 +5446,11 @@
       <c r="U8">
         <v>366</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V8">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -5307,8 +5514,11 @@
       <c r="U9">
         <v>454</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V9">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>8</v>
       </c>
@@ -5372,8 +5582,11 @@
       <c r="U10">
         <v>376</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V10">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>39</v>
       </c>
@@ -5436,6 +5649,9 @@
       </c>
       <c r="U11">
         <v>54</v>
+      </c>
+      <c r="V11">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -5446,10 +5662,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A2:P17"/>
+  <dimension ref="A2:Q17"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5459,7 +5675,7 @@
     <col min="10" max="12" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15"/>
       <c r="B2" s="12">
         <v>43926</v>
@@ -5506,8 +5722,11 @@
       <c r="P2" s="9">
         <v>43940</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Q2" s="9">
+        <v>43941</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>41</v>
       </c>
@@ -5515,7 +5734,7 @@
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>54</v>
       </c>
@@ -5564,8 +5783,11 @@
       <c r="P4">
         <v>2927</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q4">
+        <v>3098</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>39</v>
       </c>
@@ -5614,8 +5836,11 @@
       <c r="P5">
         <v>406</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q5">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>42</v>
       </c>
@@ -5664,8 +5889,11 @@
       <c r="P6">
         <v>553</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q6">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>43</v>
       </c>
@@ -5714,8 +5942,11 @@
       <c r="P7">
         <v>1458</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q7">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>44</v>
       </c>
@@ -5764,8 +5995,11 @@
       <c r="P8">
         <v>52</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="Q8">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>45</v>
       </c>
@@ -5814,8 +6048,11 @@
       <c r="P9">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="Q9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>55</v>
       </c>
@@ -5860,8 +6097,11 @@
       <c r="P10">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
         <v>46</v>
       </c>
@@ -5910,8 +6150,11 @@
       <c r="P11">
         <v>415</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q11">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
         <v>47</v>
       </c>
@@ -5960,8 +6203,11 @@
       <c r="P12">
         <v>25</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>48</v>
       </c>
@@ -5972,7 +6218,7 @@
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
         <v>39</v>
       </c>
@@ -6021,8 +6267,11 @@
       <c r="P14">
         <v>563</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q14">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
         <v>49</v>
       </c>
@@ -6071,8 +6320,11 @@
       <c r="P15">
         <v>516</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q15">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
         <v>50</v>
       </c>
@@ -6121,8 +6373,11 @@
       <c r="P16">
         <v>1832</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q16">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
         <v>47</v>
       </c>
@@ -6170,6 +6425,9 @@
       </c>
       <c r="P17">
         <v>16</v>
+      </c>
+      <c r="Q17">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -6180,10 +6438,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6192,7 +6450,7 @@
     <col min="10" max="10" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B1" s="9">
         <v>43926</v>
       </c>
@@ -6238,14 +6496,17 @@
       <c r="P1" s="9">
         <v>43940</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q1" s="9">
+        <v>43941</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>41</v>
       </c>
       <c r="B2" s="7"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>54</v>
       </c>
@@ -6295,8 +6556,11 @@
       <c r="P3">
         <v>105</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>44</v>
       </c>
@@ -6345,8 +6609,11 @@
       <c r="P4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="Q4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>43</v>
       </c>
@@ -6395,8 +6662,11 @@
       <c r="P5">
         <v>83</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>51</v>
       </c>
@@ -6445,8 +6715,11 @@
       <c r="P6">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>52</v>
       </c>
@@ -6495,8 +6768,11 @@
       <c r="P7">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>53</v>
       </c>
@@ -6543,6 +6819,9 @@
         <v>0</v>
       </c>
       <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
         <v>0</v>
       </c>
     </row>
@@ -6553,10 +6832,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48DE713F-971D-4CE1-B1A8-BE60A2507C58}">
-  <dimension ref="A2:B13"/>
+  <dimension ref="A2:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6564,99 +6843,135 @@
     <col min="1" max="1" width="22.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>32</v>
       </c>
       <c r="B2" s="9">
         <v>43940</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2" s="9">
+        <v>43941</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>54</v>
       </c>
       <c r="B3" s="21">
         <v>105</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>1</v>
       </c>
       <c r="B4" s="22">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>2</v>
       </c>
       <c r="B5" s="22">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>3</v>
       </c>
       <c r="B6" s="22">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>4</v>
       </c>
       <c r="B7" s="22">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>5</v>
       </c>
       <c r="B8" s="22">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>6</v>
       </c>
       <c r="B9" s="22">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>7</v>
       </c>
       <c r="B10" s="22">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>8</v>
       </c>
       <c r="B11" s="22">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>76</v>
       </c>
       <c r="B12" s="22">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>39</v>
       </c>
       <c r="B13" s="22">
+        <v>0</v>
+      </c>
+      <c r="C13">
         <v>0</v>
       </c>
     </row>
@@ -6666,6 +6981,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C154F8D92A1190498EC67EE37256270A" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a145d1f7d2fc6bfdea86e9d796031e6c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8e61eea9-d51d-4f9c-960b-1b037651d93e" xmlns:ns4="248ed0f8-11d3-4141-bb91-6b69a0801941" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="87b2ee5a90a671ef9b646f531a040769" ns3:_="" ns4:_="">
     <xsd:import namespace="8e61eea9-d51d-4f9c-960b-1b037651d93e"/>
@@ -6868,12 +7189,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -6884,6 +7199,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8DEDEF4E-2681-4E64-A6E5-9E41742A3664}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="248ed0f8-11d3-4141-bb91-6b69a0801941"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="8e61eea9-d51d-4f9c-960b-1b037651d93e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE449021-9205-42BF-A2AE-CC419CEBA6BF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6902,23 +7234,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8DEDEF4E-2681-4E64-A6E5-9E41742A3664}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="248ed0f8-11d3-4141-bb91-6b69a0801941"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="8e61eea9-d51d-4f9c-960b-1b037651d93e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD396E8E-4714-4CC9-8EAA-3025B907ED6D}">
   <ds:schemaRefs>

--- a/dcCovid-19DataSummaryToday.xlsx
+++ b/dcCovid-19DataSummaryToday.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dcgovict-my.sharepoint.com/personal/ramona_yun1_dc_gov/Documents/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="774" documentId="8_{C884A327-19F6-4EC6-805C-F52B66916DDD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{09447612-0F80-4C50-B99D-BE02F3D0BAEA}"/>
+  <xr:revisionPtr revIDLastSave="891" documentId="8_{C884A327-19F6-4EC6-805C-F52B66916DDD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{8F7DA878-B662-4C02-B902-71F07586E99C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -265,7 +265,7 @@
     <t>Total Number of Lives Lost Among Personnel</t>
   </si>
   <si>
-    <t>Homeless</t>
+    <t>Experienced Homelessness</t>
   </si>
 </sst>
 </file>
@@ -694,21 +694,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AU80"/>
+  <dimension ref="A1:AV80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane xSplit="2" topLeftCell="AO1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AU1" sqref="AU1"/>
+      <selection pane="topRight" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29.5546875" customWidth="1"/>
     <col min="2" max="2" width="62.44140625" customWidth="1"/>
-    <col min="40" max="47" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="40" max="48" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.3">
       <c r="C1" s="1">
         <v>43897</v>
       </c>
@@ -844,8 +844,11 @@
       <c r="AU1" s="1">
         <v>43941</v>
       </c>
-    </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="AV1" s="1">
+        <v>43942</v>
+      </c>
+    </row>
+    <row r="2" spans="1:48" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -869,7 +872,7 @@
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -990,8 +993,11 @@
       <c r="AU3">
         <v>14939</v>
       </c>
-    </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="AV3">
+        <v>15502</v>
+      </c>
+    </row>
+    <row r="4" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1133,8 +1139,11 @@
       <c r="AU4">
         <v>3098</v>
       </c>
-    </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="AV4">
+        <v>3206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -1258,8 +1267,11 @@
       <c r="AU5">
         <v>112</v>
       </c>
-    </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="AV5">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -1353,11 +1365,14 @@
       <c r="AU6">
         <v>636</v>
       </c>
-    </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="AV6">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="7" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
@@ -1445,8 +1460,11 @@
       <c r="AU8">
         <v>84</v>
       </c>
-    </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="AV8">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
@@ -1534,8 +1552,11 @@
       <c r="AU9">
         <v>444</v>
       </c>
-    </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="AV9">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="10" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
@@ -1623,8 +1644,11 @@
       <c r="AU10">
         <v>198</v>
       </c>
-    </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="AV10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
@@ -1712,13 +1736,16 @@
       <c r="AU11">
         <v>246</v>
       </c>
-    </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="AV11">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="13" spans="1:48" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
@@ -1726,7 +1753,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>9</v>
       </c>
@@ -1817,8 +1844,11 @@
       <c r="AU15">
         <v>77</v>
       </c>
-    </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="AV15">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>9</v>
       </c>
@@ -1855,8 +1885,11 @@
       <c r="AU16">
         <v>40</v>
       </c>
-    </row>
-    <row r="17" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="AV16">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>9</v>
       </c>
@@ -1893,8 +1926,11 @@
       <c r="AU17">
         <v>37</v>
       </c>
-    </row>
-    <row r="18" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="AV17">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>9</v>
       </c>
@@ -1976,8 +2012,11 @@
       <c r="AU18">
         <v>91</v>
       </c>
-    </row>
-    <row r="19" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="AV18">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>9</v>
       </c>
@@ -2059,8 +2098,11 @@
       <c r="AU19">
         <v>131</v>
       </c>
-    </row>
-    <row r="20" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="AV19">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="20" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>9</v>
       </c>
@@ -2142,13 +2184,16 @@
       <c r="AU20">
         <v>561</v>
       </c>
-    </row>
-    <row r="22" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="AV20">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="22" spans="1:48" x14ac:dyDescent="0.3">
       <c r="B22" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>10</v>
       </c>
@@ -2239,8 +2284,11 @@
       <c r="AU23">
         <v>84</v>
       </c>
-    </row>
-    <row r="24" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="AV23">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>10</v>
       </c>
@@ -2277,8 +2325,11 @@
       <c r="AU24">
         <v>62</v>
       </c>
-    </row>
-    <row r="25" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="AV24">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>10</v>
       </c>
@@ -2315,8 +2366,11 @@
       <c r="AU25">
         <v>11</v>
       </c>
-    </row>
-    <row r="26" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="AV25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>10</v>
       </c>
@@ -2398,8 +2452,11 @@
       <c r="AU26">
         <v>124</v>
       </c>
-    </row>
-    <row r="27" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="AV26">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>10</v>
       </c>
@@ -2481,8 +2538,11 @@
       <c r="AU27">
         <v>186</v>
       </c>
-    </row>
-    <row r="28" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="AV27">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="28" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>10</v>
       </c>
@@ -2564,13 +2624,16 @@
       <c r="AU28">
         <v>583</v>
       </c>
-    </row>
-    <row r="30" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="AV28">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="30" spans="1:48" x14ac:dyDescent="0.3">
       <c r="B30" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>21</v>
       </c>
@@ -2652,8 +2715,11 @@
       <c r="AU31">
         <v>27</v>
       </c>
-    </row>
-    <row r="32" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="AV31">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>21</v>
       </c>
@@ -2687,8 +2753,11 @@
       <c r="AU32">
         <v>19</v>
       </c>
-    </row>
-    <row r="33" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="AV32">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>21</v>
       </c>
@@ -2722,8 +2791,11 @@
       <c r="AU33">
         <v>7</v>
       </c>
-    </row>
-    <row r="34" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="AV33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>21</v>
       </c>
@@ -2805,8 +2877,11 @@
       <c r="AU34">
         <v>125</v>
       </c>
-    </row>
-    <row r="35" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="AV34">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="35" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>21</v>
       </c>
@@ -2885,8 +2960,11 @@
       <c r="AU35">
         <v>144</v>
       </c>
-    </row>
-    <row r="36" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="AV35">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="36" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>21</v>
       </c>
@@ -2968,8 +3046,11 @@
       <c r="AU36">
         <v>95</v>
       </c>
-    </row>
-    <row r="37" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="AV36">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>21</v>
       </c>
@@ -2985,16 +3066,19 @@
       <c r="AU37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="AV37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
     </row>
-    <row r="39" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:48" x14ac:dyDescent="0.3">
       <c r="B39" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>18</v>
       </c>
@@ -3079,8 +3163,11 @@
       <c r="AU40">
         <v>96</v>
       </c>
-    </row>
-    <row r="41" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="AV40">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="41" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>18</v>
       </c>
@@ -3117,8 +3204,11 @@
       <c r="AU41">
         <v>44</v>
       </c>
-    </row>
-    <row r="42" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="AV41">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>18</v>
       </c>
@@ -3155,8 +3245,11 @@
       <c r="AU42">
         <v>52</v>
       </c>
-    </row>
-    <row r="43" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="AV42">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>18</v>
       </c>
@@ -3238,8 +3331,11 @@
       <c r="AU43">
         <v>954</v>
       </c>
-    </row>
-    <row r="44" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="AV43">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="44" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>18</v>
       </c>
@@ -3276,8 +3372,11 @@
       <c r="AU44">
         <v>998</v>
       </c>
-    </row>
-    <row r="45" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="AV44">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="45" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>18</v>
       </c>
@@ -3311,8 +3410,11 @@
       <c r="AU45">
         <v>52</v>
       </c>
-    </row>
-    <row r="46" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="AV45">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>18</v>
       </c>
@@ -3340,16 +3442,19 @@
       <c r="AU46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="AV46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
     </row>
-    <row r="48" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:48" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>20</v>
       </c>
@@ -3419,8 +3524,11 @@
       <c r="AU49">
         <v>18</v>
       </c>
-    </row>
-    <row r="50" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="AV49">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>20</v>
       </c>
@@ -3454,8 +3562,11 @@
       <c r="AU50">
         <v>16</v>
       </c>
-    </row>
-    <row r="51" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="AV50">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>20</v>
       </c>
@@ -3489,8 +3600,11 @@
       <c r="AU51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="AV51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>20</v>
       </c>
@@ -3560,8 +3674,11 @@
       <c r="AU52">
         <v>60</v>
       </c>
-    </row>
-    <row r="53" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="AV52">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="53" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>20</v>
       </c>
@@ -3631,8 +3748,11 @@
       <c r="AU53">
         <v>76</v>
       </c>
-    </row>
-    <row r="54" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="AV53">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>20</v>
       </c>
@@ -3702,8 +3822,11 @@
       <c r="AU54">
         <v>57</v>
       </c>
-    </row>
-    <row r="55" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="AV54">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="55" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>20</v>
       </c>
@@ -3731,8 +3854,11 @@
       <c r="AU55">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="AV55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>22</v>
       </c>
@@ -3802,8 +3928,11 @@
       <c r="AU57">
         <v>9</v>
       </c>
-    </row>
-    <row r="58" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="AV57">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>22</v>
       </c>
@@ -3837,8 +3966,11 @@
       <c r="AU58">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="AV58">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>22</v>
       </c>
@@ -3872,8 +4004,11 @@
       <c r="AU59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="AV59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>22</v>
       </c>
@@ -3943,8 +4078,11 @@
       <c r="AU60">
         <v>36</v>
       </c>
-    </row>
-    <row r="61" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="AV60">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="61" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>22</v>
       </c>
@@ -4014,8 +4152,11 @@
       <c r="AU61">
         <v>44</v>
       </c>
-    </row>
-    <row r="62" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="AV61">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="62" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>22</v>
       </c>
@@ -4085,8 +4226,11 @@
       <c r="AU62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="AV62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>22</v>
       </c>
@@ -4120,13 +4264,16 @@
       <c r="AU63">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="AV63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:48" x14ac:dyDescent="0.3">
       <c r="B65" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="66" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>24</v>
       </c>
@@ -4196,8 +4343,11 @@
       <c r="AU66">
         <v>121</v>
       </c>
-    </row>
-    <row r="67" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="AV66">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="67" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>24</v>
       </c>
@@ -4267,8 +4417,11 @@
       <c r="AU67">
         <v>243</v>
       </c>
-    </row>
-    <row r="68" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="AV67">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="68" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>24</v>
       </c>
@@ -4338,8 +4491,11 @@
       <c r="AU68">
         <v>222</v>
       </c>
-    </row>
-    <row r="69" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="AV68">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="69" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>24</v>
       </c>
@@ -4367,8 +4523,11 @@
       <c r="AU69">
         <v>7</v>
       </c>
-    </row>
-    <row r="71" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="AV69">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>33</v>
       </c>
@@ -4438,8 +4597,11 @@
       <c r="AU71">
         <v>59</v>
       </c>
-    </row>
-    <row r="72" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="AV71">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="72" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>33</v>
       </c>
@@ -4509,8 +4671,11 @@
       <c r="AU72">
         <v>30</v>
       </c>
-    </row>
-    <row r="73" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="AV72">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="73" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>33</v>
       </c>
@@ -4580,8 +4745,11 @@
       <c r="AU73">
         <v>89</v>
       </c>
-    </row>
-    <row r="74" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="AV73">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="74" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>33</v>
       </c>
@@ -4651,8 +4819,11 @@
       <c r="AU74">
         <v>22</v>
       </c>
-    </row>
-    <row r="76" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="AV74">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="76" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>34</v>
       </c>
@@ -4722,8 +4893,11 @@
       <c r="AU76">
         <v>41</v>
       </c>
-    </row>
-    <row r="77" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="AV76">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="77" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>34</v>
       </c>
@@ -4793,8 +4967,11 @@
       <c r="AU77">
         <v>33</v>
       </c>
-    </row>
-    <row r="78" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="AV77">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="78" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>34</v>
       </c>
@@ -4852,8 +5029,11 @@
       <c r="AU78">
         <v>33</v>
       </c>
-    </row>
-    <row r="79" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="AV78">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="79" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>34</v>
       </c>
@@ -4923,8 +5103,11 @@
       <c r="AU79">
         <v>2</v>
       </c>
-    </row>
-    <row r="80" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="AV79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>34</v>
       </c>
@@ -4951,6 +5134,9 @@
       </c>
       <c r="AU80">
         <v>5</v>
+      </c>
+      <c r="AV80">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -4961,10 +5147,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:V11"/>
+  <dimension ref="A2:W11"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V11" sqref="V11"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W10" sqref="W10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4974,7 +5160,7 @@
     <col min="15" max="18" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>32</v>
       </c>
@@ -5041,8 +5227,11 @@
       <c r="V2" s="9">
         <v>43941</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W2" s="9">
+        <v>43942</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -5109,8 +5298,11 @@
       <c r="V3">
         <v>355</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W3">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -5177,8 +5369,11 @@
       <c r="V4">
         <v>228</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W4">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -5245,8 +5440,11 @@
       <c r="V5">
         <v>223</v>
       </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W5">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>4</v>
       </c>
@@ -5313,8 +5511,11 @@
       <c r="V6">
         <v>515</v>
       </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W6">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -5381,8 +5582,11 @@
       <c r="V7">
         <v>404</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W7">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>6</v>
       </c>
@@ -5449,8 +5653,11 @@
       <c r="V8">
         <v>374</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W8">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -5517,8 +5724,11 @@
       <c r="V9">
         <v>482</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W9">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>8</v>
       </c>
@@ -5585,8 +5795,11 @@
       <c r="V10">
         <v>445</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W10">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>39</v>
       </c>
@@ -5652,6 +5865,9 @@
       </c>
       <c r="V11">
         <v>72</v>
+      </c>
+      <c r="W11">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -5662,10 +5878,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A2:Q17"/>
+  <dimension ref="A2:R17"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5675,7 +5891,7 @@
     <col min="10" max="12" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15"/>
       <c r="B2" s="12">
         <v>43926</v>
@@ -5725,8 +5941,11 @@
       <c r="Q2" s="9">
         <v>43941</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R2" s="9">
+        <v>43942</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>41</v>
       </c>
@@ -5734,7 +5953,7 @@
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>54</v>
       </c>
@@ -5786,8 +6005,11 @@
       <c r="Q4">
         <v>3098</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R4">
+        <v>3206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>39</v>
       </c>
@@ -5839,8 +6061,11 @@
       <c r="Q5">
         <v>470</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R5">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>42</v>
       </c>
@@ -5892,8 +6117,11 @@
       <c r="Q6">
         <v>565</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R6">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>43</v>
       </c>
@@ -5945,8 +6173,11 @@
       <c r="Q7">
         <v>1517</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R7">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>44</v>
       </c>
@@ -5998,8 +6229,11 @@
       <c r="Q8">
         <v>54</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="R8">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>45</v>
       </c>
@@ -6051,8 +6285,11 @@
       <c r="Q9">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="R9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>55</v>
       </c>
@@ -6100,8 +6337,11 @@
       <c r="Q10">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
         <v>46</v>
       </c>
@@ -6153,8 +6393,11 @@
       <c r="Q11">
         <v>450</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R11">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
         <v>47</v>
       </c>
@@ -6206,8 +6449,11 @@
       <c r="Q12">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>48</v>
       </c>
@@ -6218,7 +6464,7 @@
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
         <v>39</v>
       </c>
@@ -6270,8 +6516,11 @@
       <c r="Q14">
         <v>615</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R14">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
         <v>49</v>
       </c>
@@ -6323,8 +6572,11 @@
       <c r="Q15">
         <v>555</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R15">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
         <v>50</v>
       </c>
@@ -6376,8 +6628,11 @@
       <c r="Q16">
         <v>1914</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R16">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
         <v>47</v>
       </c>
@@ -6427,6 +6682,9 @@
         <v>16</v>
       </c>
       <c r="Q17">
+        <v>14</v>
+      </c>
+      <c r="R17">
         <v>14</v>
       </c>
     </row>
@@ -6438,10 +6696,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:Q8"/>
+  <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6450,7 +6708,7 @@
     <col min="10" max="10" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B1" s="9">
         <v>43926</v>
       </c>
@@ -6499,14 +6757,17 @@
       <c r="Q1" s="9">
         <v>43941</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R1" s="9">
+        <v>43942</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>41</v>
       </c>
       <c r="B2" s="7"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>54</v>
       </c>
@@ -6559,8 +6820,11 @@
       <c r="Q3">
         <v>112</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>44</v>
       </c>
@@ -6612,8 +6876,11 @@
       <c r="Q4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="R4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>43</v>
       </c>
@@ -6665,8 +6932,11 @@
       <c r="Q5">
         <v>90</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R5">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>51</v>
       </c>
@@ -6718,8 +6988,11 @@
       <c r="Q6">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>52</v>
       </c>
@@ -6771,8 +7044,11 @@
       <c r="Q7">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>53</v>
       </c>
@@ -6822,6 +7098,9 @@
         <v>0</v>
       </c>
       <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
         <v>0</v>
       </c>
     </row>
@@ -6832,10 +7111,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48DE713F-971D-4CE1-B1A8-BE60A2507C58}">
-  <dimension ref="A2:C13"/>
+  <dimension ref="A2:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6843,7 +7122,7 @@
     <col min="1" max="1" width="22.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>32</v>
       </c>
@@ -6853,8 +7132,11 @@
       <c r="C2" s="9">
         <v>43941</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" s="9">
+        <v>43942</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>54</v>
       </c>
@@ -6864,8 +7146,11 @@
       <c r="C3">
         <v>112</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>1</v>
       </c>
@@ -6875,8 +7160,11 @@
       <c r="C4">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>2</v>
       </c>
@@ -6886,8 +7174,11 @@
       <c r="C5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>3</v>
       </c>
@@ -6897,8 +7188,11 @@
       <c r="C6">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>4</v>
       </c>
@@ -6908,8 +7202,11 @@
       <c r="C7">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>5</v>
       </c>
@@ -6919,8 +7216,11 @@
       <c r="C8">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>6</v>
       </c>
@@ -6930,8 +7230,11 @@
       <c r="C9">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>7</v>
       </c>
@@ -6941,8 +7244,11 @@
       <c r="C10">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>8</v>
       </c>
@@ -6952,8 +7258,11 @@
       <c r="C11">
         <v>24</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>76</v>
       </c>
@@ -6963,8 +7272,11 @@
       <c r="C12">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>39</v>
       </c>
@@ -6972,6 +7284,9 @@
         <v>0</v>
       </c>
       <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
         <v>0</v>
       </c>
     </row>
@@ -6981,12 +7296,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C154F8D92A1190498EC67EE37256270A" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a145d1f7d2fc6bfdea86e9d796031e6c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8e61eea9-d51d-4f9c-960b-1b037651d93e" xmlns:ns4="248ed0f8-11d3-4141-bb91-6b69a0801941" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="87b2ee5a90a671ef9b646f531a040769" ns3:_="" ns4:_="">
     <xsd:import namespace="8e61eea9-d51d-4f9c-960b-1b037651d93e"/>
@@ -7189,6 +7498,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -7199,23 +7514,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8DEDEF4E-2681-4E64-A6E5-9E41742A3664}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="248ed0f8-11d3-4141-bb91-6b69a0801941"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="8e61eea9-d51d-4f9c-960b-1b037651d93e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE449021-9205-42BF-A2AE-CC419CEBA6BF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7234,6 +7532,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8DEDEF4E-2681-4E64-A6E5-9E41742A3664}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="248ed0f8-11d3-4141-bb91-6b69a0801941"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="8e61eea9-d51d-4f9c-960b-1b037651d93e"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD396E8E-4714-4CC9-8EAA-3025B907ED6D}">
   <ds:schemaRefs>

--- a/dcCovid-19DataSummaryToday.xlsx
+++ b/dcCovid-19DataSummaryToday.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dcgovict-my.sharepoint.com/personal/ramona_yun1_dc_gov/Documents/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="891" documentId="8_{C884A327-19F6-4EC6-805C-F52B66916DDD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{8F7DA878-B662-4C02-B902-71F07586E99C}"/>
+  <xr:revisionPtr revIDLastSave="1000" documentId="8_{C884A327-19F6-4EC6-805C-F52B66916DDD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{5423C21D-8DD5-42AF-ADAE-F3E8306C78DA}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -694,21 +694,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AV80"/>
+  <dimension ref="A1:AW80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="AO1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B13" sqref="B13"/>
+      <pane xSplit="2" topLeftCell="AR1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AX13" sqref="AX13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29.5546875" customWidth="1"/>
     <col min="2" max="2" width="62.44140625" customWidth="1"/>
-    <col min="40" max="48" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="40" max="49" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.3">
       <c r="C1" s="1">
         <v>43897</v>
       </c>
@@ -847,8 +847,11 @@
       <c r="AV1" s="1">
         <v>43942</v>
       </c>
-    </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AW1" s="1">
+        <v>43943</v>
+      </c>
+    </row>
+    <row r="2" spans="1:49" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -872,7 +875,7 @@
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
     </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -996,8 +999,11 @@
       <c r="AV3">
         <v>15502</v>
       </c>
-    </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AW3">
+        <v>15930</v>
+      </c>
+    </row>
+    <row r="4" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1142,8 +1148,11 @@
       <c r="AV4">
         <v>3206</v>
       </c>
-    </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AW4">
+        <v>3361</v>
+      </c>
+    </row>
+    <row r="5" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -1270,8 +1279,11 @@
       <c r="AV5">
         <v>127</v>
       </c>
-    </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AW5">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -1368,11 +1380,14 @@
       <c r="AV6">
         <v>645</v>
       </c>
-    </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AW6">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="7" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
@@ -1463,8 +1478,11 @@
       <c r="AV8">
         <v>91</v>
       </c>
-    </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AW8">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
@@ -1555,8 +1573,11 @@
       <c r="AV9">
         <v>444</v>
       </c>
-    </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AW9">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="10" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
@@ -1647,8 +1668,11 @@
       <c r="AV10">
         <v>200</v>
       </c>
-    </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AW10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
@@ -1739,13 +1763,16 @@
       <c r="AV11">
         <v>244</v>
       </c>
-    </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AW11">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="13" spans="1:49" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
@@ -1753,7 +1780,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>9</v>
       </c>
@@ -1847,8 +1874,11 @@
       <c r="AV15">
         <v>77</v>
       </c>
-    </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AW15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>9</v>
       </c>
@@ -1888,8 +1918,11 @@
       <c r="AV16">
         <v>40</v>
       </c>
-    </row>
-    <row r="17" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AW16">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>9</v>
       </c>
@@ -1929,8 +1962,11 @@
       <c r="AV17">
         <v>37</v>
       </c>
-    </row>
-    <row r="18" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AW17">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>9</v>
       </c>
@@ -2015,8 +2051,11 @@
       <c r="AV18">
         <v>103</v>
       </c>
-    </row>
-    <row r="19" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AW18">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>9</v>
       </c>
@@ -2101,8 +2140,11 @@
       <c r="AV19">
         <v>143</v>
       </c>
-    </row>
-    <row r="20" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AW19">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="20" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>9</v>
       </c>
@@ -2187,13 +2229,16 @@
       <c r="AV20">
         <v>589</v>
       </c>
-    </row>
-    <row r="22" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AW20">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="22" spans="1:49" x14ac:dyDescent="0.3">
       <c r="B22" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>10</v>
       </c>
@@ -2287,8 +2332,11 @@
       <c r="AV23">
         <v>86</v>
       </c>
-    </row>
-    <row r="24" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AW23">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>10</v>
       </c>
@@ -2328,8 +2376,11 @@
       <c r="AV24">
         <v>61</v>
       </c>
-    </row>
-    <row r="25" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AW24">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>10</v>
       </c>
@@ -2364,13 +2415,16 @@
         <v>21</v>
       </c>
       <c r="AU25">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="AV25">
         <v>25</v>
       </c>
-    </row>
-    <row r="26" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AW25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>10</v>
       </c>
@@ -2455,8 +2509,11 @@
       <c r="AV26">
         <v>109</v>
       </c>
-    </row>
-    <row r="27" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AW26">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>10</v>
       </c>
@@ -2541,8 +2598,11 @@
       <c r="AV27">
         <v>170</v>
       </c>
-    </row>
-    <row r="28" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AW27">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="28" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>10</v>
       </c>
@@ -2627,13 +2687,16 @@
       <c r="AV28">
         <v>640</v>
       </c>
-    </row>
-    <row r="30" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AW28">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="30" spans="1:49" x14ac:dyDescent="0.3">
       <c r="B30" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>21</v>
       </c>
@@ -2718,8 +2781,11 @@
       <c r="AV31">
         <v>27</v>
       </c>
-    </row>
-    <row r="32" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AW31">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>21</v>
       </c>
@@ -2756,8 +2822,11 @@
       <c r="AV32">
         <v>19</v>
       </c>
-    </row>
-    <row r="33" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AW32">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>21</v>
       </c>
@@ -2794,8 +2863,11 @@
       <c r="AV33">
         <v>7</v>
       </c>
-    </row>
-    <row r="34" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AW33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>21</v>
       </c>
@@ -2880,8 +2952,11 @@
       <c r="AV34">
         <v>126</v>
       </c>
-    </row>
-    <row r="35" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AW34">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="35" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>21</v>
       </c>
@@ -2963,8 +3038,11 @@
       <c r="AV35">
         <v>145</v>
       </c>
-    </row>
-    <row r="36" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AW35">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="36" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>21</v>
       </c>
@@ -3049,8 +3127,11 @@
       <c r="AV36">
         <v>100</v>
       </c>
-    </row>
-    <row r="37" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AW36">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="37" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>21</v>
       </c>
@@ -3069,16 +3150,19 @@
       <c r="AV37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AW37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
     </row>
-    <row r="39" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:49" x14ac:dyDescent="0.3">
       <c r="B39" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>18</v>
       </c>
@@ -3166,8 +3250,11 @@
       <c r="AV40">
         <v>99</v>
       </c>
-    </row>
-    <row r="41" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AW40">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="41" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>18</v>
       </c>
@@ -3207,8 +3294,11 @@
       <c r="AV41">
         <v>45</v>
       </c>
-    </row>
-    <row r="42" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AW41">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>18</v>
       </c>
@@ -3248,8 +3338,11 @@
       <c r="AV42">
         <v>52</v>
       </c>
-    </row>
-    <row r="43" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AW42">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>18</v>
       </c>
@@ -3334,8 +3427,11 @@
       <c r="AV43">
         <v>1014</v>
       </c>
-    </row>
-    <row r="44" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AW43">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="44" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>18</v>
       </c>
@@ -3375,8 +3471,11 @@
       <c r="AV44">
         <v>1059</v>
       </c>
-    </row>
-    <row r="45" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AW44">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="45" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>18</v>
       </c>
@@ -3413,8 +3512,11 @@
       <c r="AV45">
         <v>53</v>
       </c>
-    </row>
-    <row r="46" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AW45">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>18</v>
       </c>
@@ -3445,16 +3547,19 @@
       <c r="AV46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AW46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
     </row>
-    <row r="48" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:49" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>20</v>
       </c>
@@ -3527,8 +3632,11 @@
       <c r="AV49">
         <v>19</v>
       </c>
-    </row>
-    <row r="50" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AW49">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>20</v>
       </c>
@@ -3563,10 +3671,13 @@
         <v>16</v>
       </c>
       <c r="AV50">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="51" spans="1:48" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="AW50">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>20</v>
       </c>
@@ -3603,8 +3714,11 @@
       <c r="AV51">
         <v>2</v>
       </c>
-    </row>
-    <row r="52" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AW51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>20</v>
       </c>
@@ -3677,8 +3791,11 @@
       <c r="AV52">
         <v>49</v>
       </c>
-    </row>
-    <row r="53" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AW52">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>20</v>
       </c>
@@ -3751,8 +3868,11 @@
       <c r="AV53">
         <v>66</v>
       </c>
-    </row>
-    <row r="54" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AW53">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="54" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>20</v>
       </c>
@@ -3825,8 +3945,11 @@
       <c r="AV54">
         <v>68</v>
       </c>
-    </row>
-    <row r="55" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AW54">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="55" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>20</v>
       </c>
@@ -3857,8 +3980,11 @@
       <c r="AV55">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AW55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>22</v>
       </c>
@@ -3931,8 +4057,11 @@
       <c r="AV57">
         <v>9</v>
       </c>
-    </row>
-    <row r="58" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AW57">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>22</v>
       </c>
@@ -3969,8 +4098,11 @@
       <c r="AV58">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AW58">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>22</v>
       </c>
@@ -4007,8 +4139,11 @@
       <c r="AV59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AW59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>22</v>
       </c>
@@ -4081,8 +4216,11 @@
       <c r="AV60">
         <v>38</v>
       </c>
-    </row>
-    <row r="61" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AW60">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="61" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>22</v>
       </c>
@@ -4155,8 +4293,11 @@
       <c r="AV61">
         <v>46</v>
       </c>
-    </row>
-    <row r="62" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AW61">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="62" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>22</v>
       </c>
@@ -4229,8 +4370,11 @@
       <c r="AV62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AW62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>22</v>
       </c>
@@ -4267,13 +4411,16 @@
       <c r="AV63">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AW63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:49" x14ac:dyDescent="0.3">
       <c r="B65" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="66" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>24</v>
       </c>
@@ -4346,8 +4493,11 @@
       <c r="AV66">
         <v>131</v>
       </c>
-    </row>
-    <row r="67" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AW66">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="67" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>24</v>
       </c>
@@ -4420,8 +4570,11 @@
       <c r="AV67">
         <v>253</v>
       </c>
-    </row>
-    <row r="68" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AW67">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="68" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>24</v>
       </c>
@@ -4494,8 +4647,11 @@
       <c r="AV68">
         <v>236</v>
       </c>
-    </row>
-    <row r="69" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AW68">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="69" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>24</v>
       </c>
@@ -4526,8 +4682,11 @@
       <c r="AV69">
         <v>7</v>
       </c>
-    </row>
-    <row r="71" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AW69">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>33</v>
       </c>
@@ -4600,8 +4759,11 @@
       <c r="AV71">
         <v>66</v>
       </c>
-    </row>
-    <row r="72" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AW71">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="72" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>33</v>
       </c>
@@ -4674,8 +4836,11 @@
       <c r="AV72">
         <v>23</v>
       </c>
-    </row>
-    <row r="73" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AW72">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="73" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>33</v>
       </c>
@@ -4748,8 +4913,11 @@
       <c r="AV73">
         <v>85</v>
       </c>
-    </row>
-    <row r="74" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AW73">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="74" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>33</v>
       </c>
@@ -4822,8 +4990,11 @@
       <c r="AV74">
         <v>77</v>
       </c>
-    </row>
-    <row r="76" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AW74">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="76" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>34</v>
       </c>
@@ -4896,8 +5067,11 @@
       <c r="AV76">
         <v>41</v>
       </c>
-    </row>
-    <row r="77" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AW76">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="77" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>34</v>
       </c>
@@ -4970,8 +5144,11 @@
       <c r="AV77">
         <v>29</v>
       </c>
-    </row>
-    <row r="78" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AW77">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="78" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>34</v>
       </c>
@@ -5032,8 +5209,11 @@
       <c r="AV78">
         <v>29</v>
       </c>
-    </row>
-    <row r="79" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AW78">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="79" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>34</v>
       </c>
@@ -5106,8 +5286,11 @@
       <c r="AV79">
         <v>2</v>
       </c>
-    </row>
-    <row r="80" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AW79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>34</v>
       </c>
@@ -5136,6 +5319,9 @@
         <v>5</v>
       </c>
       <c r="AV80">
+        <v>6</v>
+      </c>
+      <c r="AW80">
         <v>6</v>
       </c>
     </row>
@@ -5147,10 +5333,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:W11"/>
+  <dimension ref="A2:X11"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W10" sqref="W10"/>
+    <sheetView topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X11" sqref="X11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5160,7 +5346,7 @@
     <col min="15" max="18" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>32</v>
       </c>
@@ -5230,8 +5416,11 @@
       <c r="W2" s="9">
         <v>43942</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X2" s="9">
+        <v>43943</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -5301,8 +5490,11 @@
       <c r="W3">
         <v>359</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X3">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -5372,8 +5564,11 @@
       <c r="W4">
         <v>234</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X4">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -5443,8 +5638,11 @@
       <c r="W5">
         <v>215</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X5">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>4</v>
       </c>
@@ -5514,8 +5712,11 @@
       <c r="W6">
         <v>543</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X6">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -5585,8 +5786,11 @@
       <c r="W7">
         <v>429</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X7">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>6</v>
       </c>
@@ -5656,8 +5860,11 @@
       <c r="W8">
         <v>387</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X8">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -5727,8 +5934,11 @@
       <c r="W9">
         <v>492</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X9">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>8</v>
       </c>
@@ -5798,8 +6008,11 @@
       <c r="W10">
         <v>458</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X10">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>39</v>
       </c>
@@ -5868,6 +6081,9 @@
       </c>
       <c r="W11">
         <v>89</v>
+      </c>
+      <c r="X11">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -5878,10 +6094,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A2:R17"/>
+  <dimension ref="A2:S17"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+      <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5891,7 +6107,7 @@
     <col min="10" max="12" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15"/>
       <c r="B2" s="12">
         <v>43926</v>
@@ -5944,8 +6160,11 @@
       <c r="R2" s="9">
         <v>43942</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S2" s="9">
+        <v>43943</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>41</v>
       </c>
@@ -5953,7 +6172,7 @@
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>54</v>
       </c>
@@ -6008,8 +6227,11 @@
       <c r="R4">
         <v>3206</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S4">
+        <v>3361</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>39</v>
       </c>
@@ -6064,8 +6286,11 @@
       <c r="R5">
         <v>443</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S5">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>42</v>
       </c>
@@ -6120,8 +6345,11 @@
       <c r="R6">
         <v>587</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S6">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>43</v>
       </c>
@@ -6176,8 +6404,11 @@
       <c r="R7">
         <v>1595</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S7">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>44</v>
       </c>
@@ -6232,8 +6463,11 @@
       <c r="R8">
         <v>57</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="S8">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>45</v>
       </c>
@@ -6288,8 +6522,11 @@
       <c r="R9">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="S9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>55</v>
       </c>
@@ -6340,8 +6577,11 @@
       <c r="R10">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
         <v>46</v>
       </c>
@@ -6396,8 +6636,11 @@
       <c r="R11">
         <v>481</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S11">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
         <v>47</v>
       </c>
@@ -6452,8 +6695,11 @@
       <c r="R12">
         <v>25</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>48</v>
       </c>
@@ -6464,7 +6710,7 @@
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
         <v>39</v>
       </c>
@@ -6519,8 +6765,11 @@
       <c r="R14">
         <v>601</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S14">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
         <v>49</v>
       </c>
@@ -6575,8 +6824,11 @@
       <c r="R15">
         <v>589</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S15">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
         <v>50</v>
       </c>
@@ -6631,8 +6883,11 @@
       <c r="R16">
         <v>2002</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S16">
+        <v>2074</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
         <v>47</v>
       </c>
@@ -6685,6 +6940,9 @@
         <v>14</v>
       </c>
       <c r="R17">
+        <v>14</v>
+      </c>
+      <c r="S17">
         <v>14</v>
       </c>
     </row>
@@ -6696,10 +6954,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:R8"/>
+  <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6708,7 +6966,7 @@
     <col min="10" max="10" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B1" s="9">
         <v>43926</v>
       </c>
@@ -6760,14 +7018,17 @@
       <c r="R1" s="9">
         <v>43942</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S1" s="9">
+        <v>43943</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>41</v>
       </c>
       <c r="B2" s="7"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>54</v>
       </c>
@@ -6823,8 +7084,11 @@
       <c r="R3">
         <v>127</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>44</v>
       </c>
@@ -6879,8 +7143,11 @@
       <c r="R4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="S4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>43</v>
       </c>
@@ -6935,8 +7202,11 @@
       <c r="R5">
         <v>102</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S5">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>51</v>
       </c>
@@ -6991,8 +7261,11 @@
       <c r="R6">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>52</v>
       </c>
@@ -7047,8 +7320,11 @@
       <c r="R7">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>53</v>
       </c>
@@ -7101,6 +7377,9 @@
         <v>0</v>
       </c>
       <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
         <v>0</v>
       </c>
     </row>
@@ -7111,10 +7390,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48DE713F-971D-4CE1-B1A8-BE60A2507C58}">
-  <dimension ref="A2:D13"/>
+  <dimension ref="A2:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7122,7 +7401,7 @@
     <col min="1" max="1" width="22.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>32</v>
       </c>
@@ -7135,8 +7414,11 @@
       <c r="D2" s="9">
         <v>43942</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" s="9">
+        <v>43943</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>54</v>
       </c>
@@ -7149,8 +7431,11 @@
       <c r="D3">
         <v>127</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>1</v>
       </c>
@@ -7163,8 +7448,11 @@
       <c r="D4">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>2</v>
       </c>
@@ -7177,8 +7465,11 @@
       <c r="D5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>3</v>
       </c>
@@ -7191,8 +7482,11 @@
       <c r="D6">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>4</v>
       </c>
@@ -7205,8 +7499,11 @@
       <c r="D7">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>5</v>
       </c>
@@ -7219,8 +7516,11 @@
       <c r="D8">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>6</v>
       </c>
@@ -7233,8 +7533,11 @@
       <c r="D9">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>7</v>
       </c>
@@ -7247,8 +7550,11 @@
       <c r="D10">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>8</v>
       </c>
@@ -7261,8 +7567,11 @@
       <c r="D11">
         <v>29</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>76</v>
       </c>
@@ -7275,8 +7584,11 @@
       <c r="D12">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>39</v>
       </c>
@@ -7287,6 +7599,9 @@
         <v>0</v>
       </c>
       <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
         <v>0</v>
       </c>
     </row>
@@ -7296,6 +7611,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C154F8D92A1190498EC67EE37256270A" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a145d1f7d2fc6bfdea86e9d796031e6c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8e61eea9-d51d-4f9c-960b-1b037651d93e" xmlns:ns4="248ed0f8-11d3-4141-bb91-6b69a0801941" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="87b2ee5a90a671ef9b646f531a040769" ns3:_="" ns4:_="">
     <xsd:import namespace="8e61eea9-d51d-4f9c-960b-1b037651d93e"/>
@@ -7498,12 +7819,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -7514,6 +7829,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8DEDEF4E-2681-4E64-A6E5-9E41742A3664}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="248ed0f8-11d3-4141-bb91-6b69a0801941"/>
+    <ds:schemaRef ds:uri="8e61eea9-d51d-4f9c-960b-1b037651d93e"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE449021-9205-42BF-A2AE-CC419CEBA6BF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7532,23 +7864,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8DEDEF4E-2681-4E64-A6E5-9E41742A3664}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="248ed0f8-11d3-4141-bb91-6b69a0801941"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="8e61eea9-d51d-4f9c-960b-1b037651d93e"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD396E8E-4714-4CC9-8EAA-3025B907ED6D}">
   <ds:schemaRefs>

--- a/dcCovid-19DataSummaryToday.xlsx
+++ b/dcCovid-19DataSummaryToday.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dcgovict-my.sharepoint.com/personal/ramona_yun1_dc_gov/Documents/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1000" documentId="8_{C884A327-19F6-4EC6-805C-F52B66916DDD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{5423C21D-8DD5-42AF-ADAE-F3E8306C78DA}"/>
+  <xr:revisionPtr revIDLastSave="1118" documentId="8_{C884A327-19F6-4EC6-805C-F52B66916DDD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{2C2DCE3F-AE4D-463B-9000-94B28569A5EA}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="Lives Lost by Race" sheetId="4" r:id="rId4"/>
     <sheet name="Lives Lost by Ward" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -694,21 +694,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AW80"/>
+  <dimension ref="A1:AX80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="AR1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AX13" sqref="AX13"/>
+      <pane xSplit="2" topLeftCell="AW1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AX8" sqref="AX8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.5546875" customWidth="1"/>
-    <col min="2" max="2" width="62.44140625" customWidth="1"/>
-    <col min="40" max="49" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" customWidth="1"/>
+    <col min="2" max="2" width="56.6640625" customWidth="1"/>
+    <col min="40" max="50" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.3">
       <c r="C1" s="1">
         <v>43897</v>
       </c>
@@ -850,8 +850,11 @@
       <c r="AW1" s="1">
         <v>43943</v>
       </c>
-    </row>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AX1" s="1">
+        <v>43944</v>
+      </c>
+    </row>
+    <row r="2" spans="1:50" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -875,7 +878,7 @@
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
     </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1002,8 +1005,11 @@
       <c r="AW3">
         <v>15930</v>
       </c>
-    </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AX3">
+        <v>16533</v>
+      </c>
+    </row>
+    <row r="4" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1151,8 +1157,11 @@
       <c r="AW4">
         <v>3361</v>
       </c>
-    </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AX4">
+        <v>3528</v>
+      </c>
+    </row>
+    <row r="5" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -1282,8 +1291,11 @@
       <c r="AW5">
         <v>139</v>
       </c>
-    </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AX5">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -1383,11 +1395,14 @@
       <c r="AW6">
         <v>648</v>
       </c>
-    </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AX6">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="7" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
     </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
@@ -1481,8 +1496,11 @@
       <c r="AW8">
         <v>85</v>
       </c>
-    </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AX8">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
@@ -1576,8 +1594,11 @@
       <c r="AW9">
         <v>444</v>
       </c>
-    </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AX9">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="10" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
@@ -1671,8 +1692,11 @@
       <c r="AW10">
         <v>200</v>
       </c>
-    </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AX10">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="11" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
@@ -1766,13 +1790,16 @@
       <c r="AW11">
         <v>244</v>
       </c>
-    </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AX11">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="13" spans="1:50" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
@@ -1780,7 +1807,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>9</v>
       </c>
@@ -1877,8 +1904,11 @@
       <c r="AW15">
         <v>80</v>
       </c>
-    </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AX15">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>9</v>
       </c>
@@ -1921,8 +1951,11 @@
       <c r="AW16">
         <v>43</v>
       </c>
-    </row>
-    <row r="17" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AX16">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>9</v>
       </c>
@@ -1965,8 +1998,11 @@
       <c r="AW17">
         <v>37</v>
       </c>
-    </row>
-    <row r="18" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AX17">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>9</v>
       </c>
@@ -2054,8 +2090,11 @@
       <c r="AW18">
         <v>116</v>
       </c>
-    </row>
-    <row r="19" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AX18">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>9</v>
       </c>
@@ -2143,8 +2182,11 @@
       <c r="AW19">
         <v>159</v>
       </c>
-    </row>
-    <row r="20" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AX19">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="20" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>9</v>
       </c>
@@ -2232,13 +2274,16 @@
       <c r="AW20">
         <v>615</v>
       </c>
-    </row>
-    <row r="22" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AX20">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="22" spans="1:50" x14ac:dyDescent="0.3">
       <c r="B22" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>10</v>
       </c>
@@ -2335,8 +2380,11 @@
       <c r="AW23">
         <v>89</v>
       </c>
-    </row>
-    <row r="24" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AX23">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>10</v>
       </c>
@@ -2379,8 +2427,11 @@
       <c r="AW24">
         <v>56</v>
       </c>
-    </row>
-    <row r="25" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AX24">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>10</v>
       </c>
@@ -2423,8 +2474,11 @@
       <c r="AW25">
         <v>33</v>
       </c>
-    </row>
-    <row r="26" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AX25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>10</v>
       </c>
@@ -2512,8 +2566,11 @@
       <c r="AW26">
         <v>102</v>
       </c>
-    </row>
-    <row r="27" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AX26">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>10</v>
       </c>
@@ -2601,8 +2658,11 @@
       <c r="AW27">
         <v>158</v>
       </c>
-    </row>
-    <row r="28" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AX27">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="28" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>10</v>
       </c>
@@ -2690,13 +2750,16 @@
       <c r="AW28">
         <v>670</v>
       </c>
-    </row>
-    <row r="30" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AX28">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="30" spans="1:50" x14ac:dyDescent="0.3">
       <c r="B30" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>21</v>
       </c>
@@ -2784,8 +2847,11 @@
       <c r="AW31">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AX31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>21</v>
       </c>
@@ -2825,8 +2891,11 @@
       <c r="AW32">
         <v>21</v>
       </c>
-    </row>
-    <row r="33" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AX32">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>21</v>
       </c>
@@ -2866,8 +2935,11 @@
       <c r="AW33">
         <v>7</v>
       </c>
-    </row>
-    <row r="34" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AX33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>21</v>
       </c>
@@ -2955,8 +3027,11 @@
       <c r="AW34">
         <v>124</v>
       </c>
-    </row>
-    <row r="35" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AX34">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="35" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>21</v>
       </c>
@@ -3041,8 +3116,11 @@
       <c r="AW35">
         <v>145</v>
       </c>
-    </row>
-    <row r="36" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AX35">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="36" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>21</v>
       </c>
@@ -3130,8 +3208,11 @@
       <c r="AW36">
         <v>104</v>
       </c>
-    </row>
-    <row r="37" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AX36">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="37" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>21</v>
       </c>
@@ -3153,16 +3234,19 @@
       <c r="AW37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AX37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
     </row>
-    <row r="39" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:50" x14ac:dyDescent="0.3">
       <c r="B39" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>18</v>
       </c>
@@ -3253,8 +3337,11 @@
       <c r="AW40">
         <v>104</v>
       </c>
-    </row>
-    <row r="41" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AX40">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="41" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>18</v>
       </c>
@@ -3297,8 +3384,11 @@
       <c r="AW41">
         <v>46</v>
       </c>
-    </row>
-    <row r="42" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AX41">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>18</v>
       </c>
@@ -3341,8 +3431,11 @@
       <c r="AW42">
         <v>56</v>
       </c>
-    </row>
-    <row r="43" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AX42">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>18</v>
       </c>
@@ -3430,8 +3523,11 @@
       <c r="AW43">
         <v>976</v>
       </c>
-    </row>
-    <row r="44" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AX43">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="44" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>18</v>
       </c>
@@ -3474,8 +3570,11 @@
       <c r="AW44">
         <v>1022</v>
       </c>
-    </row>
-    <row r="45" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AX44">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="45" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>18</v>
       </c>
@@ -3515,8 +3614,11 @@
       <c r="AW45">
         <v>56</v>
       </c>
-    </row>
-    <row r="46" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AX45">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="46" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>18</v>
       </c>
@@ -3550,16 +3652,19 @@
       <c r="AW46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AX46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
     </row>
-    <row r="48" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:50" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>20</v>
       </c>
@@ -3635,8 +3740,11 @@
       <c r="AW49">
         <v>20</v>
       </c>
-    </row>
-    <row r="50" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AX49">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>20</v>
       </c>
@@ -3676,8 +3784,11 @@
       <c r="AW50">
         <v>16</v>
       </c>
-    </row>
-    <row r="51" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AX50">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>20</v>
       </c>
@@ -3717,8 +3828,11 @@
       <c r="AW51">
         <v>3</v>
       </c>
-    </row>
-    <row r="52" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AX51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>20</v>
       </c>
@@ -3794,8 +3908,11 @@
       <c r="AW52">
         <v>45</v>
       </c>
-    </row>
-    <row r="53" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AX52">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="53" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>20</v>
       </c>
@@ -3871,8 +3988,11 @@
       <c r="AW53">
         <v>61</v>
       </c>
-    </row>
-    <row r="54" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AX53">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>20</v>
       </c>
@@ -3948,8 +4068,11 @@
       <c r="AW54">
         <v>71</v>
       </c>
-    </row>
-    <row r="55" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AX54">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="55" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>20</v>
       </c>
@@ -3983,8 +4106,11 @@
       <c r="AW55">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AX55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>22</v>
       </c>
@@ -4060,8 +4186,11 @@
       <c r="AW57">
         <v>9</v>
       </c>
-    </row>
-    <row r="58" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AX57">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>22</v>
       </c>
@@ -4101,8 +4230,11 @@
       <c r="AW58">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AX58">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>22</v>
       </c>
@@ -4142,8 +4274,11 @@
       <c r="AW59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AX59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>22</v>
       </c>
@@ -4219,8 +4354,11 @@
       <c r="AW60">
         <v>41</v>
       </c>
-    </row>
-    <row r="61" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AX60">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="61" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>22</v>
       </c>
@@ -4296,8 +4434,11 @@
       <c r="AW61">
         <v>49</v>
       </c>
-    </row>
-    <row r="62" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AX61">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="62" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>22</v>
       </c>
@@ -4373,8 +4514,11 @@
       <c r="AW62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AX62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>22</v>
       </c>
@@ -4414,13 +4558,16 @@
       <c r="AW63">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AX63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:50" x14ac:dyDescent="0.3">
       <c r="B65" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="66" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>24</v>
       </c>
@@ -4496,8 +4643,11 @@
       <c r="AW66">
         <v>144</v>
       </c>
-    </row>
-    <row r="67" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AX66">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="67" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>24</v>
       </c>
@@ -4573,8 +4723,11 @@
       <c r="AW67">
         <v>247</v>
       </c>
-    </row>
-    <row r="68" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AX67">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="68" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>24</v>
       </c>
@@ -4650,8 +4803,11 @@
       <c r="AW68">
         <v>227</v>
       </c>
-    </row>
-    <row r="69" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AX68">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="69" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>24</v>
       </c>
@@ -4685,8 +4841,11 @@
       <c r="AW69">
         <v>8</v>
       </c>
-    </row>
-    <row r="71" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AX69">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>33</v>
       </c>
@@ -4762,8 +4921,11 @@
       <c r="AW71">
         <v>68</v>
       </c>
-    </row>
-    <row r="72" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AX71">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="72" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>33</v>
       </c>
@@ -4839,8 +5001,11 @@
       <c r="AW72">
         <v>21</v>
       </c>
-    </row>
-    <row r="73" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AX72">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="73" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>33</v>
       </c>
@@ -4916,8 +5081,11 @@
       <c r="AW73">
         <v>89</v>
       </c>
-    </row>
-    <row r="74" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AX73">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="74" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>33</v>
       </c>
@@ -4993,8 +5161,11 @@
       <c r="AW74">
         <v>91</v>
       </c>
-    </row>
-    <row r="76" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AX74">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="76" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>34</v>
       </c>
@@ -5070,8 +5241,11 @@
       <c r="AW76">
         <v>42</v>
       </c>
-    </row>
-    <row r="77" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AX76">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="77" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>34</v>
       </c>
@@ -5147,8 +5321,11 @@
       <c r="AW77">
         <v>30</v>
       </c>
-    </row>
-    <row r="78" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AX77">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="78" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>34</v>
       </c>
@@ -5212,8 +5389,11 @@
       <c r="AW78">
         <v>30</v>
       </c>
-    </row>
-    <row r="79" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AX78">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="79" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>34</v>
       </c>
@@ -5289,8 +5469,11 @@
       <c r="AW79">
         <v>2</v>
       </c>
-    </row>
-    <row r="80" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AX79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>34</v>
       </c>
@@ -5322,6 +5505,9 @@
         <v>6</v>
       </c>
       <c r="AW80">
+        <v>6</v>
+      </c>
+      <c r="AX80">
         <v>6</v>
       </c>
     </row>
@@ -5333,10 +5519,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:X11"/>
+  <dimension ref="A2:Y11"/>
   <sheetViews>
     <sheetView topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X11" sqref="X11"/>
+      <selection activeCell="Y11" sqref="Y11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5346,7 +5532,7 @@
     <col min="15" max="18" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>32</v>
       </c>
@@ -5419,8 +5605,11 @@
       <c r="X2" s="9">
         <v>43943</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y2" s="9">
+        <v>43944</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -5493,8 +5682,11 @@
       <c r="X3">
         <v>376</v>
       </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y3">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -5567,8 +5759,11 @@
       <c r="X4">
         <v>252</v>
       </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y4">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -5641,8 +5836,11 @@
       <c r="X5">
         <v>227</v>
       </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y5">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>4</v>
       </c>
@@ -5715,8 +5913,11 @@
       <c r="X6">
         <v>562</v>
       </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y6">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -5789,8 +5990,11 @@
       <c r="X7">
         <v>456</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y7">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>6</v>
       </c>
@@ -5863,8 +6067,11 @@
       <c r="X8">
         <v>406</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y8">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -5937,8 +6144,11 @@
       <c r="X9">
         <v>508</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y9">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>8</v>
       </c>
@@ -6011,8 +6221,11 @@
       <c r="X10">
         <v>477</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y10">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>39</v>
       </c>
@@ -6084,6 +6297,9 @@
       </c>
       <c r="X11">
         <v>97</v>
+      </c>
+      <c r="Y11">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -6094,10 +6310,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A2:S17"/>
+  <dimension ref="A2:T17"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="S17" sqref="S17"/>
+      <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6107,7 +6323,7 @@
     <col min="10" max="12" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15"/>
       <c r="B2" s="12">
         <v>43926</v>
@@ -6163,8 +6379,11 @@
       <c r="S2" s="9">
         <v>43943</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T2" s="9">
+        <v>43944</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>41</v>
       </c>
@@ -6172,7 +6391,7 @@
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>54</v>
       </c>
@@ -6230,8 +6449,11 @@
       <c r="S4">
         <v>3361</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T4">
+        <v>3528</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>39</v>
       </c>
@@ -6289,8 +6511,11 @@
       <c r="S5">
         <v>479</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T5">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>42</v>
       </c>
@@ -6348,8 +6573,11 @@
       <c r="S6">
         <v>603</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T6">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>43</v>
       </c>
@@ -6407,8 +6635,11 @@
       <c r="S7">
         <v>1670</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T7">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>44</v>
       </c>
@@ -6466,8 +6697,11 @@
       <c r="S8">
         <v>58</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="T8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>45</v>
       </c>
@@ -6525,8 +6759,11 @@
       <c r="S9">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="T9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>55</v>
       </c>
@@ -6580,8 +6817,11 @@
       <c r="S10">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
         <v>46</v>
       </c>
@@ -6639,8 +6879,11 @@
       <c r="S11">
         <v>508</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T11">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
         <v>47</v>
       </c>
@@ -6698,8 +6941,11 @@
       <c r="S12">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>48</v>
       </c>
@@ -6710,7 +6956,7 @@
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
         <v>39</v>
       </c>
@@ -6768,8 +7014,11 @@
       <c r="S14">
         <v>663</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T14">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
         <v>49</v>
       </c>
@@ -6827,8 +7076,11 @@
       <c r="S15">
         <v>610</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T15">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
         <v>50</v>
       </c>
@@ -6886,8 +7138,11 @@
       <c r="S16">
         <v>2074</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T16">
+        <v>2173</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
         <v>47</v>
       </c>
@@ -6943,6 +7198,9 @@
         <v>14</v>
       </c>
       <c r="S17">
+        <v>14</v>
+      </c>
+      <c r="T17">
         <v>14</v>
       </c>
     </row>
@@ -6954,10 +7212,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:S8"/>
+  <dimension ref="A1:T8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6966,7 +7224,7 @@
     <col min="10" max="10" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B1" s="9">
         <v>43926</v>
       </c>
@@ -7021,14 +7279,17 @@
       <c r="S1" s="9">
         <v>43943</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T1" s="9">
+        <v>43944</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>41</v>
       </c>
       <c r="B2" s="7"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>54</v>
       </c>
@@ -7087,8 +7348,11 @@
       <c r="S3">
         <v>139</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T3">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>44</v>
       </c>
@@ -7146,8 +7410,11 @@
       <c r="S4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="T4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>43</v>
       </c>
@@ -7205,8 +7472,11 @@
       <c r="S5">
         <v>112</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T5">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>51</v>
       </c>
@@ -7264,8 +7534,11 @@
       <c r="S6">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>52</v>
       </c>
@@ -7323,8 +7596,11 @@
       <c r="S7">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>53</v>
       </c>
@@ -7381,6 +7657,9 @@
       </c>
       <c r="S8">
         <v>0</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -7390,10 +7669,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48DE713F-971D-4CE1-B1A8-BE60A2507C58}">
-  <dimension ref="A2:E13"/>
+  <dimension ref="A2:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7401,7 +7680,7 @@
     <col min="1" max="1" width="22.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>32</v>
       </c>
@@ -7417,8 +7696,11 @@
       <c r="E2" s="9">
         <v>43943</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" s="9">
+        <v>43944</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>54</v>
       </c>
@@ -7434,8 +7716,11 @@
       <c r="E3">
         <v>139</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>1</v>
       </c>
@@ -7451,8 +7736,11 @@
       <c r="E4">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>2</v>
       </c>
@@ -7468,8 +7756,11 @@
       <c r="E5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>3</v>
       </c>
@@ -7485,8 +7776,11 @@
       <c r="E6">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>4</v>
       </c>
@@ -7502,8 +7796,11 @@
       <c r="E7">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>5</v>
       </c>
@@ -7519,8 +7816,11 @@
       <c r="E8">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>6</v>
       </c>
@@ -7536,8 +7836,11 @@
       <c r="E9">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>7</v>
       </c>
@@ -7553,8 +7856,11 @@
       <c r="E10">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>8</v>
       </c>
@@ -7570,8 +7876,11 @@
       <c r="E11">
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F11">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>76</v>
       </c>
@@ -7587,8 +7896,11 @@
       <c r="E12">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>39</v>
       </c>
@@ -7602,6 +7914,9 @@
         <v>0</v>
       </c>
       <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
         <v>0</v>
       </c>
     </row>
@@ -7831,16 +8146,16 @@
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8DEDEF4E-2681-4E64-A6E5-9E41742A3664}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8e61eea9-d51d-4f9c-960b-1b037651d93e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="248ed0f8-11d3-4141-bb91-6b69a0801941"/>
-    <ds:schemaRef ds:uri="8e61eea9-d51d-4f9c-960b-1b037651d93e"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/dcCovid-19DataSummaryToday.xlsx
+++ b/dcCovid-19DataSummaryToday.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dcgovict-my.sharepoint.com/personal/ramona_yun1_dc_gov/Documents/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1118" documentId="8_{C884A327-19F6-4EC6-805C-F52B66916DDD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{2C2DCE3F-AE4D-463B-9000-94B28569A5EA}"/>
+  <xr:revisionPtr revIDLastSave="1225" documentId="8_{C884A327-19F6-4EC6-805C-F52B66916DDD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{373C0C0B-8629-4B76-8B5C-C3E1EC9733FF}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13368" yWindow="1680" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overal Stats" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Lives Lost by Race" sheetId="4" r:id="rId4"/>
     <sheet name="Lives Lost by Ward" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029" calcCompleted="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -694,21 +694,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AX80"/>
+  <dimension ref="A1:AY80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="AW1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AX8" sqref="AX8"/>
+      <pane xSplit="2" topLeftCell="AY1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AY1" sqref="AY1:AY1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29.44140625" customWidth="1"/>
     <col min="2" max="2" width="56.6640625" customWidth="1"/>
-    <col min="40" max="50" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="40" max="51" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="C1" s="1">
         <v>43897</v>
       </c>
@@ -853,8 +853,11 @@
       <c r="AX1" s="1">
         <v>43944</v>
       </c>
-    </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AY1" s="1">
+        <v>43945</v>
+      </c>
+    </row>
+    <row r="2" spans="1:51" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -878,7 +881,7 @@
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1008,8 +1011,11 @@
       <c r="AX3">
         <v>16533</v>
       </c>
-    </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AY3">
+        <v>17302</v>
+      </c>
+    </row>
+    <row r="4" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1160,8 +1166,11 @@
       <c r="AX4">
         <v>3528</v>
       </c>
-    </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AY4">
+        <v>3699</v>
+      </c>
+    </row>
+    <row r="5" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -1294,8 +1303,11 @@
       <c r="AX5">
         <v>153</v>
       </c>
-    </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AY5">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -1398,11 +1410,14 @@
       <c r="AX6">
         <v>651</v>
       </c>
-    </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AY6">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="7" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
@@ -1499,8 +1514,11 @@
       <c r="AX8">
         <v>113</v>
       </c>
-    </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AY8">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
@@ -1597,8 +1615,11 @@
       <c r="AX9">
         <v>513</v>
       </c>
-    </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AY9">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="10" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
@@ -1695,8 +1716,11 @@
       <c r="AX10">
         <v>248</v>
       </c>
-    </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AY10">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="11" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
@@ -1793,13 +1817,16 @@
       <c r="AX11">
         <v>265</v>
       </c>
-    </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AY11">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="13" spans="1:51" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
@@ -1807,7 +1834,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>9</v>
       </c>
@@ -1907,8 +1934,11 @@
       <c r="AX15">
         <v>81</v>
       </c>
-    </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AY15">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>9</v>
       </c>
@@ -1954,8 +1984,11 @@
       <c r="AX16">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AY16">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>9</v>
       </c>
@@ -2001,8 +2034,11 @@
       <c r="AX17">
         <v>50</v>
       </c>
-    </row>
-    <row r="18" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AY17">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>9</v>
       </c>
@@ -2093,8 +2129,11 @@
       <c r="AX18">
         <v>135</v>
       </c>
-    </row>
-    <row r="19" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AY18">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>9</v>
       </c>
@@ -2185,8 +2224,11 @@
       <c r="AX19">
         <v>166</v>
       </c>
-    </row>
-    <row r="20" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AY19">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>9</v>
       </c>
@@ -2277,13 +2319,16 @@
       <c r="AX20">
         <v>634</v>
       </c>
-    </row>
-    <row r="22" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AY20">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="22" spans="1:51" x14ac:dyDescent="0.3">
       <c r="B22" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>10</v>
       </c>
@@ -2383,8 +2428,11 @@
       <c r="AX23">
         <v>89</v>
       </c>
-    </row>
-    <row r="24" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AY23">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>10</v>
       </c>
@@ -2430,8 +2478,11 @@
       <c r="AX24">
         <v>52</v>
       </c>
-    </row>
-    <row r="25" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AY24">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>10</v>
       </c>
@@ -2477,8 +2528,11 @@
       <c r="AX25">
         <v>37</v>
       </c>
-    </row>
-    <row r="26" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AY25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>10</v>
       </c>
@@ -2569,8 +2623,11 @@
       <c r="AX26">
         <v>86</v>
       </c>
-    </row>
-    <row r="27" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AY26">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>10</v>
       </c>
@@ -2661,8 +2718,11 @@
       <c r="AX27">
         <v>138</v>
       </c>
-    </row>
-    <row r="28" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AY27">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="28" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>10</v>
       </c>
@@ -2753,13 +2813,16 @@
       <c r="AX28">
         <v>697</v>
       </c>
-    </row>
-    <row r="30" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AY28">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="30" spans="1:51" x14ac:dyDescent="0.3">
       <c r="B30" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>21</v>
       </c>
@@ -2850,8 +2913,11 @@
       <c r="AX31">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AY31">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>21</v>
       </c>
@@ -2894,8 +2960,11 @@
       <c r="AX32">
         <v>22</v>
       </c>
-    </row>
-    <row r="33" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AY32">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>21</v>
       </c>
@@ -2938,8 +3007,11 @@
       <c r="AX33">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AY33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>21</v>
       </c>
@@ -3030,8 +3102,11 @@
       <c r="AX34">
         <v>114</v>
       </c>
-    </row>
-    <row r="35" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AY34">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>21</v>
       </c>
@@ -3119,8 +3194,11 @@
       <c r="AX35">
         <v>136</v>
       </c>
-    </row>
-    <row r="36" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AY35">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>21</v>
       </c>
@@ -3211,8 +3289,11 @@
       <c r="AX36">
         <v>115</v>
       </c>
-    </row>
-    <row r="37" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AY36">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="37" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>21</v>
       </c>
@@ -3237,16 +3318,19 @@
       <c r="AX37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AY37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
     </row>
-    <row r="39" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:51" x14ac:dyDescent="0.3">
       <c r="B39" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>18</v>
       </c>
@@ -3340,8 +3424,11 @@
       <c r="AX40">
         <v>110</v>
       </c>
-    </row>
-    <row r="41" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AY40">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="41" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>18</v>
       </c>
@@ -3387,8 +3474,11 @@
       <c r="AX41">
         <v>47</v>
       </c>
-    </row>
-    <row r="42" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AY41">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>18</v>
       </c>
@@ -3434,8 +3524,11 @@
       <c r="AX42">
         <v>62</v>
       </c>
-    </row>
-    <row r="43" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AY42">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>18</v>
       </c>
@@ -3526,8 +3619,11 @@
       <c r="AX43">
         <v>971</v>
       </c>
-    </row>
-    <row r="44" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AY43">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="44" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>18</v>
       </c>
@@ -3573,8 +3669,11 @@
       <c r="AX44">
         <v>1018</v>
       </c>
-    </row>
-    <row r="45" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AY44">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="45" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>18</v>
       </c>
@@ -3617,8 +3716,11 @@
       <c r="AX45">
         <v>65</v>
       </c>
-    </row>
-    <row r="46" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AY45">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="46" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>18</v>
       </c>
@@ -3655,16 +3757,19 @@
       <c r="AX46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AY46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
     </row>
-    <row r="48" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:51" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>20</v>
       </c>
@@ -3743,8 +3848,11 @@
       <c r="AX49">
         <v>21</v>
       </c>
-    </row>
-    <row r="50" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AY49">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>20</v>
       </c>
@@ -3787,8 +3895,11 @@
       <c r="AX50">
         <v>17</v>
       </c>
-    </row>
-    <row r="51" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AY50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>20</v>
       </c>
@@ -3831,8 +3942,11 @@
       <c r="AX51">
         <v>4</v>
       </c>
-    </row>
-    <row r="52" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AY51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>20</v>
       </c>
@@ -3911,8 +4025,11 @@
       <c r="AX52">
         <v>37</v>
       </c>
-    </row>
-    <row r="53" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AY52">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="53" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>20</v>
       </c>
@@ -3991,8 +4108,11 @@
       <c r="AX53">
         <v>54</v>
       </c>
-    </row>
-    <row r="54" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AY53">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="54" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>20</v>
       </c>
@@ -4071,8 +4191,11 @@
       <c r="AX54">
         <v>83</v>
       </c>
-    </row>
-    <row r="55" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AY54">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="55" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>20</v>
       </c>
@@ -4109,8 +4232,11 @@
       <c r="AX55">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AY55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>22</v>
       </c>
@@ -4189,8 +4315,11 @@
       <c r="AX57">
         <v>9</v>
       </c>
-    </row>
-    <row r="58" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AY57">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>22</v>
       </c>
@@ -4233,8 +4362,11 @@
       <c r="AX58">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AY58">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>22</v>
       </c>
@@ -4277,8 +4409,11 @@
       <c r="AX59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AY59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>22</v>
       </c>
@@ -4357,8 +4492,11 @@
       <c r="AX60">
         <v>41</v>
       </c>
-    </row>
-    <row r="61" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AY60">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="61" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>22</v>
       </c>
@@ -4437,8 +4575,11 @@
       <c r="AX61">
         <v>49</v>
       </c>
-    </row>
-    <row r="62" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AY61">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="62" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>22</v>
       </c>
@@ -4517,8 +4658,11 @@
       <c r="AX62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AY62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>22</v>
       </c>
@@ -4561,13 +4705,16 @@
       <c r="AX63">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AY63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:51" x14ac:dyDescent="0.3">
       <c r="B65" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="66" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>24</v>
       </c>
@@ -4646,8 +4793,11 @@
       <c r="AX66">
         <v>145</v>
       </c>
-    </row>
-    <row r="67" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AY66">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="67" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>24</v>
       </c>
@@ -4726,8 +4876,11 @@
       <c r="AX67">
         <v>253</v>
       </c>
-    </row>
-    <row r="68" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AY67">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="68" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>24</v>
       </c>
@@ -4806,8 +4959,11 @@
       <c r="AX68">
         <v>213</v>
       </c>
-    </row>
-    <row r="69" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AY68">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="69" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>24</v>
       </c>
@@ -4844,8 +5000,11 @@
       <c r="AX69">
         <v>9</v>
       </c>
-    </row>
-    <row r="71" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AY69">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>33</v>
       </c>
@@ -4924,8 +5083,11 @@
       <c r="AX71">
         <v>68</v>
       </c>
-    </row>
-    <row r="72" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AY71">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="72" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>33</v>
       </c>
@@ -5004,8 +5166,11 @@
       <c r="AX72">
         <v>23</v>
       </c>
-    </row>
-    <row r="73" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AY72">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="73" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>33</v>
       </c>
@@ -5084,8 +5249,11 @@
       <c r="AX73">
         <v>91</v>
       </c>
-    </row>
-    <row r="74" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AY73">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="74" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>33</v>
       </c>
@@ -5164,8 +5332,11 @@
       <c r="AX74">
         <v>91</v>
       </c>
-    </row>
-    <row r="76" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AY74">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="76" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>34</v>
       </c>
@@ -5244,8 +5415,11 @@
       <c r="AX76">
         <v>41</v>
       </c>
-    </row>
-    <row r="77" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AY76">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="77" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>34</v>
       </c>
@@ -5324,8 +5498,11 @@
       <c r="AX77">
         <v>29</v>
       </c>
-    </row>
-    <row r="78" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AY77">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="78" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>34</v>
       </c>
@@ -5392,8 +5569,11 @@
       <c r="AX78">
         <v>29</v>
       </c>
-    </row>
-    <row r="79" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AY78">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="79" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>34</v>
       </c>
@@ -5472,8 +5652,11 @@
       <c r="AX79">
         <v>2</v>
       </c>
-    </row>
-    <row r="80" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AY79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>34</v>
       </c>
@@ -5508,6 +5691,9 @@
         <v>6</v>
       </c>
       <c r="AX80">
+        <v>6</v>
+      </c>
+      <c r="AY80">
         <v>6</v>
       </c>
     </row>
@@ -5519,10 +5705,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:Y11"/>
+  <dimension ref="A2:Z11"/>
   <sheetViews>
     <sheetView topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y11" sqref="Y11"/>
+      <selection activeCell="Z11" sqref="Z11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5532,7 +5718,7 @@
     <col min="15" max="18" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>32</v>
       </c>
@@ -5608,8 +5794,11 @@
       <c r="Y2" s="9">
         <v>43944</v>
       </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z2" s="9">
+        <v>43945</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -5685,8 +5874,11 @@
       <c r="Y3">
         <v>403</v>
       </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z3">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -5762,8 +5954,11 @@
       <c r="Y4">
         <v>251</v>
       </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z4">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -5839,8 +6034,11 @@
       <c r="Y5">
         <v>252</v>
       </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z5">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>4</v>
       </c>
@@ -5916,8 +6114,11 @@
       <c r="Y6">
         <v>595</v>
       </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z6">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -5993,8 +6194,11 @@
       <c r="Y7">
         <v>488</v>
       </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z7">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>6</v>
       </c>
@@ -6070,8 +6274,11 @@
       <c r="Y8">
         <v>409</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z8">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -6147,8 +6354,11 @@
       <c r="Y9">
         <v>522</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z9">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>8</v>
       </c>
@@ -6224,8 +6434,11 @@
       <c r="Y10">
         <v>498</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z10">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>39</v>
       </c>
@@ -6300,6 +6513,9 @@
       </c>
       <c r="Y11">
         <v>110</v>
+      </c>
+      <c r="Z11">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -6310,10 +6526,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A2:T17"/>
+  <dimension ref="A2:U17"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="T17" sqref="T17"/>
+    <sheetView topLeftCell="L1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6323,7 +6539,7 @@
     <col min="10" max="12" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15"/>
       <c r="B2" s="12">
         <v>43926</v>
@@ -6382,8 +6598,11 @@
       <c r="T2" s="9">
         <v>43944</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="U2" s="9">
+        <v>43945</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>41</v>
       </c>
@@ -6391,7 +6610,7 @@
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>54</v>
       </c>
@@ -6452,8 +6671,11 @@
       <c r="T4">
         <v>3528</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U4">
+        <v>3699</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>39</v>
       </c>
@@ -6514,8 +6736,11 @@
       <c r="T5">
         <v>490</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U5">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>42</v>
       </c>
@@ -6576,8 +6801,11 @@
       <c r="T6">
         <v>635</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U6">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>43</v>
       </c>
@@ -6638,8 +6866,11 @@
       <c r="T7">
         <v>1762</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U7">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>44</v>
       </c>
@@ -6700,8 +6931,11 @@
       <c r="T8">
         <v>60</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="U8">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>45</v>
       </c>
@@ -6762,8 +6996,11 @@
       <c r="T9">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="U9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>55</v>
       </c>
@@ -6820,8 +7057,11 @@
       <c r="T10">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
         <v>46</v>
       </c>
@@ -6882,8 +7122,11 @@
       <c r="T11">
         <v>538</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U11">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
         <v>47</v>
       </c>
@@ -6944,8 +7187,11 @@
       <c r="T12">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>48</v>
       </c>
@@ -6956,7 +7202,7 @@
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
         <v>39</v>
       </c>
@@ -7017,8 +7263,11 @@
       <c r="T14">
         <v>705</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U14">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
         <v>49</v>
       </c>
@@ -7079,8 +7328,11 @@
       <c r="T15">
         <v>636</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U15">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
         <v>50</v>
       </c>
@@ -7141,8 +7393,11 @@
       <c r="T16">
         <v>2173</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U16">
+        <v>2263</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
         <v>47</v>
       </c>
@@ -7201,6 +7456,9 @@
         <v>14</v>
       </c>
       <c r="T17">
+        <v>14</v>
+      </c>
+      <c r="U17">
         <v>14</v>
       </c>
     </row>
@@ -7212,10 +7470,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:T8"/>
+  <dimension ref="A1:U8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7224,7 +7482,7 @@
     <col min="10" max="10" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B1" s="9">
         <v>43926</v>
       </c>
@@ -7282,14 +7540,17 @@
       <c r="T1" s="9">
         <v>43944</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U1" s="9">
+        <v>43945</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>41</v>
       </c>
       <c r="B2" s="7"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>54</v>
       </c>
@@ -7351,8 +7612,11 @@
       <c r="T3">
         <v>153</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>44</v>
       </c>
@@ -7413,8 +7677,11 @@
       <c r="T4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="U4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>43</v>
       </c>
@@ -7475,8 +7742,11 @@
       <c r="T5">
         <v>124</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U5">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>51</v>
       </c>
@@ -7537,8 +7807,11 @@
       <c r="T6">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>52</v>
       </c>
@@ -7599,8 +7872,11 @@
       <c r="T7">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>53</v>
       </c>
@@ -7659,6 +7935,9 @@
         <v>0</v>
       </c>
       <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8">
         <v>1</v>
       </c>
     </row>
@@ -7669,10 +7948,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48DE713F-971D-4CE1-B1A8-BE60A2507C58}">
-  <dimension ref="A2:F13"/>
+  <dimension ref="A2:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7680,7 +7959,7 @@
     <col min="1" max="1" width="22.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>32</v>
       </c>
@@ -7699,8 +7978,11 @@
       <c r="F2" s="9">
         <v>43944</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" s="9">
+        <v>43945</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>54</v>
       </c>
@@ -7719,8 +8001,11 @@
       <c r="F3">
         <v>153</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>1</v>
       </c>
@@ -7739,8 +8024,11 @@
       <c r="F4">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>2</v>
       </c>
@@ -7759,8 +8047,11 @@
       <c r="F5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>3</v>
       </c>
@@ -7779,8 +8070,11 @@
       <c r="F6">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>4</v>
       </c>
@@ -7799,8 +8093,11 @@
       <c r="F7">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>5</v>
       </c>
@@ -7819,8 +8116,11 @@
       <c r="F8">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>6</v>
       </c>
@@ -7839,8 +8139,11 @@
       <c r="F9">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>7</v>
       </c>
@@ -7859,8 +8162,11 @@
       <c r="F10">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>8</v>
       </c>
@@ -7879,8 +8185,11 @@
       <c r="F11">
         <v>33</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G11">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>76</v>
       </c>
@@ -7899,8 +8208,11 @@
       <c r="F12">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>39</v>
       </c>
@@ -7917,6 +8229,9 @@
         <v>0</v>
       </c>
       <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
         <v>0</v>
       </c>
     </row>
@@ -7926,12 +8241,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C154F8D92A1190498EC67EE37256270A" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a145d1f7d2fc6bfdea86e9d796031e6c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8e61eea9-d51d-4f9c-960b-1b037651d93e" xmlns:ns4="248ed0f8-11d3-4141-bb91-6b69a0801941" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="87b2ee5a90a671ef9b646f531a040769" ns3:_="" ns4:_="">
     <xsd:import namespace="8e61eea9-d51d-4f9c-960b-1b037651d93e"/>
@@ -8134,6 +8443,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -8144,23 +8459,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8DEDEF4E-2681-4E64-A6E5-9E41742A3664}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="8e61eea9-d51d-4f9c-960b-1b037651d93e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="248ed0f8-11d3-4141-bb91-6b69a0801941"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE449021-9205-42BF-A2AE-CC419CEBA6BF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8179,6 +8477,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8DEDEF4E-2681-4E64-A6E5-9E41742A3664}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8e61eea9-d51d-4f9c-960b-1b037651d93e"/>
+    <ds:schemaRef ds:uri="248ed0f8-11d3-4141-bb91-6b69a0801941"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD396E8E-4714-4CC9-8EAA-3025B907ED6D}">
   <ds:schemaRefs>

--- a/dcCovid-19DataSummaryToday.xlsx
+++ b/dcCovid-19DataSummaryToday.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dcgovict-my.sharepoint.com/personal/ramona_yun1_dc_gov/Documents/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1225" documentId="8_{C884A327-19F6-4EC6-805C-F52B66916DDD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{373C0C0B-8629-4B76-8B5C-C3E1EC9733FF}"/>
+  <xr:revisionPtr revIDLastSave="1336" documentId="8_{C884A327-19F6-4EC6-805C-F52B66916DDD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{B6DED8CA-336B-4ED1-9295-EA0C524CBD51}"/>
   <bookViews>
-    <workbookView xWindow="13368" yWindow="1680" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overal Stats" sheetId="1" r:id="rId1"/>
@@ -694,21 +694,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AY80"/>
+  <dimension ref="A1:AZ99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="AY1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AY1" sqref="AY1:AY1048576"/>
+      <pane xSplit="2" topLeftCell="AX1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AY80" sqref="AY80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29.44140625" customWidth="1"/>
     <col min="2" max="2" width="56.6640625" customWidth="1"/>
-    <col min="40" max="51" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="40" max="52" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.3">
       <c r="C1" s="1">
         <v>43897</v>
       </c>
@@ -856,8 +856,11 @@
       <c r="AY1" s="1">
         <v>43945</v>
       </c>
-    </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AZ1" s="1">
+        <v>43946</v>
+      </c>
+    </row>
+    <row r="2" spans="1:52" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -881,7 +884,7 @@
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
     </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1014,8 +1017,11 @@
       <c r="AY3">
         <v>17302</v>
       </c>
-    </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AZ3">
+        <v>18068</v>
+      </c>
+    </row>
+    <row r="4" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1169,8 +1175,11 @@
       <c r="AY4">
         <v>3699</v>
       </c>
-    </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AZ4">
+        <v>3841</v>
+      </c>
+    </row>
+    <row r="5" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -1306,8 +1315,11 @@
       <c r="AY5">
         <v>165</v>
       </c>
-    </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AZ5">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="6" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -1413,11 +1425,14 @@
       <c r="AY6">
         <v>652</v>
       </c>
-    </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AZ6">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="7" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
     </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
@@ -1517,8 +1532,11 @@
       <c r="AY8">
         <v>113</v>
       </c>
-    </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AZ8">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
@@ -1618,8 +1636,11 @@
       <c r="AY9">
         <v>513</v>
       </c>
-    </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AZ9">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="10" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
@@ -1719,8 +1740,11 @@
       <c r="AY10">
         <v>248</v>
       </c>
-    </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AZ10">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
@@ -1820,13 +1844,16 @@
       <c r="AY11">
         <v>265</v>
       </c>
-    </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AZ11">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="13" spans="1:52" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
@@ -1834,7 +1861,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>9</v>
       </c>
@@ -1937,8 +1964,11 @@
       <c r="AY15">
         <v>86</v>
       </c>
-    </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AZ15">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>9</v>
       </c>
@@ -1987,8 +2017,11 @@
       <c r="AY16">
         <v>35</v>
       </c>
-    </row>
-    <row r="17" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AZ16">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>9</v>
       </c>
@@ -2037,8 +2070,11 @@
       <c r="AY17">
         <v>51</v>
       </c>
-    </row>
-    <row r="18" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AZ17">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>9</v>
       </c>
@@ -2132,8 +2168,11 @@
       <c r="AY18">
         <v>118</v>
       </c>
-    </row>
-    <row r="19" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AZ18">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="19" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>9</v>
       </c>
@@ -2227,8 +2266,11 @@
       <c r="AY19">
         <v>153</v>
       </c>
-    </row>
-    <row r="20" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AZ19">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="20" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>9</v>
       </c>
@@ -2322,13 +2364,16 @@
       <c r="AY20">
         <v>643</v>
       </c>
-    </row>
-    <row r="22" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AZ20">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="22" spans="1:52" x14ac:dyDescent="0.3">
       <c r="B22" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>10</v>
       </c>
@@ -2431,8 +2476,11 @@
       <c r="AY23">
         <v>90</v>
       </c>
-    </row>
-    <row r="24" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AZ23">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>10</v>
       </c>
@@ -2481,8 +2529,11 @@
       <c r="AY24">
         <v>50</v>
       </c>
-    </row>
-    <row r="25" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AZ24">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>10</v>
       </c>
@@ -2531,8 +2582,11 @@
       <c r="AY25">
         <v>40</v>
       </c>
-    </row>
-    <row r="26" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AZ25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>10</v>
       </c>
@@ -2626,8 +2680,11 @@
       <c r="AY26">
         <v>80</v>
       </c>
-    </row>
-    <row r="27" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AZ26">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>10</v>
       </c>
@@ -2721,8 +2778,11 @@
       <c r="AY27">
         <v>130</v>
       </c>
-    </row>
-    <row r="28" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AZ27">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="28" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>10</v>
       </c>
@@ -2816,13 +2876,16 @@
       <c r="AY28">
         <v>713</v>
       </c>
-    </row>
-    <row r="30" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AZ28">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="30" spans="1:52" x14ac:dyDescent="0.3">
       <c r="B30" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>21</v>
       </c>
@@ -2916,8 +2979,11 @@
       <c r="AY31">
         <v>37</v>
       </c>
-    </row>
-    <row r="32" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AZ31">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>21</v>
       </c>
@@ -2963,8 +3029,11 @@
       <c r="AY32">
         <v>29</v>
       </c>
-    </row>
-    <row r="33" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AZ32">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>21</v>
       </c>
@@ -3010,8 +3079,11 @@
       <c r="AY33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AZ33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>21</v>
       </c>
@@ -3105,8 +3177,11 @@
       <c r="AY34">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AZ34">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>21</v>
       </c>
@@ -3197,8 +3272,11 @@
       <c r="AY35">
         <v>61</v>
       </c>
-    </row>
-    <row r="36" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AZ35">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>21</v>
       </c>
@@ -3292,8 +3370,11 @@
       <c r="AY36">
         <v>119</v>
       </c>
-    </row>
-    <row r="37" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AZ36">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="37" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>21</v>
       </c>
@@ -3321,16 +3402,19 @@
       <c r="AY37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AZ37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
     </row>
-    <row r="39" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:52" x14ac:dyDescent="0.3">
       <c r="B39" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>18</v>
       </c>
@@ -3427,8 +3511,11 @@
       <c r="AY40">
         <v>112</v>
       </c>
-    </row>
-    <row r="41" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AZ40">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="41" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>18</v>
       </c>
@@ -3477,8 +3564,11 @@
       <c r="AY41">
         <v>49</v>
       </c>
-    </row>
-    <row r="42" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AZ41">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>18</v>
       </c>
@@ -3527,8 +3617,11 @@
       <c r="AY42">
         <v>62</v>
       </c>
-    </row>
-    <row r="43" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AZ42">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>18</v>
       </c>
@@ -3622,8 +3715,11 @@
       <c r="AY43">
         <v>808</v>
       </c>
-    </row>
-    <row r="44" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AZ43">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="44" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>18</v>
       </c>
@@ -3672,8 +3768,11 @@
       <c r="AY44">
         <v>857</v>
       </c>
-    </row>
-    <row r="45" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AZ44">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="45" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>18</v>
       </c>
@@ -3719,8 +3818,11 @@
       <c r="AY45">
         <v>223</v>
       </c>
-    </row>
-    <row r="46" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AZ45">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="46" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>18</v>
       </c>
@@ -3760,16 +3862,19 @@
       <c r="AY46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AZ46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
     </row>
-    <row r="48" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:52" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>20</v>
       </c>
@@ -3851,8 +3956,11 @@
       <c r="AY49">
         <v>22</v>
       </c>
-    </row>
-    <row r="50" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AZ49">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>20</v>
       </c>
@@ -3898,8 +4006,11 @@
       <c r="AY50">
         <v>4</v>
       </c>
-    </row>
-    <row r="51" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AZ50">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>20</v>
       </c>
@@ -3945,8 +4056,11 @@
       <c r="AY51">
         <v>4</v>
       </c>
-    </row>
-    <row r="52" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AZ51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>20</v>
       </c>
@@ -4028,8 +4142,11 @@
       <c r="AY52">
         <v>37</v>
       </c>
-    </row>
-    <row r="53" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AZ52">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="53" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>20</v>
       </c>
@@ -4111,8 +4228,11 @@
       <c r="AY53">
         <v>41</v>
       </c>
-    </row>
-    <row r="54" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AZ53">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="54" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>20</v>
       </c>
@@ -4194,8 +4314,11 @@
       <c r="AY54">
         <v>84</v>
       </c>
-    </row>
-    <row r="55" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AZ54">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="55" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>20</v>
       </c>
@@ -4235,8 +4358,11 @@
       <c r="AY55">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AZ55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>22</v>
       </c>
@@ -4318,8 +4444,11 @@
       <c r="AY57">
         <v>9</v>
       </c>
-    </row>
-    <row r="58" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AZ57">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>22</v>
       </c>
@@ -4365,8 +4494,11 @@
       <c r="AY58">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AZ58">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>22</v>
       </c>
@@ -4412,8 +4544,11 @@
       <c r="AY59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AZ59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>22</v>
       </c>
@@ -4495,8 +4630,11 @@
       <c r="AY60">
         <v>41</v>
       </c>
-    </row>
-    <row r="61" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AZ60">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="61" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>22</v>
       </c>
@@ -4578,8 +4716,11 @@
       <c r="AY61">
         <v>49</v>
       </c>
-    </row>
-    <row r="62" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AZ61">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="62" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>22</v>
       </c>
@@ -4661,8 +4802,11 @@
       <c r="AY62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AZ62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>22</v>
       </c>
@@ -4708,13 +4852,16 @@
       <c r="AY63">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AZ63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:52" x14ac:dyDescent="0.3">
       <c r="B65" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="66" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>24</v>
       </c>
@@ -4796,8 +4943,11 @@
       <c r="AY66">
         <v>148</v>
       </c>
-    </row>
-    <row r="67" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AZ66">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="67" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>24</v>
       </c>
@@ -4879,8 +5029,11 @@
       <c r="AY67">
         <v>248</v>
       </c>
-    </row>
-    <row r="68" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AZ67">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="68" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>24</v>
       </c>
@@ -4962,8 +5115,11 @@
       <c r="AY68">
         <v>232</v>
       </c>
-    </row>
-    <row r="69" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AZ68">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="69" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>24</v>
       </c>
@@ -5003,8 +5159,11 @@
       <c r="AY69">
         <v>9</v>
       </c>
-    </row>
-    <row r="71" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AZ69">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>33</v>
       </c>
@@ -5086,8 +5245,11 @@
       <c r="AY71">
         <v>68</v>
       </c>
-    </row>
-    <row r="72" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AZ71">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>33</v>
       </c>
@@ -5169,8 +5331,11 @@
       <c r="AY72">
         <v>21</v>
       </c>
-    </row>
-    <row r="73" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AZ72">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="73" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>33</v>
       </c>
@@ -5252,8 +5417,11 @@
       <c r="AY73">
         <v>89</v>
       </c>
-    </row>
-    <row r="74" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AZ73">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="74" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>33</v>
       </c>
@@ -5335,8 +5503,11 @@
       <c r="AY74">
         <v>93</v>
       </c>
-    </row>
-    <row r="76" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AZ74">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="76" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>34</v>
       </c>
@@ -5418,8 +5589,11 @@
       <c r="AY76">
         <v>46</v>
       </c>
-    </row>
-    <row r="77" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AZ76">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="77" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>34</v>
       </c>
@@ -5501,8 +5675,11 @@
       <c r="AY77">
         <v>29</v>
       </c>
-    </row>
-    <row r="78" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AZ77">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="78" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>34</v>
       </c>
@@ -5572,8 +5749,11 @@
       <c r="AY78">
         <v>29</v>
       </c>
-    </row>
-    <row r="79" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AZ78">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="79" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>34</v>
       </c>
@@ -5655,8 +5835,11 @@
       <c r="AY79">
         <v>2</v>
       </c>
-    </row>
-    <row r="80" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AZ79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>34</v>
       </c>
@@ -5695,6 +5878,14 @@
       </c>
       <c r="AY80">
         <v>6</v>
+      </c>
+      <c r="AZ80">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="52:52" x14ac:dyDescent="0.3">
+      <c r="AZ99">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -5705,10 +5896,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:Z11"/>
+  <dimension ref="A2:AA11"/>
   <sheetViews>
     <sheetView topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z11" sqref="Z11"/>
+      <selection activeCell="R29" sqref="R29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5718,7 +5909,7 @@
     <col min="15" max="18" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>32</v>
       </c>
@@ -5797,8 +5988,11 @@
       <c r="Z2" s="9">
         <v>43945</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA2" s="9">
+        <v>43946</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -5877,8 +6071,11 @@
       <c r="Z3">
         <v>427</v>
       </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA3">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -5957,8 +6154,11 @@
       <c r="Z4">
         <v>256</v>
       </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA4">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -6037,8 +6237,11 @@
       <c r="Z5">
         <v>258</v>
       </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA5">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>4</v>
       </c>
@@ -6117,8 +6320,11 @@
       <c r="Z6">
         <v>636</v>
       </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA6">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -6197,8 +6403,11 @@
       <c r="Z7">
         <v>513</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA7">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>6</v>
       </c>
@@ -6277,8 +6486,11 @@
       <c r="Z8">
         <v>414</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA8">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -6357,8 +6569,11 @@
       <c r="Z9">
         <v>543</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA9">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>8</v>
       </c>
@@ -6437,8 +6652,11 @@
       <c r="Z10">
         <v>518</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA10">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>39</v>
       </c>
@@ -6515,6 +6733,9 @@
         <v>110</v>
       </c>
       <c r="Z11">
+        <v>134</v>
+      </c>
+      <c r="AA11">
         <v>134</v>
       </c>
     </row>
@@ -6526,10 +6747,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A2:U17"/>
+  <dimension ref="A2:V17"/>
   <sheetViews>
     <sheetView topLeftCell="L1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="U17" sqref="U17"/>
+      <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6539,7 +6760,7 @@
     <col min="10" max="12" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15"/>
       <c r="B2" s="12">
         <v>43926</v>
@@ -6601,8 +6822,11 @@
       <c r="U2" s="9">
         <v>43945</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="V2" s="9">
+        <v>43946</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>41</v>
       </c>
@@ -6610,7 +6834,7 @@
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>54</v>
       </c>
@@ -6674,8 +6898,11 @@
       <c r="U4">
         <v>3699</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V4">
+        <v>3841</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>39</v>
       </c>
@@ -6739,8 +6966,11 @@
       <c r="U5">
         <v>494</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V5">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>42</v>
       </c>
@@ -6804,8 +7034,11 @@
       <c r="U6">
         <v>653</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V6">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>43</v>
       </c>
@@ -6869,8 +7102,11 @@
       <c r="U7">
         <v>1846</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V7">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>44</v>
       </c>
@@ -6934,8 +7170,11 @@
       <c r="U8">
         <v>63</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="V8">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>45</v>
       </c>
@@ -6999,8 +7238,11 @@
       <c r="U9">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="V9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>55</v>
       </c>
@@ -7060,8 +7302,11 @@
       <c r="U10">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
         <v>46</v>
       </c>
@@ -7125,8 +7370,11 @@
       <c r="U11">
         <v>599</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V11">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
         <v>47</v>
       </c>
@@ -7190,8 +7438,11 @@
       <c r="U12">
         <v>25</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>48</v>
       </c>
@@ -7202,7 +7453,7 @@
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
         <v>39</v>
       </c>
@@ -7266,8 +7517,11 @@
       <c r="U14">
         <v>744</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V14">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
         <v>49</v>
       </c>
@@ -7331,8 +7585,11 @@
       <c r="U15">
         <v>678</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V15">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
         <v>50</v>
       </c>
@@ -7396,8 +7653,11 @@
       <c r="U16">
         <v>2263</v>
       </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V16">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
         <v>47</v>
       </c>
@@ -7459,6 +7719,9 @@
         <v>14</v>
       </c>
       <c r="U17">
+        <v>14</v>
+      </c>
+      <c r="V17">
         <v>14</v>
       </c>
     </row>
@@ -7470,10 +7733,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:U8"/>
+  <dimension ref="A1:V8"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="U9" sqref="U9"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7482,7 +7745,7 @@
     <col min="10" max="10" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B1" s="9">
         <v>43926</v>
       </c>
@@ -7543,14 +7806,17 @@
       <c r="U1" s="9">
         <v>43945</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V1" s="9">
+        <v>43946</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>41</v>
       </c>
       <c r="B2" s="7"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>54</v>
       </c>
@@ -7615,8 +7881,11 @@
       <c r="U3">
         <v>165</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V3">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>44</v>
       </c>
@@ -7680,8 +7949,11 @@
       <c r="U4">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="V4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>43</v>
       </c>
@@ -7745,8 +8017,11 @@
       <c r="U5">
         <v>131</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V5">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>51</v>
       </c>
@@ -7810,8 +8085,11 @@
       <c r="U6">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>52</v>
       </c>
@@ -7875,8 +8153,11 @@
       <c r="U7">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>53</v>
       </c>
@@ -7938,6 +8219,9 @@
         <v>1</v>
       </c>
       <c r="U8">
+        <v>1</v>
+      </c>
+      <c r="V8">
         <v>1</v>
       </c>
     </row>
@@ -7948,10 +8232,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48DE713F-971D-4CE1-B1A8-BE60A2507C58}">
-  <dimension ref="A2:G13"/>
+  <dimension ref="A2:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7959,7 +8243,7 @@
     <col min="1" max="1" width="22.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>32</v>
       </c>
@@ -7981,8 +8265,11 @@
       <c r="G2" s="9">
         <v>43945</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2" s="9">
+        <v>43946</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>54</v>
       </c>
@@ -8004,8 +8291,11 @@
       <c r="G3">
         <v>165</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>1</v>
       </c>
@@ -8027,8 +8317,11 @@
       <c r="G4">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>2</v>
       </c>
@@ -8050,8 +8343,11 @@
       <c r="G5">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>3</v>
       </c>
@@ -8073,8 +8369,11 @@
       <c r="G6">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>4</v>
       </c>
@@ -8096,8 +8395,11 @@
       <c r="G7">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>5</v>
       </c>
@@ -8119,8 +8421,11 @@
       <c r="G8">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>6</v>
       </c>
@@ -8142,8 +8447,11 @@
       <c r="G9">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H9">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>7</v>
       </c>
@@ -8165,8 +8473,11 @@
       <c r="G10">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>8</v>
       </c>
@@ -8188,8 +8499,11 @@
       <c r="G11">
         <v>36</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H11">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>76</v>
       </c>
@@ -8211,8 +8525,11 @@
       <c r="G12">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>39</v>
       </c>
@@ -8232,6 +8549,9 @@
         <v>0</v>
       </c>
       <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
         <v>0</v>
       </c>
     </row>
@@ -8241,6 +8561,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C154F8D92A1190498EC67EE37256270A" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a145d1f7d2fc6bfdea86e9d796031e6c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8e61eea9-d51d-4f9c-960b-1b037651d93e" xmlns:ns4="248ed0f8-11d3-4141-bb91-6b69a0801941" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="87b2ee5a90a671ef9b646f531a040769" ns3:_="" ns4:_="">
     <xsd:import namespace="8e61eea9-d51d-4f9c-960b-1b037651d93e"/>
@@ -8443,12 +8769,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -8459,6 +8779,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8DEDEF4E-2681-4E64-A6E5-9E41742A3664}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="8e61eea9-d51d-4f9c-960b-1b037651d93e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="248ed0f8-11d3-4141-bb91-6b69a0801941"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE449021-9205-42BF-A2AE-CC419CEBA6BF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8477,23 +8814,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8DEDEF4E-2681-4E64-A6E5-9E41742A3664}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8e61eea9-d51d-4f9c-960b-1b037651d93e"/>
-    <ds:schemaRef ds:uri="248ed0f8-11d3-4141-bb91-6b69a0801941"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD396E8E-4714-4CC9-8EAA-3025B907ED6D}">
   <ds:schemaRefs>

--- a/dcCovid-19DataSummaryToday.xlsx
+++ b/dcCovid-19DataSummaryToday.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dcgovict-my.sharepoint.com/personal/ramona_yun1_dc_gov/Documents/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1336" documentId="8_{C884A327-19F6-4EC6-805C-F52B66916DDD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{B6DED8CA-336B-4ED1-9295-EA0C524CBD51}"/>
+  <xr:revisionPtr revIDLastSave="1443" documentId="8_{C884A327-19F6-4EC6-805C-F52B66916DDD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{1925999B-B80E-4166-ADC5-619263EEF493}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="78">
   <si>
     <t>Testing</t>
   </si>
@@ -266,6 +266,9 @@
   </si>
   <si>
     <t>Experienced Homelessness</t>
+  </si>
+  <si>
+    <t>universal quarantine precautions on all units</t>
   </si>
 </sst>
 </file>
@@ -694,10 +697,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AZ99"/>
+  <dimension ref="A1:BA99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="AX1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="AY1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="AY80" sqref="AY80"/>
     </sheetView>
   </sheetViews>
@@ -705,10 +708,10 @@
   <cols>
     <col min="1" max="1" width="29.44140625" customWidth="1"/>
     <col min="2" max="2" width="56.6640625" customWidth="1"/>
-    <col min="40" max="52" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="40" max="53" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:53" x14ac:dyDescent="0.3">
       <c r="C1" s="1">
         <v>43897</v>
       </c>
@@ -859,8 +862,11 @@
       <c r="AZ1" s="1">
         <v>43946</v>
       </c>
-    </row>
-    <row r="2" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="BA1" s="1">
+        <v>43947</v>
+      </c>
+    </row>
+    <row r="2" spans="1:53" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -884,7 +890,7 @@
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
     </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1020,8 +1026,11 @@
       <c r="AZ3">
         <v>18068</v>
       </c>
-    </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="BA3">
+        <v>18416</v>
+      </c>
+    </row>
+    <row r="4" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1178,8 +1187,11 @@
       <c r="AZ4">
         <v>3841</v>
       </c>
-    </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="BA4">
+        <v>3892</v>
+      </c>
+    </row>
+    <row r="5" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -1318,8 +1330,11 @@
       <c r="AZ5">
         <v>178</v>
       </c>
-    </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="BA5">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="6" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -1428,11 +1443,14 @@
       <c r="AZ6">
         <v>657</v>
       </c>
-    </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="BA6">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="7" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
     </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
@@ -1535,8 +1553,11 @@
       <c r="AZ8">
         <v>113</v>
       </c>
-    </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="BA8">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
@@ -1639,8 +1660,11 @@
       <c r="AZ9">
         <v>440</v>
       </c>
-    </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="BA9">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="10" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
@@ -1743,8 +1767,11 @@
       <c r="AZ10">
         <v>201</v>
       </c>
-    </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="BA10">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
@@ -1847,13 +1874,16 @@
       <c r="AZ11">
         <v>239</v>
       </c>
-    </row>
-    <row r="13" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="BA11">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="13" spans="1:53" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
@@ -1861,7 +1891,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>9</v>
       </c>
@@ -1967,8 +1997,11 @@
       <c r="AZ15">
         <v>87</v>
       </c>
-    </row>
-    <row r="16" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="BA15">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>9</v>
       </c>
@@ -2020,8 +2053,11 @@
       <c r="AZ16">
         <v>36</v>
       </c>
-    </row>
-    <row r="17" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="BA16">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>9</v>
       </c>
@@ -2073,8 +2109,11 @@
       <c r="AZ17">
         <v>51</v>
       </c>
-    </row>
-    <row r="18" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="BA17">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>9</v>
       </c>
@@ -2171,8 +2210,11 @@
       <c r="AZ18">
         <v>172</v>
       </c>
-    </row>
-    <row r="19" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="BA18">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="19" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>9</v>
       </c>
@@ -2269,8 +2311,11 @@
       <c r="AZ19">
         <v>208</v>
       </c>
-    </row>
-    <row r="20" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="BA19">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="20" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>9</v>
       </c>
@@ -2367,13 +2412,16 @@
       <c r="AZ20">
         <v>659</v>
       </c>
-    </row>
-    <row r="22" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="BA20">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="22" spans="1:53" x14ac:dyDescent="0.3">
       <c r="B22" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>10</v>
       </c>
@@ -2479,8 +2527,11 @@
       <c r="AZ23">
         <v>90</v>
       </c>
-    </row>
-    <row r="24" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="BA23">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>10</v>
       </c>
@@ -2532,8 +2583,11 @@
       <c r="AZ24">
         <v>50</v>
       </c>
-    </row>
-    <row r="25" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="BA24">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>10</v>
       </c>
@@ -2585,8 +2639,11 @@
       <c r="AZ25">
         <v>40</v>
       </c>
-    </row>
-    <row r="26" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="BA25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>10</v>
       </c>
@@ -2683,8 +2740,11 @@
       <c r="AZ26">
         <v>80</v>
       </c>
-    </row>
-    <row r="27" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="BA26">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>10</v>
       </c>
@@ -2781,8 +2841,11 @@
       <c r="AZ27">
         <v>130</v>
       </c>
-    </row>
-    <row r="28" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="BA27">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>10</v>
       </c>
@@ -2879,13 +2942,16 @@
       <c r="AZ28">
         <v>713</v>
       </c>
-    </row>
-    <row r="30" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="BA28">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="30" spans="1:53" x14ac:dyDescent="0.3">
       <c r="B30" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>21</v>
       </c>
@@ -2982,8 +3048,11 @@
       <c r="AZ31">
         <v>37</v>
       </c>
-    </row>
-    <row r="32" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="BA31">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>21</v>
       </c>
@@ -3032,8 +3101,11 @@
       <c r="AZ32">
         <v>29</v>
       </c>
-    </row>
-    <row r="33" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="BA32">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>21</v>
       </c>
@@ -3082,8 +3154,11 @@
       <c r="AZ33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="BA33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>21</v>
       </c>
@@ -3180,8 +3255,11 @@
       <c r="AZ34">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="BA34">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>21</v>
       </c>
@@ -3275,8 +3353,11 @@
       <c r="AZ35">
         <v>61</v>
       </c>
-    </row>
-    <row r="36" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="BA35">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>21</v>
       </c>
@@ -3373,8 +3454,11 @@
       <c r="AZ36">
         <v>119</v>
       </c>
-    </row>
-    <row r="37" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="BA36">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="37" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>21</v>
       </c>
@@ -3405,16 +3489,19 @@
       <c r="AZ37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="BA37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
     </row>
-    <row r="39" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:53" x14ac:dyDescent="0.3">
       <c r="B39" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>18</v>
       </c>
@@ -3514,8 +3601,11 @@
       <c r="AZ40">
         <v>121</v>
       </c>
-    </row>
-    <row r="41" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="BA40">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="41" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>18</v>
       </c>
@@ -3567,8 +3657,11 @@
       <c r="AZ41">
         <v>54</v>
       </c>
-    </row>
-    <row r="42" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="BA41">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>18</v>
       </c>
@@ -3620,8 +3713,11 @@
       <c r="AZ42">
         <v>68</v>
       </c>
-    </row>
-    <row r="43" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="BA42">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>18</v>
       </c>
@@ -3718,8 +3814,11 @@
       <c r="AZ43">
         <v>792</v>
       </c>
-    </row>
-    <row r="44" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="BA43">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="44" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>18</v>
       </c>
@@ -3771,8 +3870,11 @@
       <c r="AZ44">
         <v>846</v>
       </c>
-    </row>
-    <row r="45" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="BA44">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="45" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>18</v>
       </c>
@@ -3821,8 +3923,11 @@
       <c r="AZ45">
         <v>244</v>
       </c>
-    </row>
-    <row r="46" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="BA45">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="46" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>18</v>
       </c>
@@ -3865,16 +3970,19 @@
       <c r="AZ46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="BA46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
     </row>
-    <row r="48" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:53" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>20</v>
       </c>
@@ -3959,8 +4067,11 @@
       <c r="AZ49">
         <v>22</v>
       </c>
-    </row>
-    <row r="50" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="BA49">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>20</v>
       </c>
@@ -4009,8 +4120,11 @@
       <c r="AZ50">
         <v>17</v>
       </c>
-    </row>
-    <row r="51" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="BA50">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>20</v>
       </c>
@@ -4059,8 +4173,11 @@
       <c r="AZ51">
         <v>4</v>
       </c>
-    </row>
-    <row r="52" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="BA51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>20</v>
       </c>
@@ -4145,8 +4262,11 @@
       <c r="AZ52">
         <v>37</v>
       </c>
-    </row>
-    <row r="53" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="BA52">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="53" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>20</v>
       </c>
@@ -4231,8 +4351,11 @@
       <c r="AZ53">
         <v>55</v>
       </c>
-    </row>
-    <row r="54" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="BA53">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>20</v>
       </c>
@@ -4317,8 +4440,11 @@
       <c r="AZ54">
         <v>84</v>
       </c>
-    </row>
-    <row r="55" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="BA54">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="55" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>20</v>
       </c>
@@ -4361,8 +4487,11 @@
       <c r="AZ55">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="BA55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>22</v>
       </c>
@@ -4447,8 +4576,11 @@
       <c r="AZ57">
         <v>9</v>
       </c>
-    </row>
-    <row r="58" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="BA57">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>22</v>
       </c>
@@ -4497,8 +4629,11 @@
       <c r="AZ58">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="BA58">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>22</v>
       </c>
@@ -4547,8 +4682,11 @@
       <c r="AZ59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="BA59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>22</v>
       </c>
@@ -4633,8 +4771,11 @@
       <c r="AZ60">
         <v>40</v>
       </c>
-    </row>
-    <row r="61" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="BA60">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="61" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>22</v>
       </c>
@@ -4719,8 +4860,11 @@
       <c r="AZ61">
         <v>48</v>
       </c>
-    </row>
-    <row r="62" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="BA61">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="62" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>22</v>
       </c>
@@ -4805,8 +4949,11 @@
       <c r="AZ62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="BA62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>22</v>
       </c>
@@ -4855,13 +5002,16 @@
       <c r="AZ63">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="BA63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:53" x14ac:dyDescent="0.3">
       <c r="B65" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="66" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>24</v>
       </c>
@@ -4946,8 +5096,11 @@
       <c r="AZ66">
         <v>152</v>
       </c>
-    </row>
-    <row r="67" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="BA66">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="67" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>24</v>
       </c>
@@ -5032,8 +5185,11 @@
       <c r="AZ67">
         <v>248</v>
       </c>
-    </row>
-    <row r="68" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="BA67">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="68" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>24</v>
       </c>
@@ -5118,8 +5274,11 @@
       <c r="AZ68">
         <v>244</v>
       </c>
-    </row>
-    <row r="69" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="BA68">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="69" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>24</v>
       </c>
@@ -5162,8 +5321,11 @@
       <c r="AZ69">
         <v>9</v>
       </c>
-    </row>
-    <row r="71" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="BA69">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>33</v>
       </c>
@@ -5248,8 +5410,11 @@
       <c r="AZ71">
         <v>69</v>
       </c>
-    </row>
-    <row r="72" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="BA71">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>33</v>
       </c>
@@ -5334,8 +5499,11 @@
       <c r="AZ72">
         <v>21</v>
       </c>
-    </row>
-    <row r="73" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="BA72">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="73" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>33</v>
       </c>
@@ -5420,8 +5588,11 @@
       <c r="AZ73">
         <v>89</v>
       </c>
-    </row>
-    <row r="74" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="BA73">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="74" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>33</v>
       </c>
@@ -5506,8 +5677,11 @@
       <c r="AZ74">
         <v>93</v>
       </c>
-    </row>
-    <row r="76" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="BA74">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="76" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>34</v>
       </c>
@@ -5592,8 +5766,11 @@
       <c r="AZ76">
         <v>46</v>
       </c>
-    </row>
-    <row r="77" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="BA76">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="77" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>34</v>
       </c>
@@ -5678,8 +5855,11 @@
       <c r="AZ77">
         <v>29</v>
       </c>
-    </row>
-    <row r="78" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="BA77">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="78" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>34</v>
       </c>
@@ -5752,8 +5932,11 @@
       <c r="AZ78">
         <v>34</v>
       </c>
-    </row>
-    <row r="79" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="BA78" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>34</v>
       </c>
@@ -5838,8 +6021,11 @@
       <c r="AZ79">
         <v>2</v>
       </c>
-    </row>
-    <row r="80" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="BA79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>34</v>
       </c>
@@ -5881,6 +6067,9 @@
       </c>
       <c r="AZ80">
         <v>8</v>
+      </c>
+      <c r="BA80">
+        <v>9</v>
       </c>
     </row>
     <row r="99" spans="52:52" x14ac:dyDescent="0.3">
@@ -5896,10 +6085,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:AA11"/>
+  <dimension ref="A2:AB11"/>
   <sheetViews>
     <sheetView topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R29" sqref="R29"/>
+      <selection activeCell="AB11" sqref="AB11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5909,7 +6098,7 @@
     <col min="15" max="18" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>32</v>
       </c>
@@ -5991,8 +6180,11 @@
       <c r="AA2" s="9">
         <v>43946</v>
       </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB2" s="9">
+        <v>43947</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -6074,8 +6266,11 @@
       <c r="AA3">
         <v>444</v>
       </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB3">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -6157,8 +6352,11 @@
       <c r="AA4">
         <v>261</v>
       </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB4">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -6240,8 +6438,11 @@
       <c r="AA5">
         <v>268</v>
       </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB5">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>4</v>
       </c>
@@ -6323,8 +6524,11 @@
       <c r="AA6">
         <v>663</v>
       </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB6">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -6406,8 +6610,11 @@
       <c r="AA7">
         <v>552</v>
       </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB7">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>6</v>
       </c>
@@ -6489,8 +6696,11 @@
       <c r="AA8">
         <v>419</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB8">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -6572,8 +6782,11 @@
       <c r="AA9">
         <v>570</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB9">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>8</v>
       </c>
@@ -6655,8 +6868,11 @@
       <c r="AA10">
         <v>530</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB10">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>39</v>
       </c>
@@ -6737,6 +6953,9 @@
       </c>
       <c r="AA11">
         <v>134</v>
+      </c>
+      <c r="AB11">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -6747,10 +6966,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A2:V17"/>
+  <dimension ref="A2:W17"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2"/>
+    <sheetView topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="W17" sqref="W17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6760,7 +6979,7 @@
     <col min="10" max="12" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15"/>
       <c r="B2" s="12">
         <v>43926</v>
@@ -6825,8 +7044,11 @@
       <c r="V2" s="9">
         <v>43946</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="W2" s="9">
+        <v>43947</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>41</v>
       </c>
@@ -6834,7 +7056,7 @@
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>54</v>
       </c>
@@ -6901,8 +7123,11 @@
       <c r="V4">
         <v>3841</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W4">
+        <v>3892</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>39</v>
       </c>
@@ -6969,8 +7194,11 @@
       <c r="V5">
         <v>527</v>
       </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W5">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>42</v>
       </c>
@@ -7037,8 +7265,11 @@
       <c r="V6">
         <v>665</v>
       </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W6">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>43</v>
       </c>
@@ -7105,8 +7336,11 @@
       <c r="V7">
         <v>1891</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W7">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>44</v>
       </c>
@@ -7173,8 +7407,11 @@
       <c r="V8">
         <v>63</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="W8">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>45</v>
       </c>
@@ -7241,8 +7478,11 @@
       <c r="V9">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="W9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>55</v>
       </c>
@@ -7305,8 +7545,11 @@
       <c r="V10">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
         <v>46</v>
       </c>
@@ -7373,8 +7616,11 @@
       <c r="V11">
         <v>652</v>
       </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W11">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
         <v>47</v>
       </c>
@@ -7441,8 +7687,11 @@
       <c r="V12">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>48</v>
       </c>
@@ -7453,7 +7702,7 @@
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
         <v>39</v>
       </c>
@@ -7520,8 +7769,11 @@
       <c r="V14">
         <v>799</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W14">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
         <v>49</v>
       </c>
@@ -7588,8 +7840,11 @@
       <c r="V15">
         <v>708</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W15">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
         <v>50</v>
       </c>
@@ -7656,8 +7911,11 @@
       <c r="V16">
         <v>2320</v>
       </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W16">
+        <v>2345</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
         <v>47</v>
       </c>
@@ -7723,6 +7981,9 @@
       </c>
       <c r="V17">
         <v>14</v>
+      </c>
+      <c r="W17">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -7733,10 +7994,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:V8"/>
+  <dimension ref="A1:W8"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="V7" sqref="V7"/>
+      <selection activeCell="W9" sqref="W9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7745,7 +8006,7 @@
     <col min="10" max="10" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B1" s="9">
         <v>43926</v>
       </c>
@@ -7809,14 +8070,17 @@
       <c r="V1" s="9">
         <v>43946</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W1" s="9">
+        <v>43947</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>41</v>
       </c>
       <c r="B2" s="7"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>54</v>
       </c>
@@ -7884,8 +8148,11 @@
       <c r="V3">
         <v>178</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>44</v>
       </c>
@@ -7952,8 +8219,11 @@
       <c r="V4">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="W4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>43</v>
       </c>
@@ -8020,8 +8290,11 @@
       <c r="V5">
         <v>142</v>
       </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W5">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>51</v>
       </c>
@@ -8088,8 +8361,11 @@
       <c r="V6">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>52</v>
       </c>
@@ -8156,8 +8432,11 @@
       <c r="V7">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W7">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>53</v>
       </c>
@@ -8223,6 +8502,9 @@
       </c>
       <c r="V8">
         <v>1</v>
+      </c>
+      <c r="W8">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -8232,10 +8514,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48DE713F-971D-4CE1-B1A8-BE60A2507C58}">
-  <dimension ref="A2:H13"/>
+  <dimension ref="A2:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8243,7 +8525,7 @@
     <col min="1" max="1" width="22.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>32</v>
       </c>
@@ -8268,8 +8550,11 @@
       <c r="H2" s="9">
         <v>43946</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2" s="9">
+        <v>43947</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>54</v>
       </c>
@@ -8294,8 +8579,11 @@
       <c r="H3">
         <v>178</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>1</v>
       </c>
@@ -8320,8 +8608,11 @@
       <c r="H4">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>2</v>
       </c>
@@ -8346,8 +8637,11 @@
       <c r="H5">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>3</v>
       </c>
@@ -8372,8 +8666,11 @@
       <c r="H6">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>4</v>
       </c>
@@ -8398,8 +8695,11 @@
       <c r="H7">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>5</v>
       </c>
@@ -8424,8 +8724,11 @@
       <c r="H8">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I8">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>6</v>
       </c>
@@ -8450,8 +8753,11 @@
       <c r="H9">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I9">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>7</v>
       </c>
@@ -8476,8 +8782,11 @@
       <c r="H10">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>8</v>
       </c>
@@ -8502,8 +8811,11 @@
       <c r="H11">
         <v>41</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="I11">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>76</v>
       </c>
@@ -8528,8 +8840,11 @@
       <c r="H12">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>39</v>
       </c>
@@ -8552,6 +8867,9 @@
         <v>0</v>
       </c>
       <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
         <v>0</v>
       </c>
     </row>
@@ -8561,12 +8879,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C154F8D92A1190498EC67EE37256270A" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a145d1f7d2fc6bfdea86e9d796031e6c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8e61eea9-d51d-4f9c-960b-1b037651d93e" xmlns:ns4="248ed0f8-11d3-4141-bb91-6b69a0801941" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="87b2ee5a90a671ef9b646f531a040769" ns3:_="" ns4:_="">
     <xsd:import namespace="8e61eea9-d51d-4f9c-960b-1b037651d93e"/>
@@ -8769,6 +9081,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -8779,23 +9097,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8DEDEF4E-2681-4E64-A6E5-9E41742A3664}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="8e61eea9-d51d-4f9c-960b-1b037651d93e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="248ed0f8-11d3-4141-bb91-6b69a0801941"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE449021-9205-42BF-A2AE-CC419CEBA6BF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8814,6 +9115,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8DEDEF4E-2681-4E64-A6E5-9E41742A3664}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="8e61eea9-d51d-4f9c-960b-1b037651d93e"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="248ed0f8-11d3-4141-bb91-6b69a0801941"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD396E8E-4714-4CC9-8EAA-3025B907ED6D}">
   <ds:schemaRefs>

--- a/dcCovid-19DataSummaryToday.xlsx
+++ b/dcCovid-19DataSummaryToday.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dcgovict-my.sharepoint.com/personal/ramona_yun1_dc_gov/Documents/Documents/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1443" documentId="8_{C884A327-19F6-4EC6-805C-F52B66916DDD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{1925999B-B80E-4166-ADC5-619263EEF493}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Overal Stats" sheetId="1" r:id="rId1"/>
@@ -19,7 +13,7 @@
     <sheet name="Lives Lost by Race" sheetId="4" r:id="rId4"/>
     <sheet name="Lives Lost by Ward" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="82">
   <si>
     <t>Testing</t>
   </si>
@@ -47,12 +41,6 @@
   </si>
   <si>
     <t>ICU Beds Available</t>
-  </si>
-  <si>
-    <t>Ventilators in Use</t>
-  </si>
-  <si>
-    <t>Ventilators Available</t>
   </si>
   <si>
     <t>FEMS</t>
@@ -122,9 +110,6 @@
   </si>
   <si>
     <t>People Recovered</t>
-  </si>
-  <si>
-    <t>Total Ventilators</t>
   </si>
   <si>
     <t>Of People in Remote Quarantine, Total Number from Shelters</t>
@@ -268,13 +253,34 @@
     <t>Experienced Homelessness</t>
   </si>
   <si>
-    <t>universal quarantine precautions on all units</t>
+    <t>Total Reported Ventilators in Hospitals</t>
+  </si>
+  <si>
+    <t>In-Use Ventilators in Hospitals</t>
+  </si>
+  <si>
+    <t>Available Ventilators in Hospitals</t>
+  </si>
+  <si>
+    <t>All Patients</t>
+  </si>
+  <si>
+    <t>Number of DDA-Connected People Who Have Tested Positive</t>
+  </si>
+  <si>
+    <t>Number of DDA-Connected People Who Have Recovered</t>
+  </si>
+  <si>
+    <t>Number of Lives Lost Among DDA-Connected People</t>
+  </si>
+  <si>
+    <t>Human Services - DDS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -689,29 +695,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BA99"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BB99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="AY1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AY80" sqref="AY80"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="AZ1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BB1" sqref="BB1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" customWidth="1"/>
-    <col min="2" max="2" width="56.6640625" customWidth="1"/>
-    <col min="40" max="53" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" customWidth="1"/>
+    <col min="2" max="2" width="56.7109375" customWidth="1"/>
+    <col min="40" max="54" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:54" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C1" s="1">
         <v>43897</v>
       </c>
@@ -865,8 +871,11 @@
       <c r="BA1" s="1">
         <v>43947</v>
       </c>
-    </row>
-    <row r="2" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="BB1" s="1">
+        <v>43948</v>
+      </c>
+    </row>
+    <row r="2" spans="1:54" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -890,12 +899,12 @@
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
     </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:54" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I3">
         <v>69</v>
@@ -1029,13 +1038,16 @@
       <c r="BA3">
         <v>18416</v>
       </c>
-    </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="BB3">
+        <v>18885</v>
+      </c>
+    </row>
+    <row r="4" spans="1:54" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -1190,13 +1202,16 @@
       <c r="BA4">
         <v>3892</v>
       </c>
-    </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="BB4">
+        <v>3994</v>
+      </c>
+    </row>
+    <row r="5" spans="1:54" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1333,13 +1348,16 @@
       <c r="BA5">
         <v>185</v>
       </c>
-    </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="BB5">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="6" spans="1:54" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="S6">
         <v>17</v>
@@ -1446,11 +1464,14 @@
       <c r="BA6">
         <v>659</v>
       </c>
-    </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="BB6">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="7" spans="1:54" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:54" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
@@ -1556,13 +1577,16 @@
       <c r="BA8">
         <v>113</v>
       </c>
-    </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="BB8">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:54" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="U9">
         <v>405</v>
@@ -1663,13 +1687,16 @@
       <c r="BA9">
         <v>440</v>
       </c>
-    </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="BB9">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="10" spans="1:54" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>75</v>
       </c>
       <c r="U10">
         <v>147</v>
@@ -1770,13 +1797,16 @@
       <c r="BA10">
         <v>201</v>
       </c>
-    </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="BB10">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="11" spans="1:54" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="U11">
         <v>258</v>
@@ -1877,26 +1907,29 @@
       <c r="BA11">
         <v>239</v>
       </c>
-    </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="BB11">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="13" spans="1:54" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:54" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:54" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="S15">
         <v>8</v>
@@ -2000,13 +2033,16 @@
       <c r="BA15">
         <v>87</v>
       </c>
-    </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="BB15">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:54" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="AK16">
         <v>44</v>
@@ -2056,13 +2092,16 @@
       <c r="BA16">
         <v>36</v>
       </c>
-    </row>
-    <row r="17" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="BB16">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:54" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AK17">
         <v>12</v>
@@ -2112,13 +2151,16 @@
       <c r="BA17">
         <v>52</v>
       </c>
-    </row>
-    <row r="18" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="BB17">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:54" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="V18">
         <v>91</v>
@@ -2213,13 +2255,16 @@
       <c r="BA18">
         <v>180</v>
       </c>
-    </row>
-    <row r="19" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="BB18">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="19" spans="1:54" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="V19">
         <v>103</v>
@@ -2314,13 +2359,16 @@
       <c r="BA19">
         <v>216</v>
       </c>
-    </row>
-    <row r="20" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="BB19">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="20" spans="1:54" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="V20">
         <v>132</v>
@@ -2415,18 +2463,21 @@
       <c r="BA20">
         <v>666</v>
       </c>
-    </row>
-    <row r="22" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="BB20">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="22" spans="1:54" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B22" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:53" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="S23">
         <v>2</v>
@@ -2530,13 +2581,16 @@
       <c r="BA23">
         <v>90</v>
       </c>
-    </row>
-    <row r="24" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="BB23">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AK24">
         <v>47</v>
@@ -2586,13 +2640,16 @@
       <c r="BA24">
         <v>50</v>
       </c>
-    </row>
-    <row r="25" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="BB24">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="AK25">
         <v>4</v>
@@ -2642,13 +2699,16 @@
       <c r="BA25">
         <v>40</v>
       </c>
-    </row>
-    <row r="26" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="BB25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" t="s">
         <v>10</v>
-      </c>
-      <c r="B26" t="s">
-        <v>12</v>
       </c>
       <c r="V26">
         <v>136</v>
@@ -2743,13 +2803,16 @@
       <c r="BA26">
         <v>80</v>
       </c>
-    </row>
-    <row r="27" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="BB26">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="V27">
         <v>139</v>
@@ -2844,13 +2907,16 @@
       <c r="BA27">
         <v>110</v>
       </c>
-    </row>
-    <row r="28" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="BB27">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="V28">
         <v>103</v>
@@ -2945,18 +3011,21 @@
       <c r="BA28">
         <v>713</v>
       </c>
-    </row>
-    <row r="30" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="BB28">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="30" spans="1:54" x14ac:dyDescent="0.25">
       <c r="B30" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:53" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B31" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="V31">
         <v>1</v>
@@ -3051,13 +3120,16 @@
       <c r="BA31">
         <v>37</v>
       </c>
-    </row>
-    <row r="32" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="BB31">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B32" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AL32">
         <v>15</v>
@@ -3104,13 +3176,16 @@
       <c r="BA32">
         <v>29</v>
       </c>
-    </row>
-    <row r="33" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="BB32">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B33" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AL33">
         <v>0</v>
@@ -3157,13 +3232,16 @@
       <c r="BA33">
         <v>7</v>
       </c>
-    </row>
-    <row r="34" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="BB33">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B34" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="V34">
         <v>16</v>
@@ -3258,13 +3336,16 @@
       <c r="BA34">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="BB34">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B35" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="V35">
         <v>17</v>
@@ -3356,13 +3437,16 @@
       <c r="BA35">
         <v>61</v>
       </c>
-    </row>
-    <row r="36" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="BB35">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B36" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="V36">
         <v>0</v>
@@ -3457,13 +3541,16 @@
       <c r="BA36">
         <v>119</v>
       </c>
-    </row>
-    <row r="37" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="BB36">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="37" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B37" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AS37">
         <v>1</v>
@@ -3492,21 +3579,24 @@
       <c r="BA37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="BB37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
     </row>
-    <row r="39" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:54" x14ac:dyDescent="0.25">
       <c r="B39" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:53" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B40" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="U40">
         <v>0</v>
@@ -3604,13 +3694,16 @@
       <c r="BA40">
         <v>125</v>
       </c>
-    </row>
-    <row r="41" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="BB40">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="41" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B41" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="AK41">
         <v>38</v>
@@ -3660,13 +3753,16 @@
       <c r="BA41">
         <v>52</v>
       </c>
-    </row>
-    <row r="42" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="BB41">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B42" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AK42">
         <v>9</v>
@@ -3716,13 +3812,16 @@
       <c r="BA42">
         <v>72</v>
       </c>
-    </row>
-    <row r="43" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="BB42">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B43" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="V43">
         <v>36</v>
@@ -3817,13 +3916,16 @@
       <c r="BA43">
         <v>794</v>
       </c>
-    </row>
-    <row r="44" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="BB43">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="44" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B44" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="AK44">
         <v>262</v>
@@ -3873,13 +3975,16 @@
       <c r="BA44">
         <v>846</v>
       </c>
-    </row>
-    <row r="45" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="BB44">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="45" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B45" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="AL45">
         <v>9</v>
@@ -3926,68 +4031,74 @@
       <c r="BA45">
         <v>248</v>
       </c>
-    </row>
-    <row r="46" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="BB45">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="46" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B46" t="s">
+        <v>68</v>
+      </c>
+      <c r="AO46">
+        <v>1</v>
+      </c>
+      <c r="AP46">
+        <v>1</v>
+      </c>
+      <c r="AQ46">
+        <v>1</v>
+      </c>
+      <c r="AR46">
+        <v>1</v>
+      </c>
+      <c r="AS46">
+        <v>1</v>
+      </c>
+      <c r="AT46">
+        <v>1</v>
+      </c>
+      <c r="AU46">
+        <v>1</v>
+      </c>
+      <c r="AV46">
+        <v>1</v>
+      </c>
+      <c r="AW46">
+        <v>1</v>
+      </c>
+      <c r="AX46">
+        <v>1</v>
+      </c>
+      <c r="AY46">
+        <v>1</v>
+      </c>
+      <c r="AZ46">
+        <v>1</v>
+      </c>
+      <c r="BA46">
+        <v>1</v>
+      </c>
+      <c r="BB46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A47" s="2"/>
+    </row>
+    <row r="48" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B46" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO46">
-        <v>1</v>
-      </c>
-      <c r="AP46">
-        <v>1</v>
-      </c>
-      <c r="AQ46">
-        <v>1</v>
-      </c>
-      <c r="AR46">
-        <v>1</v>
-      </c>
-      <c r="AS46">
-        <v>1</v>
-      </c>
-      <c r="AT46">
-        <v>1</v>
-      </c>
-      <c r="AU46">
-        <v>1</v>
-      </c>
-      <c r="AV46">
-        <v>1</v>
-      </c>
-      <c r="AW46">
-        <v>1</v>
-      </c>
-      <c r="AX46">
-        <v>1</v>
-      </c>
-      <c r="AY46">
-        <v>1</v>
-      </c>
-      <c r="AZ46">
-        <v>1</v>
-      </c>
-      <c r="BA46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A47" s="2"/>
-    </row>
-    <row r="48" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="B48" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="49" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A49" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="B49" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Z49">
         <v>0</v>
@@ -4070,13 +4181,16 @@
       <c r="BA49">
         <v>22</v>
       </c>
-    </row>
-    <row r="50" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="BB49">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B50" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AL50">
         <v>5</v>
@@ -4123,13 +4237,16 @@
       <c r="BA50">
         <v>17</v>
       </c>
-    </row>
-    <row r="51" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="BB50">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B51" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AL51">
         <v>0</v>
@@ -4176,13 +4293,16 @@
       <c r="BA51">
         <v>4</v>
       </c>
-    </row>
-    <row r="52" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="BB51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B52" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Z52">
         <v>40</v>
@@ -4265,13 +4385,16 @@
       <c r="BA52">
         <v>37</v>
       </c>
-    </row>
-    <row r="53" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="BB52">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="53" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B53" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Z53">
         <v>40</v>
@@ -4354,13 +4477,16 @@
       <c r="BA53">
         <v>54</v>
       </c>
-    </row>
-    <row r="54" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="BB53">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B54" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Z54">
         <v>8</v>
@@ -4443,60 +4569,66 @@
       <c r="BA54">
         <v>84</v>
       </c>
-    </row>
-    <row r="55" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="BB54">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="55" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B55" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO55">
+        <v>1</v>
+      </c>
+      <c r="AP55">
+        <v>1</v>
+      </c>
+      <c r="AQ55">
+        <v>1</v>
+      </c>
+      <c r="AR55">
+        <v>1</v>
+      </c>
+      <c r="AS55">
+        <v>1</v>
+      </c>
+      <c r="AT55">
+        <v>1</v>
+      </c>
+      <c r="AU55">
+        <v>1</v>
+      </c>
+      <c r="AV55">
+        <v>1</v>
+      </c>
+      <c r="AW55">
+        <v>1</v>
+      </c>
+      <c r="AX55">
+        <v>1</v>
+      </c>
+      <c r="AY55">
+        <v>1</v>
+      </c>
+      <c r="AZ55">
+        <v>1</v>
+      </c>
+      <c r="BA55">
+        <v>1</v>
+      </c>
+      <c r="BB55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B55" t="s">
-        <v>72</v>
-      </c>
-      <c r="AO55">
-        <v>1</v>
-      </c>
-      <c r="AP55">
-        <v>1</v>
-      </c>
-      <c r="AQ55">
-        <v>1</v>
-      </c>
-      <c r="AR55">
-        <v>1</v>
-      </c>
-      <c r="AS55">
-        <v>1</v>
-      </c>
-      <c r="AT55">
-        <v>1</v>
-      </c>
-      <c r="AU55">
-        <v>1</v>
-      </c>
-      <c r="AV55">
-        <v>1</v>
-      </c>
-      <c r="AW55">
-        <v>1</v>
-      </c>
-      <c r="AX55">
-        <v>1</v>
-      </c>
-      <c r="AY55">
-        <v>1</v>
-      </c>
-      <c r="AZ55">
-        <v>1</v>
-      </c>
-      <c r="BA55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A57" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="B57" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Z57">
         <v>1</v>
@@ -4579,13 +4711,16 @@
       <c r="BA57">
         <v>9</v>
       </c>
-    </row>
-    <row r="58" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="BB57">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B58" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AL58">
         <v>4</v>
@@ -4632,13 +4767,16 @@
       <c r="BA58">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="BB58">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B59" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="AL59">
         <v>0</v>
@@ -4685,13 +4823,16 @@
       <c r="BA59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="BB59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B60" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Z60">
         <v>7</v>
@@ -4774,13 +4915,16 @@
       <c r="BA60">
         <v>39</v>
       </c>
-    </row>
-    <row r="61" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="BB60">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="61" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B61" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="Z61">
         <v>8</v>
@@ -4863,13 +5007,16 @@
       <c r="BA61">
         <v>48</v>
       </c>
-    </row>
-    <row r="62" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="BB61">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="62" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B62" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Z62">
         <v>0</v>
@@ -4952,13 +5099,16 @@
       <c r="BA62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="BB62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B63" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="AL63">
         <v>0</v>
@@ -5005,18 +5155,21 @@
       <c r="BA63">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="BB63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:54" x14ac:dyDescent="0.25">
       <c r="B65" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="66" spans="1:53" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="66" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B66" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AA66">
         <v>5</v>
@@ -5099,13 +5252,16 @@
       <c r="BA66">
         <v>154</v>
       </c>
-    </row>
-    <row r="67" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="BB66">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="67" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B67" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AA67">
         <v>48</v>
@@ -5188,13 +5344,16 @@
       <c r="BA67">
         <v>257</v>
       </c>
-    </row>
-    <row r="68" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="BB67">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="68" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B68" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AA68">
         <v>35</v>
@@ -5277,13 +5436,16 @@
       <c r="BA68">
         <v>216</v>
       </c>
-    </row>
-    <row r="69" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="BB68">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="69" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B69" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="AO69">
         <v>4</v>
@@ -5324,13 +5486,16 @@
       <c r="BA69">
         <v>9</v>
       </c>
-    </row>
-    <row r="71" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="BB69">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B71" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AA71">
         <v>5</v>
@@ -5413,13 +5578,16 @@
       <c r="BA71">
         <v>69</v>
       </c>
-    </row>
-    <row r="72" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="BB71">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B72" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AA72">
         <v>22</v>
@@ -5502,13 +5670,16 @@
       <c r="BA72">
         <v>21</v>
       </c>
-    </row>
-    <row r="73" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="BB72">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B73" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AA73">
         <v>27</v>
@@ -5591,13 +5762,16 @@
       <c r="BA73">
         <v>89</v>
       </c>
-    </row>
-    <row r="74" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="BB73">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="74" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B74" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AA74">
         <v>0</v>
@@ -5609,16 +5783,16 @@
         <v>0</v>
       </c>
       <c r="AD74" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AE74" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AF74" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AG74" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AH74">
         <v>1</v>
@@ -5680,13 +5854,16 @@
       <c r="BA74">
         <v>93</v>
       </c>
-    </row>
-    <row r="76" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="BB74">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="76" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B76" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AA76">
         <v>1</v>
@@ -5769,13 +5946,16 @@
       <c r="BA76">
         <v>48</v>
       </c>
-    </row>
-    <row r="77" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="BB76">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="77" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B77" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="AA77">
         <v>17</v>
@@ -5858,13 +6038,16 @@
       <c r="BA77">
         <v>29</v>
       </c>
-    </row>
-    <row r="78" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="BB77">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="78" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B78" t="s">
         <v>34</v>
-      </c>
-      <c r="B78" t="s">
-        <v>37</v>
       </c>
       <c r="AA78">
         <v>18</v>
@@ -5935,13 +6118,16 @@
       <c r="BA78" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="79" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="BB78" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B79" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA79">
         <v>0</v>
@@ -6024,13 +6210,16 @@
       <c r="BA79">
         <v>2</v>
       </c>
-    </row>
-    <row r="80" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="BB79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B80" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="AO80">
         <v>4</v>
@@ -6071,8 +6260,44 @@
       <c r="BA80">
         <v>9</v>
       </c>
-    </row>
-    <row r="99" spans="52:52" x14ac:dyDescent="0.3">
+      <c r="BB80">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>78</v>
+      </c>
+      <c r="BB82">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="83" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>79</v>
+      </c>
+      <c r="BB83">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B84" t="s">
+        <v>80</v>
+      </c>
+      <c r="BB84">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99" spans="52:52" x14ac:dyDescent="0.25">
       <c r="AZ99">
         <v>9</v>
       </c>
@@ -6084,23 +6309,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:AB11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:AC11"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB11" sqref="AB11"/>
+    <sheetView topLeftCell="U1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AC10" sqref="AC10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.44140625" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" customWidth="1"/>
-    <col min="15" max="18" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="15" max="18" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B2" s="9">
         <v>43921</v>
@@ -6183,8 +6408,11 @@
       <c r="AB2" s="9">
         <v>43947</v>
       </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC2" s="9">
+        <v>43948</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -6269,8 +6497,11 @@
       <c r="AB3">
         <v>450</v>
       </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC3">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -6355,8 +6586,11 @@
       <c r="AB4">
         <v>261</v>
       </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC4">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -6441,8 +6675,11 @@
       <c r="AB5">
         <v>261</v>
       </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC5">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>4</v>
       </c>
@@ -6527,8 +6764,11 @@
       <c r="AB6">
         <v>681</v>
       </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC6">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -6613,8 +6853,11 @@
       <c r="AB7">
         <v>571</v>
       </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC7">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>6</v>
       </c>
@@ -6699,8 +6942,11 @@
       <c r="AB8">
         <v>405</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC8">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -6785,8 +7031,11 @@
       <c r="AB9">
         <v>578</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC9">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>8</v>
       </c>
@@ -6871,10 +7120,13 @@
       <c r="AB10">
         <v>535</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC10">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B11" s="6">
         <v>25</v>
@@ -6956,6 +7208,9 @@
       </c>
       <c r="AB11">
         <v>150</v>
+      </c>
+      <c r="AC11">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -6965,21 +7220,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A2:W17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:X17"/>
   <sheetViews>
     <sheetView topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="W17" sqref="W17"/>
+      <selection activeCell="X18" sqref="X18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" style="16" customWidth="1"/>
-    <col min="2" max="2" width="23.5546875" customWidth="1"/>
-    <col min="10" max="12" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" style="16" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
+    <col min="10" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" s="2" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="15"/>
       <c r="B2" s="12">
         <v>43926</v>
@@ -7047,18 +7302,21 @@
       <c r="W2" s="9">
         <v>43947</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X2" s="9">
+        <v>43948</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" s="2" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B3" s="12"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B4" s="14">
         <v>1097</v>
@@ -7126,10 +7384,13 @@
       <c r="W4">
         <v>3892</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X4">
+        <v>3994</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B5" s="14">
         <v>349</v>
@@ -7197,10 +7458,13 @@
       <c r="W5">
         <v>517</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X5">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B6" s="14">
         <v>135</v>
@@ -7268,10 +7532,13 @@
       <c r="W6">
         <v>670</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X6">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B7" s="14">
         <v>303</v>
@@ -7339,10 +7606,13 @@
       <c r="W7">
         <v>1919</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X7">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B8" s="14">
         <v>12</v>
@@ -7410,10 +7680,13 @@
       <c r="W8">
         <v>62</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="X8">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B9" s="14">
         <v>1</v>
@@ -7481,10 +7754,13 @@
       <c r="W9">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="X9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B10" s="14"/>
       <c r="C10" s="16"/>
@@ -7548,10 +7824,13 @@
       <c r="W10">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B11" s="14">
         <v>78</v>
@@ -7619,10 +7898,13 @@
       <c r="W11">
         <v>680</v>
       </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X11">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B12" s="14">
         <v>9</v>
@@ -7690,10 +7972,13 @@
       <c r="W12">
         <v>25</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B13" s="14"/>
       <c r="C13" s="16"/>
@@ -7702,9 +7987,9 @@
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B14" s="14">
         <v>341</v>
@@ -7772,10 +8057,13 @@
       <c r="W14">
         <v>802</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X14">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B15" s="14">
         <v>98</v>
@@ -7843,10 +8131,13 @@
       <c r="W15">
         <v>730</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X15">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B16" s="14">
         <v>517</v>
@@ -7914,10 +8205,13 @@
       <c r="W16">
         <v>2345</v>
       </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X16">
+        <v>2416</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B17" s="14">
         <v>2</v>
@@ -7983,6 +8277,9 @@
         <v>14</v>
       </c>
       <c r="W17">
+        <v>15</v>
+      </c>
+      <c r="X17">
         <v>15</v>
       </c>
     </row>
@@ -7993,20 +8290,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:W8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X8"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="W9" sqref="W9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V10" sqref="V10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" customWidth="1"/>
-    <col min="10" max="10" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" s="2" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B1" s="9">
         <v>43926</v>
       </c>
@@ -8073,16 +8370,19 @@
       <c r="W1" s="9">
         <v>43947</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X1" s="9">
+        <v>43948</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B2" s="7"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B3">
         <f ca="1">SUM(B3:B8)</f>
@@ -8151,10 +8451,13 @@
       <c r="W3">
         <v>185</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B4" s="11">
         <v>2</v>
@@ -8222,10 +8525,13 @@
       <c r="W4">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="X4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B5" s="11">
         <v>14</v>
@@ -8293,10 +8599,13 @@
       <c r="W5">
         <v>147</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X5">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B6" s="11">
         <v>2</v>
@@ -8364,10 +8673,13 @@
       <c r="W6">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B7" s="11">
         <v>4</v>
@@ -8435,10 +8747,13 @@
       <c r="W7">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B8" s="11">
         <v>2</v>
@@ -8504,6 +8819,9 @@
         <v>1</v>
       </c>
       <c r="W8">
+        <v>2</v>
+      </c>
+      <c r="X8">
         <v>2</v>
       </c>
     </row>
@@ -8513,21 +8831,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48DE713F-971D-4CE1-B1A8-BE60A2507C58}">
-  <dimension ref="A2:I13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.44140625" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B2" s="9">
         <v>43940</v>
@@ -8553,10 +8871,13 @@
       <c r="I2" s="9">
         <v>43947</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="9">
+        <v>43948</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B3" s="21">
         <v>105</v>
@@ -8582,8 +8903,11 @@
       <c r="I3">
         <v>185</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>1</v>
       </c>
@@ -8611,8 +8935,11 @@
       <c r="I4">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>2</v>
       </c>
@@ -8640,8 +8967,11 @@
       <c r="I5">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>3</v>
       </c>
@@ -8669,8 +8999,11 @@
       <c r="I6">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>4</v>
       </c>
@@ -8698,8 +9031,11 @@
       <c r="I7">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>5</v>
       </c>
@@ -8727,8 +9063,11 @@
       <c r="I8">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J8">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>6</v>
       </c>
@@ -8756,8 +9095,11 @@
       <c r="I9">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J9">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>7</v>
       </c>
@@ -8785,8 +9127,11 @@
       <c r="I10">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>8</v>
       </c>
@@ -8814,10 +9159,13 @@
       <c r="I11">
         <v>42</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J11">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B12" s="22">
         <v>7</v>
@@ -8843,10 +9191,13 @@
       <c r="I12">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B13" s="22">
         <v>0</v>
@@ -8870,6 +9221,9 @@
         <v>0</v>
       </c>
       <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
         <v>0</v>
       </c>
     </row>
@@ -9118,16 +9472,16 @@
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8DEDEF4E-2681-4E64-A6E5-9E41742A3664}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="8e61eea9-d51d-4f9c-960b-1b037651d93e"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="248ed0f8-11d3-4141-bb91-6b69a0801941"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="8e61eea9-d51d-4f9c-960b-1b037651d93e"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="248ed0f8-11d3-4141-bb91-6b69a0801941"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/dcCovid-19DataSummaryToday.xlsx
+++ b/dcCovid-19DataSummaryToday.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dcgovict-my.sharepoint.com/personal/ramona_yun1_dc_gov/Documents/Documents/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1691" documentId="8_{C884A327-19F6-4EC6-805C-F52B66916DDD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{8F60E61F-7C90-4793-B07E-157CDE53CB9D}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overal Stats" sheetId="1" r:id="rId1"/>
@@ -13,7 +19,7 @@
     <sheet name="Lives Lost by Race" sheetId="4" r:id="rId4"/>
     <sheet name="Lives Lost by Ward" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="83">
   <si>
     <t>Testing</t>
   </si>
@@ -276,11 +282,14 @@
   <si>
     <t>Human Services - DDS</t>
   </si>
+  <si>
+    <t>Total ICU Beds in Hospitals</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -695,29 +704,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BB99"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BC100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="AZ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BB1" sqref="BB1"/>
+      <pane xSplit="2" topLeftCell="BA1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BC1" sqref="BC1:BC1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" customWidth="1"/>
-    <col min="2" max="2" width="56.7109375" customWidth="1"/>
-    <col min="40" max="54" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" customWidth="1"/>
+    <col min="2" max="2" width="56.6640625" customWidth="1"/>
+    <col min="40" max="55" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:55" x14ac:dyDescent="0.3">
       <c r="C1" s="1">
         <v>43897</v>
       </c>
@@ -874,8 +883,11 @@
       <c r="BB1" s="1">
         <v>43948</v>
       </c>
-    </row>
-    <row r="2" spans="1:54" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="BC1" s="1">
+        <v>43949</v>
+      </c>
+    </row>
+    <row r="2" spans="1:55" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -899,7 +911,7 @@
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
     </row>
-    <row r="3" spans="1:54" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1041,8 +1053,11 @@
       <c r="BB3">
         <v>18885</v>
       </c>
-    </row>
-    <row r="4" spans="1:54" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="BC3">
+        <v>19229</v>
+      </c>
+    </row>
+    <row r="4" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1205,8 +1220,11 @@
       <c r="BB4">
         <v>3994</v>
       </c>
-    </row>
-    <row r="5" spans="1:54" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="BC4">
+        <v>4106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -1351,8 +1369,11 @@
       <c r="BB5">
         <v>190</v>
       </c>
-    </row>
-    <row r="6" spans="1:54" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="BC5">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="6" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -1467,1669 +1488,1675 @@
       <c r="BB6">
         <v>660</v>
       </c>
-    </row>
-    <row r="7" spans="1:54" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="BC6">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="7" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
     </row>
-    <row r="8" spans="1:54" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B8" t="s">
+        <v>82</v>
+      </c>
+      <c r="BC8">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="9" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
         <v>3</v>
       </c>
-      <c r="U8">
+      <c r="U9">
         <v>70</v>
       </c>
-      <c r="V8">
+      <c r="V9">
         <v>55</v>
       </c>
-      <c r="W8">
+      <c r="W9">
         <v>106</v>
       </c>
-      <c r="X8">
+      <c r="X9">
         <v>91</v>
       </c>
-      <c r="Y8">
+      <c r="Y9">
         <v>87</v>
       </c>
-      <c r="Z8">
+      <c r="Z9">
         <v>111</v>
       </c>
-      <c r="AA8">
+      <c r="AA9">
         <v>95</v>
       </c>
-      <c r="AB8">
+      <c r="AB9">
         <v>92</v>
       </c>
-      <c r="AC8">
+      <c r="AC9">
         <v>116</v>
       </c>
-      <c r="AD8">
+      <c r="AD9">
         <v>88</v>
       </c>
-      <c r="AE8">
+      <c r="AE9">
         <v>87</v>
       </c>
-      <c r="AF8">
+      <c r="AF9">
         <v>69</v>
       </c>
-      <c r="AG8">
+      <c r="AG9">
         <v>104</v>
       </c>
-      <c r="AH8">
+      <c r="AH9">
         <v>107</v>
       </c>
-      <c r="AI8">
+      <c r="AI9">
         <v>105</v>
       </c>
-      <c r="AJ8">
+      <c r="AJ9">
         <v>110</v>
       </c>
-      <c r="AK8">
+      <c r="AK9">
         <v>95</v>
       </c>
-      <c r="AL8">
+      <c r="AL9">
         <v>121</v>
       </c>
-      <c r="AM8">
+      <c r="AM9">
         <v>105</v>
       </c>
-      <c r="AN8">
+      <c r="AN9">
         <v>94</v>
       </c>
-      <c r="AO8">
+      <c r="AO9">
         <v>89</v>
       </c>
-      <c r="AP8">
+      <c r="AP9">
         <v>101</v>
       </c>
-      <c r="AQ8">
+      <c r="AQ9">
         <v>98</v>
       </c>
-      <c r="AR8">
+      <c r="AR9">
         <v>87</v>
       </c>
-      <c r="AS8">
+      <c r="AS9">
         <v>80</v>
       </c>
-      <c r="AT8">
+      <c r="AT9">
         <v>77</v>
       </c>
-      <c r="AU8">
+      <c r="AU9">
         <v>84</v>
       </c>
-      <c r="AV8">
+      <c r="AV9">
         <v>91</v>
       </c>
-      <c r="AW8">
+      <c r="AW9">
         <v>85</v>
       </c>
-      <c r="AX8">
+      <c r="AX9">
         <v>113</v>
       </c>
-      <c r="AY8">
+      <c r="AY9">
         <v>113</v>
       </c>
-      <c r="AZ8">
+      <c r="AZ9">
         <v>113</v>
       </c>
-      <c r="BA8">
+      <c r="BA9">
         <v>113</v>
       </c>
-      <c r="BB8">
+      <c r="BB9">
         <v>136</v>
       </c>
-    </row>
-    <row r="9" spans="1:54" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="BC9">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
         <v>74</v>
       </c>
-      <c r="U9">
+      <c r="U10">
         <v>405</v>
       </c>
-      <c r="V9">
+      <c r="V10">
         <v>405</v>
       </c>
-      <c r="W9">
+      <c r="W10">
         <v>426</v>
       </c>
-      <c r="X9">
+      <c r="X10">
         <v>426</v>
       </c>
-      <c r="Y9">
+      <c r="Y10">
         <v>426</v>
       </c>
-      <c r="Z9">
+      <c r="Z10">
         <v>426</v>
       </c>
-      <c r="AA9">
+      <c r="AA10">
         <v>422</v>
       </c>
-      <c r="AB9">
+      <c r="AB10">
         <v>422</v>
       </c>
-      <c r="AC9">
+      <c r="AC10">
         <v>433</v>
       </c>
-      <c r="AD9">
+      <c r="AD10">
         <v>432</v>
       </c>
-      <c r="AE9">
+      <c r="AE10">
         <v>432</v>
       </c>
-      <c r="AF9">
+      <c r="AF10">
         <v>432</v>
       </c>
-      <c r="AG9">
+      <c r="AG10">
         <v>432</v>
       </c>
-      <c r="AH9">
+      <c r="AH10">
         <v>438</v>
       </c>
-      <c r="AI9">
+      <c r="AI10">
         <v>440</v>
       </c>
-      <c r="AJ9">
+      <c r="AJ10">
         <v>440</v>
       </c>
-      <c r="AK9">
+      <c r="AK10">
         <v>441</v>
       </c>
-      <c r="AL9">
+      <c r="AL10">
         <v>442</v>
       </c>
-      <c r="AM9">
+      <c r="AM10">
         <v>444</v>
       </c>
-      <c r="AN9">
+      <c r="AN10">
         <v>442</v>
       </c>
-      <c r="AO9">
+      <c r="AO10">
         <v>441</v>
       </c>
-      <c r="AP9">
+      <c r="AP10">
         <v>443</v>
       </c>
-      <c r="AQ9">
+      <c r="AQ10">
         <v>443</v>
       </c>
-      <c r="AR9">
+      <c r="AR10">
         <v>443</v>
       </c>
-      <c r="AS9">
+      <c r="AS10">
         <v>443</v>
       </c>
-      <c r="AT9">
+      <c r="AT10">
         <v>444</v>
       </c>
-      <c r="AU9">
+      <c r="AU10">
         <v>444</v>
       </c>
-      <c r="AV9">
+      <c r="AV10">
         <v>444</v>
       </c>
-      <c r="AW9">
+      <c r="AW10">
         <v>444</v>
       </c>
-      <c r="AX9">
+      <c r="AX10">
         <v>513</v>
       </c>
-      <c r="AY9">
+      <c r="AY10">
         <v>513</v>
       </c>
-      <c r="AZ9">
+      <c r="AZ10">
         <v>440</v>
       </c>
-      <c r="BA9">
+      <c r="BA10">
         <v>440</v>
       </c>
-      <c r="BB9">
+      <c r="BB10">
         <v>440</v>
       </c>
-    </row>
-    <row r="10" spans="1:54" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="BC10">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="11" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
         <v>75</v>
       </c>
-      <c r="U10">
+      <c r="U11">
         <v>147</v>
       </c>
-      <c r="V10">
+      <c r="V11">
         <v>93</v>
       </c>
-      <c r="W10">
+      <c r="W11">
         <v>186</v>
       </c>
-      <c r="X10">
+      <c r="X11">
         <v>187</v>
       </c>
-      <c r="Y10">
+      <c r="Y11">
         <v>193</v>
       </c>
-      <c r="Z10">
+      <c r="Z11">
         <v>200</v>
       </c>
-      <c r="AA10">
+      <c r="AA11">
         <v>185</v>
       </c>
-      <c r="AB10">
+      <c r="AB11">
         <v>182</v>
       </c>
-      <c r="AC10">
+      <c r="AC11">
         <v>223</v>
       </c>
-      <c r="AD10">
+      <c r="AD11">
         <v>198</v>
       </c>
-      <c r="AE10">
+      <c r="AE11">
         <v>178</v>
       </c>
-      <c r="AF10">
+      <c r="AF11">
         <v>177</v>
       </c>
-      <c r="AG10">
+      <c r="AG11">
         <v>177</v>
       </c>
-      <c r="AH10">
+      <c r="AH11">
         <v>200</v>
       </c>
-      <c r="AI10">
+      <c r="AI11">
         <v>206</v>
       </c>
-      <c r="AJ10">
+      <c r="AJ11">
         <v>208</v>
       </c>
-      <c r="AK10">
+      <c r="AK11">
         <v>210</v>
       </c>
-      <c r="AL10">
+      <c r="AL11">
         <v>215</v>
       </c>
-      <c r="AM10">
+      <c r="AM11">
         <v>218</v>
       </c>
-      <c r="AN10">
+      <c r="AN11">
         <v>212</v>
       </c>
-      <c r="AO10">
+      <c r="AO11">
         <v>212</v>
       </c>
-      <c r="AP10">
+      <c r="AP11">
         <v>203</v>
       </c>
-      <c r="AQ10">
+      <c r="AQ11">
         <v>204</v>
       </c>
-      <c r="AR10">
+      <c r="AR11">
         <v>205</v>
       </c>
-      <c r="AS10">
+      <c r="AS11">
         <v>203</v>
       </c>
-      <c r="AT10">
+      <c r="AT11">
         <v>198</v>
       </c>
-      <c r="AU10">
+      <c r="AU11">
         <v>198</v>
       </c>
-      <c r="AV10">
+      <c r="AV11">
         <v>200</v>
       </c>
-      <c r="AW10">
+      <c r="AW11">
         <v>200</v>
       </c>
-      <c r="AX10">
+      <c r="AX11">
         <v>248</v>
       </c>
-      <c r="AY10">
+      <c r="AY11">
         <v>248</v>
       </c>
-      <c r="AZ10">
+      <c r="AZ11">
         <v>201</v>
       </c>
-      <c r="BA10">
+      <c r="BA11">
         <v>201</v>
       </c>
-      <c r="BB10">
+      <c r="BB11">
         <v>206</v>
       </c>
-    </row>
-    <row r="11" spans="1:54" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="BC11">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="12" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
         <v>76</v>
       </c>
-      <c r="U11">
+      <c r="U12">
         <v>258</v>
       </c>
-      <c r="V11">
+      <c r="V12">
         <v>312</v>
       </c>
-      <c r="W11">
+      <c r="W12">
         <v>240</v>
       </c>
-      <c r="X11">
+      <c r="X12">
         <v>239</v>
       </c>
-      <c r="Y11">
+      <c r="Y12">
         <v>233</v>
       </c>
-      <c r="Z11">
+      <c r="Z12">
         <v>226</v>
       </c>
-      <c r="AA11">
+      <c r="AA12">
         <v>237</v>
       </c>
-      <c r="AB11">
+      <c r="AB12">
         <v>240</v>
       </c>
-      <c r="AC11">
+      <c r="AC12">
         <v>210</v>
       </c>
-      <c r="AD11">
+      <c r="AD12">
         <v>234</v>
       </c>
-      <c r="AE11">
+      <c r="AE12">
         <v>254</v>
       </c>
-      <c r="AF11">
+      <c r="AF12">
         <v>255</v>
       </c>
-      <c r="AG11">
+      <c r="AG12">
         <v>255</v>
       </c>
-      <c r="AH11">
+      <c r="AH12">
         <v>238</v>
       </c>
-      <c r="AI11">
+      <c r="AI12">
         <v>234</v>
       </c>
-      <c r="AJ11">
+      <c r="AJ12">
         <v>232</v>
       </c>
-      <c r="AK11">
+      <c r="AK12">
         <v>231</v>
       </c>
-      <c r="AL11">
+      <c r="AL12">
         <v>227</v>
       </c>
-      <c r="AM11">
+      <c r="AM12">
         <v>226</v>
       </c>
-      <c r="AN11">
+      <c r="AN12">
         <v>230</v>
       </c>
-      <c r="AO11">
+      <c r="AO12">
         <v>229</v>
       </c>
-      <c r="AP11">
+      <c r="AP12">
         <v>240</v>
       </c>
-      <c r="AQ11">
+      <c r="AQ12">
         <v>239</v>
       </c>
-      <c r="AR11">
+      <c r="AR12">
         <v>238</v>
       </c>
-      <c r="AS11">
+      <c r="AS12">
         <v>240</v>
       </c>
-      <c r="AT11">
+      <c r="AT12">
         <v>246</v>
       </c>
-      <c r="AU11">
+      <c r="AU12">
         <v>246</v>
       </c>
-      <c r="AV11">
+      <c r="AV12">
         <v>244</v>
       </c>
-      <c r="AW11">
+      <c r="AW12">
         <v>244</v>
       </c>
-      <c r="AX11">
+      <c r="AX12">
         <v>265</v>
       </c>
-      <c r="AY11">
+      <c r="AY12">
         <v>265</v>
       </c>
-      <c r="AZ11">
+      <c r="AZ12">
         <v>239</v>
       </c>
-      <c r="BA11">
+      <c r="BA12">
         <v>239</v>
       </c>
-      <c r="BB11">
+      <c r="BB12">
         <v>234</v>
       </c>
-    </row>
-    <row r="13" spans="1:54" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="B13" s="2" t="s">
+      <c r="BC12">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="14" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="B14" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:54" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:54" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
-      </c>
-      <c r="S15">
-        <v>8</v>
-      </c>
-      <c r="T15">
-        <v>8</v>
-      </c>
-      <c r="U15">
-        <v>10</v>
-      </c>
-      <c r="V15">
-        <v>12</v>
-      </c>
-      <c r="W15">
-        <v>12</v>
-      </c>
-      <c r="X15">
-        <v>13</v>
-      </c>
-      <c r="Y15">
-        <v>14</v>
-      </c>
-      <c r="Z15">
-        <v>14</v>
-      </c>
-      <c r="AA15">
-        <v>19</v>
-      </c>
-      <c r="AB15">
-        <v>21</v>
-      </c>
-      <c r="AC15">
-        <v>23</v>
-      </c>
-      <c r="AD15">
-        <v>25</v>
-      </c>
-      <c r="AE15">
-        <v>32</v>
-      </c>
-      <c r="AF15">
-        <v>33</v>
-      </c>
-      <c r="AG15">
-        <v>34</v>
-      </c>
-      <c r="AH15">
-        <v>40</v>
-      </c>
-      <c r="AI15">
-        <v>49</v>
-      </c>
-      <c r="AJ15">
-        <v>39</v>
-      </c>
-      <c r="AK15">
-        <v>56</v>
-      </c>
-      <c r="AL15">
-        <v>58</v>
-      </c>
-      <c r="AN15">
-        <v>65</v>
-      </c>
-      <c r="AO15">
-        <v>67</v>
-      </c>
-      <c r="AP15">
-        <v>68</v>
-      </c>
-      <c r="AQ15">
-        <v>74</v>
-      </c>
-      <c r="AR15">
-        <v>74</v>
-      </c>
-      <c r="AS15">
-        <v>76</v>
-      </c>
-      <c r="AT15">
-        <v>76</v>
-      </c>
-      <c r="AU15">
-        <v>77</v>
-      </c>
-      <c r="AV15">
-        <v>77</v>
-      </c>
-      <c r="AW15">
-        <v>80</v>
-      </c>
-      <c r="AX15">
-        <v>81</v>
-      </c>
-      <c r="AY15">
-        <v>86</v>
-      </c>
-      <c r="AZ15">
-        <v>87</v>
-      </c>
-      <c r="BA15">
-        <v>87</v>
-      </c>
-      <c r="BB15">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="16" spans="1:54" ht="14.45" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B16" t="s">
+        <v>53</v>
+      </c>
+      <c r="S16">
+        <v>8</v>
+      </c>
+      <c r="T16">
+        <v>8</v>
+      </c>
+      <c r="U16">
+        <v>10</v>
+      </c>
+      <c r="V16">
+        <v>12</v>
+      </c>
+      <c r="W16">
+        <v>12</v>
+      </c>
+      <c r="X16">
+        <v>13</v>
+      </c>
+      <c r="Y16">
+        <v>14</v>
+      </c>
+      <c r="Z16">
+        <v>14</v>
+      </c>
+      <c r="AA16">
+        <v>19</v>
+      </c>
+      <c r="AB16">
+        <v>21</v>
+      </c>
+      <c r="AC16">
+        <v>23</v>
+      </c>
+      <c r="AD16">
+        <v>25</v>
+      </c>
+      <c r="AE16">
+        <v>32</v>
+      </c>
+      <c r="AF16">
+        <v>33</v>
+      </c>
+      <c r="AG16">
+        <v>34</v>
+      </c>
+      <c r="AH16">
+        <v>40</v>
+      </c>
+      <c r="AI16">
+        <v>49</v>
+      </c>
+      <c r="AJ16">
+        <v>39</v>
+      </c>
+      <c r="AK16">
         <v>56</v>
       </c>
-      <c r="AK16">
-        <v>44</v>
-      </c>
       <c r="AL16">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="AN16">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="AO16">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="AP16">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="AQ16">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="AR16">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="AS16">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AT16">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AU16">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AV16">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AW16">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="AX16">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="AY16">
-        <v>35</v>
+        <v>86</v>
       </c>
       <c r="AZ16">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="BA16">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="BB16">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:54" ht="14.45" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+      <c r="BC16">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK17">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="AL17">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="AN17">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="AO17">
+        <v>37</v>
+      </c>
+      <c r="AP17">
+        <v>36</v>
+      </c>
+      <c r="AQ17">
+        <v>41</v>
+      </c>
+      <c r="AR17">
+        <v>41</v>
+      </c>
+      <c r="AS17">
+        <v>43</v>
+      </c>
+      <c r="AT17">
+        <v>39</v>
+      </c>
+      <c r="AU17">
+        <v>40</v>
+      </c>
+      <c r="AV17">
+        <v>40</v>
+      </c>
+      <c r="AW17">
+        <v>43</v>
+      </c>
+      <c r="AX17">
+        <v>31</v>
+      </c>
+      <c r="AY17">
+        <v>35</v>
+      </c>
+      <c r="AZ17">
+        <v>36</v>
+      </c>
+      <c r="BA17">
+        <v>36</v>
+      </c>
+      <c r="BB17">
         <v>30</v>
       </c>
-      <c r="AP17">
-        <v>32</v>
-      </c>
-      <c r="AQ17">
-        <v>33</v>
-      </c>
-      <c r="AR17">
-        <v>33</v>
-      </c>
-      <c r="AS17">
-        <v>33</v>
-      </c>
-      <c r="AT17">
-        <v>37</v>
-      </c>
-      <c r="AU17">
-        <v>37</v>
-      </c>
-      <c r="AV17">
-        <v>37</v>
-      </c>
-      <c r="AW17">
-        <v>37</v>
-      </c>
-      <c r="AX17">
-        <v>50</v>
-      </c>
-      <c r="AY17">
-        <v>51</v>
-      </c>
-      <c r="AZ17">
-        <v>51</v>
-      </c>
-      <c r="BA17">
-        <v>52</v>
-      </c>
-      <c r="BB17">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:54" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="BC17">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
-      </c>
-      <c r="V18">
-        <v>91</v>
-      </c>
-      <c r="W18">
-        <v>108</v>
-      </c>
-      <c r="X18">
-        <v>155</v>
-      </c>
-      <c r="Y18">
-        <v>177</v>
-      </c>
-      <c r="Z18">
-        <v>158</v>
-      </c>
-      <c r="AA18">
-        <v>173</v>
-      </c>
-      <c r="AB18">
-        <v>183</v>
-      </c>
-      <c r="AC18">
-        <v>145</v>
-      </c>
-      <c r="AD18">
-        <v>148</v>
-      </c>
-      <c r="AE18">
-        <v>156</v>
-      </c>
-      <c r="AF18">
-        <v>196</v>
-      </c>
-      <c r="AG18">
-        <v>216</v>
-      </c>
-      <c r="AH18">
-        <v>197</v>
-      </c>
-      <c r="AI18">
-        <v>207</v>
-      </c>
-      <c r="AJ18">
-        <v>230</v>
+        <v>55</v>
       </c>
       <c r="AK18">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="AL18">
-        <v>183</v>
+        <v>14</v>
       </c>
       <c r="AN18">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="AO18">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="AP18">
-        <v>91</v>
+        <v>32</v>
       </c>
       <c r="AQ18">
-        <v>119</v>
+        <v>33</v>
       </c>
       <c r="AR18">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="AS18">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="AT18">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="AU18">
-        <v>91</v>
+        <v>37</v>
       </c>
       <c r="AV18">
-        <v>103</v>
+        <v>37</v>
       </c>
       <c r="AW18">
-        <v>116</v>
+        <v>37</v>
       </c>
       <c r="AX18">
-        <v>135</v>
+        <v>50</v>
       </c>
       <c r="AY18">
-        <v>118</v>
+        <v>51</v>
       </c>
       <c r="AZ18">
-        <v>172</v>
+        <v>51</v>
       </c>
       <c r="BA18">
-        <v>180</v>
+        <v>52</v>
       </c>
       <c r="BB18">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="19" spans="1:54" ht="14.45" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+      <c r="BC18">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V19">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="W19">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="X19">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="Y19">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="Z19">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="AA19">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="AB19">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="AC19">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="AD19">
-        <v>173</v>
+        <v>148</v>
       </c>
       <c r="AE19">
-        <v>188</v>
+        <v>156</v>
       </c>
       <c r="AF19">
         <v>196</v>
       </c>
       <c r="AG19">
-        <v>250</v>
+        <v>216</v>
       </c>
       <c r="AH19">
-        <v>237</v>
+        <v>197</v>
       </c>
       <c r="AI19">
-        <v>248</v>
+        <v>207</v>
       </c>
       <c r="AJ19">
-        <v>269</v>
+        <v>230</v>
       </c>
       <c r="AK19">
-        <v>249</v>
+        <v>205</v>
       </c>
       <c r="AL19">
-        <v>227</v>
+        <v>183</v>
       </c>
       <c r="AN19">
-        <v>152</v>
+        <v>102</v>
       </c>
       <c r="AO19">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="AP19">
-        <v>127</v>
+        <v>91</v>
       </c>
       <c r="AQ19">
         <v>119</v>
       </c>
       <c r="AR19">
-        <v>137</v>
+        <v>96</v>
       </c>
       <c r="AS19">
-        <v>136</v>
+        <v>93</v>
       </c>
       <c r="AT19">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AU19">
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="AV19">
-        <v>143</v>
+        <v>103</v>
       </c>
       <c r="AW19">
-        <v>159</v>
+        <v>116</v>
       </c>
       <c r="AX19">
-        <v>166</v>
+        <v>135</v>
       </c>
       <c r="AY19">
-        <v>153</v>
+        <v>118</v>
       </c>
       <c r="AZ19">
-        <v>208</v>
+        <v>172</v>
       </c>
       <c r="BA19">
-        <v>216</v>
+        <v>180</v>
       </c>
       <c r="BB19">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="20" spans="1:54" ht="14.45" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+      <c r="BC19">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="20" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="V20">
+        <v>103</v>
+      </c>
+      <c r="W20">
+        <v>120</v>
+      </c>
+      <c r="X20">
+        <v>147</v>
+      </c>
+      <c r="Y20">
+        <v>191</v>
+      </c>
+      <c r="Z20">
+        <v>172</v>
+      </c>
+      <c r="AA20">
+        <v>192</v>
+      </c>
+      <c r="AB20">
+        <v>204</v>
+      </c>
+      <c r="AC20">
+        <v>168</v>
+      </c>
+      <c r="AD20">
+        <v>173</v>
+      </c>
+      <c r="AE20">
+        <v>188</v>
+      </c>
+      <c r="AF20">
+        <v>196</v>
+      </c>
+      <c r="AG20">
+        <v>250</v>
+      </c>
+      <c r="AH20">
+        <v>237</v>
+      </c>
+      <c r="AI20">
+        <v>248</v>
+      </c>
+      <c r="AJ20">
+        <v>269</v>
+      </c>
+      <c r="AK20">
+        <v>249</v>
+      </c>
+      <c r="AL20">
+        <v>227</v>
+      </c>
+      <c r="AN20">
+        <v>152</v>
+      </c>
+      <c r="AO20">
+        <v>137</v>
+      </c>
+      <c r="AP20">
+        <v>127</v>
+      </c>
+      <c r="AQ20">
+        <v>119</v>
+      </c>
+      <c r="AR20">
+        <v>137</v>
+      </c>
+      <c r="AS20">
+        <v>136</v>
+      </c>
+      <c r="AT20">
+        <v>139</v>
+      </c>
+      <c r="AU20">
+        <v>131</v>
+      </c>
+      <c r="AV20">
+        <v>143</v>
+      </c>
+      <c r="AW20">
+        <v>159</v>
+      </c>
+      <c r="AX20">
+        <v>166</v>
+      </c>
+      <c r="AY20">
+        <v>153</v>
+      </c>
+      <c r="AZ20">
+        <v>208</v>
+      </c>
+      <c r="BA20">
+        <v>216</v>
+      </c>
+      <c r="BB20">
+        <v>213</v>
+      </c>
+      <c r="BC20">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="21" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" t="s">
         <v>12</v>
       </c>
-      <c r="V20">
+      <c r="V21">
         <v>132</v>
       </c>
-      <c r="W20">
+      <c r="W21">
         <v>119</v>
       </c>
-      <c r="X20">
+      <c r="X21">
         <v>155</v>
       </c>
-      <c r="Y20">
+      <c r="Y21">
         <v>149</v>
       </c>
-      <c r="Z20">
+      <c r="Z21">
         <v>147</v>
       </c>
-      <c r="AA20">
+      <c r="AA21">
         <v>152</v>
       </c>
-      <c r="AB20">
+      <c r="AB21">
         <v>152</v>
       </c>
-      <c r="AC20">
+      <c r="AC21">
         <v>158</v>
       </c>
-      <c r="AD20">
+      <c r="AD21">
         <v>165</v>
       </c>
-      <c r="AE20">
+      <c r="AE21">
         <v>176</v>
       </c>
-      <c r="AF20">
+      <c r="AF21">
         <v>179</v>
       </c>
-      <c r="AG20">
+      <c r="AG21">
         <v>179</v>
       </c>
-      <c r="AH20">
+      <c r="AH21">
         <v>244</v>
       </c>
-      <c r="AI20">
+      <c r="AI21">
         <v>270</v>
       </c>
-      <c r="AJ20">
+      <c r="AJ21">
         <v>300</v>
       </c>
-      <c r="AK20">
+      <c r="AK21">
         <v>323</v>
       </c>
-      <c r="AL20">
+      <c r="AL21">
         <v>353</v>
       </c>
-      <c r="AN20">
+      <c r="AN21">
         <v>403</v>
       </c>
-      <c r="AO20">
+      <c r="AO21">
         <v>446</v>
       </c>
-      <c r="AP20">
+      <c r="AP21">
         <v>476</v>
       </c>
-      <c r="AQ20">
+      <c r="AQ21">
         <v>502</v>
       </c>
-      <c r="AR20">
+      <c r="AR21">
         <v>519</v>
       </c>
-      <c r="AS20">
+      <c r="AS21">
         <v>528</v>
       </c>
-      <c r="AT20">
+      <c r="AT21">
         <v>544</v>
       </c>
-      <c r="AU20">
+      <c r="AU21">
         <v>561</v>
       </c>
-      <c r="AV20">
+      <c r="AV21">
         <v>589</v>
       </c>
-      <c r="AW20">
+      <c r="AW21">
         <v>615</v>
       </c>
-      <c r="AX20">
+      <c r="AX21">
         <v>634</v>
       </c>
-      <c r="AY20">
+      <c r="AY21">
         <v>643</v>
       </c>
-      <c r="AZ20">
+      <c r="AZ21">
         <v>659</v>
       </c>
-      <c r="BA20">
+      <c r="BA21">
         <v>666</v>
       </c>
-      <c r="BB20">
+      <c r="BB21">
         <v>672</v>
       </c>
-    </row>
-    <row r="22" spans="1:54" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="B22" s="3" t="s">
+      <c r="BC21">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="23" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="B23" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" t="s">
-        <v>53</v>
-      </c>
-      <c r="S23">
-        <v>2</v>
-      </c>
-      <c r="T23">
-        <v>2</v>
-      </c>
-      <c r="U23">
-        <v>2</v>
-      </c>
-      <c r="V23">
-        <v>3</v>
-      </c>
-      <c r="W23">
-        <v>3</v>
-      </c>
-      <c r="X23">
-        <v>4</v>
-      </c>
-      <c r="Y23">
-        <v>5</v>
-      </c>
-      <c r="Z23">
-        <v>6</v>
-      </c>
-      <c r="AA23">
-        <v>13</v>
-      </c>
-      <c r="AB23">
-        <v>12</v>
-      </c>
-      <c r="AC23">
-        <v>15</v>
-      </c>
-      <c r="AD23">
-        <v>17</v>
-      </c>
-      <c r="AE23">
-        <v>21</v>
-      </c>
-      <c r="AF23">
-        <v>23</v>
-      </c>
-      <c r="AG23">
-        <v>26</v>
-      </c>
-      <c r="AH23">
-        <v>31</v>
-      </c>
-      <c r="AI23">
-        <v>36</v>
-      </c>
-      <c r="AJ23">
-        <v>35</v>
-      </c>
-      <c r="AK23">
-        <v>51</v>
-      </c>
-      <c r="AL23">
-        <v>51</v>
-      </c>
-      <c r="AN23">
-        <v>58</v>
-      </c>
-      <c r="AO23">
-        <v>59</v>
-      </c>
-      <c r="AP23">
-        <v>68</v>
-      </c>
-      <c r="AQ23">
-        <v>74</v>
-      </c>
-      <c r="AR23">
-        <v>76</v>
-      </c>
-      <c r="AS23">
-        <v>81</v>
-      </c>
-      <c r="AT23">
-        <v>82</v>
-      </c>
-      <c r="AU23">
-        <v>84</v>
-      </c>
-      <c r="AV23">
-        <v>86</v>
-      </c>
-      <c r="AW23">
-        <v>89</v>
-      </c>
-      <c r="AX23">
-        <v>89</v>
-      </c>
-      <c r="AY23">
-        <v>90</v>
-      </c>
-      <c r="AZ23">
-        <v>90</v>
-      </c>
-      <c r="BA23">
-        <v>90</v>
-      </c>
-      <c r="BB23">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="24" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>57</v>
+        <v>53</v>
+      </c>
+      <c r="S24">
+        <v>2</v>
+      </c>
+      <c r="T24">
+        <v>2</v>
+      </c>
+      <c r="U24">
+        <v>2</v>
+      </c>
+      <c r="V24">
+        <v>3</v>
+      </c>
+      <c r="W24">
+        <v>3</v>
+      </c>
+      <c r="X24">
+        <v>4</v>
+      </c>
+      <c r="Y24">
+        <v>5</v>
+      </c>
+      <c r="Z24">
+        <v>6</v>
+      </c>
+      <c r="AA24">
+        <v>13</v>
+      </c>
+      <c r="AB24">
+        <v>12</v>
+      </c>
+      <c r="AC24">
+        <v>15</v>
+      </c>
+      <c r="AD24">
+        <v>17</v>
+      </c>
+      <c r="AE24">
+        <v>21</v>
+      </c>
+      <c r="AF24">
+        <v>23</v>
+      </c>
+      <c r="AG24">
+        <v>26</v>
+      </c>
+      <c r="AH24">
+        <v>31</v>
+      </c>
+      <c r="AI24">
+        <v>36</v>
+      </c>
+      <c r="AJ24">
+        <v>35</v>
       </c>
       <c r="AK24">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="AL24">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="AN24">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="AO24">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="AP24">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="AQ24">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="AR24">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="AS24">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="AT24">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="AU24">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="AV24">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="AW24">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="AX24">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="AY24">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="AZ24">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="BA24">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="BB24">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:54" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="BC24">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="AK25">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="AL25">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="AN25">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="AO25">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="AP25">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="AQ25">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="AR25">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="AS25">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="AT25">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="AU25">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="AV25">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="AW25">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="AX25">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="AY25">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AZ25">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="BA25">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="BB25">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:54" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="BC25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B26" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK26">
+        <v>4</v>
+      </c>
+      <c r="AL26">
+        <v>5</v>
+      </c>
+      <c r="AN26">
+        <v>6</v>
+      </c>
+      <c r="AO26">
+        <v>7</v>
+      </c>
+      <c r="AP26">
         <v>10</v>
       </c>
-      <c r="V26">
-        <v>136</v>
-      </c>
-      <c r="W26">
-        <v>154</v>
-      </c>
-      <c r="X26">
-        <v>154</v>
-      </c>
-      <c r="Y26">
-        <v>156</v>
-      </c>
-      <c r="Z26">
-        <v>170</v>
-      </c>
-      <c r="AA26">
-        <v>167</v>
-      </c>
-      <c r="AB26">
-        <v>180</v>
-      </c>
-      <c r="AC26">
-        <v>195</v>
-      </c>
-      <c r="AD26">
-        <v>195</v>
-      </c>
-      <c r="AE26">
-        <v>203</v>
-      </c>
-      <c r="AF26">
-        <v>212</v>
-      </c>
-      <c r="AG26">
-        <v>264</v>
-      </c>
-      <c r="AH26">
-        <v>284</v>
-      </c>
-      <c r="AI26">
-        <v>289</v>
-      </c>
-      <c r="AJ26">
-        <v>270</v>
-      </c>
-      <c r="AK26">
-        <v>262</v>
-      </c>
-      <c r="AL26">
-        <v>224</v>
-      </c>
-      <c r="AN26">
-        <v>236</v>
-      </c>
-      <c r="AO26">
-        <v>169</v>
-      </c>
-      <c r="AP26">
-        <v>178</v>
-      </c>
       <c r="AQ26">
-        <v>139</v>
+        <v>17</v>
       </c>
       <c r="AR26">
-        <v>144</v>
+        <v>17</v>
       </c>
       <c r="AS26">
-        <v>136</v>
+        <v>21</v>
       </c>
       <c r="AT26">
-        <v>135</v>
+        <v>21</v>
       </c>
       <c r="AU26">
-        <v>124</v>
+        <v>22</v>
       </c>
       <c r="AV26">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="AW26">
-        <v>102</v>
+        <v>33</v>
       </c>
       <c r="AX26">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="AY26">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AZ26">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="BA26">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="BB26">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="27" spans="1:54" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="BC26">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V27">
+        <v>136</v>
+      </c>
+      <c r="W27">
+        <v>154</v>
+      </c>
+      <c r="X27">
+        <v>154</v>
+      </c>
+      <c r="Y27">
+        <v>156</v>
+      </c>
+      <c r="Z27">
+        <v>170</v>
+      </c>
+      <c r="AA27">
+        <v>167</v>
+      </c>
+      <c r="AB27">
+        <v>180</v>
+      </c>
+      <c r="AC27">
+        <v>195</v>
+      </c>
+      <c r="AD27">
+        <v>195</v>
+      </c>
+      <c r="AE27">
+        <v>203</v>
+      </c>
+      <c r="AF27">
+        <v>212</v>
+      </c>
+      <c r="AG27">
+        <v>264</v>
+      </c>
+      <c r="AH27">
+        <v>284</v>
+      </c>
+      <c r="AI27">
+        <v>289</v>
+      </c>
+      <c r="AJ27">
+        <v>270</v>
+      </c>
+      <c r="AK27">
+        <v>262</v>
+      </c>
+      <c r="AL27">
+        <v>224</v>
+      </c>
+      <c r="AN27">
+        <v>236</v>
+      </c>
+      <c r="AO27">
+        <v>169</v>
+      </c>
+      <c r="AP27">
+        <v>178</v>
+      </c>
+      <c r="AQ27">
         <v>139</v>
       </c>
-      <c r="W27">
-        <v>157</v>
-      </c>
-      <c r="X27">
-        <v>158</v>
-      </c>
-      <c r="Y27">
-        <v>161</v>
-      </c>
-      <c r="Z27">
-        <v>176</v>
-      </c>
-      <c r="AA27">
-        <v>180</v>
-      </c>
-      <c r="AB27">
-        <v>192</v>
-      </c>
-      <c r="AC27">
-        <v>210</v>
-      </c>
-      <c r="AD27">
-        <v>213</v>
-      </c>
-      <c r="AE27">
-        <v>224</v>
-      </c>
-      <c r="AF27">
-        <v>235</v>
-      </c>
-      <c r="AG27">
-        <v>290</v>
-      </c>
-      <c r="AH27">
-        <v>315</v>
-      </c>
-      <c r="AI27">
-        <v>325</v>
-      </c>
-      <c r="AJ27">
-        <v>305</v>
-      </c>
-      <c r="AK27">
-        <v>309</v>
-      </c>
-      <c r="AL27">
-        <v>290</v>
-      </c>
-      <c r="AN27">
-        <v>288</v>
-      </c>
-      <c r="AO27">
-        <v>221</v>
-      </c>
-      <c r="AP27">
-        <v>236</v>
-      </c>
-      <c r="AQ27">
-        <v>196</v>
-      </c>
       <c r="AR27">
-        <v>203</v>
+        <v>144</v>
       </c>
       <c r="AS27">
-        <v>196</v>
+        <v>136</v>
       </c>
       <c r="AT27">
-        <v>196</v>
+        <v>135</v>
       </c>
       <c r="AU27">
-        <v>186</v>
+        <v>124</v>
       </c>
       <c r="AV27">
-        <v>170</v>
+        <v>109</v>
       </c>
       <c r="AW27">
-        <v>158</v>
+        <v>102</v>
       </c>
       <c r="AX27">
-        <v>138</v>
+        <v>86</v>
       </c>
       <c r="AY27">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="AZ27">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="BA27">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="BB27">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="28" spans="1:54" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="BC27">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B28" t="s">
+        <v>11</v>
+      </c>
+      <c r="V28">
+        <v>139</v>
+      </c>
+      <c r="W28">
+        <v>157</v>
+      </c>
+      <c r="X28">
+        <v>158</v>
+      </c>
+      <c r="Y28">
+        <v>161</v>
+      </c>
+      <c r="Z28">
+        <v>176</v>
+      </c>
+      <c r="AA28">
+        <v>180</v>
+      </c>
+      <c r="AB28">
+        <v>192</v>
+      </c>
+      <c r="AC28">
+        <v>210</v>
+      </c>
+      <c r="AD28">
+        <v>213</v>
+      </c>
+      <c r="AE28">
+        <v>224</v>
+      </c>
+      <c r="AF28">
+        <v>235</v>
+      </c>
+      <c r="AG28">
+        <v>290</v>
+      </c>
+      <c r="AH28">
+        <v>315</v>
+      </c>
+      <c r="AI28">
+        <v>325</v>
+      </c>
+      <c r="AJ28">
+        <v>305</v>
+      </c>
+      <c r="AK28">
+        <v>309</v>
+      </c>
+      <c r="AL28">
+        <v>290</v>
+      </c>
+      <c r="AN28">
+        <v>288</v>
+      </c>
+      <c r="AO28">
+        <v>221</v>
+      </c>
+      <c r="AP28">
+        <v>236</v>
+      </c>
+      <c r="AQ28">
+        <v>196</v>
+      </c>
+      <c r="AR28">
+        <v>203</v>
+      </c>
+      <c r="AS28">
+        <v>196</v>
+      </c>
+      <c r="AT28">
+        <v>196</v>
+      </c>
+      <c r="AU28">
+        <v>186</v>
+      </c>
+      <c r="AV28">
+        <v>170</v>
+      </c>
+      <c r="AW28">
+        <v>158</v>
+      </c>
+      <c r="AX28">
+        <v>138</v>
+      </c>
+      <c r="AY28">
+        <v>130</v>
+      </c>
+      <c r="AZ28">
+        <v>130</v>
+      </c>
+      <c r="BA28">
+        <v>110</v>
+      </c>
+      <c r="BB28">
+        <v>116</v>
+      </c>
+      <c r="BC28">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="29" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" t="s">
         <v>12</v>
       </c>
-      <c r="V28">
+      <c r="V29">
         <v>103</v>
       </c>
-      <c r="W28">
+      <c r="W29">
         <v>112</v>
       </c>
-      <c r="X28">
+      <c r="X29">
         <v>112</v>
       </c>
-      <c r="Y28">
+      <c r="Y29">
         <v>116</v>
       </c>
-      <c r="Z28">
+      <c r="Z29">
         <v>136</v>
       </c>
-      <c r="AA28">
+      <c r="AA29">
         <v>153</v>
       </c>
-      <c r="AB28">
+      <c r="AB29">
         <v>159</v>
       </c>
-      <c r="AC28">
+      <c r="AC29">
         <v>175</v>
       </c>
-      <c r="AD28">
+      <c r="AD29">
         <v>194</v>
       </c>
-      <c r="AE28">
+      <c r="AE29">
         <v>203</v>
       </c>
-      <c r="AF28">
+      <c r="AF29">
         <v>204</v>
       </c>
-      <c r="AG28">
+      <c r="AG29">
         <v>203</v>
       </c>
-      <c r="AH28">
+      <c r="AH29">
         <v>223</v>
       </c>
-      <c r="AI28">
+      <c r="AI29">
         <v>247</v>
       </c>
-      <c r="AJ28">
+      <c r="AJ29">
         <v>299</v>
       </c>
-      <c r="AK28">
+      <c r="AK29">
         <v>330</v>
       </c>
-      <c r="AL28">
+      <c r="AL29">
         <v>364</v>
       </c>
-      <c r="AN28">
+      <c r="AN29">
         <v>395</v>
       </c>
-      <c r="AO28">
+      <c r="AO29">
         <v>446</v>
       </c>
-      <c r="AP28">
+      <c r="AP29">
         <v>496</v>
       </c>
-      <c r="AQ28">
+      <c r="AQ29">
         <v>559</v>
       </c>
-      <c r="AR28">
+      <c r="AR29">
         <v>571</v>
       </c>
-      <c r="AS28">
+      <c r="AS29">
         <v>580</v>
       </c>
-      <c r="AT28">
+      <c r="AT29">
         <v>580</v>
       </c>
-      <c r="AU28">
+      <c r="AU29">
         <v>583</v>
       </c>
-      <c r="AV28">
+      <c r="AV29">
         <v>640</v>
       </c>
-      <c r="AW28">
+      <c r="AW29">
         <v>670</v>
       </c>
-      <c r="AX28">
+      <c r="AX29">
         <v>697</v>
       </c>
-      <c r="AY28">
+      <c r="AY29">
         <v>713</v>
       </c>
-      <c r="AZ28">
+      <c r="AZ29">
         <v>713</v>
       </c>
-      <c r="BA28">
+      <c r="BA29">
         <v>713</v>
       </c>
-      <c r="BB28">
+      <c r="BB29">
         <v>743</v>
       </c>
-    </row>
-    <row r="30" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="B30" s="3" t="s">
+      <c r="BC29">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="31" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="B31" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B31" t="s">
-        <v>53</v>
-      </c>
-      <c r="V31">
-        <v>1</v>
-      </c>
-      <c r="W31">
-        <v>1</v>
-      </c>
-      <c r="X31">
-        <v>1</v>
-      </c>
-      <c r="Y31">
-        <v>1</v>
-      </c>
-      <c r="Z31">
-        <v>1</v>
-      </c>
-      <c r="AA31">
-        <v>1</v>
-      </c>
-      <c r="AB31">
-        <v>2</v>
-      </c>
-      <c r="AC31">
-        <v>3</v>
-      </c>
-      <c r="AD31">
-        <v>3</v>
-      </c>
-      <c r="AE31">
-        <v>4</v>
-      </c>
-      <c r="AF31">
-        <v>4</v>
-      </c>
-      <c r="AG31">
-        <v>5</v>
-      </c>
-      <c r="AH31">
-        <v>7</v>
-      </c>
-      <c r="AI31">
-        <v>11</v>
-      </c>
-      <c r="AJ31">
-        <v>11</v>
-      </c>
-      <c r="AK31">
-        <v>15</v>
-      </c>
-      <c r="AL31">
-        <v>15</v>
-      </c>
-      <c r="AN31">
-        <v>18</v>
-      </c>
-      <c r="AO31">
-        <v>18</v>
-      </c>
-      <c r="AP31">
-        <v>19</v>
-      </c>
-      <c r="AQ31">
-        <v>20</v>
-      </c>
-      <c r="AR31">
-        <v>23</v>
-      </c>
-      <c r="AS31">
-        <v>26</v>
-      </c>
-      <c r="AT31">
-        <v>25</v>
-      </c>
-      <c r="AU31">
-        <v>27</v>
-      </c>
-      <c r="AV31">
-        <v>27</v>
-      </c>
-      <c r="AW31">
-        <v>29</v>
-      </c>
-      <c r="AX31">
-        <v>30</v>
-      </c>
-      <c r="AY31">
-        <v>37</v>
-      </c>
-      <c r="AZ31">
-        <v>37</v>
-      </c>
-      <c r="BA31">
-        <v>37</v>
-      </c>
-      <c r="BB31">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B32" t="s">
-        <v>62</v>
+        <v>53</v>
+      </c>
+      <c r="V32">
+        <v>1</v>
+      </c>
+      <c r="W32">
+        <v>1</v>
+      </c>
+      <c r="X32">
+        <v>1</v>
+      </c>
+      <c r="Y32">
+        <v>1</v>
+      </c>
+      <c r="Z32">
+        <v>1</v>
+      </c>
+      <c r="AA32">
+        <v>1</v>
+      </c>
+      <c r="AB32">
+        <v>2</v>
+      </c>
+      <c r="AC32">
+        <v>3</v>
+      </c>
+      <c r="AD32">
+        <v>3</v>
+      </c>
+      <c r="AE32">
+        <v>4</v>
+      </c>
+      <c r="AF32">
+        <v>4</v>
+      </c>
+      <c r="AG32">
+        <v>5</v>
+      </c>
+      <c r="AH32">
+        <v>7</v>
+      </c>
+      <c r="AI32">
+        <v>11</v>
+      </c>
+      <c r="AJ32">
+        <v>11</v>
+      </c>
+      <c r="AK32">
+        <v>15</v>
       </c>
       <c r="AL32">
         <v>15</v>
@@ -3147,2010 +3174,2088 @@
         <v>20</v>
       </c>
       <c r="AR32">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AS32">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="AT32">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="AU32">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="AV32">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="AW32">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AX32">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="AY32">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AZ32">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="BA32">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="BB32">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="33" spans="1:54" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="BC32">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AL33">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AN33">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AO33">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AP33">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AQ33">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AR33">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="AS33">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="AT33">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="AU33">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="AV33">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="AW33">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="AX33">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="AY33">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AZ33">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="BA33">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="BB33">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:54" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="BC33">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B34" t="s">
-        <v>10</v>
-      </c>
-      <c r="V34">
-        <v>16</v>
-      </c>
-      <c r="W34">
-        <v>71</v>
-      </c>
-      <c r="X34">
-        <v>71</v>
-      </c>
-      <c r="Y34">
-        <v>71</v>
-      </c>
-      <c r="Z34">
-        <v>102</v>
-      </c>
-      <c r="AA34">
-        <v>112</v>
-      </c>
-      <c r="AB34">
-        <v>114</v>
-      </c>
-      <c r="AC34">
-        <v>132</v>
-      </c>
-      <c r="AD34">
-        <v>137</v>
-      </c>
-      <c r="AE34">
-        <v>137</v>
-      </c>
-      <c r="AF34">
-        <v>137</v>
-      </c>
-      <c r="AG34">
-        <v>196</v>
-      </c>
-      <c r="AH34">
-        <v>212</v>
-      </c>
-      <c r="AI34">
-        <v>201</v>
-      </c>
-      <c r="AJ34">
-        <v>190</v>
-      </c>
-      <c r="AK34">
-        <v>159</v>
+        <v>63</v>
       </c>
       <c r="AL34">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="AN34">
-        <v>167</v>
+        <v>0</v>
       </c>
       <c r="AO34">
-        <v>167</v>
+        <v>0</v>
       </c>
       <c r="AP34">
-        <v>149</v>
+        <v>0</v>
       </c>
       <c r="AQ34">
-        <v>149</v>
+        <v>0</v>
       </c>
       <c r="AR34">
-        <v>147</v>
+        <v>3</v>
       </c>
       <c r="AS34">
-        <v>134</v>
+        <v>7</v>
       </c>
       <c r="AT34">
-        <v>134</v>
+        <v>7</v>
       </c>
       <c r="AU34">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="AV34">
-        <v>126</v>
+        <v>7</v>
       </c>
       <c r="AW34">
-        <v>124</v>
+        <v>7</v>
       </c>
       <c r="AX34">
-        <v>114</v>
+        <v>8</v>
       </c>
       <c r="AY34">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AZ34">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="BA34">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="BB34">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="1:54" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="BC34">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V35">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="W35">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="X35">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Y35">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Z35">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AA35">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AB35">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AC35">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="AD35">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="AE35">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="AF35">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="AG35">
+        <v>196</v>
+      </c>
+      <c r="AH35">
+        <v>212</v>
+      </c>
+      <c r="AI35">
         <v>201</v>
       </c>
-      <c r="AI35">
-        <v>208</v>
-      </c>
       <c r="AJ35">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="AK35">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="AL35">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="AN35">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="AO35">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="AP35">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="AQ35">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="AR35">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="AS35">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="AT35">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="AU35">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="AV35">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="AW35">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="AX35">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="AY35">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="AZ35">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="BA35">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="BB35">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="36" spans="1:54" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="BC35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B36" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V36">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="W36">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="X36">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="Y36">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="Z36">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="AA36">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="AB36">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="AC36">
-        <v>1</v>
+        <v>135</v>
       </c>
       <c r="AD36">
-        <v>1</v>
+        <v>140</v>
       </c>
       <c r="AE36">
-        <v>1</v>
+        <v>141</v>
       </c>
       <c r="AF36">
-        <v>1</v>
+        <v>141</v>
       </c>
       <c r="AG36">
-        <v>2</v>
-      </c>
-      <c r="AH36">
-        <v>8</v>
+        <v>201</v>
       </c>
       <c r="AI36">
-        <v>8</v>
+        <v>208</v>
       </c>
       <c r="AJ36">
-        <v>14</v>
+        <v>201</v>
       </c>
       <c r="AK36">
-        <v>27</v>
+        <v>174</v>
       </c>
       <c r="AL36">
-        <v>27</v>
+        <v>174</v>
       </c>
       <c r="AN36">
-        <v>36</v>
+        <v>185</v>
       </c>
       <c r="AO36">
-        <v>36</v>
+        <v>185</v>
       </c>
       <c r="AP36">
-        <v>53</v>
+        <v>168</v>
       </c>
       <c r="AQ36">
-        <v>53</v>
+        <v>168</v>
       </c>
       <c r="AR36">
-        <v>54</v>
+        <v>167</v>
       </c>
       <c r="AS36">
-        <v>63</v>
+        <v>152</v>
       </c>
       <c r="AT36">
-        <v>63</v>
+        <v>152</v>
       </c>
       <c r="AU36">
-        <v>95</v>
+        <v>144</v>
       </c>
       <c r="AV36">
-        <v>100</v>
+        <v>145</v>
       </c>
       <c r="AW36">
-        <v>104</v>
+        <v>145</v>
       </c>
       <c r="AX36">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="AY36">
-        <v>119</v>
+        <v>61</v>
       </c>
       <c r="AZ36">
-        <v>119</v>
+        <v>61</v>
       </c>
       <c r="BA36">
-        <v>119</v>
+        <v>61</v>
       </c>
       <c r="BB36">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="37" spans="1:54" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="BC36">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B37" t="s">
+        <v>12</v>
+      </c>
+      <c r="V37">
+        <v>0</v>
+      </c>
+      <c r="W37">
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <v>0</v>
+      </c>
+      <c r="Y37">
+        <v>0</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+      <c r="AA37">
+        <v>0</v>
+      </c>
+      <c r="AB37">
+        <v>0</v>
+      </c>
+      <c r="AC37">
+        <v>1</v>
+      </c>
+      <c r="AD37">
+        <v>1</v>
+      </c>
+      <c r="AE37">
+        <v>1</v>
+      </c>
+      <c r="AF37">
+        <v>1</v>
+      </c>
+      <c r="AG37">
+        <v>2</v>
+      </c>
+      <c r="AH37">
+        <v>8</v>
+      </c>
+      <c r="AI37">
+        <v>8</v>
+      </c>
+      <c r="AJ37">
+        <v>14</v>
+      </c>
+      <c r="AK37">
+        <v>27</v>
+      </c>
+      <c r="AL37">
+        <v>27</v>
+      </c>
+      <c r="AN37">
+        <v>36</v>
+      </c>
+      <c r="AO37">
+        <v>36</v>
+      </c>
+      <c r="AP37">
+        <v>53</v>
+      </c>
+      <c r="AQ37">
+        <v>53</v>
+      </c>
+      <c r="AR37">
+        <v>54</v>
+      </c>
+      <c r="AS37">
+        <v>63</v>
+      </c>
+      <c r="AT37">
+        <v>63</v>
+      </c>
+      <c r="AU37">
+        <v>95</v>
+      </c>
+      <c r="AV37">
+        <v>100</v>
+      </c>
+      <c r="AW37">
+        <v>104</v>
+      </c>
+      <c r="AX37">
+        <v>115</v>
+      </c>
+      <c r="AY37">
+        <v>119</v>
+      </c>
+      <c r="AZ37">
+        <v>119</v>
+      </c>
+      <c r="BA37">
+        <v>119</v>
+      </c>
+      <c r="BB37">
+        <v>123</v>
+      </c>
+      <c r="BC37">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="38" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" t="s">
         <v>72</v>
       </c>
-      <c r="AS37">
-        <v>1</v>
-      </c>
-      <c r="AT37">
-        <v>1</v>
-      </c>
-      <c r="AU37">
-        <v>1</v>
-      </c>
-      <c r="AV37">
-        <v>1</v>
-      </c>
-      <c r="AW37">
-        <v>1</v>
-      </c>
-      <c r="AX37">
-        <v>1</v>
-      </c>
-      <c r="AY37">
-        <v>1</v>
-      </c>
-      <c r="AZ37">
-        <v>1</v>
-      </c>
-      <c r="BA37">
-        <v>1</v>
-      </c>
-      <c r="BB37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
-    </row>
-    <row r="39" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="B39" s="3" t="s">
+      <c r="AS38">
+        <v>1</v>
+      </c>
+      <c r="AT38">
+        <v>1</v>
+      </c>
+      <c r="AU38">
+        <v>1</v>
+      </c>
+      <c r="AV38">
+        <v>1</v>
+      </c>
+      <c r="AW38">
+        <v>1</v>
+      </c>
+      <c r="AX38">
+        <v>1</v>
+      </c>
+      <c r="AY38">
+        <v>1</v>
+      </c>
+      <c r="AZ38">
+        <v>1</v>
+      </c>
+      <c r="BA38">
+        <v>1</v>
+      </c>
+      <c r="BB38">
+        <v>1</v>
+      </c>
+      <c r="BC38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A39" s="2"/>
+    </row>
+    <row r="40" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="B40" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B40" t="s">
-        <v>60</v>
-      </c>
-      <c r="U40">
-        <v>0</v>
-      </c>
-      <c r="V40">
-        <v>1</v>
-      </c>
-      <c r="W40">
-        <v>1</v>
-      </c>
-      <c r="X40">
-        <v>3</v>
-      </c>
-      <c r="Y40">
-        <v>4</v>
-      </c>
-      <c r="Z40">
-        <v>5</v>
-      </c>
-      <c r="AA40">
-        <v>6</v>
-      </c>
-      <c r="AB40">
-        <v>6</v>
-      </c>
-      <c r="AC40">
-        <v>12</v>
-      </c>
-      <c r="AD40">
-        <v>12</v>
-      </c>
-      <c r="AE40">
-        <v>14</v>
-      </c>
-      <c r="AF40">
-        <v>18</v>
-      </c>
-      <c r="AG40">
-        <v>20</v>
-      </c>
-      <c r="AH40">
-        <v>28</v>
-      </c>
-      <c r="AI40">
-        <v>37</v>
-      </c>
-      <c r="AJ40">
-        <v>33</v>
-      </c>
-      <c r="AK40">
-        <v>47</v>
-      </c>
-      <c r="AL40">
-        <v>52</v>
-      </c>
-      <c r="AN40">
-        <v>53</v>
-      </c>
-      <c r="AO40">
-        <v>56</v>
-      </c>
-      <c r="AP40">
-        <v>62</v>
-      </c>
-      <c r="AQ40">
-        <v>65</v>
-      </c>
-      <c r="AR40">
-        <v>75</v>
-      </c>
-      <c r="AS40">
-        <v>82</v>
-      </c>
-      <c r="AT40">
-        <v>90</v>
-      </c>
-      <c r="AU40">
-        <v>96</v>
-      </c>
-      <c r="AV40">
-        <v>99</v>
-      </c>
-      <c r="AW40">
-        <v>104</v>
-      </c>
-      <c r="AX40">
-        <v>110</v>
-      </c>
-      <c r="AY40">
-        <v>112</v>
-      </c>
-      <c r="AZ40">
-        <v>121</v>
-      </c>
-      <c r="BA40">
-        <v>125</v>
-      </c>
-      <c r="BB40">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="41" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B41" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="U41">
+        <v>0</v>
+      </c>
+      <c r="V41">
+        <v>1</v>
+      </c>
+      <c r="W41">
+        <v>1</v>
+      </c>
+      <c r="X41">
+        <v>3</v>
+      </c>
+      <c r="Y41">
+        <v>4</v>
+      </c>
+      <c r="Z41">
+        <v>5</v>
+      </c>
+      <c r="AA41">
+        <v>6</v>
+      </c>
+      <c r="AB41">
+        <v>6</v>
+      </c>
+      <c r="AC41">
+        <v>12</v>
+      </c>
+      <c r="AD41">
+        <v>12</v>
+      </c>
+      <c r="AE41">
+        <v>14</v>
+      </c>
+      <c r="AF41">
+        <v>18</v>
+      </c>
+      <c r="AG41">
+        <v>20</v>
+      </c>
+      <c r="AH41">
+        <v>28</v>
+      </c>
+      <c r="AI41">
+        <v>37</v>
+      </c>
+      <c r="AJ41">
+        <v>33</v>
       </c>
       <c r="AK41">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="AL41">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AN41">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="AO41">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="AP41">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="AQ41">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="AR41">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="AS41">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="AT41">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="AU41">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="AV41">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="AW41">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="AX41">
-        <v>47</v>
+        <v>110</v>
       </c>
       <c r="AY41">
-        <v>49</v>
+        <v>112</v>
       </c>
       <c r="AZ41">
-        <v>54</v>
+        <v>121</v>
       </c>
       <c r="BA41">
-        <v>52</v>
+        <v>125</v>
       </c>
       <c r="BB41">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="42" spans="1:54" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="BC41">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="42" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B42" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AK42">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="AL42">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="AN42">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="AO42">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="AP42">
+        <v>21</v>
+      </c>
+      <c r="AQ42">
+        <v>22</v>
+      </c>
+      <c r="AR42">
+        <v>31</v>
+      </c>
+      <c r="AS42">
+        <v>31</v>
+      </c>
+      <c r="AT42">
         <v>40</v>
       </c>
-      <c r="AQ42">
-        <v>43</v>
-      </c>
-      <c r="AR42">
-        <v>43</v>
-      </c>
-      <c r="AS42">
-        <v>50</v>
-      </c>
-      <c r="AT42">
-        <v>50</v>
-      </c>
       <c r="AU42">
+        <v>44</v>
+      </c>
+      <c r="AV42">
+        <v>45</v>
+      </c>
+      <c r="AW42">
+        <v>46</v>
+      </c>
+      <c r="AX42">
+        <v>47</v>
+      </c>
+      <c r="AY42">
+        <v>49</v>
+      </c>
+      <c r="AZ42">
+        <v>54</v>
+      </c>
+      <c r="BA42">
         <v>52</v>
       </c>
-      <c r="AV42">
-        <v>52</v>
-      </c>
-      <c r="AW42">
-        <v>56</v>
-      </c>
-      <c r="AX42">
-        <v>62</v>
-      </c>
-      <c r="AY42">
-        <v>62</v>
-      </c>
-      <c r="AZ42">
-        <v>68</v>
-      </c>
-      <c r="BA42">
-        <v>72</v>
-      </c>
       <c r="BB42">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="43" spans="1:54" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="BC42">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B43" t="s">
-        <v>14</v>
-      </c>
-      <c r="V43">
-        <v>36</v>
-      </c>
-      <c r="W43">
-        <v>39</v>
-      </c>
-      <c r="X43">
+        <v>59</v>
+      </c>
+      <c r="AK43">
+        <v>9</v>
+      </c>
+      <c r="AL43">
+        <v>9</v>
+      </c>
+      <c r="AN43">
+        <v>9</v>
+      </c>
+      <c r="AO43">
+        <v>32</v>
+      </c>
+      <c r="AP43">
+        <v>40</v>
+      </c>
+      <c r="AQ43">
+        <v>43</v>
+      </c>
+      <c r="AR43">
+        <v>43</v>
+      </c>
+      <c r="AS43">
+        <v>50</v>
+      </c>
+      <c r="AT43">
+        <v>50</v>
+      </c>
+      <c r="AU43">
+        <v>52</v>
+      </c>
+      <c r="AV43">
+        <v>52</v>
+      </c>
+      <c r="AW43">
+        <v>56</v>
+      </c>
+      <c r="AX43">
+        <v>62</v>
+      </c>
+      <c r="AY43">
+        <v>62</v>
+      </c>
+      <c r="AZ43">
+        <v>68</v>
+      </c>
+      <c r="BA43">
+        <v>72</v>
+      </c>
+      <c r="BB43">
+        <v>75</v>
+      </c>
+      <c r="BC43">
         <v>85</v>
       </c>
-      <c r="Y43">
-        <v>83</v>
-      </c>
-      <c r="Z43">
-        <v>83</v>
-      </c>
-      <c r="AA43">
-        <v>82</v>
-      </c>
-      <c r="AB43">
-        <v>80</v>
-      </c>
-      <c r="AC43">
-        <v>129</v>
-      </c>
-      <c r="AD43">
-        <v>129</v>
-      </c>
-      <c r="AE43">
-        <v>126</v>
-      </c>
-      <c r="AF43">
-        <v>153</v>
-      </c>
-      <c r="AG43">
-        <v>232</v>
-      </c>
-      <c r="AH43">
-        <v>230</v>
-      </c>
-      <c r="AI43">
-        <v>230</v>
-      </c>
-      <c r="AJ43">
-        <v>230</v>
-      </c>
-      <c r="AK43">
-        <v>224</v>
-      </c>
-      <c r="AL43">
-        <v>224</v>
-      </c>
-      <c r="AN43">
-        <v>385</v>
-      </c>
-      <c r="AO43">
-        <v>429</v>
-      </c>
-      <c r="AP43">
-        <v>414</v>
-      </c>
-      <c r="AQ43">
-        <v>512</v>
-      </c>
-      <c r="AR43">
-        <v>505</v>
-      </c>
-      <c r="AS43">
-        <v>849</v>
-      </c>
-      <c r="AT43">
-        <v>840</v>
-      </c>
-      <c r="AU43">
-        <v>954</v>
-      </c>
-      <c r="AV43">
-        <v>1014</v>
-      </c>
-      <c r="AW43">
-        <v>976</v>
-      </c>
-      <c r="AX43">
-        <v>971</v>
-      </c>
-      <c r="AY43">
-        <v>808</v>
-      </c>
-      <c r="AZ43">
-        <v>792</v>
-      </c>
-      <c r="BA43">
-        <v>794</v>
-      </c>
-      <c r="BB43">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="44" spans="1:54" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B44" t="s">
-        <v>61</v>
+        <v>14</v>
+      </c>
+      <c r="V44">
+        <v>36</v>
+      </c>
+      <c r="W44">
+        <v>39</v>
+      </c>
+      <c r="X44">
+        <v>85</v>
+      </c>
+      <c r="Y44">
+        <v>83</v>
+      </c>
+      <c r="Z44">
+        <v>83</v>
+      </c>
+      <c r="AA44">
+        <v>82</v>
+      </c>
+      <c r="AB44">
+        <v>80</v>
+      </c>
+      <c r="AC44">
+        <v>129</v>
+      </c>
+      <c r="AD44">
+        <v>129</v>
+      </c>
+      <c r="AE44">
+        <v>126</v>
+      </c>
+      <c r="AF44">
+        <v>153</v>
+      </c>
+      <c r="AG44">
+        <v>232</v>
+      </c>
+      <c r="AH44">
+        <v>230</v>
+      </c>
+      <c r="AI44">
+        <v>230</v>
+      </c>
+      <c r="AJ44">
+        <v>230</v>
       </c>
       <c r="AK44">
-        <v>262</v>
+        <v>224</v>
       </c>
       <c r="AL44">
-        <v>267</v>
+        <v>224</v>
       </c>
       <c r="AN44">
+        <v>385</v>
+      </c>
+      <c r="AO44">
         <v>429</v>
       </c>
-      <c r="AO44">
-        <v>452</v>
-      </c>
       <c r="AP44">
-        <v>435</v>
+        <v>414</v>
       </c>
       <c r="AQ44">
-        <v>534</v>
+        <v>512</v>
       </c>
       <c r="AR44">
-        <v>536</v>
+        <v>505</v>
       </c>
       <c r="AS44">
-        <v>880</v>
+        <v>849</v>
       </c>
       <c r="AT44">
-        <v>880</v>
+        <v>840</v>
       </c>
       <c r="AU44">
-        <v>998</v>
+        <v>954</v>
       </c>
       <c r="AV44">
-        <v>1059</v>
+        <v>1014</v>
       </c>
       <c r="AW44">
-        <v>1022</v>
+        <v>976</v>
       </c>
       <c r="AX44">
-        <v>1018</v>
+        <v>971</v>
       </c>
       <c r="AY44">
-        <v>857</v>
+        <v>808</v>
       </c>
       <c r="AZ44">
-        <v>846</v>
+        <v>792</v>
       </c>
       <c r="BA44">
-        <v>846</v>
+        <v>794</v>
       </c>
       <c r="BB44">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="45" spans="1:54" x14ac:dyDescent="0.25">
+        <v>852</v>
+      </c>
+      <c r="BC44">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="45" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B45" t="s">
-        <v>64</v>
+        <v>61</v>
+      </c>
+      <c r="AK45">
+        <v>262</v>
       </c>
       <c r="AL45">
-        <v>9</v>
+        <v>267</v>
       </c>
       <c r="AN45">
-        <v>9</v>
+        <v>429</v>
       </c>
       <c r="AO45">
-        <v>32</v>
+        <v>452</v>
       </c>
       <c r="AP45">
-        <v>40</v>
+        <v>435</v>
       </c>
       <c r="AQ45">
-        <v>43</v>
+        <v>534</v>
       </c>
       <c r="AR45">
-        <v>43</v>
+        <v>536</v>
       </c>
       <c r="AS45">
-        <v>50</v>
+        <v>880</v>
       </c>
       <c r="AT45">
-        <v>50</v>
+        <v>880</v>
       </c>
       <c r="AU45">
-        <v>52</v>
+        <v>998</v>
       </c>
       <c r="AV45">
-        <v>53</v>
+        <v>1059</v>
       </c>
       <c r="AW45">
-        <v>56</v>
+        <v>1022</v>
       </c>
       <c r="AX45">
-        <v>65</v>
+        <v>1018</v>
       </c>
       <c r="AY45">
-        <v>223</v>
+        <v>857</v>
       </c>
       <c r="AZ45">
-        <v>244</v>
+        <v>846</v>
       </c>
       <c r="BA45">
-        <v>248</v>
+        <v>846</v>
       </c>
       <c r="BB45">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="46" spans="1:54" x14ac:dyDescent="0.25">
+        <v>903</v>
+      </c>
+      <c r="BC45">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="46" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B46" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL46">
+        <v>9</v>
+      </c>
+      <c r="AN46">
+        <v>9</v>
+      </c>
+      <c r="AO46">
+        <v>32</v>
+      </c>
+      <c r="AP46">
+        <v>40</v>
+      </c>
+      <c r="AQ46">
+        <v>43</v>
+      </c>
+      <c r="AR46">
+        <v>43</v>
+      </c>
+      <c r="AS46">
+        <v>50</v>
+      </c>
+      <c r="AT46">
+        <v>50</v>
+      </c>
+      <c r="AU46">
+        <v>52</v>
+      </c>
+      <c r="AV46">
+        <v>53</v>
+      </c>
+      <c r="AW46">
+        <v>56</v>
+      </c>
+      <c r="AX46">
+        <v>65</v>
+      </c>
+      <c r="AY46">
+        <v>223</v>
+      </c>
+      <c r="AZ46">
+        <v>244</v>
+      </c>
+      <c r="BA46">
+        <v>248</v>
+      </c>
+      <c r="BB46">
+        <v>251</v>
+      </c>
+      <c r="BC46">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="47" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B47" t="s">
         <v>68</v>
       </c>
-      <c r="AO46">
-        <v>1</v>
-      </c>
-      <c r="AP46">
-        <v>1</v>
-      </c>
-      <c r="AQ46">
-        <v>1</v>
-      </c>
-      <c r="AR46">
-        <v>1</v>
-      </c>
-      <c r="AS46">
-        <v>1</v>
-      </c>
-      <c r="AT46">
-        <v>1</v>
-      </c>
-      <c r="AU46">
-        <v>1</v>
-      </c>
-      <c r="AV46">
-        <v>1</v>
-      </c>
-      <c r="AW46">
-        <v>1</v>
-      </c>
-      <c r="AX46">
-        <v>1</v>
-      </c>
-      <c r="AY46">
-        <v>1</v>
-      </c>
-      <c r="AZ46">
-        <v>1</v>
-      </c>
-      <c r="BA46">
-        <v>1</v>
-      </c>
-      <c r="BB46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A47" s="2"/>
-    </row>
-    <row r="48" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
+      <c r="AO47">
+        <v>1</v>
+      </c>
+      <c r="AP47">
+        <v>1</v>
+      </c>
+      <c r="AQ47">
+        <v>1</v>
+      </c>
+      <c r="AR47">
+        <v>1</v>
+      </c>
+      <c r="AS47">
+        <v>1</v>
+      </c>
+      <c r="AT47">
+        <v>1</v>
+      </c>
+      <c r="AU47">
+        <v>1</v>
+      </c>
+      <c r="AV47">
+        <v>1</v>
+      </c>
+      <c r="AW47">
+        <v>1</v>
+      </c>
+      <c r="AX47">
+        <v>1</v>
+      </c>
+      <c r="AY47">
+        <v>1</v>
+      </c>
+      <c r="AZ47">
+        <v>1</v>
+      </c>
+      <c r="BA47">
+        <v>1</v>
+      </c>
+      <c r="BB47">
+        <v>1</v>
+      </c>
+      <c r="BC47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A48" s="2"/>
+    </row>
+    <row r="49" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B49" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z49">
-        <v>0</v>
-      </c>
-      <c r="AA49">
-        <v>1</v>
-      </c>
-      <c r="AB49">
-        <v>2</v>
-      </c>
-      <c r="AC49">
-        <v>2</v>
-      </c>
-      <c r="AD49">
-        <v>3</v>
-      </c>
-      <c r="AE49">
-        <v>2</v>
-      </c>
-      <c r="AF49">
-        <v>3</v>
-      </c>
-      <c r="AG49">
-        <v>4</v>
-      </c>
-      <c r="AH49">
-        <v>4</v>
-      </c>
-      <c r="AI49">
-        <v>4</v>
-      </c>
-      <c r="AJ49">
-        <v>5</v>
-      </c>
-      <c r="AK49">
-        <v>6</v>
-      </c>
-      <c r="AL49">
-        <v>5</v>
-      </c>
-      <c r="AN49">
-        <v>7</v>
-      </c>
-      <c r="AO49">
-        <v>9</v>
-      </c>
-      <c r="AP49">
-        <v>10</v>
-      </c>
-      <c r="AQ49">
-        <v>13</v>
-      </c>
-      <c r="AR49">
-        <v>14</v>
-      </c>
-      <c r="AS49">
-        <v>14</v>
-      </c>
-      <c r="AT49">
-        <v>14</v>
-      </c>
-      <c r="AU49">
-        <v>18</v>
-      </c>
-      <c r="AV49">
-        <v>19</v>
-      </c>
-      <c r="AW49">
-        <v>20</v>
-      </c>
-      <c r="AX49">
-        <v>21</v>
-      </c>
-      <c r="AY49">
-        <v>22</v>
-      </c>
-      <c r="AZ49">
-        <v>22</v>
-      </c>
-      <c r="BA49">
-        <v>22</v>
-      </c>
-      <c r="BB49">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="50" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B50" t="s">
-        <v>62</v>
+        <v>9</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <v>1</v>
+      </c>
+      <c r="AB50">
+        <v>2</v>
+      </c>
+      <c r="AC50">
+        <v>2</v>
+      </c>
+      <c r="AD50">
+        <v>3</v>
+      </c>
+      <c r="AE50">
+        <v>2</v>
+      </c>
+      <c r="AF50">
+        <v>3</v>
+      </c>
+      <c r="AG50">
+        <v>4</v>
+      </c>
+      <c r="AH50">
+        <v>4</v>
+      </c>
+      <c r="AI50">
+        <v>4</v>
+      </c>
+      <c r="AJ50">
+        <v>5</v>
+      </c>
+      <c r="AK50">
+        <v>6</v>
       </c>
       <c r="AL50">
         <v>5</v>
       </c>
       <c r="AN50">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO50">
         <v>9</v>
       </c>
       <c r="AP50">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AQ50">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AR50">
         <v>14</v>
       </c>
       <c r="AS50">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AT50">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AU50">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AV50">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AW50">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AX50">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AY50">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="AZ50">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="BA50">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="BB50">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="51" spans="1:54" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="BC50">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B51" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL51">
+        <v>5</v>
+      </c>
+      <c r="AN51">
+        <v>6</v>
+      </c>
+      <c r="AO51">
+        <v>9</v>
+      </c>
+      <c r="AP51">
+        <v>9</v>
+      </c>
+      <c r="AQ51">
         <v>12</v>
       </c>
-      <c r="AL51">
-        <v>0</v>
-      </c>
-      <c r="AN51">
-        <v>0</v>
-      </c>
-      <c r="AO51">
-        <v>0</v>
-      </c>
-      <c r="AP51">
-        <v>0</v>
-      </c>
-      <c r="AQ51">
-        <v>0</v>
-      </c>
       <c r="AR51">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AS51">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AT51">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AU51">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="AV51">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="AW51">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="AX51">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="AY51">
         <v>4</v>
       </c>
       <c r="AZ51">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="BA51">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="BB51">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:54" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="BC51">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B52" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z52">
-        <v>40</v>
-      </c>
-      <c r="AA52">
-        <v>54</v>
-      </c>
-      <c r="AB52">
-        <v>54</v>
-      </c>
-      <c r="AC52">
-        <v>51</v>
-      </c>
-      <c r="AD52">
-        <v>53</v>
-      </c>
-      <c r="AE52">
-        <v>53</v>
-      </c>
-      <c r="AF52">
-        <v>66</v>
-      </c>
-      <c r="AG52">
-        <v>66</v>
-      </c>
-      <c r="AH52">
-        <v>73</v>
-      </c>
-      <c r="AI52">
-        <v>87</v>
-      </c>
-      <c r="AJ52">
-        <v>87</v>
-      </c>
-      <c r="AK52">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="AL52">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="AN52">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="AO52">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AP52">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="AQ52">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="AR52">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="AS52">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="AT52">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="AU52">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="AV52">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="AW52">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="AX52">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="AY52">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="AZ52">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="BA52">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="BB52">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="53" spans="1:54" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="BC52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B53" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z53">
         <v>40</v>
       </c>
       <c r="AA53">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AB53">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AC53">
+        <v>51</v>
+      </c>
+      <c r="AD53">
         <v>53</v>
       </c>
-      <c r="AD53">
-        <v>56</v>
-      </c>
       <c r="AE53">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AF53">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="AG53">
+        <v>66</v>
+      </c>
+      <c r="AH53">
+        <v>73</v>
+      </c>
+      <c r="AI53">
+        <v>87</v>
+      </c>
+      <c r="AJ53">
+        <v>87</v>
+      </c>
+      <c r="AK53">
+        <v>81</v>
+      </c>
+      <c r="AL53">
+        <v>87</v>
+      </c>
+      <c r="AN53">
+        <v>81</v>
+      </c>
+      <c r="AO53">
         <v>70</v>
       </c>
-      <c r="AH53">
-        <v>77</v>
-      </c>
-      <c r="AI53">
-        <v>91</v>
-      </c>
-      <c r="AJ53">
-        <v>92</v>
-      </c>
-      <c r="AK53">
-        <v>87</v>
-      </c>
-      <c r="AL53">
-        <v>92</v>
-      </c>
-      <c r="AN53">
-        <v>87</v>
-      </c>
-      <c r="AO53">
-        <v>79</v>
-      </c>
       <c r="AP53">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="AQ53">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="AR53">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="AS53">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="AT53">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="AU53">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="AV53">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="AW53">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="AX53">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="AY53">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AZ53">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="BA53">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="BB53">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="54" spans="1:54" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="BC53">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B54" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z54">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="AA54">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="AB54">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="AC54">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="AD54">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="AE54">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="AF54">
-        <v>8</v>
+        <v>69</v>
       </c>
       <c r="AG54">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="AH54">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="AI54">
-        <v>8</v>
+        <v>91</v>
       </c>
       <c r="AJ54">
-        <v>8</v>
+        <v>92</v>
       </c>
       <c r="AK54">
-        <v>8</v>
+        <v>87</v>
       </c>
       <c r="AL54">
-        <v>8</v>
+        <v>92</v>
       </c>
       <c r="AN54">
-        <v>8</v>
+        <v>87</v>
       </c>
       <c r="AO54">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="AP54">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="AQ54">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="AR54">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="AS54">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="AT54">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="AU54">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="AV54">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AW54">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="AX54">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="AY54">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="AZ54">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="BA54">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="BB54">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="55" spans="1:54" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="BC54">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B55" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z55">
+        <v>8</v>
+      </c>
+      <c r="AA55">
+        <v>8</v>
+      </c>
+      <c r="AB55">
+        <v>8</v>
+      </c>
+      <c r="AC55">
+        <v>8</v>
+      </c>
+      <c r="AD55">
+        <v>8</v>
+      </c>
+      <c r="AE55">
+        <v>8</v>
+      </c>
+      <c r="AF55">
+        <v>8</v>
+      </c>
+      <c r="AG55">
+        <v>8</v>
+      </c>
+      <c r="AH55">
+        <v>8</v>
+      </c>
+      <c r="AI55">
+        <v>8</v>
+      </c>
+      <c r="AJ55">
+        <v>8</v>
+      </c>
+      <c r="AK55">
+        <v>8</v>
+      </c>
+      <c r="AL55">
+        <v>8</v>
+      </c>
+      <c r="AN55">
+        <v>8</v>
+      </c>
+      <c r="AO55">
+        <v>35</v>
+      </c>
+      <c r="AP55">
+        <v>40</v>
+      </c>
+      <c r="AQ55">
+        <v>46</v>
+      </c>
+      <c r="AR55">
+        <v>50</v>
+      </c>
+      <c r="AS55">
+        <v>50</v>
+      </c>
+      <c r="AT55">
+        <v>50</v>
+      </c>
+      <c r="AU55">
+        <v>57</v>
+      </c>
+      <c r="AV55">
+        <v>68</v>
+      </c>
+      <c r="AW55">
+        <v>71</v>
+      </c>
+      <c r="AX55">
+        <v>83</v>
+      </c>
+      <c r="AY55">
+        <v>84</v>
+      </c>
+      <c r="AZ55">
+        <v>84</v>
+      </c>
+      <c r="BA55">
+        <v>84</v>
+      </c>
+      <c r="BB55">
+        <v>88</v>
+      </c>
+      <c r="BC55">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="56" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B56" t="s">
         <v>69</v>
       </c>
-      <c r="AO55">
-        <v>1</v>
-      </c>
-      <c r="AP55">
-        <v>1</v>
-      </c>
-      <c r="AQ55">
-        <v>1</v>
-      </c>
-      <c r="AR55">
-        <v>1</v>
-      </c>
-      <c r="AS55">
-        <v>1</v>
-      </c>
-      <c r="AT55">
-        <v>1</v>
-      </c>
-      <c r="AU55">
-        <v>1</v>
-      </c>
-      <c r="AV55">
-        <v>1</v>
-      </c>
-      <c r="AW55">
-        <v>1</v>
-      </c>
-      <c r="AX55">
-        <v>1</v>
-      </c>
-      <c r="AY55">
-        <v>1</v>
-      </c>
-      <c r="AZ55">
-        <v>1</v>
-      </c>
-      <c r="BA55">
-        <v>1</v>
-      </c>
-      <c r="BB55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B57" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z57">
-        <v>1</v>
-      </c>
-      <c r="AA57">
-        <v>1</v>
-      </c>
-      <c r="AB57">
-        <v>2</v>
-      </c>
-      <c r="AC57">
-        <v>2</v>
-      </c>
-      <c r="AD57">
-        <v>2</v>
-      </c>
-      <c r="AE57">
-        <v>3</v>
-      </c>
-      <c r="AF57">
-        <v>3</v>
-      </c>
-      <c r="AG57">
-        <v>3</v>
-      </c>
-      <c r="AH57">
-        <v>3</v>
-      </c>
-      <c r="AI57">
-        <v>3</v>
-      </c>
-      <c r="AJ57">
-        <v>4</v>
-      </c>
-      <c r="AK57">
-        <v>4</v>
-      </c>
-      <c r="AL57">
-        <v>4</v>
-      </c>
-      <c r="AN57">
-        <v>4</v>
-      </c>
-      <c r="AO57">
-        <v>4</v>
-      </c>
-      <c r="AP57">
-        <v>6</v>
-      </c>
-      <c r="AQ57">
-        <v>7</v>
-      </c>
-      <c r="AR57">
-        <v>8</v>
-      </c>
-      <c r="AS57">
-        <v>8</v>
-      </c>
-      <c r="AT57">
-        <v>9</v>
-      </c>
-      <c r="AU57">
-        <v>9</v>
-      </c>
-      <c r="AV57">
-        <v>9</v>
-      </c>
-      <c r="AW57">
-        <v>9</v>
-      </c>
-      <c r="AX57">
-        <v>9</v>
-      </c>
-      <c r="AY57">
-        <v>9</v>
-      </c>
-      <c r="AZ57">
-        <v>9</v>
-      </c>
-      <c r="BA57">
-        <v>9</v>
-      </c>
-      <c r="BB57">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="58" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="AO56">
+        <v>1</v>
+      </c>
+      <c r="AP56">
+        <v>1</v>
+      </c>
+      <c r="AQ56">
+        <v>1</v>
+      </c>
+      <c r="AR56">
+        <v>1</v>
+      </c>
+      <c r="AS56">
+        <v>1</v>
+      </c>
+      <c r="AT56">
+        <v>1</v>
+      </c>
+      <c r="AU56">
+        <v>1</v>
+      </c>
+      <c r="AV56">
+        <v>1</v>
+      </c>
+      <c r="AW56">
+        <v>1</v>
+      </c>
+      <c r="AX56">
+        <v>1</v>
+      </c>
+      <c r="AY56">
+        <v>1</v>
+      </c>
+      <c r="AZ56">
+        <v>1</v>
+      </c>
+      <c r="BA56">
+        <v>1</v>
+      </c>
+      <c r="BB56">
+        <v>1</v>
+      </c>
+      <c r="BC56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B58" t="s">
-        <v>62</v>
+        <v>13</v>
+      </c>
+      <c r="Z58">
+        <v>1</v>
+      </c>
+      <c r="AA58">
+        <v>1</v>
+      </c>
+      <c r="AB58">
+        <v>2</v>
+      </c>
+      <c r="AC58">
+        <v>2</v>
+      </c>
+      <c r="AD58">
+        <v>2</v>
+      </c>
+      <c r="AE58">
+        <v>3</v>
+      </c>
+      <c r="AF58">
+        <v>3</v>
+      </c>
+      <c r="AG58">
+        <v>3</v>
+      </c>
+      <c r="AH58">
+        <v>3</v>
+      </c>
+      <c r="AI58">
+        <v>3</v>
+      </c>
+      <c r="AJ58">
+        <v>4</v>
+      </c>
+      <c r="AK58">
+        <v>4</v>
       </c>
       <c r="AL58">
         <v>4</v>
       </c>
       <c r="AN58">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO58">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AP58">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ58">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AR58">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS58">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT58">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AU58">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV58">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AW58">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX58">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY58">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ58">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA58">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BB58">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="1:54" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="BC58">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B59" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AL59">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AN59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AP59">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AQ59">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AR59">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AS59">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AT59">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AU59">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AV59">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AW59">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AX59">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AY59">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AZ59">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="BA59">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="BB59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:54" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="BC59">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B60" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z60">
-        <v>7</v>
-      </c>
-      <c r="AA60">
-        <v>54</v>
-      </c>
-      <c r="AB60">
-        <v>6</v>
-      </c>
-      <c r="AC60">
-        <v>7</v>
-      </c>
-      <c r="AD60">
-        <v>7</v>
-      </c>
-      <c r="AE60">
-        <v>6</v>
-      </c>
-      <c r="AF60">
-        <v>6</v>
-      </c>
-      <c r="AG60">
-        <v>6</v>
-      </c>
-      <c r="AH60">
-        <v>6</v>
-      </c>
-      <c r="AI60">
-        <v>6</v>
-      </c>
-      <c r="AJ60">
-        <v>7</v>
-      </c>
-      <c r="AK60">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="AL60">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AN60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AO60">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AP60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR60">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AS60">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AT60">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AU60">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="AV60">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="AW60">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="AX60">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="AY60">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="AZ60">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="BA60">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="BB60">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="61" spans="1:54" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="BC60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B61" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="Z61">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AA61">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AB61">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AC61">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AD61">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AE61">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AF61">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AG61">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AH61">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AI61">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AJ61">
+        <v>7</v>
+      </c>
+      <c r="AK61">
+        <v>3</v>
+      </c>
+      <c r="AL61">
+        <v>4</v>
+      </c>
+      <c r="AN61">
+        <v>3</v>
+      </c>
+      <c r="AO61">
+        <v>4</v>
+      </c>
+      <c r="AP61">
+        <v>0</v>
+      </c>
+      <c r="AQ61">
+        <v>0</v>
+      </c>
+      <c r="AR61">
+        <v>10</v>
+      </c>
+      <c r="AS61">
         <v>11</v>
       </c>
-      <c r="AK61">
-        <v>7</v>
-      </c>
-      <c r="AL61">
-        <v>8</v>
-      </c>
-      <c r="AN61">
-        <v>6</v>
-      </c>
-      <c r="AO61">
-        <v>7</v>
-      </c>
-      <c r="AP61">
-        <v>5</v>
-      </c>
-      <c r="AQ61">
-        <v>6</v>
-      </c>
-      <c r="AR61">
-        <v>16</v>
-      </c>
-      <c r="AS61">
-        <v>17</v>
-      </c>
       <c r="AT61">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="AU61">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AV61">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="AW61">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AX61">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AY61">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AZ61">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="BA61">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="BB61">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="62" spans="1:54" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="BC61">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="62" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B62" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="Z62">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AA62">
+        <v>55</v>
+      </c>
+      <c r="AB62">
         <v>8</v>
       </c>
-      <c r="AB62">
+      <c r="AC62">
+        <v>9</v>
+      </c>
+      <c r="AD62">
+        <v>9</v>
+      </c>
+      <c r="AE62">
+        <v>9</v>
+      </c>
+      <c r="AF62">
+        <v>9</v>
+      </c>
+      <c r="AG62">
+        <v>9</v>
+      </c>
+      <c r="AH62">
+        <v>9</v>
+      </c>
+      <c r="AI62">
+        <v>9</v>
+      </c>
+      <c r="AJ62">
+        <v>11</v>
+      </c>
+      <c r="AK62">
         <v>7</v>
       </c>
-      <c r="AC62">
+      <c r="AL62">
+        <v>8</v>
+      </c>
+      <c r="AN62">
+        <v>6</v>
+      </c>
+      <c r="AO62">
         <v>7</v>
       </c>
-      <c r="AD62">
-        <v>7</v>
-      </c>
-      <c r="AE62">
-        <v>7</v>
-      </c>
-      <c r="AF62">
-        <v>7</v>
-      </c>
-      <c r="AG62">
-        <v>0</v>
-      </c>
-      <c r="AH62">
-        <v>0</v>
-      </c>
-      <c r="AI62">
-        <v>0</v>
-      </c>
-      <c r="AJ62">
-        <v>0</v>
-      </c>
-      <c r="AK62">
-        <v>0</v>
-      </c>
-      <c r="AL62">
-        <v>0</v>
-      </c>
-      <c r="AN62">
-        <v>0</v>
-      </c>
-      <c r="AO62">
-        <v>0</v>
-      </c>
       <c r="AP62">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AQ62">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AR62">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AS62">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AT62">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AU62">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AV62">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AW62">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="AX62">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="AY62">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="AZ62">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="BA62">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="BB62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:54" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="BC62">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="63" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B63" t="s">
-        <v>66</v>
+        <v>15</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+      <c r="AA63">
+        <v>8</v>
+      </c>
+      <c r="AB63">
+        <v>7</v>
+      </c>
+      <c r="AC63">
+        <v>7</v>
+      </c>
+      <c r="AD63">
+        <v>7</v>
+      </c>
+      <c r="AE63">
+        <v>7</v>
+      </c>
+      <c r="AF63">
+        <v>7</v>
+      </c>
+      <c r="AG63">
+        <v>0</v>
+      </c>
+      <c r="AH63">
+        <v>0</v>
+      </c>
+      <c r="AI63">
+        <v>0</v>
+      </c>
+      <c r="AJ63">
+        <v>0</v>
+      </c>
+      <c r="AK63">
+        <v>0</v>
       </c>
       <c r="AL63">
         <v>0</v>
       </c>
       <c r="AN63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA63">
         <v>0</v>
@@ -5158,540 +5263,525 @@
       <c r="BB63">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="B65" s="2" t="s">
+      <c r="BC63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B64" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL64">
+        <v>0</v>
+      </c>
+      <c r="AN64">
+        <v>1</v>
+      </c>
+      <c r="AO64">
+        <v>1</v>
+      </c>
+      <c r="AP64">
+        <v>1</v>
+      </c>
+      <c r="AQ64">
+        <v>1</v>
+      </c>
+      <c r="AR64">
+        <v>1</v>
+      </c>
+      <c r="AS64">
+        <v>1</v>
+      </c>
+      <c r="AT64">
+        <v>1</v>
+      </c>
+      <c r="AU64">
+        <v>1</v>
+      </c>
+      <c r="AV64">
+        <v>1</v>
+      </c>
+      <c r="AW64">
+        <v>1</v>
+      </c>
+      <c r="AX64">
+        <v>1</v>
+      </c>
+      <c r="AY64">
+        <v>1</v>
+      </c>
+      <c r="AZ64">
+        <v>1</v>
+      </c>
+      <c r="BA64">
+        <v>0</v>
+      </c>
+      <c r="BB64">
+        <v>0</v>
+      </c>
+      <c r="BC64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="B66" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="66" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B66" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA66">
-        <v>5</v>
-      </c>
-      <c r="AB66">
-        <v>8</v>
-      </c>
-      <c r="AC66">
-        <v>12</v>
-      </c>
-      <c r="AD66">
-        <v>12</v>
-      </c>
-      <c r="AE66">
-        <v>15</v>
-      </c>
-      <c r="AF66">
-        <v>17</v>
-      </c>
-      <c r="AG66">
-        <v>19</v>
-      </c>
-      <c r="AH66">
-        <v>19</v>
-      </c>
-      <c r="AI66">
-        <v>22</v>
-      </c>
-      <c r="AJ66">
-        <v>22</v>
-      </c>
-      <c r="AK66">
-        <v>27</v>
-      </c>
-      <c r="AL66">
-        <v>34</v>
-      </c>
-      <c r="AM66">
-        <v>48</v>
-      </c>
-      <c r="AN66">
-        <v>62</v>
-      </c>
-      <c r="AO66">
-        <v>76</v>
-      </c>
-      <c r="AP66">
-        <v>77</v>
-      </c>
-      <c r="AQ66">
-        <v>88</v>
-      </c>
-      <c r="AR66">
-        <v>92</v>
-      </c>
-      <c r="AS66">
-        <v>94</v>
-      </c>
-      <c r="AT66">
-        <v>107</v>
-      </c>
-      <c r="AU66">
-        <v>121</v>
-      </c>
-      <c r="AV66">
-        <v>131</v>
-      </c>
-      <c r="AW66">
-        <v>144</v>
-      </c>
-      <c r="AX66">
-        <v>145</v>
-      </c>
-      <c r="AY66">
-        <v>148</v>
-      </c>
-      <c r="AZ66">
-        <v>152</v>
-      </c>
-      <c r="BA66">
-        <v>154</v>
-      </c>
-      <c r="BB66">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="67" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B67" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="AA67">
+        <v>5</v>
+      </c>
+      <c r="AB67">
+        <v>8</v>
+      </c>
+      <c r="AC67">
+        <v>12</v>
+      </c>
+      <c r="AD67">
+        <v>12</v>
+      </c>
+      <c r="AE67">
+        <v>15</v>
+      </c>
+      <c r="AF67">
+        <v>17</v>
+      </c>
+      <c r="AG67">
+        <v>19</v>
+      </c>
+      <c r="AH67">
+        <v>19</v>
+      </c>
+      <c r="AI67">
+        <v>22</v>
+      </c>
+      <c r="AJ67">
+        <v>22</v>
+      </c>
+      <c r="AK67">
+        <v>27</v>
+      </c>
+      <c r="AL67">
+        <v>34</v>
+      </c>
+      <c r="AM67">
         <v>48</v>
       </c>
-      <c r="AB67">
-        <v>55</v>
-      </c>
-      <c r="AC67">
-        <v>55</v>
-      </c>
-      <c r="AD67">
-        <v>70</v>
-      </c>
-      <c r="AE67">
-        <v>97</v>
-      </c>
-      <c r="AF67">
-        <v>101</v>
-      </c>
-      <c r="AG67">
+      <c r="AN67">
+        <v>62</v>
+      </c>
+      <c r="AO67">
+        <v>76</v>
+      </c>
+      <c r="AP67">
+        <v>77</v>
+      </c>
+      <c r="AQ67">
+        <v>88</v>
+      </c>
+      <c r="AR67">
+        <v>92</v>
+      </c>
+      <c r="AS67">
+        <v>94</v>
+      </c>
+      <c r="AT67">
         <v>107</v>
       </c>
-      <c r="AH67">
+      <c r="AU67">
+        <v>121</v>
+      </c>
+      <c r="AV67">
+        <v>131</v>
+      </c>
+      <c r="AW67">
+        <v>144</v>
+      </c>
+      <c r="AX67">
+        <v>145</v>
+      </c>
+      <c r="AY67">
+        <v>148</v>
+      </c>
+      <c r="AZ67">
         <v>152</v>
       </c>
-      <c r="AI67">
-        <v>155</v>
-      </c>
-      <c r="AJ67">
-        <v>161</v>
-      </c>
-      <c r="AK67">
-        <v>189</v>
-      </c>
-      <c r="AL67">
-        <v>222</v>
-      </c>
-      <c r="AM67">
-        <v>248</v>
-      </c>
-      <c r="AN67">
-        <v>258</v>
-      </c>
-      <c r="AO67">
-        <v>284</v>
-      </c>
-      <c r="AP67">
-        <v>301</v>
-      </c>
-      <c r="AQ67">
-        <v>282</v>
-      </c>
-      <c r="AR67">
-        <v>268</v>
-      </c>
-      <c r="AS67">
-        <v>280</v>
-      </c>
-      <c r="AT67">
-        <v>227</v>
-      </c>
-      <c r="AU67">
-        <v>243</v>
-      </c>
-      <c r="AV67">
-        <v>253</v>
-      </c>
-      <c r="AW67">
-        <v>247</v>
-      </c>
-      <c r="AX67">
-        <v>253</v>
-      </c>
-      <c r="AY67">
-        <v>248</v>
-      </c>
-      <c r="AZ67">
-        <v>248</v>
-      </c>
       <c r="BA67">
-        <v>257</v>
+        <v>154</v>
       </c>
       <c r="BB67">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="68" spans="1:54" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+      <c r="BC67">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="68" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B68" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AA68">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="AB68">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="AC68">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="AD68">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="AE68">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="AF68">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="AG68">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="AH68">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="AI68">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="AJ68">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="AK68">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AL68">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="AM68">
         <v>248</v>
       </c>
       <c r="AN68">
-        <v>225</v>
+        <v>258</v>
       </c>
       <c r="AO68">
-        <v>229</v>
+        <v>284</v>
       </c>
       <c r="AP68">
-        <v>257</v>
+        <v>301</v>
       </c>
       <c r="AQ68">
-        <v>262</v>
+        <v>282</v>
       </c>
       <c r="AR68">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="AS68">
-        <v>243</v>
+        <v>280</v>
       </c>
       <c r="AT68">
         <v>227</v>
       </c>
       <c r="AU68">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="AV68">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="AW68">
-        <v>227</v>
+        <v>247</v>
       </c>
       <c r="AX68">
-        <v>213</v>
+        <v>253</v>
       </c>
       <c r="AY68">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="AZ68">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="BA68">
-        <v>216</v>
+        <v>257</v>
       </c>
       <c r="BB68">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="69" spans="1:54" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+      <c r="BC68">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="69" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B69" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA69">
+        <v>35</v>
+      </c>
+      <c r="AB69">
+        <v>43</v>
+      </c>
+      <c r="AC69">
+        <v>43</v>
+      </c>
+      <c r="AD69">
+        <v>59</v>
+      </c>
+      <c r="AE69">
+        <v>83</v>
+      </c>
+      <c r="AF69">
+        <v>77</v>
+      </c>
+      <c r="AG69">
+        <v>93</v>
+      </c>
+      <c r="AH69">
+        <v>140</v>
+      </c>
+      <c r="AI69">
+        <v>145</v>
+      </c>
+      <c r="AJ69">
+        <v>145</v>
+      </c>
+      <c r="AK69">
+        <v>187</v>
+      </c>
+      <c r="AL69">
+        <v>202</v>
+      </c>
+      <c r="AM69">
+        <v>248</v>
+      </c>
+      <c r="AN69">
+        <v>225</v>
+      </c>
+      <c r="AO69">
+        <v>229</v>
+      </c>
+      <c r="AP69">
+        <v>257</v>
+      </c>
+      <c r="AQ69">
+        <v>262</v>
+      </c>
+      <c r="AR69">
+        <v>255</v>
+      </c>
+      <c r="AS69">
+        <v>243</v>
+      </c>
+      <c r="AT69">
+        <v>227</v>
+      </c>
+      <c r="AU69">
+        <v>222</v>
+      </c>
+      <c r="AV69">
+        <v>236</v>
+      </c>
+      <c r="AW69">
+        <v>227</v>
+      </c>
+      <c r="AX69">
+        <v>213</v>
+      </c>
+      <c r="AY69">
+        <v>232</v>
+      </c>
+      <c r="AZ69">
+        <v>244</v>
+      </c>
+      <c r="BA69">
+        <v>216</v>
+      </c>
+      <c r="BB69">
+        <v>210</v>
+      </c>
+      <c r="BC69">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="70" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B70" t="s">
         <v>71</v>
       </c>
-      <c r="AO69">
+      <c r="AO70">
         <v>4</v>
       </c>
-      <c r="AP69">
+      <c r="AP70">
         <v>4</v>
       </c>
-      <c r="AQ69">
+      <c r="AQ70">
         <v>5</v>
       </c>
-      <c r="AR69">
+      <c r="AR70">
         <v>5</v>
       </c>
-      <c r="AS69">
+      <c r="AS70">
         <v>6</v>
       </c>
-      <c r="AT69">
+      <c r="AT70">
         <v>6</v>
       </c>
-      <c r="AU69">
+      <c r="AU70">
         <v>7</v>
       </c>
-      <c r="AV69">
+      <c r="AV70">
         <v>7</v>
       </c>
-      <c r="AW69">
+      <c r="AW70">
         <v>8</v>
       </c>
-      <c r="AX69">
+      <c r="AX70">
         <v>9</v>
       </c>
-      <c r="AY69">
+      <c r="AY70">
         <v>9</v>
       </c>
-      <c r="AZ69">
+      <c r="AZ70">
         <v>9</v>
       </c>
-      <c r="BA69">
+      <c r="BA70">
         <v>9</v>
       </c>
-      <c r="BB69">
+      <c r="BB70">
         <v>9</v>
       </c>
-    </row>
-    <row r="71" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B71" t="s">
+      <c r="BC70">
         <v>9</v>
       </c>
-      <c r="AA71">
-        <v>5</v>
-      </c>
-      <c r="AB71">
-        <v>5</v>
-      </c>
-      <c r="AC71">
-        <v>8</v>
-      </c>
-      <c r="AD71">
-        <v>9</v>
-      </c>
-      <c r="AE71">
-        <v>14</v>
-      </c>
-      <c r="AF71">
-        <v>14</v>
-      </c>
-      <c r="AG71">
-        <v>19</v>
-      </c>
-      <c r="AH71">
-        <v>22</v>
-      </c>
-      <c r="AI71">
-        <v>29</v>
-      </c>
-      <c r="AJ71">
-        <v>30</v>
-      </c>
-      <c r="AK71">
-        <v>33</v>
-      </c>
-      <c r="AL71">
-        <v>38</v>
-      </c>
-      <c r="AM71">
-        <v>38</v>
-      </c>
-      <c r="AN71">
-        <v>43</v>
-      </c>
-      <c r="AO71">
-        <v>47</v>
-      </c>
-      <c r="AP71">
-        <v>47</v>
-      </c>
-      <c r="AQ71">
-        <v>51</v>
-      </c>
-      <c r="AR71">
-        <v>54</v>
-      </c>
-      <c r="AS71">
-        <v>56</v>
-      </c>
-      <c r="AT71">
-        <v>57</v>
-      </c>
-      <c r="AU71">
-        <v>59</v>
-      </c>
-      <c r="AV71">
-        <v>66</v>
-      </c>
-      <c r="AW71">
-        <v>68</v>
-      </c>
-      <c r="AX71">
-        <v>68</v>
-      </c>
-      <c r="AY71">
-        <v>68</v>
-      </c>
-      <c r="AZ71">
-        <v>69</v>
-      </c>
-      <c r="BA71">
-        <v>69</v>
-      </c>
-      <c r="BB71">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="72" spans="1:54" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B72" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AA72">
+        <v>5</v>
+      </c>
+      <c r="AB72">
+        <v>5</v>
+      </c>
+      <c r="AC72">
+        <v>8</v>
+      </c>
+      <c r="AD72">
+        <v>9</v>
+      </c>
+      <c r="AE72">
+        <v>14</v>
+      </c>
+      <c r="AF72">
+        <v>14</v>
+      </c>
+      <c r="AG72">
+        <v>19</v>
+      </c>
+      <c r="AH72">
         <v>22</v>
       </c>
-      <c r="AB72">
-        <v>40</v>
-      </c>
-      <c r="AC72">
+      <c r="AI72">
+        <v>29</v>
+      </c>
+      <c r="AJ72">
+        <v>30</v>
+      </c>
+      <c r="AK72">
+        <v>33</v>
+      </c>
+      <c r="AL72">
+        <v>38</v>
+      </c>
+      <c r="AM72">
+        <v>38</v>
+      </c>
+      <c r="AN72">
         <v>43</v>
       </c>
-      <c r="AD72">
-        <v>39</v>
-      </c>
-      <c r="AE72">
-        <v>53</v>
-      </c>
-      <c r="AF72">
-        <v>53</v>
-      </c>
-      <c r="AG72">
-        <v>61</v>
-      </c>
-      <c r="AH72">
+      <c r="AO72">
+        <v>47</v>
+      </c>
+      <c r="AP72">
+        <v>47</v>
+      </c>
+      <c r="AQ72">
+        <v>51</v>
+      </c>
+      <c r="AR72">
+        <v>54</v>
+      </c>
+      <c r="AS72">
+        <v>56</v>
+      </c>
+      <c r="AT72">
+        <v>57</v>
+      </c>
+      <c r="AU72">
+        <v>59</v>
+      </c>
+      <c r="AV72">
+        <v>66</v>
+      </c>
+      <c r="AW72">
+        <v>68</v>
+      </c>
+      <c r="AX72">
+        <v>68</v>
+      </c>
+      <c r="AY72">
+        <v>68</v>
+      </c>
+      <c r="AZ72">
         <v>69</v>
       </c>
-      <c r="AI72">
-        <v>73</v>
-      </c>
-      <c r="AJ72">
-        <v>73</v>
-      </c>
-      <c r="AK72">
-        <v>77</v>
-      </c>
-      <c r="AL72">
-        <v>33</v>
-      </c>
-      <c r="AM72">
-        <v>33</v>
-      </c>
-      <c r="AN72">
-        <v>23</v>
-      </c>
-      <c r="AO72">
-        <v>23</v>
-      </c>
-      <c r="AP72">
-        <v>24</v>
-      </c>
-      <c r="AQ72">
-        <v>31</v>
-      </c>
-      <c r="AR72">
-        <v>31</v>
-      </c>
-      <c r="AS72">
-        <v>26</v>
-      </c>
-      <c r="AT72">
-        <v>26</v>
-      </c>
-      <c r="AU72">
-        <v>30</v>
-      </c>
-      <c r="AV72">
-        <v>23</v>
-      </c>
-      <c r="AW72">
-        <v>21</v>
-      </c>
-      <c r="AX72">
-        <v>23</v>
-      </c>
-      <c r="AY72">
-        <v>21</v>
-      </c>
-      <c r="AZ72">
-        <v>21</v>
-      </c>
       <c r="BA72">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="BB72">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="73" spans="1:54" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="BC72">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B73" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA73">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AB73">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AC73">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AD73">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="AE73">
         <v>53</v>
@@ -5715,342 +5805,354 @@
         <v>77</v>
       </c>
       <c r="AL73">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="AM73">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="AN73">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="AO73">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="AP73">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="AQ73">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="AR73">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="AS73">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="AT73">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="AU73">
-        <v>89</v>
+        <v>30</v>
       </c>
       <c r="AV73">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="AW73">
-        <v>89</v>
+        <v>21</v>
       </c>
       <c r="AX73">
-        <v>91</v>
+        <v>23</v>
       </c>
       <c r="AY73">
-        <v>89</v>
+        <v>21</v>
       </c>
       <c r="AZ73">
-        <v>89</v>
+        <v>21</v>
       </c>
       <c r="BA73">
-        <v>89</v>
+        <v>21</v>
       </c>
       <c r="BB73">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="74" spans="1:54" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="BC73">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="74" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B74" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA74">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AB74">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="AC74">
-        <v>0</v>
-      </c>
-      <c r="AD74" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE74" t="s">
-        <v>37</v>
-      </c>
-      <c r="AF74" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG74" t="s">
-        <v>37</v>
+        <v>51</v>
+      </c>
+      <c r="AD74">
+        <v>48</v>
+      </c>
+      <c r="AE74">
+        <v>53</v>
+      </c>
+      <c r="AF74">
+        <v>53</v>
+      </c>
+      <c r="AG74">
+        <v>61</v>
       </c>
       <c r="AH74">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="AI74">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="AJ74">
-        <v>2</v>
+        <v>73</v>
       </c>
       <c r="AK74">
-        <v>2</v>
+        <v>77</v>
       </c>
       <c r="AL74">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="AM74">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="AN74">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="AO74">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="AP74">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="AQ74">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="AR74">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="AS74">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="AT74">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="AU74">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="AV74">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AW74">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AX74">
         <v>91</v>
       </c>
       <c r="AY74">
+        <v>89</v>
+      </c>
+      <c r="AZ74">
+        <v>89</v>
+      </c>
+      <c r="BA74">
+        <v>89</v>
+      </c>
+      <c r="BB74">
+        <v>80</v>
+      </c>
+      <c r="BC74">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="75" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B75" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA75">
+        <v>0</v>
+      </c>
+      <c r="AB75">
+        <v>0</v>
+      </c>
+      <c r="AC75">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE75" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF75" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG75" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH75">
+        <v>1</v>
+      </c>
+      <c r="AI75">
+        <v>1</v>
+      </c>
+      <c r="AJ75">
+        <v>2</v>
+      </c>
+      <c r="AK75">
+        <v>2</v>
+      </c>
+      <c r="AL75">
+        <v>9</v>
+      </c>
+      <c r="AM75">
+        <v>9</v>
+      </c>
+      <c r="AN75">
+        <v>9</v>
+      </c>
+      <c r="AO75">
+        <v>9</v>
+      </c>
+      <c r="AP75">
+        <v>19</v>
+      </c>
+      <c r="AQ75">
+        <v>22</v>
+      </c>
+      <c r="AR75">
+        <v>22</v>
+      </c>
+      <c r="AS75">
+        <v>22</v>
+      </c>
+      <c r="AT75">
+        <v>22</v>
+      </c>
+      <c r="AU75">
+        <v>22</v>
+      </c>
+      <c r="AV75">
+        <v>77</v>
+      </c>
+      <c r="AW75">
+        <v>91</v>
+      </c>
+      <c r="AX75">
+        <v>91</v>
+      </c>
+      <c r="AY75">
         <v>93</v>
       </c>
-      <c r="AZ74">
+      <c r="AZ75">
         <v>93</v>
       </c>
-      <c r="BA74">
+      <c r="BA75">
         <v>93</v>
       </c>
-      <c r="BB74">
+      <c r="BB75">
         <v>110</v>
       </c>
-    </row>
-    <row r="76" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B76" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA76">
-        <v>1</v>
-      </c>
-      <c r="AB76">
-        <v>1</v>
-      </c>
-      <c r="AC76">
-        <v>3</v>
-      </c>
-      <c r="AD76">
-        <v>5</v>
-      </c>
-      <c r="AE76">
-        <v>6</v>
-      </c>
-      <c r="AF76">
-        <v>7</v>
-      </c>
-      <c r="AG76">
-        <v>9</v>
-      </c>
-      <c r="AH76">
-        <v>11</v>
-      </c>
-      <c r="AI76">
-        <v>14</v>
-      </c>
-      <c r="AJ76">
-        <v>15</v>
-      </c>
-      <c r="AK76">
-        <v>17</v>
-      </c>
-      <c r="AL76">
-        <v>21</v>
-      </c>
-      <c r="AM76">
-        <v>21</v>
-      </c>
-      <c r="AN76">
-        <v>28</v>
-      </c>
-      <c r="AO76">
-        <v>28</v>
-      </c>
-      <c r="AP76">
-        <v>32</v>
-      </c>
-      <c r="AQ76">
-        <v>33</v>
-      </c>
-      <c r="AR76">
-        <v>36</v>
-      </c>
-      <c r="AS76">
-        <v>36</v>
-      </c>
-      <c r="AT76">
-        <v>37</v>
-      </c>
-      <c r="AU76">
-        <v>41</v>
-      </c>
-      <c r="AV76">
-        <v>41</v>
-      </c>
-      <c r="AW76">
-        <v>42</v>
-      </c>
-      <c r="AX76">
-        <v>41</v>
-      </c>
-      <c r="AY76">
-        <v>46</v>
-      </c>
-      <c r="AZ76">
-        <v>46</v>
-      </c>
-      <c r="BA76">
-        <v>48</v>
-      </c>
-      <c r="BB76">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="77" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC75">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="77" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B77" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA77">
+        <v>1</v>
+      </c>
+      <c r="AB77">
+        <v>1</v>
+      </c>
+      <c r="AC77">
+        <v>3</v>
+      </c>
+      <c r="AD77">
+        <v>5</v>
+      </c>
+      <c r="AE77">
+        <v>6</v>
+      </c>
+      <c r="AF77">
+        <v>7</v>
+      </c>
+      <c r="AG77">
+        <v>9</v>
+      </c>
+      <c r="AH77">
+        <v>11</v>
+      </c>
+      <c r="AI77">
+        <v>14</v>
+      </c>
+      <c r="AJ77">
+        <v>15</v>
+      </c>
+      <c r="AK77">
+        <v>17</v>
+      </c>
+      <c r="AL77">
+        <v>21</v>
+      </c>
+      <c r="AM77">
+        <v>21</v>
+      </c>
+      <c r="AN77">
+        <v>28</v>
+      </c>
+      <c r="AO77">
+        <v>28</v>
+      </c>
+      <c r="AP77">
+        <v>32</v>
+      </c>
+      <c r="AQ77">
         <v>33</v>
       </c>
-      <c r="AA77">
-        <v>17</v>
-      </c>
-      <c r="AB77">
-        <v>18</v>
-      </c>
-      <c r="AC77">
-        <v>81</v>
-      </c>
-      <c r="AD77">
-        <v>124</v>
-      </c>
-      <c r="AE77">
-        <v>95</v>
-      </c>
-      <c r="AF77">
-        <v>95</v>
-      </c>
-      <c r="AG77">
-        <v>119</v>
-      </c>
-      <c r="AH77">
-        <v>142</v>
-      </c>
-      <c r="AI77">
-        <v>142</v>
-      </c>
-      <c r="AJ77">
-        <v>142</v>
-      </c>
-      <c r="AK77">
-        <v>144</v>
-      </c>
-      <c r="AL77">
-        <v>123</v>
-      </c>
-      <c r="AM77">
-        <v>144</v>
-      </c>
-      <c r="AN77">
-        <v>105</v>
-      </c>
-      <c r="AO77">
-        <v>105</v>
-      </c>
-      <c r="AP77">
-        <v>105</v>
-      </c>
-      <c r="AQ77">
-        <v>74</v>
-      </c>
       <c r="AR77">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AS77">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AT77">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="AU77">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="AV77">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AW77">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AX77">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AY77">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="AZ77">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="BA77">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="BB77">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="78" spans="1:54" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="BC77">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="78" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B78" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AA78">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AB78">
         <v>18</v>
@@ -6070,8 +6172,20 @@
       <c r="AG78">
         <v>119</v>
       </c>
+      <c r="AH78">
+        <v>142</v>
+      </c>
+      <c r="AI78">
+        <v>142</v>
+      </c>
+      <c r="AJ78">
+        <v>142</v>
+      </c>
+      <c r="AK78">
+        <v>144</v>
+      </c>
       <c r="AL78">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="AM78">
         <v>144</v>
@@ -6113,192 +6227,293 @@
         <v>29</v>
       </c>
       <c r="AZ78">
-        <v>34</v>
-      </c>
-      <c r="BA78" t="s">
-        <v>77</v>
-      </c>
-      <c r="BB78" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="79" spans="1:54" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="BA78">
+        <v>29</v>
+      </c>
+      <c r="BB78">
+        <v>29</v>
+      </c>
+      <c r="BC78">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="79" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B79" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="AA79">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AB79">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="AC79">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="AD79">
-        <v>1</v>
+        <v>124</v>
       </c>
       <c r="AE79">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="AF79">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="AG79">
-        <v>1</v>
-      </c>
-      <c r="AH79">
-        <v>1</v>
-      </c>
-      <c r="AI79">
-        <v>1</v>
-      </c>
-      <c r="AJ79">
-        <v>1</v>
-      </c>
-      <c r="AK79">
-        <v>2</v>
+        <v>119</v>
       </c>
       <c r="AL79">
-        <v>2</v>
+        <v>144</v>
       </c>
       <c r="AM79">
-        <v>2</v>
+        <v>144</v>
       </c>
       <c r="AN79">
-        <v>2</v>
+        <v>105</v>
       </c>
       <c r="AO79">
-        <v>2</v>
+        <v>105</v>
       </c>
       <c r="AP79">
-        <v>2</v>
+        <v>105</v>
       </c>
       <c r="AQ79">
-        <v>2</v>
+        <v>74</v>
       </c>
       <c r="AR79">
-        <v>2</v>
+        <v>74</v>
       </c>
       <c r="AS79">
-        <v>2</v>
+        <v>74</v>
       </c>
       <c r="AT79">
-        <v>2</v>
+        <v>74</v>
       </c>
       <c r="AU79">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="AV79">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="AW79">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="AX79">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="AY79">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="AZ79">
-        <v>2</v>
-      </c>
-      <c r="BA79">
-        <v>2</v>
-      </c>
-      <c r="BB79">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:54" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="BA79" t="s">
+        <v>77</v>
+      </c>
+      <c r="BB79" t="s">
+        <v>77</v>
+      </c>
+      <c r="BC79">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="80" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B80" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA80">
+        <v>0</v>
+      </c>
+      <c r="AB80">
+        <v>1</v>
+      </c>
+      <c r="AC80">
+        <v>1</v>
+      </c>
+      <c r="AD80">
+        <v>1</v>
+      </c>
+      <c r="AE80">
+        <v>1</v>
+      </c>
+      <c r="AF80">
+        <v>1</v>
+      </c>
+      <c r="AG80">
+        <v>1</v>
+      </c>
+      <c r="AH80">
+        <v>1</v>
+      </c>
+      <c r="AI80">
+        <v>1</v>
+      </c>
+      <c r="AJ80">
+        <v>1</v>
+      </c>
+      <c r="AK80">
+        <v>2</v>
+      </c>
+      <c r="AL80">
+        <v>2</v>
+      </c>
+      <c r="AM80">
+        <v>2</v>
+      </c>
+      <c r="AN80">
+        <v>2</v>
+      </c>
+      <c r="AO80">
+        <v>2</v>
+      </c>
+      <c r="AP80">
+        <v>2</v>
+      </c>
+      <c r="AQ80">
+        <v>2</v>
+      </c>
+      <c r="AR80">
+        <v>2</v>
+      </c>
+      <c r="AS80">
+        <v>2</v>
+      </c>
+      <c r="AT80">
+        <v>2</v>
+      </c>
+      <c r="AU80">
+        <v>2</v>
+      </c>
+      <c r="AV80">
+        <v>2</v>
+      </c>
+      <c r="AW80">
+        <v>2</v>
+      </c>
+      <c r="AX80">
+        <v>2</v>
+      </c>
+      <c r="AY80">
+        <v>2</v>
+      </c>
+      <c r="AZ80">
+        <v>2</v>
+      </c>
+      <c r="BA80">
+        <v>2</v>
+      </c>
+      <c r="BB80">
+        <v>2</v>
+      </c>
+      <c r="BC80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B81" t="s">
         <v>70</v>
       </c>
-      <c r="AO80">
+      <c r="AO81">
         <v>4</v>
       </c>
-      <c r="AP80">
+      <c r="AP81">
         <v>4</v>
       </c>
-      <c r="AQ80">
+      <c r="AQ81">
         <v>4</v>
       </c>
-      <c r="AR80">
+      <c r="AR81">
         <v>4</v>
       </c>
-      <c r="AS80">
+      <c r="AS81">
         <v>4</v>
       </c>
-      <c r="AT80">
+      <c r="AT81">
         <v>4</v>
       </c>
-      <c r="AU80">
+      <c r="AU81">
         <v>5</v>
       </c>
-      <c r="AV80">
+      <c r="AV81">
         <v>6</v>
       </c>
-      <c r="AW80">
+      <c r="AW81">
         <v>6</v>
       </c>
-      <c r="AX80">
+      <c r="AX81">
         <v>6</v>
       </c>
-      <c r="AY80">
+      <c r="AY81">
         <v>6</v>
       </c>
-      <c r="AZ80">
+      <c r="AZ81">
         <v>8</v>
       </c>
-      <c r="BA80">
+      <c r="BA81">
         <v>9</v>
       </c>
-      <c r="BB80">
+      <c r="BB81">
         <v>9</v>
       </c>
-    </row>
-    <row r="82" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B82" t="s">
-        <v>78</v>
-      </c>
-      <c r="BB82">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="83" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC81">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="BB83">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="1:54" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+      <c r="BC83">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="84" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B84" t="s">
+        <v>79</v>
+      </c>
+      <c r="BB84">
+        <v>5</v>
+      </c>
+      <c r="BC84">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A85" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B85" t="s">
         <v>80</v>
       </c>
-      <c r="BB84">
+      <c r="BB85">
         <v>16</v>
       </c>
-    </row>
-    <row r="99" spans="52:52" x14ac:dyDescent="0.25">
-      <c r="AZ99">
+      <c r="BC85">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="100" spans="52:52" x14ac:dyDescent="0.3">
+      <c r="AZ100">
         <v>9</v>
       </c>
     </row>
@@ -6309,21 +6524,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AC11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A2:AD11"/>
   <sheetViews>
     <sheetView topLeftCell="U1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AC10" sqref="AC10"/>
+      <selection activeCell="AD11" sqref="AD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" customWidth="1"/>
-    <col min="15" max="18" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.44140625" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" customWidth="1"/>
+    <col min="15" max="18" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>29</v>
       </c>
@@ -6411,8 +6626,11 @@
       <c r="AC2" s="9">
         <v>43948</v>
       </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD2" s="9">
+        <v>43949</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -6500,8 +6718,11 @@
       <c r="AC3">
         <v>475</v>
       </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD3">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -6589,8 +6810,11 @@
       <c r="AC4">
         <v>266</v>
       </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD4">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -6678,8 +6902,11 @@
       <c r="AC5">
         <v>264</v>
       </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD5">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>4</v>
       </c>
@@ -6767,8 +6994,11 @@
       <c r="AC6">
         <v>702</v>
       </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD6">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -6856,8 +7086,11 @@
       <c r="AC7">
         <v>587</v>
       </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD7">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>6</v>
       </c>
@@ -6945,8 +7178,11 @@
       <c r="AC8">
         <v>414</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD8">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -7034,8 +7270,11 @@
       <c r="AC9">
         <v>594</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD9">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>8</v>
       </c>
@@ -7123,8 +7362,11 @@
       <c r="AC10">
         <v>560</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD10">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>36</v>
       </c>
@@ -7211,6 +7453,9 @@
       </c>
       <c r="AC11">
         <v>132</v>
+      </c>
+      <c r="AD11">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -7220,21 +7465,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:X17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A2:Y17"/>
   <sheetViews>
     <sheetView topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="X18" sqref="X18"/>
+      <selection activeCell="Y17" sqref="Y17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" style="16" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" customWidth="1"/>
-    <col min="10" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" style="16" customWidth="1"/>
+    <col min="2" max="2" width="23.5546875" customWidth="1"/>
+    <col min="10" max="12" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:24" s="2" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15"/>
       <c r="B2" s="12">
         <v>43926</v>
@@ -7305,8 +7550,11 @@
       <c r="X2" s="9">
         <v>43948</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" s="2" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="Y2" s="9">
+        <v>43949</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>38</v>
       </c>
@@ -7314,7 +7562,7 @@
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
     </row>
-    <row r="4" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>51</v>
       </c>
@@ -7387,8 +7635,11 @@
       <c r="X4">
         <v>3994</v>
       </c>
-    </row>
-    <row r="5" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="Y4">
+        <v>4106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>36</v>
       </c>
@@ -7461,8 +7712,11 @@
       <c r="X5">
         <v>503</v>
       </c>
-    </row>
-    <row r="6" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="Y5">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>39</v>
       </c>
@@ -7535,8 +7789,11 @@
       <c r="X6">
         <v>690</v>
       </c>
-    </row>
-    <row r="7" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="Y6">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>40</v>
       </c>
@@ -7609,8 +7866,11 @@
       <c r="X7">
         <v>1978</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="Y7">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>41</v>
       </c>
@@ -7683,8 +7943,11 @@
       <c r="X8">
         <v>62</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" ht="28.9" x14ac:dyDescent="0.3">
+      <c r="Y8">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>42</v>
       </c>
@@ -7757,8 +8020,11 @@
       <c r="X9">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" ht="28.9" x14ac:dyDescent="0.3">
+      <c r="Y9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>52</v>
       </c>
@@ -7827,8 +8093,11 @@
       <c r="X10">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="Y10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
         <v>43</v>
       </c>
@@ -7901,8 +8170,11 @@
       <c r="X11">
         <v>717</v>
       </c>
-    </row>
-    <row r="12" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="Y11">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
         <v>44</v>
       </c>
@@ -7975,8 +8247,11 @@
       <c r="X12">
         <v>25</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="Y12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>45</v>
       </c>
@@ -7987,7 +8262,7 @@
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
     </row>
-    <row r="14" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
         <v>36</v>
       </c>
@@ -8060,8 +8335,11 @@
       <c r="X14">
         <v>806</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="Y14">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
         <v>46</v>
       </c>
@@ -8134,8 +8412,11 @@
       <c r="X15">
         <v>757</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="Y15">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
         <v>47</v>
       </c>
@@ -8208,8 +8489,11 @@
       <c r="X16">
         <v>2416</v>
       </c>
-    </row>
-    <row r="17" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="Y16">
+        <v>2490</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
         <v>44</v>
       </c>
@@ -8281,6 +8565,9 @@
       </c>
       <c r="X17">
         <v>15</v>
+      </c>
+      <c r="Y17">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -8290,20 +8577,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:Y8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V10" sqref="V10"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="Y9" sqref="Y9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" customWidth="1"/>
+    <col min="10" max="10" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="2" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B1" s="9">
         <v>43926</v>
       </c>
@@ -8373,14 +8660,17 @@
       <c r="X1" s="9">
         <v>43948</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="Y1" s="9">
+        <v>43949</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>38</v>
       </c>
       <c r="B2" s="7"/>
     </row>
-    <row r="3" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>51</v>
       </c>
@@ -8454,8 +8744,11 @@
       <c r="X3">
         <v>190</v>
       </c>
-    </row>
-    <row r="4" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="Y3">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>41</v>
       </c>
@@ -8528,8 +8821,11 @@
       <c r="X4">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:24" ht="28.9" x14ac:dyDescent="0.3">
+      <c r="Y4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>40</v>
       </c>
@@ -8602,8 +8898,11 @@
       <c r="X5">
         <v>150</v>
       </c>
-    </row>
-    <row r="6" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="Y5">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>48</v>
       </c>
@@ -8676,8 +8975,11 @@
       <c r="X6">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="Y6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>49</v>
       </c>
@@ -8750,8 +9052,11 @@
       <c r="X7">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="Y7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>50</v>
       </c>
@@ -8822,6 +9127,9 @@
         <v>2</v>
       </c>
       <c r="X8">
+        <v>2</v>
+      </c>
+      <c r="Y8">
         <v>2</v>
       </c>
     </row>
@@ -8831,19 +9139,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48DE713F-971D-4CE1-B1A8-BE60A2507C58}">
+  <dimension ref="A2:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" customWidth="1"/>
+    <col min="1" max="1" width="22.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>29</v>
       </c>
@@ -8874,8 +9182,11 @@
       <c r="J2" s="9">
         <v>43948</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="K2" s="9">
+        <v>43949</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>51</v>
       </c>
@@ -8906,8 +9217,11 @@
       <c r="J3">
         <v>190</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="K3">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>1</v>
       </c>
@@ -8938,8 +9252,11 @@
       <c r="J4">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="K4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>2</v>
       </c>
@@ -8970,8 +9287,11 @@
       <c r="J5">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="K5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>3</v>
       </c>
@@ -9002,8 +9322,11 @@
       <c r="J6">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="K6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>4</v>
       </c>
@@ -9034,8 +9357,11 @@
       <c r="J7">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="K7">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>5</v>
       </c>
@@ -9066,8 +9392,11 @@
       <c r="J8">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="K8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>6</v>
       </c>
@@ -9098,8 +9427,11 @@
       <c r="J9">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="K9">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>7</v>
       </c>
@@ -9130,8 +9462,11 @@
       <c r="J10">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="K10">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>8</v>
       </c>
@@ -9162,8 +9497,11 @@
       <c r="J11">
         <v>43</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" ht="28.9" x14ac:dyDescent="0.3">
+      <c r="K11">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>73</v>
       </c>
@@ -9194,8 +9532,11 @@
       <c r="J12">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="K12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>36</v>
       </c>
@@ -9224,6 +9565,9 @@
         <v>0</v>
       </c>
       <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
         <v>0</v>
       </c>
     </row>
@@ -9233,6 +9577,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C154F8D92A1190498EC67EE37256270A" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a145d1f7d2fc6bfdea86e9d796031e6c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8e61eea9-d51d-4f9c-960b-1b037651d93e" xmlns:ns4="248ed0f8-11d3-4141-bb91-6b69a0801941" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="87b2ee5a90a671ef9b646f531a040769" ns3:_="" ns4:_="">
     <xsd:import namespace="8e61eea9-d51d-4f9c-960b-1b037651d93e"/>
@@ -9435,12 +9785,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -9451,6 +9795,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8DEDEF4E-2681-4E64-A6E5-9E41742A3664}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="8e61eea9-d51d-4f9c-960b-1b037651d93e"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="248ed0f8-11d3-4141-bb91-6b69a0801941"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE449021-9205-42BF-A2AE-CC419CEBA6BF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9469,23 +9830,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8DEDEF4E-2681-4E64-A6E5-9E41742A3664}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="8e61eea9-d51d-4f9c-960b-1b037651d93e"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="248ed0f8-11d3-4141-bb91-6b69a0801941"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD396E8E-4714-4CC9-8EAA-3025B907ED6D}">
   <ds:schemaRefs>

--- a/dcCovid-19DataSummaryToday.xlsx
+++ b/dcCovid-19DataSummaryToday.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dcgovict-my.sharepoint.com/personal/ramona_yun1_dc_gov/Documents/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1691" documentId="8_{C884A327-19F6-4EC6-805C-F52B66916DDD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{8F60E61F-7C90-4793-B07E-157CDE53CB9D}"/>
+  <xr:revisionPtr revIDLastSave="1803" documentId="8_{C884A327-19F6-4EC6-805C-F52B66916DDD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{C1FADA27-B594-40CE-A324-6B043999E97D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="83">
   <si>
     <t>Testing</t>
   </si>
@@ -712,21 +712,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BC100"/>
+  <dimension ref="A1:BD100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane xSplit="2" topLeftCell="BA1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BC1" sqref="BC1:BC1048576"/>
+      <selection pane="topRight" activeCell="BD61" sqref="BD1:BD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29.44140625" customWidth="1"/>
     <col min="2" max="2" width="56.6640625" customWidth="1"/>
-    <col min="40" max="55" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="40" max="56" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:56" x14ac:dyDescent="0.3">
       <c r="C1" s="1">
         <v>43897</v>
       </c>
@@ -886,8 +886,11 @@
       <c r="BC1" s="1">
         <v>43949</v>
       </c>
-    </row>
-    <row r="2" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="BD1" s="1">
+        <v>43950</v>
+      </c>
+    </row>
+    <row r="2" spans="1:56" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -911,7 +914,7 @@
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
     </row>
-    <row r="3" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1056,8 +1059,11 @@
       <c r="BC3">
         <v>19229</v>
       </c>
-    </row>
-    <row r="4" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="BD3">
+        <v>20079</v>
+      </c>
+    </row>
+    <row r="4" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1223,8 +1229,11 @@
       <c r="BC4">
         <v>4106</v>
       </c>
-    </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="BD4">
+        <v>4323</v>
+      </c>
+    </row>
+    <row r="5" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -1372,8 +1381,11 @@
       <c r="BC5">
         <v>205</v>
       </c>
-    </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="BD5">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="6" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -1491,11 +1503,14 @@
       <c r="BC6">
         <v>660</v>
       </c>
-    </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="BD6">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="7" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
     </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
@@ -1505,8 +1520,11 @@
       <c r="BC8">
         <v>345</v>
       </c>
-    </row>
-    <row r="9" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="BD8">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="9" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
@@ -1618,8 +1636,11 @@
       <c r="BC9">
         <v>136</v>
       </c>
-    </row>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="BD9">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
@@ -1731,8 +1752,11 @@
       <c r="BC10">
         <v>440</v>
       </c>
-    </row>
-    <row r="11" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="BD10">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="11" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
@@ -1844,8 +1868,11 @@
       <c r="BC11">
         <v>206</v>
       </c>
-    </row>
-    <row r="12" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="BD11">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="12" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>1</v>
       </c>
@@ -1957,13 +1984,16 @@
       <c r="BC12">
         <v>234</v>
       </c>
-    </row>
-    <row r="14" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="BD12">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="14" spans="1:56" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
@@ -1971,7 +2001,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>7</v>
       </c>
@@ -2086,8 +2116,11 @@
       <c r="BC16">
         <v>88</v>
       </c>
-    </row>
-    <row r="17" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="BD16">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>7</v>
       </c>
@@ -2148,8 +2181,11 @@
       <c r="BC17">
         <v>31</v>
       </c>
-    </row>
-    <row r="18" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="BD17">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>7</v>
       </c>
@@ -2210,8 +2246,11 @@
       <c r="BC18">
         <v>57</v>
       </c>
-    </row>
-    <row r="19" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="BD18">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>7</v>
       </c>
@@ -2317,8 +2356,11 @@
       <c r="BC19">
         <v>203</v>
       </c>
-    </row>
-    <row r="20" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="BD19">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="20" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>7</v>
       </c>
@@ -2424,8 +2466,11 @@
       <c r="BC20">
         <v>234</v>
       </c>
-    </row>
-    <row r="21" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="BD20">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="21" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>7</v>
       </c>
@@ -2531,13 +2576,16 @@
       <c r="BC21">
         <v>687</v>
       </c>
-    </row>
-    <row r="23" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="BD21">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="23" spans="1:56" x14ac:dyDescent="0.3">
       <c r="B23" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>8</v>
       </c>
@@ -2652,8 +2700,11 @@
       <c r="BC24">
         <v>92</v>
       </c>
-    </row>
-    <row r="25" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="BD24">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>8</v>
       </c>
@@ -2714,8 +2765,11 @@
       <c r="BC25">
         <v>41</v>
       </c>
-    </row>
-    <row r="26" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="BD25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>8</v>
       </c>
@@ -2776,8 +2830,11 @@
       <c r="BC26">
         <v>51</v>
       </c>
-    </row>
-    <row r="27" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="BD26">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>8</v>
       </c>
@@ -2883,8 +2940,11 @@
       <c r="BC27">
         <v>64</v>
       </c>
-    </row>
-    <row r="28" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="BD27">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>8</v>
       </c>
@@ -2990,8 +3050,11 @@
       <c r="BC28">
         <v>105</v>
       </c>
-    </row>
-    <row r="29" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="BD28">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>8</v>
       </c>
@@ -3097,13 +3160,16 @@
       <c r="BC29">
         <v>776</v>
       </c>
-    </row>
-    <row r="31" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="BD29">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="31" spans="1:56" x14ac:dyDescent="0.3">
       <c r="B31" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>19</v>
       </c>
@@ -3210,7 +3276,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>19</v>
       </c>
@@ -3269,7 +3335,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>19</v>
       </c>
@@ -3328,7 +3394,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>19</v>
       </c>
@@ -3435,7 +3501,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>19</v>
       </c>
@@ -3539,7 +3605,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>19</v>
       </c>
@@ -3646,7 +3712,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="38" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>19</v>
       </c>
@@ -3687,15 +3753,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
     </row>
-    <row r="40" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:56" x14ac:dyDescent="0.3">
       <c r="B40" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>16</v>
       </c>
@@ -3804,8 +3870,11 @@
       <c r="BC41">
         <v>131</v>
       </c>
-    </row>
-    <row r="42" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="BD41">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="42" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>16</v>
       </c>
@@ -3866,8 +3935,11 @@
       <c r="BC42">
         <v>45</v>
       </c>
-    </row>
-    <row r="43" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="BD42">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>16</v>
       </c>
@@ -3928,8 +4000,11 @@
       <c r="BC43">
         <v>85</v>
       </c>
-    </row>
-    <row r="44" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="BD43">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>16</v>
       </c>
@@ -4035,8 +4110,11 @@
       <c r="BC44">
         <v>810</v>
       </c>
-    </row>
-    <row r="45" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="BD44">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="45" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>16</v>
       </c>
@@ -4097,8 +4175,11 @@
       <c r="BC45">
         <v>855</v>
       </c>
-    </row>
-    <row r="46" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="BD45">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="46" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>16</v>
       </c>
@@ -4156,8 +4237,11 @@
       <c r="BC46">
         <v>300</v>
       </c>
-    </row>
-    <row r="47" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="BD46">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="47" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>16</v>
       </c>
@@ -4209,16 +4293,19 @@
       <c r="BC47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="BD47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
     </row>
-    <row r="49" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:56" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>18</v>
       </c>
@@ -4312,8 +4399,11 @@
       <c r="BC50">
         <v>25</v>
       </c>
-    </row>
-    <row r="51" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="BD50">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>18</v>
       </c>
@@ -4371,8 +4461,11 @@
       <c r="BC51">
         <v>20</v>
       </c>
-    </row>
-    <row r="52" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="BD51">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>18</v>
       </c>
@@ -4430,8 +4523,11 @@
       <c r="BC52">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="BD52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>18</v>
       </c>
@@ -4525,8 +4621,11 @@
       <c r="BC53">
         <v>33</v>
       </c>
-    </row>
-    <row r="54" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="BD53">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>18</v>
       </c>
@@ -4620,8 +4719,11 @@
       <c r="BC54">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="BD54">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>18</v>
       </c>
@@ -4715,8 +4817,11 @@
       <c r="BC55">
         <v>94</v>
       </c>
-    </row>
-    <row r="56" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="BD55">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="56" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>18</v>
       </c>
@@ -4768,8 +4873,11 @@
       <c r="BC56">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="BD56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>20</v>
       </c>
@@ -4863,8 +4971,11 @@
       <c r="BC58">
         <v>9</v>
       </c>
-    </row>
-    <row r="59" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="BD58">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>20</v>
       </c>
@@ -4922,8 +5033,11 @@
       <c r="BC59">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="BD59">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>20</v>
       </c>
@@ -4981,8 +5095,11 @@
       <c r="BC60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="BD60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>20</v>
       </c>
@@ -5076,8 +5193,11 @@
       <c r="BC61">
         <v>39</v>
       </c>
-    </row>
-    <row r="62" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="BD61">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="62" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>20</v>
       </c>
@@ -5171,8 +5291,11 @@
       <c r="BC62">
         <v>47</v>
       </c>
-    </row>
-    <row r="63" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="BD62">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="63" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>20</v>
       </c>
@@ -5266,8 +5389,11 @@
       <c r="BC63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="BD63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>20</v>
       </c>
@@ -5325,13 +5451,16 @@
       <c r="BC64">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="BD64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:56" x14ac:dyDescent="0.3">
       <c r="B66" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="67" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>22</v>
       </c>
@@ -5425,8 +5554,11 @@
       <c r="BC67">
         <v>162</v>
       </c>
-    </row>
-    <row r="68" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="BD67">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="68" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>22</v>
       </c>
@@ -5520,8 +5652,11 @@
       <c r="BC68">
         <v>256</v>
       </c>
-    </row>
-    <row r="69" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="BD68">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="69" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>22</v>
       </c>
@@ -5615,8 +5750,11 @@
       <c r="BC69">
         <v>205</v>
       </c>
-    </row>
-    <row r="70" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="BD69">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="70" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>22</v>
       </c>
@@ -5668,8 +5806,11 @@
       <c r="BC70">
         <v>9</v>
       </c>
-    </row>
-    <row r="72" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="BD70">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>30</v>
       </c>
@@ -5763,8 +5904,11 @@
       <c r="BC72">
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="BD72">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>30</v>
       </c>
@@ -5858,8 +6002,11 @@
       <c r="BC73">
         <v>24</v>
       </c>
-    </row>
-    <row r="74" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="BD73">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="74" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>30</v>
       </c>
@@ -5953,8 +6100,11 @@
       <c r="BC74">
         <v>80</v>
       </c>
-    </row>
-    <row r="75" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="BD74">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="75" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>30</v>
       </c>
@@ -6048,8 +6198,11 @@
       <c r="BC75">
         <v>112</v>
       </c>
-    </row>
-    <row r="77" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="BD75">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="77" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>31</v>
       </c>
@@ -6143,8 +6296,11 @@
       <c r="BC77">
         <v>55</v>
       </c>
-    </row>
-    <row r="78" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="BD77">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="78" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>31</v>
       </c>
@@ -6238,8 +6394,11 @@
       <c r="BC78">
         <v>43</v>
       </c>
-    </row>
-    <row r="79" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="BD78">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="79" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>31</v>
       </c>
@@ -6321,8 +6480,11 @@
       <c r="BC79">
         <v>17</v>
       </c>
-    </row>
-    <row r="80" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="BD79" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>31</v>
       </c>
@@ -6416,8 +6578,11 @@
       <c r="BC80">
         <v>2</v>
       </c>
-    </row>
-    <row r="81" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="BD80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>31</v>
       </c>
@@ -6469,8 +6634,11 @@
       <c r="BC81">
         <v>9</v>
       </c>
-    </row>
-    <row r="83" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="BD81">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>81</v>
       </c>
@@ -6483,8 +6651,11 @@
       <c r="BC83">
         <v>121</v>
       </c>
-    </row>
-    <row r="84" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="BD83">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="84" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>81</v>
       </c>
@@ -6497,8 +6668,11 @@
       <c r="BC84">
         <v>8</v>
       </c>
-    </row>
-    <row r="85" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="BD84">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>81</v>
       </c>
@@ -6510,6 +6684,9 @@
       </c>
       <c r="BC85">
         <v>16</v>
+      </c>
+      <c r="BD85">
+        <v>17</v>
       </c>
     </row>
     <row r="100" spans="52:52" x14ac:dyDescent="0.3">
@@ -6525,10 +6702,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:AD11"/>
+  <dimension ref="A2:AE11"/>
   <sheetViews>
     <sheetView topLeftCell="U1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AD11" sqref="AD11"/>
+      <selection activeCell="AE11" sqref="AE11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6538,7 +6715,7 @@
     <col min="15" max="18" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>29</v>
       </c>
@@ -6629,8 +6806,11 @@
       <c r="AD2" s="9">
         <v>43949</v>
       </c>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE2" s="9">
+        <v>43950</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -6721,8 +6901,11 @@
       <c r="AD3">
         <v>503</v>
       </c>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE3">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -6813,8 +6996,11 @@
       <c r="AD4">
         <v>284</v>
       </c>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE4">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -6905,8 +7091,11 @@
       <c r="AD5">
         <v>270</v>
       </c>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE5">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>4</v>
       </c>
@@ -6997,8 +7186,11 @@
       <c r="AD6">
         <v>727</v>
       </c>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE6">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -7089,8 +7281,11 @@
       <c r="AD7">
         <v>622</v>
       </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE7">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>6</v>
       </c>
@@ -7181,8 +7376,11 @@
       <c r="AD8">
         <v>433</v>
       </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE8">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -7273,8 +7471,11 @@
       <c r="AD9">
         <v>630</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE9">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>8</v>
       </c>
@@ -7365,8 +7566,11 @@
       <c r="AD10">
         <v>597</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE10">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>36</v>
       </c>
@@ -7456,6 +7660,9 @@
       </c>
       <c r="AD11">
         <v>40</v>
+      </c>
+      <c r="AE11">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -7466,10 +7673,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A2:Y17"/>
+  <dimension ref="A2:Z17"/>
   <sheetViews>
     <sheetView topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Y17" sqref="Y17"/>
+      <selection activeCell="Z17" sqref="Z17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7479,7 +7686,7 @@
     <col min="10" max="12" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15"/>
       <c r="B2" s="12">
         <v>43926</v>
@@ -7553,8 +7760,11 @@
       <c r="Y2" s="9">
         <v>43949</v>
       </c>
-    </row>
-    <row r="3" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z2" s="9">
+        <v>43950</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>38</v>
       </c>
@@ -7562,7 +7772,7 @@
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>51</v>
       </c>
@@ -7638,8 +7848,11 @@
       <c r="Y4">
         <v>4106</v>
       </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z4">
+        <v>4323</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>36</v>
       </c>
@@ -7715,8 +7928,11 @@
       <c r="Y5">
         <v>487</v>
       </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z5">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>39</v>
       </c>
@@ -7792,8 +8008,11 @@
       <c r="Y6">
         <v>703</v>
       </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z6">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>40</v>
       </c>
@@ -7869,8 +8088,11 @@
       <c r="Y7">
         <v>2037</v>
       </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z7">
+        <v>2138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>41</v>
       </c>
@@ -7946,8 +8168,11 @@
       <c r="Y8">
         <v>64</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="Z8">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>42</v>
       </c>
@@ -8023,8 +8248,11 @@
       <c r="Y9">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="Z9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>52</v>
       </c>
@@ -8096,8 +8324,11 @@
       <c r="Y10">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
         <v>43</v>
       </c>
@@ -8173,8 +8404,11 @@
       <c r="Y11">
         <v>803</v>
       </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z11">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
         <v>44</v>
       </c>
@@ -8250,8 +8484,11 @@
       <c r="Y12">
         <v>26</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>45</v>
       </c>
@@ -8262,7 +8499,7 @@
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
         <v>36</v>
       </c>
@@ -8338,8 +8575,11 @@
       <c r="Y14">
         <v>803</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z14">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
         <v>46</v>
       </c>
@@ -8415,8 +8655,11 @@
       <c r="Y15">
         <v>797</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z15">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
         <v>47</v>
       </c>
@@ -8492,8 +8735,11 @@
       <c r="Y16">
         <v>2490</v>
       </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z16">
+        <v>2613</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
         <v>44</v>
       </c>
@@ -8568,6 +8814,9 @@
       </c>
       <c r="Y17">
         <v>16</v>
+      </c>
+      <c r="Z17">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -8578,10 +8827,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:Y8"/>
+  <dimension ref="A1:Z8"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="Y9" sqref="Y9"/>
+      <selection activeCell="Z9" sqref="Z9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8590,7 +8839,7 @@
     <col min="10" max="10" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B1" s="9">
         <v>43926</v>
       </c>
@@ -8663,14 +8912,17 @@
       <c r="Y1" s="9">
         <v>43949</v>
       </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z1" s="9">
+        <v>43950</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>38</v>
       </c>
       <c r="B2" s="7"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>51</v>
       </c>
@@ -8747,8 +8999,11 @@
       <c r="Y3">
         <v>205</v>
       </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z3">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>41</v>
       </c>
@@ -8824,8 +9079,11 @@
       <c r="Y4">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="Z4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>40</v>
       </c>
@@ -8901,8 +9159,11 @@
       <c r="Y5">
         <v>163</v>
       </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z5">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>48</v>
       </c>
@@ -8978,8 +9239,11 @@
       <c r="Y6">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>49</v>
       </c>
@@ -9055,8 +9319,11 @@
       <c r="Y7">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>50</v>
       </c>
@@ -9130,6 +9397,9 @@
         <v>2</v>
       </c>
       <c r="Y8">
+        <v>2</v>
+      </c>
+      <c r="Z8">
         <v>2</v>
       </c>
     </row>
@@ -9140,10 +9410,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48DE713F-971D-4CE1-B1A8-BE60A2507C58}">
-  <dimension ref="A2:K13"/>
+  <dimension ref="A2:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9151,7 +9421,7 @@
     <col min="1" max="1" width="22.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>29</v>
       </c>
@@ -9185,8 +9455,11 @@
       <c r="K2" s="9">
         <v>43949</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L2" s="9">
+        <v>43950</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>51</v>
       </c>
@@ -9220,8 +9493,11 @@
       <c r="K3">
         <v>205</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>1</v>
       </c>
@@ -9255,8 +9531,11 @@
       <c r="K4">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>2</v>
       </c>
@@ -9290,8 +9569,11 @@
       <c r="K5">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>3</v>
       </c>
@@ -9325,8 +9607,11 @@
       <c r="K6">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>4</v>
       </c>
@@ -9360,8 +9645,11 @@
       <c r="K7">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>5</v>
       </c>
@@ -9395,8 +9683,11 @@
       <c r="K8">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L8">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>6</v>
       </c>
@@ -9430,8 +9721,11 @@
       <c r="K9">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L9">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>7</v>
       </c>
@@ -9465,8 +9759,11 @@
       <c r="K10">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L10">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>8</v>
       </c>
@@ -9500,8 +9797,11 @@
       <c r="K11">
         <v>45</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L11">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>73</v>
       </c>
@@ -9535,8 +9835,11 @@
       <c r="K12">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>36</v>
       </c>
@@ -9568,6 +9871,9 @@
         <v>0</v>
       </c>
       <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
         <v>0</v>
       </c>
     </row>
@@ -9577,12 +9883,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C154F8D92A1190498EC67EE37256270A" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a145d1f7d2fc6bfdea86e9d796031e6c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8e61eea9-d51d-4f9c-960b-1b037651d93e" xmlns:ns4="248ed0f8-11d3-4141-bb91-6b69a0801941" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="87b2ee5a90a671ef9b646f531a040769" ns3:_="" ns4:_="">
     <xsd:import namespace="8e61eea9-d51d-4f9c-960b-1b037651d93e"/>
@@ -9785,6 +10085,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -9795,23 +10101,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8DEDEF4E-2681-4E64-A6E5-9E41742A3664}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="8e61eea9-d51d-4f9c-960b-1b037651d93e"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="248ed0f8-11d3-4141-bb91-6b69a0801941"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE449021-9205-42BF-A2AE-CC419CEBA6BF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9830,6 +10119,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8DEDEF4E-2681-4E64-A6E5-9E41742A3664}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="248ed0f8-11d3-4141-bb91-6b69a0801941"/>
+    <ds:schemaRef ds:uri="8e61eea9-d51d-4f9c-960b-1b037651d93e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD396E8E-4714-4CC9-8EAA-3025B907ED6D}">
   <ds:schemaRefs>

--- a/dcCovid-19DataSummaryToday.xlsx
+++ b/dcCovid-19DataSummaryToday.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dcgovict-my.sharepoint.com/personal/ramona_yun1_dc_gov/Documents/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1803" documentId="8_{C884A327-19F6-4EC6-805C-F52B66916DDD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{C1FADA27-B594-40CE-A324-6B043999E97D}"/>
+  <xr:revisionPtr revIDLastSave="1922" documentId="8_{C884A327-19F6-4EC6-805C-F52B66916DDD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{953A766E-B3D5-47B1-90C9-FB5BC15147E5}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="840" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overal Stats" sheetId="1" r:id="rId1"/>
@@ -712,21 +712,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BD100"/>
+  <dimension ref="A1:BE100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane xSplit="2" topLeftCell="BA1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BD61" sqref="BD1:BD1048576"/>
+      <selection pane="topRight" activeCell="BE1" sqref="BE1:BE1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29.44140625" customWidth="1"/>
     <col min="2" max="2" width="56.6640625" customWidth="1"/>
-    <col min="40" max="56" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="40" max="57" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:57" x14ac:dyDescent="0.3">
       <c r="C1" s="1">
         <v>43897</v>
       </c>
@@ -889,8 +889,11 @@
       <c r="BD1" s="1">
         <v>43950</v>
       </c>
-    </row>
-    <row r="2" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="BE1" s="1">
+        <v>43951</v>
+      </c>
+    </row>
+    <row r="2" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -914,7 +917,7 @@
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
     </row>
-    <row r="3" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1062,8 +1065,11 @@
       <c r="BD3">
         <v>20079</v>
       </c>
-    </row>
-    <row r="4" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="BE3">
+        <v>21135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1232,8 +1238,11 @@
       <c r="BD4">
         <v>4323</v>
       </c>
-    </row>
-    <row r="5" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="BE4">
+        <v>4658</v>
+      </c>
+    </row>
+    <row r="5" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -1384,8 +1393,11 @@
       <c r="BD5">
         <v>224</v>
       </c>
-    </row>
-    <row r="6" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="BE5">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="6" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -1506,11 +1518,14 @@
       <c r="BD6">
         <v>660</v>
       </c>
-    </row>
-    <row r="7" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="BE6">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="7" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
     </row>
-    <row r="8" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
@@ -1523,8 +1538,11 @@
       <c r="BD8">
         <v>345</v>
       </c>
-    </row>
-    <row r="9" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="BE8">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="9" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
@@ -1639,8 +1657,11 @@
       <c r="BD9">
         <v>89</v>
       </c>
-    </row>
-    <row r="10" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="BE9">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
@@ -1755,8 +1776,11 @@
       <c r="BD10">
         <v>440</v>
       </c>
-    </row>
-    <row r="11" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="BE10">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="11" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
@@ -1871,8 +1895,11 @@
       <c r="BD11">
         <v>245</v>
       </c>
-    </row>
-    <row r="12" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="BE11">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="12" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>1</v>
       </c>
@@ -1987,13 +2014,16 @@
       <c r="BD12">
         <v>195</v>
       </c>
-    </row>
-    <row r="14" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="BE12">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="14" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
@@ -2001,7 +2031,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>7</v>
       </c>
@@ -2119,8 +2149,11 @@
       <c r="BD16">
         <v>93</v>
       </c>
-    </row>
-    <row r="17" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="BE16">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>7</v>
       </c>
@@ -2184,8 +2217,11 @@
       <c r="BD17">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="BE17">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>7</v>
       </c>
@@ -2249,8 +2285,11 @@
       <c r="BD18">
         <v>57</v>
       </c>
-    </row>
-    <row r="19" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="BE18">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>7</v>
       </c>
@@ -2359,8 +2398,11 @@
       <c r="BD19">
         <v>187</v>
       </c>
-    </row>
-    <row r="20" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="BE19">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="20" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>7</v>
       </c>
@@ -2469,8 +2511,11 @@
       <c r="BD20">
         <v>223</v>
       </c>
-    </row>
-    <row r="21" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="BE20">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="21" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>7</v>
       </c>
@@ -2579,13 +2624,16 @@
       <c r="BD21">
         <v>706</v>
       </c>
-    </row>
-    <row r="23" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="BE21">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="23" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B23" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>8</v>
       </c>
@@ -2703,8 +2751,11 @@
       <c r="BD24">
         <v>96</v>
       </c>
-    </row>
-    <row r="25" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="BE24">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>8</v>
       </c>
@@ -2768,8 +2819,11 @@
       <c r="BD25">
         <v>42</v>
       </c>
-    </row>
-    <row r="26" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="BE25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>8</v>
       </c>
@@ -2833,8 +2887,11 @@
       <c r="BD26">
         <v>54</v>
       </c>
-    </row>
-    <row r="27" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="BE26">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>8</v>
       </c>
@@ -2943,8 +3000,11 @@
       <c r="BD27">
         <v>69</v>
       </c>
-    </row>
-    <row r="28" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="BE27">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>8</v>
       </c>
@@ -3053,8 +3113,11 @@
       <c r="BD28">
         <v>111</v>
       </c>
-    </row>
-    <row r="29" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="BE28">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="29" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>8</v>
       </c>
@@ -3163,13 +3226,16 @@
       <c r="BD29">
         <v>784</v>
       </c>
-    </row>
-    <row r="31" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="BE29">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="31" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B31" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>19</v>
       </c>
@@ -3275,8 +3341,11 @@
       <c r="BC32">
         <v>49</v>
       </c>
-    </row>
-    <row r="33" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="BE32">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>19</v>
       </c>
@@ -3334,8 +3403,11 @@
       <c r="BC33">
         <v>39</v>
       </c>
-    </row>
-    <row r="34" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="BE33">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>19</v>
       </c>
@@ -3393,8 +3465,11 @@
       <c r="BC34">
         <v>13</v>
       </c>
-    </row>
-    <row r="35" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="BE34">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>19</v>
       </c>
@@ -3501,7 +3576,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>19</v>
       </c>
@@ -3605,7 +3680,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>19</v>
       </c>
@@ -3711,8 +3786,11 @@
       <c r="BC37">
         <v>174</v>
       </c>
-    </row>
-    <row r="38" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="BE37">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="38" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>19</v>
       </c>
@@ -3752,16 +3830,19 @@
       <c r="BC38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="BE38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
     </row>
-    <row r="40" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B40" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>16</v>
       </c>
@@ -3873,8 +3954,11 @@
       <c r="BD41">
         <v>135</v>
       </c>
-    </row>
-    <row r="42" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="BE41">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="42" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>16</v>
       </c>
@@ -3938,8 +4022,11 @@
       <c r="BD42">
         <v>36</v>
       </c>
-    </row>
-    <row r="43" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="BE42">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>16</v>
       </c>
@@ -4003,8 +4090,11 @@
       <c r="BD43">
         <v>86</v>
       </c>
-    </row>
-    <row r="44" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="BE43">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>16</v>
       </c>
@@ -4113,8 +4203,11 @@
       <c r="BD44">
         <v>794</v>
       </c>
-    </row>
-    <row r="45" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="BE44">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="45" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>16</v>
       </c>
@@ -4178,8 +4271,11 @@
       <c r="BD45">
         <v>830</v>
       </c>
-    </row>
-    <row r="46" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="BE45">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="46" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>16</v>
       </c>
@@ -4240,8 +4336,11 @@
       <c r="BD46">
         <v>527</v>
       </c>
-    </row>
-    <row r="47" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="BE46">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="47" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>16</v>
       </c>
@@ -4296,16 +4395,19 @@
       <c r="BD47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="BE47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
     </row>
-    <row r="49" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>18</v>
       </c>
@@ -4402,8 +4504,11 @@
       <c r="BD50">
         <v>25</v>
       </c>
-    </row>
-    <row r="51" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="BE50">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>18</v>
       </c>
@@ -4464,8 +4569,11 @@
       <c r="BD51">
         <v>20</v>
       </c>
-    </row>
-    <row r="52" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="BE51">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>18</v>
       </c>
@@ -4526,8 +4634,11 @@
       <c r="BD52">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="BE52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>18</v>
       </c>
@@ -4624,8 +4735,11 @@
       <c r="BD53">
         <v>33</v>
       </c>
-    </row>
-    <row r="54" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="BE53">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>18</v>
       </c>
@@ -4722,8 +4836,11 @@
       <c r="BD54">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="BE54">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="55" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>18</v>
       </c>
@@ -4820,8 +4937,11 @@
       <c r="BD55">
         <v>85</v>
       </c>
-    </row>
-    <row r="56" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="BE55">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="56" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>18</v>
       </c>
@@ -4876,8 +4996,11 @@
       <c r="BD56">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="BE56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>20</v>
       </c>
@@ -4974,8 +5097,11 @@
       <c r="BD58">
         <v>9</v>
       </c>
-    </row>
-    <row r="59" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="BE58">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>20</v>
       </c>
@@ -5036,8 +5162,11 @@
       <c r="BD59">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="BE59">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>20</v>
       </c>
@@ -5098,8 +5227,11 @@
       <c r="BD60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="BE60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>20</v>
       </c>
@@ -5196,8 +5328,11 @@
       <c r="BD61">
         <v>40</v>
       </c>
-    </row>
-    <row r="62" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="BE61">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="62" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>20</v>
       </c>
@@ -5294,8 +5429,11 @@
       <c r="BD62">
         <v>48</v>
       </c>
-    </row>
-    <row r="63" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="BE62">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="63" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>20</v>
       </c>
@@ -5392,8 +5530,11 @@
       <c r="BD63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="BE63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>20</v>
       </c>
@@ -5454,13 +5595,16 @@
       <c r="BD64">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="BE64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B66" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="67" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>22</v>
       </c>
@@ -5557,8 +5701,11 @@
       <c r="BD67">
         <v>164</v>
       </c>
-    </row>
-    <row r="68" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="BE67">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="68" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>22</v>
       </c>
@@ -5655,8 +5802,11 @@
       <c r="BD68">
         <v>271</v>
       </c>
-    </row>
-    <row r="69" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="BE68">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="69" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>22</v>
       </c>
@@ -5753,8 +5903,11 @@
       <c r="BD69">
         <v>250</v>
       </c>
-    </row>
-    <row r="70" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="BE69">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="70" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>22</v>
       </c>
@@ -5809,8 +5962,11 @@
       <c r="BD70">
         <v>9</v>
       </c>
-    </row>
-    <row r="72" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="BE70">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>30</v>
       </c>
@@ -5907,8 +6063,11 @@
       <c r="BD72">
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="BE72">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="73" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>30</v>
       </c>
@@ -6005,8 +6164,11 @@
       <c r="BD73">
         <v>27</v>
       </c>
-    </row>
-    <row r="74" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="BE73">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="74" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>30</v>
       </c>
@@ -6103,8 +6265,11 @@
       <c r="BD74">
         <v>98</v>
       </c>
-    </row>
-    <row r="75" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="BE74">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="75" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>30</v>
       </c>
@@ -6201,8 +6366,11 @@
       <c r="BD75">
         <v>113</v>
       </c>
-    </row>
-    <row r="77" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="BE75">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="77" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>31</v>
       </c>
@@ -6299,8 +6467,11 @@
       <c r="BD77">
         <v>66</v>
       </c>
-    </row>
-    <row r="78" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="BE77">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="78" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>31</v>
       </c>
@@ -6397,8 +6568,11 @@
       <c r="BD78">
         <v>50</v>
       </c>
-    </row>
-    <row r="79" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="BE78">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="79" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>31</v>
       </c>
@@ -6483,8 +6657,11 @@
       <c r="BD79" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="80" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="BE79">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="80" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>31</v>
       </c>
@@ -6581,8 +6758,11 @@
       <c r="BD80">
         <v>2</v>
       </c>
-    </row>
-    <row r="81" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="BE80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>31</v>
       </c>
@@ -6637,8 +6817,11 @@
       <c r="BD81">
         <v>9</v>
       </c>
-    </row>
-    <row r="83" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="BE81">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>81</v>
       </c>
@@ -6654,8 +6837,11 @@
       <c r="BD83">
         <v>130</v>
       </c>
-    </row>
-    <row r="84" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="BE83">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="84" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>81</v>
       </c>
@@ -6671,8 +6857,11 @@
       <c r="BD84">
         <v>10</v>
       </c>
-    </row>
-    <row r="85" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="BE84">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>81</v>
       </c>
@@ -6686,6 +6875,9 @@
         <v>16</v>
       </c>
       <c r="BD85">
+        <v>17</v>
+      </c>
+      <c r="BE85">
         <v>17</v>
       </c>
     </row>
@@ -6702,10 +6894,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:AE11"/>
+  <dimension ref="A2:AF11"/>
   <sheetViews>
     <sheetView topLeftCell="U1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AE11" sqref="AE11"/>
+      <selection activeCell="AF11" sqref="AF11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6715,7 +6907,7 @@
     <col min="15" max="18" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>29</v>
       </c>
@@ -6809,8 +7001,11 @@
       <c r="AE2" s="9">
         <v>43950</v>
       </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AF2" s="9">
+        <v>43951</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -6904,8 +7099,11 @@
       <c r="AE3">
         <v>543</v>
       </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AF3">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -6999,8 +7197,11 @@
       <c r="AE4">
         <v>291</v>
       </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AF4">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -7094,8 +7295,11 @@
       <c r="AE5">
         <v>282</v>
       </c>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AF5">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>4</v>
       </c>
@@ -7189,8 +7393,11 @@
       <c r="AE6">
         <v>774</v>
       </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AF6">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -7284,8 +7491,11 @@
       <c r="AE7">
         <v>646</v>
       </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AF7">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>6</v>
       </c>
@@ -7379,8 +7589,11 @@
       <c r="AE8">
         <v>450</v>
       </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AF8">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -7474,8 +7687,11 @@
       <c r="AE9">
         <v>659</v>
       </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AF9">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>8</v>
       </c>
@@ -7569,8 +7785,11 @@
       <c r="AE10">
         <v>632</v>
       </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AF10">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>36</v>
       </c>
@@ -7662,6 +7881,9 @@
         <v>40</v>
       </c>
       <c r="AE11">
+        <v>46</v>
+      </c>
+      <c r="AF11">
         <v>46</v>
       </c>
     </row>
@@ -7673,10 +7895,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A2:Z17"/>
+  <dimension ref="A2:AA17"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Z17" sqref="Z17"/>
+    <sheetView topLeftCell="J2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AA17" sqref="AA17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7686,7 +7908,7 @@
     <col min="10" max="12" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15"/>
       <c r="B2" s="12">
         <v>43926</v>
@@ -7763,8 +7985,11 @@
       <c r="Z2" s="9">
         <v>43950</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA2" s="9">
+        <v>43951</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>38</v>
       </c>
@@ -7772,7 +7997,7 @@
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>51</v>
       </c>
@@ -7851,8 +8076,11 @@
       <c r="Z4">
         <v>4323</v>
       </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA4">
+        <v>4658</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>36</v>
       </c>
@@ -7931,8 +8159,11 @@
       <c r="Z5">
         <v>534</v>
       </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA5">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>39</v>
       </c>
@@ -8011,8 +8242,11 @@
       <c r="Z6">
         <v>743</v>
       </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA6">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>40</v>
       </c>
@@ -8091,8 +8325,11 @@
       <c r="Z7">
         <v>2138</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA7">
+        <v>2247</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>41</v>
       </c>
@@ -8171,8 +8408,11 @@
       <c r="Z8">
         <v>65</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="AA8">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>42</v>
       </c>
@@ -8251,8 +8491,11 @@
       <c r="Z9">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="AA9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>52</v>
       </c>
@@ -8327,8 +8570,11 @@
       <c r="Z10">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
         <v>43</v>
       </c>
@@ -8407,8 +8653,11 @@
       <c r="Z11">
         <v>794</v>
       </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA11">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
         <v>44</v>
       </c>
@@ -8487,8 +8736,11 @@
       <c r="Z12">
         <v>28</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>45</v>
       </c>
@@ -8499,7 +8751,7 @@
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
         <v>36</v>
       </c>
@@ -8578,8 +8830,11 @@
       <c r="Z14">
         <v>838</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA14">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
         <v>46</v>
       </c>
@@ -8658,8 +8913,11 @@
       <c r="Z15">
         <v>855</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA15">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
         <v>47</v>
       </c>
@@ -8738,8 +8996,11 @@
       <c r="Z16">
         <v>2613</v>
       </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA16">
+        <v>2741</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
         <v>44</v>
       </c>
@@ -8817,6 +9078,9 @@
       </c>
       <c r="Z17">
         <v>17</v>
+      </c>
+      <c r="AA17">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -8827,10 +9091,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:Z8"/>
+  <dimension ref="A1:AA8"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="Z9" sqref="Z9"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="AA8" sqref="AA8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8839,7 +9103,7 @@
     <col min="10" max="10" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B1" s="9">
         <v>43926</v>
       </c>
@@ -8915,14 +9179,17 @@
       <c r="Z1" s="9">
         <v>43950</v>
       </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA1" s="9">
+        <v>43951</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>38</v>
       </c>
       <c r="B2" s="7"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>51</v>
       </c>
@@ -9002,8 +9269,11 @@
       <c r="Z3">
         <v>224</v>
       </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>41</v>
       </c>
@@ -9082,8 +9352,11 @@
       <c r="Z4">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="AA4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>40</v>
       </c>
@@ -9162,8 +9435,11 @@
       <c r="Z5">
         <v>177</v>
       </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA5">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>48</v>
       </c>
@@ -9242,8 +9518,11 @@
       <c r="Z6">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>49</v>
       </c>
@@ -9322,8 +9601,11 @@
       <c r="Z7">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>50</v>
       </c>
@@ -9400,6 +9682,9 @@
         <v>2</v>
       </c>
       <c r="Z8">
+        <v>2</v>
+      </c>
+      <c r="AA8">
         <v>2</v>
       </c>
     </row>
@@ -9410,10 +9695,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48DE713F-971D-4CE1-B1A8-BE60A2507C58}">
-  <dimension ref="A2:L13"/>
+  <dimension ref="A2:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9421,7 +9706,7 @@
     <col min="1" max="1" width="22.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>29</v>
       </c>
@@ -9458,8 +9743,11 @@
       <c r="L2" s="9">
         <v>43950</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M2" s="9">
+        <v>43951</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>51</v>
       </c>
@@ -9496,8 +9784,11 @@
       <c r="L3">
         <v>224</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>1</v>
       </c>
@@ -9534,8 +9825,11 @@
       <c r="L4">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>2</v>
       </c>
@@ -9572,8 +9866,11 @@
       <c r="L5">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>3</v>
       </c>
@@ -9610,8 +9907,11 @@
       <c r="L6">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>4</v>
       </c>
@@ -9648,8 +9948,11 @@
       <c r="L7">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>5</v>
       </c>
@@ -9686,8 +9989,11 @@
       <c r="L8">
         <v>34</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M8">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>6</v>
       </c>
@@ -9724,8 +10030,11 @@
       <c r="L9">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M9">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>7</v>
       </c>
@@ -9762,8 +10071,11 @@
       <c r="L10">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>8</v>
       </c>
@@ -9800,8 +10112,11 @@
       <c r="L11">
         <v>49</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="M11">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>73</v>
       </c>
@@ -9838,8 +10153,11 @@
       <c r="L12">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>36</v>
       </c>
@@ -9874,6 +10192,9 @@
         <v>0</v>
       </c>
       <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
         <v>0</v>
       </c>
     </row>
@@ -10122,16 +10443,16 @@
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8DEDEF4E-2681-4E64-A6E5-9E41742A3664}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="248ed0f8-11d3-4141-bb91-6b69a0801941"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="8e61eea9-d51d-4f9c-960b-1b037651d93e"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="248ed0f8-11d3-4141-bb91-6b69a0801941"/>
-    <ds:schemaRef ds:uri="8e61eea9-d51d-4f9c-960b-1b037651d93e"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/dcCovid-19DataSummaryToday.xlsx
+++ b/dcCovid-19DataSummaryToday.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dcgovict-my.sharepoint.com/personal/ramona_yun1_dc_gov/Documents/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dcgovict-my.sharepoint.com/personal/ramona_yun1_dc_gov/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1922" documentId="8_{C884A327-19F6-4EC6-805C-F52B66916DDD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{953A766E-B3D5-47B1-90C9-FB5BC15147E5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{374341DD-C3B3-4BF1-BB9D-EFA90D251024}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="840" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overal Stats" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="83">
   <si>
     <t>Testing</t>
   </si>
@@ -712,11 +712,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BE100"/>
+  <dimension ref="A1:BF100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="BA1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BE1" sqref="BE1:BE1048576"/>
+      <pane xSplit="2" topLeftCell="AX1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BF1" sqref="BF1:BF1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -726,7 +726,7 @@
     <col min="40" max="57" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:58" x14ac:dyDescent="0.3">
       <c r="C1" s="1">
         <v>43897</v>
       </c>
@@ -892,8 +892,11 @@
       <c r="BE1" s="1">
         <v>43951</v>
       </c>
-    </row>
-    <row r="2" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="BF1" s="1">
+        <v>43952</v>
+      </c>
+    </row>
+    <row r="2" spans="1:58" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -917,7 +920,7 @@
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
     </row>
-    <row r="3" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1068,8 +1071,11 @@
       <c r="BE3">
         <v>21135</v>
       </c>
-    </row>
-    <row r="4" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="BF3">
+        <v>22004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1241,8 +1247,11 @@
       <c r="BE4">
         <v>4658</v>
       </c>
-    </row>
-    <row r="5" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="BF4">
+        <v>4797</v>
+      </c>
+    </row>
+    <row r="5" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -1396,8 +1405,11 @@
       <c r="BE5">
         <v>231</v>
       </c>
-    </row>
-    <row r="6" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="BF5">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="6" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -1521,11 +1533,14 @@
       <c r="BE6">
         <v>666</v>
       </c>
-    </row>
-    <row r="7" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="BF6">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="7" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
     </row>
-    <row r="8" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
@@ -1541,8 +1556,11 @@
       <c r="BE8">
         <v>345</v>
       </c>
-    </row>
-    <row r="9" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="BF8">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="9" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
@@ -1660,8 +1678,11 @@
       <c r="BE9">
         <v>107</v>
       </c>
-    </row>
-    <row r="10" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="BF9">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
@@ -1779,8 +1800,11 @@
       <c r="BE10">
         <v>440</v>
       </c>
-    </row>
-    <row r="11" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="BF10">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="11" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
@@ -1898,8 +1922,11 @@
       <c r="BE11">
         <v>242</v>
       </c>
-    </row>
-    <row r="12" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="BF11">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="12" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>1</v>
       </c>
@@ -2017,13 +2044,16 @@
       <c r="BE12">
         <v>198</v>
       </c>
-    </row>
-    <row r="14" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="BF12">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="14" spans="1:58" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
@@ -2031,7 +2061,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>7</v>
       </c>
@@ -2152,8 +2182,11 @@
       <c r="BE16">
         <v>94</v>
       </c>
-    </row>
-    <row r="17" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="BF16">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>7</v>
       </c>
@@ -2220,8 +2253,11 @@
       <c r="BE17">
         <v>37</v>
       </c>
-    </row>
-    <row r="18" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="BF17">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>7</v>
       </c>
@@ -2288,8 +2324,11 @@
       <c r="BE18">
         <v>57</v>
       </c>
-    </row>
-    <row r="19" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="BF18">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>7</v>
       </c>
@@ -2401,8 +2440,11 @@
       <c r="BE19">
         <v>201</v>
       </c>
-    </row>
-    <row r="20" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="BF19">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="20" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>7</v>
       </c>
@@ -2514,8 +2556,11 @@
       <c r="BE20">
         <v>238</v>
       </c>
-    </row>
-    <row r="21" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="BF20">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>7</v>
       </c>
@@ -2627,13 +2672,16 @@
       <c r="BE21">
         <v>722</v>
       </c>
-    </row>
-    <row r="23" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="BF21">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="23" spans="1:58" x14ac:dyDescent="0.3">
       <c r="B23" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>8</v>
       </c>
@@ -2754,8 +2802,11 @@
       <c r="BE24">
         <v>100</v>
       </c>
-    </row>
-    <row r="25" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="BF24">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>8</v>
       </c>
@@ -2822,8 +2873,11 @@
       <c r="BE25">
         <v>45</v>
       </c>
-    </row>
-    <row r="26" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="BF25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>8</v>
       </c>
@@ -2890,8 +2944,11 @@
       <c r="BE26">
         <v>55</v>
       </c>
-    </row>
-    <row r="27" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="BF26">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>8</v>
       </c>
@@ -3003,8 +3060,11 @@
       <c r="BE27">
         <v>67</v>
       </c>
-    </row>
-    <row r="28" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="BF27">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>8</v>
       </c>
@@ -3116,8 +3176,11 @@
       <c r="BE28">
         <v>112</v>
       </c>
-    </row>
-    <row r="29" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="BF28">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="29" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>8</v>
       </c>
@@ -3229,13 +3292,16 @@
       <c r="BE29">
         <v>798</v>
       </c>
-    </row>
-    <row r="31" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="BF29">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="31" spans="1:58" x14ac:dyDescent="0.3">
       <c r="B31" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>19</v>
       </c>
@@ -3344,8 +3410,11 @@
       <c r="BE32">
         <v>54</v>
       </c>
-    </row>
-    <row r="33" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="BF32">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>19</v>
       </c>
@@ -3406,8 +3475,11 @@
       <c r="BE33">
         <v>38</v>
       </c>
-    </row>
-    <row r="34" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="BF33">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>19</v>
       </c>
@@ -3468,8 +3540,11 @@
       <c r="BE34">
         <v>13</v>
       </c>
-    </row>
-    <row r="35" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="BF34">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>19</v>
       </c>
@@ -3575,8 +3650,11 @@
       <c r="BC35">
         <v>36</v>
       </c>
-    </row>
-    <row r="36" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="BF35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>19</v>
       </c>
@@ -3679,8 +3757,11 @@
       <c r="BC36">
         <v>75</v>
       </c>
-    </row>
-    <row r="37" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="BF36">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>19</v>
       </c>
@@ -3789,8 +3870,11 @@
       <c r="BE37">
         <v>174</v>
       </c>
-    </row>
-    <row r="38" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="BF37">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="38" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>19</v>
       </c>
@@ -3833,16 +3917,19 @@
       <c r="BE38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="BF38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
     </row>
-    <row r="40" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:58" x14ac:dyDescent="0.3">
       <c r="B40" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>16</v>
       </c>
@@ -3957,8 +4044,11 @@
       <c r="BE41">
         <v>140</v>
       </c>
-    </row>
-    <row r="42" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="BF41">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="42" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>16</v>
       </c>
@@ -4025,8 +4115,11 @@
       <c r="BE42">
         <v>49</v>
       </c>
-    </row>
-    <row r="43" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="BF42">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>16</v>
       </c>
@@ -4093,8 +4186,11 @@
       <c r="BE43">
         <v>88</v>
       </c>
-    </row>
-    <row r="44" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="BF43">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>16</v>
       </c>
@@ -4206,8 +4302,11 @@
       <c r="BE44">
         <v>860</v>
       </c>
-    </row>
-    <row r="45" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="BF44">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="45" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>16</v>
       </c>
@@ -4274,8 +4373,11 @@
       <c r="BE45">
         <v>910</v>
       </c>
-    </row>
-    <row r="46" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="BF45">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="46" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>16</v>
       </c>
@@ -4339,8 +4441,11 @@
       <c r="BE46">
         <v>440</v>
       </c>
-    </row>
-    <row r="47" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="BF46">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="47" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>16</v>
       </c>
@@ -4398,16 +4503,19 @@
       <c r="BE47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="BF47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
     </row>
-    <row r="49" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:58" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>18</v>
       </c>
@@ -4507,8 +4615,11 @@
       <c r="BE50">
         <v>26</v>
       </c>
-    </row>
-    <row r="51" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="BF50">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>18</v>
       </c>
@@ -4572,8 +4683,11 @@
       <c r="BE51">
         <v>20</v>
       </c>
-    </row>
-    <row r="52" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="BF51">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>18</v>
       </c>
@@ -4637,8 +4751,11 @@
       <c r="BE52">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="BF52">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>18</v>
       </c>
@@ -4738,8 +4855,11 @@
       <c r="BE53">
         <v>35</v>
       </c>
-    </row>
-    <row r="54" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="BF53">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>18</v>
       </c>
@@ -4839,8 +4959,11 @@
       <c r="BE54">
         <v>55</v>
       </c>
-    </row>
-    <row r="55" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="BF54">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>18</v>
       </c>
@@ -4940,8 +5063,11 @@
       <c r="BE55">
         <v>85</v>
       </c>
-    </row>
-    <row r="56" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="BF55">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="56" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>18</v>
       </c>
@@ -4999,8 +5125,11 @@
       <c r="BE56">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="BF56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>20</v>
       </c>
@@ -5100,8 +5229,11 @@
       <c r="BE58">
         <v>10</v>
       </c>
-    </row>
-    <row r="59" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="BF58">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>20</v>
       </c>
@@ -5165,8 +5297,11 @@
       <c r="BE59">
         <v>9</v>
       </c>
-    </row>
-    <row r="60" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="BF59">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>20</v>
       </c>
@@ -5230,8 +5365,11 @@
       <c r="BE60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="BF60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>20</v>
       </c>
@@ -5331,8 +5469,11 @@
       <c r="BE61">
         <v>40</v>
       </c>
-    </row>
-    <row r="62" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="BF61">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="62" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>20</v>
       </c>
@@ -5432,8 +5573,11 @@
       <c r="BE62">
         <v>49</v>
       </c>
-    </row>
-    <row r="63" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="BF62">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="63" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>20</v>
       </c>
@@ -5533,8 +5677,11 @@
       <c r="BE63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="BF63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>20</v>
       </c>
@@ -5598,13 +5745,16 @@
       <c r="BE64">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="BF64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:58" x14ac:dyDescent="0.3">
       <c r="B66" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="67" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>22</v>
       </c>
@@ -5704,8 +5854,11 @@
       <c r="BE67">
         <v>177</v>
       </c>
-    </row>
-    <row r="68" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="BF67">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="68" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>22</v>
       </c>
@@ -5805,8 +5958,11 @@
       <c r="BE68">
         <v>286</v>
       </c>
-    </row>
-    <row r="69" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="BF68">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="69" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>22</v>
       </c>
@@ -5906,8 +6062,11 @@
       <c r="BE69">
         <v>268</v>
       </c>
-    </row>
-    <row r="70" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="BF69">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="70" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>22</v>
       </c>
@@ -5965,8 +6124,11 @@
       <c r="BE70">
         <v>9</v>
       </c>
-    </row>
-    <row r="72" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="BF70">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>30</v>
       </c>
@@ -6066,8 +6228,11 @@
       <c r="BE72">
         <v>72</v>
       </c>
-    </row>
-    <row r="73" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="BF72">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="73" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>30</v>
       </c>
@@ -6167,8 +6332,11 @@
       <c r="BE73">
         <v>27</v>
       </c>
-    </row>
-    <row r="74" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="BF73">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="74" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>30</v>
       </c>
@@ -6268,8 +6436,11 @@
       <c r="BE74">
         <v>99</v>
       </c>
-    </row>
-    <row r="75" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="BF74">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="75" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>30</v>
       </c>
@@ -6369,8 +6540,11 @@
       <c r="BE75">
         <v>113</v>
       </c>
-    </row>
-    <row r="77" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="BF75">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="77" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>31</v>
       </c>
@@ -6470,8 +6644,11 @@
       <c r="BE77">
         <v>66</v>
       </c>
-    </row>
-    <row r="78" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="BF77">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="78" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>31</v>
       </c>
@@ -6571,8 +6748,11 @@
       <c r="BE78">
         <v>50</v>
       </c>
-    </row>
-    <row r="79" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="BF78">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="79" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>31</v>
       </c>
@@ -6660,8 +6840,11 @@
       <c r="BE79">
         <v>127</v>
       </c>
-    </row>
-    <row r="80" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="BF79" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>31</v>
       </c>
@@ -6761,8 +6944,11 @@
       <c r="BE80">
         <v>2</v>
       </c>
-    </row>
-    <row r="81" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="BF80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>31</v>
       </c>
@@ -6820,8 +7006,11 @@
       <c r="BE81">
         <v>10</v>
       </c>
-    </row>
-    <row r="83" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="BF81">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>81</v>
       </c>
@@ -6840,8 +7029,11 @@
       <c r="BE83">
         <v>135</v>
       </c>
-    </row>
-    <row r="84" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="BF83">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="84" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>81</v>
       </c>
@@ -6860,8 +7052,11 @@
       <c r="BE84">
         <v>11</v>
       </c>
-    </row>
-    <row r="85" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="BF84">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>81</v>
       </c>
@@ -6879,6 +7074,9 @@
       </c>
       <c r="BE85">
         <v>17</v>
+      </c>
+      <c r="BF85">
+        <v>18</v>
       </c>
     </row>
     <row r="100" spans="52:52" x14ac:dyDescent="0.3">
@@ -6894,10 +7092,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:AF11"/>
+  <dimension ref="A2:AG11"/>
   <sheetViews>
     <sheetView topLeftCell="U1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AF11" sqref="AF11"/>
+      <selection activeCell="AG11" sqref="AG11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6907,7 +7105,7 @@
     <col min="15" max="18" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>29</v>
       </c>
@@ -7004,8 +7202,11 @@
       <c r="AF2" s="9">
         <v>43951</v>
       </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG2" s="9">
+        <v>43952</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -7102,8 +7303,11 @@
       <c r="AF3">
         <v>543</v>
       </c>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG3">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -7200,8 +7404,11 @@
       <c r="AF4">
         <v>291</v>
       </c>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG4">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -7298,8 +7505,11 @@
       <c r="AF5">
         <v>282</v>
       </c>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG5">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>4</v>
       </c>
@@ -7396,8 +7606,11 @@
       <c r="AF6">
         <v>774</v>
       </c>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG6">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -7494,8 +7707,11 @@
       <c r="AF7">
         <v>646</v>
       </c>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG7">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>6</v>
       </c>
@@ -7592,8 +7808,11 @@
       <c r="AF8">
         <v>450</v>
       </c>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG8">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -7690,8 +7909,11 @@
       <c r="AF9">
         <v>659</v>
       </c>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG9">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>8</v>
       </c>
@@ -7788,8 +8010,11 @@
       <c r="AF10">
         <v>632</v>
       </c>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG10">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>36</v>
       </c>
@@ -7885,6 +8110,9 @@
       </c>
       <c r="AF11">
         <v>46</v>
+      </c>
+      <c r="AG11">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -7895,10 +8123,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A2:AA17"/>
+  <dimension ref="A2:AB17"/>
   <sheetViews>
-    <sheetView topLeftCell="J2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AA17" sqref="AA17"/>
+    <sheetView topLeftCell="S2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AB17" sqref="AB17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7908,7 +8136,7 @@
     <col min="10" max="12" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15"/>
       <c r="B2" s="12">
         <v>43926</v>
@@ -7988,8 +8216,11 @@
       <c r="AA2" s="9">
         <v>43951</v>
       </c>
-    </row>
-    <row r="3" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AB2" s="9">
+        <v>43952</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>38</v>
       </c>
@@ -7997,7 +8228,7 @@
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>51</v>
       </c>
@@ -8079,8 +8310,11 @@
       <c r="AA4">
         <v>4658</v>
       </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB4">
+        <v>4797</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>36</v>
       </c>
@@ -8162,8 +8396,11 @@
       <c r="AA5">
         <v>666</v>
       </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB5">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>39</v>
       </c>
@@ -8245,8 +8482,11 @@
       <c r="AA6">
         <v>765</v>
       </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB6">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>40</v>
       </c>
@@ -8328,8 +8568,11 @@
       <c r="AA7">
         <v>2247</v>
       </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB7">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>41</v>
       </c>
@@ -8411,8 +8654,11 @@
       <c r="AA8">
         <v>66</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="AB8">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>42</v>
       </c>
@@ -8494,8 +8740,11 @@
       <c r="AA9">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="AB9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>52</v>
       </c>
@@ -8573,8 +8822,11 @@
       <c r="AA10">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
         <v>43</v>
       </c>
@@ -8656,8 +8908,11 @@
       <c r="AA11">
         <v>861</v>
       </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB11">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
         <v>44</v>
       </c>
@@ -8739,8 +8994,11 @@
       <c r="AA12">
         <v>30</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>45</v>
       </c>
@@ -8751,7 +9009,7 @@
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
         <v>36</v>
       </c>
@@ -8833,8 +9091,11 @@
       <c r="AA14">
         <v>1013</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB14">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
         <v>46</v>
       </c>
@@ -8916,8 +9177,11 @@
       <c r="AA15">
         <v>886</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB15">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
         <v>47</v>
       </c>
@@ -8999,8 +9263,11 @@
       <c r="AA16">
         <v>2741</v>
       </c>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB16">
+        <v>2782</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
         <v>44</v>
       </c>
@@ -9081,6 +9348,9 @@
       </c>
       <c r="AA17">
         <v>18</v>
+      </c>
+      <c r="AB17">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -9091,10 +9361,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AA8"/>
+  <dimension ref="A1:AB8"/>
   <sheetViews>
     <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="AA8" sqref="AA8"/>
+      <selection activeCell="AB8" sqref="AB8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9103,7 +9373,7 @@
     <col min="10" max="10" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B1" s="9">
         <v>43926</v>
       </c>
@@ -9182,14 +9452,17 @@
       <c r="AA1" s="9">
         <v>43951</v>
       </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB1" s="9">
+        <v>43952</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>38</v>
       </c>
       <c r="B2" s="7"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>51</v>
       </c>
@@ -9272,8 +9545,11 @@
       <c r="AA3">
         <v>231</v>
       </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB3">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>41</v>
       </c>
@@ -9355,8 +9631,11 @@
       <c r="AA4">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="AB4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>40</v>
       </c>
@@ -9438,8 +9717,11 @@
       <c r="AA5">
         <v>183</v>
       </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB5">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>48</v>
       </c>
@@ -9521,8 +9803,11 @@
       <c r="AA6">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>49</v>
       </c>
@@ -9604,8 +9889,11 @@
       <c r="AA7">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>50</v>
       </c>
@@ -9685,6 +9973,9 @@
         <v>2</v>
       </c>
       <c r="AA8">
+        <v>2</v>
+      </c>
+      <c r="AB8">
         <v>2</v>
       </c>
     </row>
@@ -9695,10 +9986,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48DE713F-971D-4CE1-B1A8-BE60A2507C58}">
-  <dimension ref="A2:M13"/>
+  <dimension ref="A2:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9706,7 +9997,7 @@
     <col min="1" max="1" width="22.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>29</v>
       </c>
@@ -9746,8 +10037,11 @@
       <c r="M2" s="9">
         <v>43951</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N2" s="9">
+        <v>43952</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>51</v>
       </c>
@@ -9787,8 +10081,11 @@
       <c r="M3">
         <v>231</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N3">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>1</v>
       </c>
@@ -9828,8 +10125,11 @@
       <c r="M4">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>2</v>
       </c>
@@ -9869,8 +10169,11 @@
       <c r="M5">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>3</v>
       </c>
@@ -9910,8 +10213,11 @@
       <c r="M6">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>4</v>
       </c>
@@ -9951,8 +10257,11 @@
       <c r="M7">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>5</v>
       </c>
@@ -9992,8 +10301,11 @@
       <c r="M8">
         <v>35</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N8">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>6</v>
       </c>
@@ -10033,8 +10345,11 @@
       <c r="M9">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N9">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>7</v>
       </c>
@@ -10074,8 +10389,11 @@
       <c r="M10">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N10">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>8</v>
       </c>
@@ -10115,8 +10433,11 @@
       <c r="M11">
         <v>51</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="N11">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>73</v>
       </c>
@@ -10156,8 +10477,11 @@
       <c r="M12">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>36</v>
       </c>
@@ -10195,6 +10519,9 @@
         <v>0</v>
       </c>
       <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
         <v>0</v>
       </c>
     </row>
@@ -10443,16 +10770,16 @@
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8DEDEF4E-2681-4E64-A6E5-9E41742A3664}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="248ed0f8-11d3-4141-bb91-6b69a0801941"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="8e61eea9-d51d-4f9c-960b-1b037651d93e"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/dcCovid-19DataSummaryToday.xlsx
+++ b/dcCovid-19DataSummaryToday.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dcgovict-my.sharepoint.com/personal/ramona_yun1_dc_gov/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{374341DD-C3B3-4BF1-BB9D-EFA90D251024}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="95" documentId="8_{374341DD-C3B3-4BF1-BB9D-EFA90D251024}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{CAED1F8E-E305-486F-906F-05DED98FB3CD}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="83">
   <si>
     <t>Testing</t>
   </si>
@@ -712,11 +712,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BF100"/>
+  <dimension ref="A1:BG100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="AX1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BF1" sqref="BF1:BF1048576"/>
+      <pane xSplit="2" topLeftCell="AZ1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BG1" sqref="BG1:BG1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -726,7 +726,7 @@
     <col min="40" max="57" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:59" x14ac:dyDescent="0.3">
       <c r="C1" s="1">
         <v>43897</v>
       </c>
@@ -895,8 +895,11 @@
       <c r="BF1" s="1">
         <v>43952</v>
       </c>
-    </row>
-    <row r="2" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="BG1" s="1">
+        <v>43953</v>
+      </c>
+    </row>
+    <row r="2" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -920,7 +923,7 @@
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
     </row>
-    <row r="3" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1074,8 +1077,11 @@
       <c r="BF3">
         <v>22004</v>
       </c>
-    </row>
-    <row r="4" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="BG3">
+        <v>23102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1250,8 +1256,11 @@
       <c r="BF4">
         <v>4797</v>
       </c>
-    </row>
-    <row r="5" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="BG4">
+        <v>5016</v>
+      </c>
+    </row>
+    <row r="5" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -1408,8 +1417,11 @@
       <c r="BF5">
         <v>240</v>
       </c>
-    </row>
-    <row r="6" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="BG5">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="6" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -1536,11 +1548,14 @@
       <c r="BF6">
         <v>666</v>
       </c>
-    </row>
-    <row r="7" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="BG6">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="7" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
     </row>
-    <row r="8" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
@@ -1559,8 +1574,11 @@
       <c r="BF8">
         <v>345</v>
       </c>
-    </row>
-    <row r="9" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="BG8">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="9" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
@@ -1681,8 +1699,11 @@
       <c r="BF9">
         <v>66</v>
       </c>
-    </row>
-    <row r="10" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="BG9">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
@@ -1803,8 +1824,11 @@
       <c r="BF10">
         <v>440</v>
       </c>
-    </row>
-    <row r="11" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="BG10">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="11" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
@@ -1925,8 +1949,11 @@
       <c r="BF11">
         <v>241</v>
       </c>
-    </row>
-    <row r="12" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="BG11">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="12" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>1</v>
       </c>
@@ -2047,13 +2074,16 @@
       <c r="BF12">
         <v>199</v>
       </c>
-    </row>
-    <row r="14" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="BG12">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="14" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
@@ -2061,7 +2091,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>7</v>
       </c>
@@ -2185,8 +2215,11 @@
       <c r="BF16">
         <v>95</v>
       </c>
-    </row>
-    <row r="17" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="BG16">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>7</v>
       </c>
@@ -2256,8 +2289,11 @@
       <c r="BF17">
         <v>35</v>
       </c>
-    </row>
-    <row r="18" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="BG17">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>7</v>
       </c>
@@ -2327,8 +2363,11 @@
       <c r="BF18">
         <v>60</v>
       </c>
-    </row>
-    <row r="19" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="BG18">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>7</v>
       </c>
@@ -2443,8 +2482,11 @@
       <c r="BF19">
         <v>214</v>
       </c>
-    </row>
-    <row r="20" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="BG19">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="20" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>7</v>
       </c>
@@ -2557,10 +2599,13 @@
         <v>238</v>
       </c>
       <c r="BF20">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:58" x14ac:dyDescent="0.3">
+        <v>249</v>
+      </c>
+      <c r="BG20">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="21" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>7</v>
       </c>
@@ -2675,13 +2720,16 @@
       <c r="BF21">
         <v>737</v>
       </c>
-    </row>
-    <row r="23" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="BG21">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="23" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B23" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>8</v>
       </c>
@@ -2805,8 +2853,11 @@
       <c r="BF24">
         <v>101</v>
       </c>
-    </row>
-    <row r="25" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="BG24">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>8</v>
       </c>
@@ -2876,8 +2927,11 @@
       <c r="BF25">
         <v>46</v>
       </c>
-    </row>
-    <row r="26" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="BG25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>8</v>
       </c>
@@ -2947,8 +3001,11 @@
       <c r="BF26">
         <v>55</v>
       </c>
-    </row>
-    <row r="27" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="BG26">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>8</v>
       </c>
@@ -3063,8 +3120,11 @@
       <c r="BF27">
         <v>66</v>
       </c>
-    </row>
-    <row r="28" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="BG27">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>8</v>
       </c>
@@ -3179,8 +3239,11 @@
       <c r="BF28">
         <v>112</v>
       </c>
-    </row>
-    <row r="29" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="BG28">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="29" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>8</v>
       </c>
@@ -3295,13 +3358,16 @@
       <c r="BF29">
         <v>809</v>
       </c>
-    </row>
-    <row r="31" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="BG29">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="31" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B31" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>19</v>
       </c>
@@ -3413,8 +3479,11 @@
       <c r="BF32">
         <v>61</v>
       </c>
-    </row>
-    <row r="33" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="BG32">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>19</v>
       </c>
@@ -3478,8 +3547,11 @@
       <c r="BF33">
         <v>44</v>
       </c>
-    </row>
-    <row r="34" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="BG33">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>19</v>
       </c>
@@ -3543,8 +3615,11 @@
       <c r="BF34">
         <v>16</v>
       </c>
-    </row>
-    <row r="35" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="BG34">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>19</v>
       </c>
@@ -3653,8 +3728,11 @@
       <c r="BF35">
         <v>36</v>
       </c>
-    </row>
-    <row r="36" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="BG35">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>19</v>
       </c>
@@ -3760,8 +3838,11 @@
       <c r="BF36">
         <v>80</v>
       </c>
-    </row>
-    <row r="37" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="BG36">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="37" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>19</v>
       </c>
@@ -3873,8 +3954,11 @@
       <c r="BF37">
         <v>187</v>
       </c>
-    </row>
-    <row r="38" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="BG37">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="38" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>19</v>
       </c>
@@ -3920,16 +4004,19 @@
       <c r="BF38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="BG38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
     </row>
-    <row r="40" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B40" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>16</v>
       </c>
@@ -4047,8 +4134,11 @@
       <c r="BF41">
         <v>144</v>
       </c>
-    </row>
-    <row r="42" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="BG41">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="42" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>16</v>
       </c>
@@ -4118,8 +4208,11 @@
       <c r="BF42">
         <v>52</v>
       </c>
-    </row>
-    <row r="43" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="BG42">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>16</v>
       </c>
@@ -4189,8 +4282,11 @@
       <c r="BF43">
         <v>89</v>
       </c>
-    </row>
-    <row r="44" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="BG43">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>16</v>
       </c>
@@ -4305,8 +4401,11 @@
       <c r="BF44">
         <v>844</v>
       </c>
-    </row>
-    <row r="45" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="BG44">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="45" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>16</v>
       </c>
@@ -4376,8 +4475,11 @@
       <c r="BF45">
         <v>896</v>
       </c>
-    </row>
-    <row r="46" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="BG45">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="46" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>16</v>
       </c>
@@ -4444,8 +4546,11 @@
       <c r="BF46">
         <v>452</v>
       </c>
-    </row>
-    <row r="47" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="BG46">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="47" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>16</v>
       </c>
@@ -4506,16 +4611,19 @@
       <c r="BF47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="BG47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
     </row>
-    <row r="49" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>18</v>
       </c>
@@ -4618,8 +4726,11 @@
       <c r="BF50">
         <v>26</v>
       </c>
-    </row>
-    <row r="51" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="BG50">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>18</v>
       </c>
@@ -4686,8 +4797,11 @@
       <c r="BF51">
         <v>19</v>
       </c>
-    </row>
-    <row r="52" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="BG51">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>18</v>
       </c>
@@ -4754,8 +4868,11 @@
       <c r="BF52">
         <v>6</v>
       </c>
-    </row>
-    <row r="53" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="BG52">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>18</v>
       </c>
@@ -4858,8 +4975,11 @@
       <c r="BF53">
         <v>33</v>
       </c>
-    </row>
-    <row r="54" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="BG53">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>18</v>
       </c>
@@ -4962,8 +5082,11 @@
       <c r="BF54">
         <v>52</v>
       </c>
-    </row>
-    <row r="55" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="BG54">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>18</v>
       </c>
@@ -5066,8 +5189,11 @@
       <c r="BF55">
         <v>98</v>
       </c>
-    </row>
-    <row r="56" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="BG55">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="56" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>18</v>
       </c>
@@ -5128,8 +5254,11 @@
       <c r="BF56">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="BG56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>20</v>
       </c>
@@ -5232,8 +5361,11 @@
       <c r="BF58">
         <v>10</v>
       </c>
-    </row>
-    <row r="59" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="BG58">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>20</v>
       </c>
@@ -5300,8 +5432,11 @@
       <c r="BF59">
         <v>9</v>
       </c>
-    </row>
-    <row r="60" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="BG59">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>20</v>
       </c>
@@ -5368,8 +5503,11 @@
       <c r="BF60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="BG60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>20</v>
       </c>
@@ -5472,8 +5610,11 @@
       <c r="BF61">
         <v>40</v>
       </c>
-    </row>
-    <row r="62" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="BG61">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="62" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>20</v>
       </c>
@@ -5576,8 +5717,11 @@
       <c r="BF62">
         <v>49</v>
       </c>
-    </row>
-    <row r="63" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="BG62">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="63" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>20</v>
       </c>
@@ -5680,8 +5824,11 @@
       <c r="BF63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="BG63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>20</v>
       </c>
@@ -5748,13 +5895,16 @@
       <c r="BF64">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="BG64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B66" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="67" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>22</v>
       </c>
@@ -5857,8 +6007,11 @@
       <c r="BF67">
         <v>202</v>
       </c>
-    </row>
-    <row r="68" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="BG67">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="68" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>22</v>
       </c>
@@ -5962,7 +6115,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="69" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>22</v>
       </c>
@@ -6063,10 +6216,10 @@
         <v>268</v>
       </c>
       <c r="BF69">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="70" spans="1:58" x14ac:dyDescent="0.3">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="70" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>22</v>
       </c>
@@ -6127,8 +6280,11 @@
       <c r="BF70">
         <v>9</v>
       </c>
-    </row>
-    <row r="72" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="BG70">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>30</v>
       </c>
@@ -6231,8 +6387,11 @@
       <c r="BF72">
         <v>73</v>
       </c>
-    </row>
-    <row r="73" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="BG72">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="73" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>30</v>
       </c>
@@ -6335,8 +6494,11 @@
       <c r="BF73">
         <v>23</v>
       </c>
-    </row>
-    <row r="74" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="BG73">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="74" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>30</v>
       </c>
@@ -6439,8 +6601,11 @@
       <c r="BF74">
         <v>96</v>
       </c>
-    </row>
-    <row r="75" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="BG74">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="75" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>30</v>
       </c>
@@ -6543,8 +6708,11 @@
       <c r="BF75">
         <v>127</v>
       </c>
-    </row>
-    <row r="77" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="BG75">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="77" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>31</v>
       </c>
@@ -6647,8 +6815,11 @@
       <c r="BF77">
         <v>68</v>
       </c>
-    </row>
-    <row r="78" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="BG77">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="78" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>31</v>
       </c>
@@ -6751,8 +6922,11 @@
       <c r="BF78">
         <v>50</v>
       </c>
-    </row>
-    <row r="79" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="BG78">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="79" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>31</v>
       </c>
@@ -6843,8 +7017,11 @@
       <c r="BF79" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="80" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="BG79" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>31</v>
       </c>
@@ -6947,8 +7124,11 @@
       <c r="BF80">
         <v>2</v>
       </c>
-    </row>
-    <row r="81" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="BG80">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>31</v>
       </c>
@@ -7009,8 +7189,11 @@
       <c r="BF81">
         <v>10</v>
       </c>
-    </row>
-    <row r="83" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="BG81">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>81</v>
       </c>
@@ -7032,8 +7215,11 @@
       <c r="BF83">
         <v>137</v>
       </c>
-    </row>
-    <row r="84" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="BG83">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="84" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>81</v>
       </c>
@@ -7055,8 +7241,11 @@
       <c r="BF84">
         <v>14</v>
       </c>
-    </row>
-    <row r="85" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="BG84">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>81</v>
       </c>
@@ -7076,6 +7265,9 @@
         <v>17</v>
       </c>
       <c r="BF85">
+        <v>18</v>
+      </c>
+      <c r="BG85">
         <v>18</v>
       </c>
     </row>
@@ -7092,10 +7284,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:AG11"/>
+  <dimension ref="A2:AH11"/>
   <sheetViews>
-    <sheetView topLeftCell="U1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AG11" sqref="AG11"/>
+    <sheetView topLeftCell="AB1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AH11" sqref="AH11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7105,7 +7297,7 @@
     <col min="15" max="18" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>29</v>
       </c>
@@ -7205,8 +7397,11 @@
       <c r="AG2" s="9">
         <v>43952</v>
       </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH2" s="9">
+        <v>43953</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -7306,8 +7501,11 @@
       <c r="AG3">
         <v>621</v>
       </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH3">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -7407,8 +7605,11 @@
       <c r="AG4">
         <v>318</v>
       </c>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH4">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -7508,8 +7709,11 @@
       <c r="AG5">
         <v>302</v>
       </c>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH5">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>4</v>
       </c>
@@ -7609,8 +7813,11 @@
       <c r="AG6">
         <v>889</v>
       </c>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH6">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -7710,8 +7917,11 @@
       <c r="AG7">
         <v>722</v>
       </c>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH7">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>6</v>
       </c>
@@ -7811,8 +8021,11 @@
       <c r="AG8">
         <v>476</v>
       </c>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH8">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -7912,8 +8125,11 @@
       <c r="AG9">
         <v>711</v>
       </c>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH9">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>8</v>
       </c>
@@ -8013,8 +8229,11 @@
       <c r="AG10">
         <v>692</v>
       </c>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH10">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>36</v>
       </c>
@@ -8113,6 +8332,9 @@
       </c>
       <c r="AG11">
         <v>66</v>
+      </c>
+      <c r="AH11">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -8123,10 +8345,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A2:AB17"/>
+  <dimension ref="A2:AC17"/>
   <sheetViews>
     <sheetView topLeftCell="S2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AB17" sqref="AB17"/>
+      <selection activeCell="AC17" sqref="AC17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8136,7 +8358,7 @@
     <col min="10" max="12" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15"/>
       <c r="B2" s="12">
         <v>43926</v>
@@ -8219,8 +8441,11 @@
       <c r="AB2" s="9">
         <v>43952</v>
       </c>
-    </row>
-    <row r="3" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AC2" s="9">
+        <v>43953</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>38</v>
       </c>
@@ -8228,7 +8453,7 @@
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>51</v>
       </c>
@@ -8313,8 +8538,11 @@
       <c r="AB4">
         <v>4797</v>
       </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC4">
+        <v>5016</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>36</v>
       </c>
@@ -8399,8 +8627,11 @@
       <c r="AB5">
         <v>726</v>
       </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC5">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>39</v>
       </c>
@@ -8485,8 +8716,11 @@
       <c r="AB6">
         <v>773</v>
       </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC6">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>40</v>
       </c>
@@ -8571,8 +8805,11 @@
       <c r="AB7">
         <v>2287</v>
       </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC7">
+        <v>2341</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>41</v>
       </c>
@@ -8657,8 +8894,11 @@
       <c r="AB8">
         <v>66</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="AC8">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>42</v>
       </c>
@@ -8743,8 +8983,11 @@
       <c r="AB9">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="AC9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>52</v>
       </c>
@@ -8825,8 +9068,11 @@
       <c r="AB10">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
         <v>43</v>
       </c>
@@ -8911,8 +9157,11 @@
       <c r="AB11">
         <v>889</v>
       </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC11">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
         <v>44</v>
       </c>
@@ -8997,8 +9246,11 @@
       <c r="AB12">
         <v>33</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>45</v>
       </c>
@@ -9009,7 +9261,7 @@
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
         <v>36</v>
       </c>
@@ -9094,8 +9346,11 @@
       <c r="AB14">
         <v>1083</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC14">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
         <v>46</v>
       </c>
@@ -9180,8 +9435,11 @@
       <c r="AB15">
         <v>913</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC15">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
         <v>47</v>
       </c>
@@ -9266,8 +9524,11 @@
       <c r="AB16">
         <v>2782</v>
       </c>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC16">
+        <v>2854</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
         <v>44</v>
       </c>
@@ -9350,6 +9611,9 @@
         <v>18</v>
       </c>
       <c r="AB17">
+        <v>19</v>
+      </c>
+      <c r="AC17">
         <v>19</v>
       </c>
     </row>
@@ -9361,10 +9625,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AB8"/>
+  <dimension ref="A1:AC8"/>
   <sheetViews>
     <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="AB8" sqref="AB8"/>
+      <selection activeCell="AC8" sqref="AC8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9373,7 +9637,7 @@
     <col min="10" max="10" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B1" s="9">
         <v>43926</v>
       </c>
@@ -9455,14 +9719,17 @@
       <c r="AB1" s="9">
         <v>43952</v>
       </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC1" s="9">
+        <v>43953</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>38</v>
       </c>
       <c r="B2" s="7"/>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>51</v>
       </c>
@@ -9548,8 +9815,11 @@
       <c r="AB3">
         <v>240</v>
       </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC3">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>41</v>
       </c>
@@ -9634,8 +9904,11 @@
       <c r="AB4">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="AC4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>40</v>
       </c>
@@ -9720,8 +9993,11 @@
       <c r="AB5">
         <v>190</v>
       </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC5">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>48</v>
       </c>
@@ -9806,8 +10082,11 @@
       <c r="AB6">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>49</v>
       </c>
@@ -9892,8 +10171,11 @@
       <c r="AB7">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>50</v>
       </c>
@@ -9976,6 +10258,9 @@
         <v>2</v>
       </c>
       <c r="AB8">
+        <v>2</v>
+      </c>
+      <c r="AC8">
         <v>2</v>
       </c>
     </row>
@@ -9986,10 +10271,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48DE713F-971D-4CE1-B1A8-BE60A2507C58}">
-  <dimension ref="A2:N13"/>
+  <dimension ref="A2:O13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9997,7 +10282,7 @@
     <col min="1" max="1" width="22.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>29</v>
       </c>
@@ -10040,8 +10325,11 @@
       <c r="N2" s="9">
         <v>43952</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O2" s="9">
+        <v>43953</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>51</v>
       </c>
@@ -10084,8 +10372,11 @@
       <c r="N3">
         <v>240</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O3">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>1</v>
       </c>
@@ -10128,8 +10419,11 @@
       <c r="N4">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>2</v>
       </c>
@@ -10172,8 +10466,11 @@
       <c r="N5">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>3</v>
       </c>
@@ -10216,8 +10513,11 @@
       <c r="N6">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>4</v>
       </c>
@@ -10260,8 +10560,11 @@
       <c r="N7">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O7">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>5</v>
       </c>
@@ -10304,8 +10607,11 @@
       <c r="N8">
         <v>38</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O8">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>6</v>
       </c>
@@ -10348,8 +10654,11 @@
       <c r="N9">
         <v>29</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>7</v>
       </c>
@@ -10392,8 +10701,11 @@
       <c r="N10">
         <v>32</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O10">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>8</v>
       </c>
@@ -10436,8 +10748,11 @@
       <c r="N11">
         <v>52</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="O11">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>73</v>
       </c>
@@ -10480,8 +10795,11 @@
       <c r="N12">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>36</v>
       </c>
@@ -10522,6 +10840,9 @@
         <v>0</v>
       </c>
       <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
         <v>0</v>
       </c>
     </row>
@@ -10770,16 +11091,16 @@
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8DEDEF4E-2681-4E64-A6E5-9E41742A3664}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="248ed0f8-11d3-4141-bb91-6b69a0801941"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="8e61eea9-d51d-4f9c-960b-1b037651d93e"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8e61eea9-d51d-4f9c-960b-1b037651d93e"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/dcCovid-19DataSummaryToday.xlsx
+++ b/dcCovid-19DataSummaryToday.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dcgovict-my.sharepoint.com/personal/ramona_yun1_dc_gov/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="95" documentId="8_{374341DD-C3B3-4BF1-BB9D-EFA90D251024}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{CAED1F8E-E305-486F-906F-05DED98FB3CD}"/>
+  <xr:revisionPtr revIDLastSave="212" documentId="8_{374341DD-C3B3-4BF1-BB9D-EFA90D251024}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{EB799C55-D6EF-4DA5-9DB9-17EE55B20AD0}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="83">
   <si>
     <t>Testing</t>
   </si>
@@ -712,11 +712,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BG100"/>
+  <dimension ref="A1:BH100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="AZ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BG1" sqref="BG1:BG1048576"/>
+      <pane xSplit="2" topLeftCell="BA1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BH28" sqref="BH1:BH1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -726,7 +726,7 @@
     <col min="40" max="57" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.3">
       <c r="C1" s="1">
         <v>43897</v>
       </c>
@@ -898,8 +898,11 @@
       <c r="BG1" s="1">
         <v>43953</v>
       </c>
-    </row>
-    <row r="2" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="BH1" s="1">
+        <v>43954</v>
+      </c>
+    </row>
+    <row r="2" spans="1:60" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -923,7 +926,7 @@
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
     </row>
-    <row r="3" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1080,8 +1083,11 @@
       <c r="BG3">
         <v>23102</v>
       </c>
-    </row>
-    <row r="4" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="BH3">
+        <v>23795</v>
+      </c>
+    </row>
+    <row r="4" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1259,8 +1265,11 @@
       <c r="BG4">
         <v>5016</v>
       </c>
-    </row>
-    <row r="5" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="BH4">
+        <v>5170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -1420,8 +1429,11 @@
       <c r="BG5">
         <v>251</v>
       </c>
-    </row>
-    <row r="6" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="BH5">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="6" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -1551,11 +1563,14 @@
       <c r="BG6">
         <v>666</v>
       </c>
-    </row>
-    <row r="7" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="BH6">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="7" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
     </row>
-    <row r="8" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
@@ -1577,8 +1592,11 @@
       <c r="BG8">
         <v>345</v>
       </c>
-    </row>
-    <row r="9" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="BH8">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="9" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
@@ -1702,8 +1720,11 @@
       <c r="BG9">
         <v>63</v>
       </c>
-    </row>
-    <row r="10" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="BH9">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
@@ -1827,8 +1848,11 @@
       <c r="BG10">
         <v>440</v>
       </c>
-    </row>
-    <row r="11" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="BH10">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="11" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
@@ -1952,8 +1976,11 @@
       <c r="BG11">
         <v>243</v>
       </c>
-    </row>
-    <row r="12" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="BH11">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="12" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>1</v>
       </c>
@@ -2077,13 +2104,16 @@
       <c r="BG12">
         <v>197</v>
       </c>
-    </row>
-    <row r="14" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="BH12">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="14" spans="1:60" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
@@ -2091,7 +2121,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>7</v>
       </c>
@@ -2218,8 +2248,11 @@
       <c r="BG16">
         <v>95</v>
       </c>
-    </row>
-    <row r="17" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="BH16">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>7</v>
       </c>
@@ -2292,8 +2325,11 @@
       <c r="BG17">
         <v>35</v>
       </c>
-    </row>
-    <row r="18" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="BH17">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>7</v>
       </c>
@@ -2366,8 +2402,11 @@
       <c r="BG18">
         <v>60</v>
       </c>
-    </row>
-    <row r="19" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="BH18">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>7</v>
       </c>
@@ -2485,8 +2524,11 @@
       <c r="BG19">
         <v>214</v>
       </c>
-    </row>
-    <row r="20" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="BH19">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="20" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>7</v>
       </c>
@@ -2604,8 +2646,11 @@
       <c r="BG20">
         <v>249</v>
       </c>
-    </row>
-    <row r="21" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="BH20">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="21" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>7</v>
       </c>
@@ -2723,13 +2768,16 @@
       <c r="BG21">
         <v>737</v>
       </c>
-    </row>
-    <row r="23" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="BH21">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="23" spans="1:60" x14ac:dyDescent="0.3">
       <c r="B23" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>8</v>
       </c>
@@ -2856,8 +2904,11 @@
       <c r="BG24">
         <v>101</v>
       </c>
-    </row>
-    <row r="25" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="BH24">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>8</v>
       </c>
@@ -2930,8 +2981,11 @@
       <c r="BG25">
         <v>46</v>
       </c>
-    </row>
-    <row r="26" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="BH25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>8</v>
       </c>
@@ -3004,8 +3058,11 @@
       <c r="BG26">
         <v>55</v>
       </c>
-    </row>
-    <row r="27" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="BH26">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>8</v>
       </c>
@@ -3123,8 +3180,11 @@
       <c r="BG27">
         <v>66</v>
       </c>
-    </row>
-    <row r="28" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="BH27">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>8</v>
       </c>
@@ -3242,8 +3302,11 @@
       <c r="BG28">
         <v>112</v>
       </c>
-    </row>
-    <row r="29" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="BH28">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="29" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>8</v>
       </c>
@@ -3361,13 +3424,16 @@
       <c r="BG29">
         <v>809</v>
       </c>
-    </row>
-    <row r="31" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="BH29">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="31" spans="1:60" x14ac:dyDescent="0.3">
       <c r="B31" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>19</v>
       </c>
@@ -3482,8 +3548,11 @@
       <c r="BG32">
         <v>61</v>
       </c>
-    </row>
-    <row r="33" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="BH32">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>19</v>
       </c>
@@ -3550,8 +3619,11 @@
       <c r="BG33">
         <v>44</v>
       </c>
-    </row>
-    <row r="34" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="BH33">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>19</v>
       </c>
@@ -3618,8 +3690,11 @@
       <c r="BG34">
         <v>16</v>
       </c>
-    </row>
-    <row r="35" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="BH34">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>19</v>
       </c>
@@ -3731,8 +3806,11 @@
       <c r="BG35">
         <v>42</v>
       </c>
-    </row>
-    <row r="36" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="BH35">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>19</v>
       </c>
@@ -3841,8 +3919,11 @@
       <c r="BG36">
         <v>86</v>
       </c>
-    </row>
-    <row r="37" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="BH36">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="37" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>19</v>
       </c>
@@ -3955,10 +4036,13 @@
         <v>187</v>
       </c>
       <c r="BG37">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="38" spans="1:59" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+      <c r="BH37">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="38" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>19</v>
       </c>
@@ -4007,16 +4091,19 @@
       <c r="BG38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="BH38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
     </row>
-    <row r="40" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:60" x14ac:dyDescent="0.3">
       <c r="B40" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>16</v>
       </c>
@@ -4137,8 +4224,11 @@
       <c r="BG41">
         <v>144</v>
       </c>
-    </row>
-    <row r="42" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="BH41">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="42" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>16</v>
       </c>
@@ -4211,8 +4301,11 @@
       <c r="BG42">
         <v>52</v>
       </c>
-    </row>
-    <row r="43" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="BH42">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>16</v>
       </c>
@@ -4285,8 +4378,11 @@
       <c r="BG43">
         <v>89</v>
       </c>
-    </row>
-    <row r="44" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="BH43">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="44" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>16</v>
       </c>
@@ -4404,8 +4500,11 @@
       <c r="BG44">
         <v>832</v>
       </c>
-    </row>
-    <row r="45" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="BH44">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="45" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>16</v>
       </c>
@@ -4478,8 +4577,11 @@
       <c r="BG45">
         <v>884</v>
       </c>
-    </row>
-    <row r="46" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="BH45">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="46" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>16</v>
       </c>
@@ -4549,8 +4651,11 @@
       <c r="BG46">
         <v>456</v>
       </c>
-    </row>
-    <row r="47" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="BH46">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="47" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>16</v>
       </c>
@@ -4614,16 +4719,19 @@
       <c r="BG47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="BH47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
     </row>
-    <row r="49" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:60" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>18</v>
       </c>
@@ -4729,8 +4837,11 @@
       <c r="BG50">
         <v>26</v>
       </c>
-    </row>
-    <row r="51" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="BH50">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>18</v>
       </c>
@@ -4800,8 +4911,11 @@
       <c r="BG51">
         <v>19</v>
       </c>
-    </row>
-    <row r="52" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="BH51">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>18</v>
       </c>
@@ -4871,8 +4985,11 @@
       <c r="BG52">
         <v>6</v>
       </c>
-    </row>
-    <row r="53" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="BH52">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>18</v>
       </c>
@@ -4978,8 +5095,11 @@
       <c r="BG53">
         <v>33</v>
       </c>
-    </row>
-    <row r="54" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="BH53">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>18</v>
       </c>
@@ -5085,8 +5205,11 @@
       <c r="BG54">
         <v>52</v>
       </c>
-    </row>
-    <row r="55" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="BH54">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>18</v>
       </c>
@@ -5192,8 +5315,11 @@
       <c r="BG55">
         <v>98</v>
       </c>
-    </row>
-    <row r="56" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="BH55">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="56" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>18</v>
       </c>
@@ -5257,8 +5383,11 @@
       <c r="BG56">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="BH56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>20</v>
       </c>
@@ -5364,8 +5493,11 @@
       <c r="BG58">
         <v>10</v>
       </c>
-    </row>
-    <row r="59" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="BH58">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>20</v>
       </c>
@@ -5435,8 +5567,11 @@
       <c r="BG59">
         <v>9</v>
       </c>
-    </row>
-    <row r="60" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="BH59">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>20</v>
       </c>
@@ -5506,8 +5641,11 @@
       <c r="BG60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="BH60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>20</v>
       </c>
@@ -5613,8 +5751,11 @@
       <c r="BG61">
         <v>38</v>
       </c>
-    </row>
-    <row r="62" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="BH61">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="62" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>20</v>
       </c>
@@ -5720,8 +5861,11 @@
       <c r="BG62">
         <v>47</v>
       </c>
-    </row>
-    <row r="63" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="BH62">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="63" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>20</v>
       </c>
@@ -5827,8 +5971,11 @@
       <c r="BG63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="BH63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>20</v>
       </c>
@@ -5898,13 +6045,16 @@
       <c r="BG64">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="BH64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:60" x14ac:dyDescent="0.3">
       <c r="B66" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="67" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>22</v>
       </c>
@@ -6010,8 +6160,11 @@
       <c r="BG67">
         <v>208</v>
       </c>
-    </row>
-    <row r="68" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="BH67">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="68" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>22</v>
       </c>
@@ -6114,8 +6267,14 @@
       <c r="BF68">
         <v>296</v>
       </c>
-    </row>
-    <row r="69" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="BG68">
+        <v>299</v>
+      </c>
+      <c r="BH68">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="69" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>22</v>
       </c>
@@ -6218,8 +6377,14 @@
       <c r="BF69">
         <v>282</v>
       </c>
-    </row>
-    <row r="70" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="BG69">
+        <v>269</v>
+      </c>
+      <c r="BH69">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="70" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>22</v>
       </c>
@@ -6283,8 +6448,11 @@
       <c r="BG70">
         <v>9</v>
       </c>
-    </row>
-    <row r="72" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="BH70">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>30</v>
       </c>
@@ -6390,8 +6558,11 @@
       <c r="BG72">
         <v>74</v>
       </c>
-    </row>
-    <row r="73" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="BH72">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="73" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>30</v>
       </c>
@@ -6497,8 +6668,11 @@
       <c r="BG73">
         <v>23</v>
       </c>
-    </row>
-    <row r="74" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="BH73">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="74" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>30</v>
       </c>
@@ -6604,8 +6778,11 @@
       <c r="BG74">
         <v>97</v>
       </c>
-    </row>
-    <row r="75" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="BH74">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="75" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>30</v>
       </c>
@@ -6711,8 +6888,11 @@
       <c r="BG75">
         <v>127</v>
       </c>
-    </row>
-    <row r="77" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="BH75">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="77" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>31</v>
       </c>
@@ -6818,8 +6998,11 @@
       <c r="BG77">
         <v>68</v>
       </c>
-    </row>
-    <row r="78" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="BH77">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="78" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>31</v>
       </c>
@@ -6925,8 +7108,11 @@
       <c r="BG78">
         <v>50</v>
       </c>
-    </row>
-    <row r="79" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="BH78">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="79" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>31</v>
       </c>
@@ -7020,8 +7206,11 @@
       <c r="BG79" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="80" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="BH79" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>31</v>
       </c>
@@ -7127,8 +7316,11 @@
       <c r="BG80">
         <v>5</v>
       </c>
-    </row>
-    <row r="81" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="BH80">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>31</v>
       </c>
@@ -7192,8 +7384,11 @@
       <c r="BG81">
         <v>11</v>
       </c>
-    </row>
-    <row r="83" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="BH81">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>81</v>
       </c>
@@ -7218,8 +7413,11 @@
       <c r="BG83">
         <v>137</v>
       </c>
-    </row>
-    <row r="84" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="BH83">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="84" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>81</v>
       </c>
@@ -7244,8 +7442,11 @@
       <c r="BG84">
         <v>15</v>
       </c>
-    </row>
-    <row r="85" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="BH84">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>81</v>
       </c>
@@ -7269,6 +7470,9 @@
       </c>
       <c r="BG85">
         <v>18</v>
+      </c>
+      <c r="BH85">
+        <v>19</v>
       </c>
     </row>
     <row r="100" spans="52:52" x14ac:dyDescent="0.3">
@@ -7284,10 +7488,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:AH11"/>
+  <dimension ref="A2:AI11"/>
   <sheetViews>
     <sheetView topLeftCell="AB1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AH11" sqref="AH11"/>
+      <selection activeCell="AI11" sqref="AI11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7297,7 +7501,7 @@
     <col min="15" max="18" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>29</v>
       </c>
@@ -7400,8 +7604,11 @@
       <c r="AH2" s="9">
         <v>43953</v>
       </c>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI2" s="9">
+        <v>43954</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -7504,8 +7711,11 @@
       <c r="AH3">
         <v>649</v>
       </c>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI3">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -7608,8 +7818,11 @@
       <c r="AH4">
         <v>325</v>
       </c>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI4">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -7712,8 +7925,11 @@
       <c r="AH5">
         <v>311</v>
       </c>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI5">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>4</v>
       </c>
@@ -7816,8 +8032,11 @@
       <c r="AH6">
         <v>931</v>
       </c>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI6">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -7920,8 +8139,11 @@
       <c r="AH7">
         <v>768</v>
       </c>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI7">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>6</v>
       </c>
@@ -8024,8 +8246,11 @@
       <c r="AH8">
         <v>489</v>
       </c>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI8">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -8128,8 +8353,11 @@
       <c r="AH9">
         <v>751</v>
       </c>
-    </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI9">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>8</v>
       </c>
@@ -8232,8 +8460,11 @@
       <c r="AH10">
         <v>713</v>
       </c>
-    </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI10">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>36</v>
       </c>
@@ -8335,6 +8566,9 @@
       </c>
       <c r="AH11">
         <v>79</v>
+      </c>
+      <c r="AI11">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -8345,10 +8579,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A2:AC17"/>
+  <dimension ref="A2:AD17"/>
   <sheetViews>
     <sheetView topLeftCell="S2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AC17" sqref="AC17"/>
+      <selection activeCell="AD17" sqref="AD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8358,7 +8592,7 @@
     <col min="10" max="12" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15"/>
       <c r="B2" s="12">
         <v>43926</v>
@@ -8444,8 +8678,11 @@
       <c r="AC2" s="9">
         <v>43953</v>
       </c>
-    </row>
-    <row r="3" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AD2" s="9">
+        <v>43954</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>38</v>
       </c>
@@ -8453,7 +8690,7 @@
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>51</v>
       </c>
@@ -8541,8 +8778,11 @@
       <c r="AC4">
         <v>5016</v>
       </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD4">
+        <v>5170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>36</v>
       </c>
@@ -8630,8 +8870,11 @@
       <c r="AC5">
         <v>769</v>
       </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD5">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>39</v>
       </c>
@@ -8719,8 +8962,11 @@
       <c r="AC6">
         <v>789</v>
       </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD6">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>40</v>
       </c>
@@ -8808,8 +9054,11 @@
       <c r="AC7">
         <v>2341</v>
       </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD7">
+        <v>2426</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>41</v>
       </c>
@@ -8897,8 +9146,11 @@
       <c r="AC8">
         <v>72</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="AD8">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>42</v>
       </c>
@@ -8986,8 +9238,11 @@
       <c r="AC9">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="AD9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>52</v>
       </c>
@@ -9071,8 +9326,11 @@
       <c r="AC10">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
         <v>43</v>
       </c>
@@ -9160,8 +9418,11 @@
       <c r="AC11">
         <v>990</v>
       </c>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD11">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
         <v>44</v>
       </c>
@@ -9249,8 +9510,11 @@
       <c r="AC12">
         <v>32</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>45</v>
       </c>
@@ -9261,7 +9525,7 @@
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
         <v>36</v>
       </c>
@@ -9349,8 +9613,11 @@
       <c r="AC14">
         <v>1189</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD14">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
         <v>46</v>
       </c>
@@ -9438,8 +9705,11 @@
       <c r="AC15">
         <v>954</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD15">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
         <v>47</v>
       </c>
@@ -9527,8 +9797,11 @@
       <c r="AC16">
         <v>2854</v>
       </c>
-    </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD16">
+        <v>2936</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
         <v>44</v>
       </c>
@@ -9614,6 +9887,9 @@
         <v>19</v>
       </c>
       <c r="AC17">
+        <v>19</v>
+      </c>
+      <c r="AD17">
         <v>19</v>
       </c>
     </row>
@@ -9625,10 +9901,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AC8"/>
+  <dimension ref="A1:AD8"/>
   <sheetViews>
     <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="AC8" sqref="AC8"/>
+      <selection activeCell="AD9" sqref="AD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9637,7 +9913,7 @@
     <col min="10" max="10" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B1" s="9">
         <v>43926</v>
       </c>
@@ -9722,14 +9998,17 @@
       <c r="AC1" s="9">
         <v>43953</v>
       </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD1" s="9">
+        <v>43954</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>38</v>
       </c>
       <c r="B2" s="7"/>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>51</v>
       </c>
@@ -9818,8 +10097,11 @@
       <c r="AC3">
         <v>251</v>
       </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD3">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>41</v>
       </c>
@@ -9907,8 +10189,11 @@
       <c r="AC4">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="AD4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>40</v>
       </c>
@@ -9996,8 +10281,11 @@
       <c r="AC5">
         <v>198</v>
       </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD5">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>48</v>
       </c>
@@ -10085,8 +10373,11 @@
       <c r="AC6">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>49</v>
       </c>
@@ -10174,8 +10465,11 @@
       <c r="AC7">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>50</v>
       </c>
@@ -10261,6 +10555,9 @@
         <v>2</v>
       </c>
       <c r="AC8">
+        <v>2</v>
+      </c>
+      <c r="AD8">
         <v>2</v>
       </c>
     </row>
@@ -10271,10 +10568,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48DE713F-971D-4CE1-B1A8-BE60A2507C58}">
-  <dimension ref="A2:O13"/>
+  <dimension ref="A2:P13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10282,7 +10579,7 @@
     <col min="1" max="1" width="22.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>29</v>
       </c>
@@ -10328,8 +10625,11 @@
       <c r="O2" s="9">
         <v>43953</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P2" s="9">
+        <v>43954</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>51</v>
       </c>
@@ -10375,8 +10675,11 @@
       <c r="O3">
         <v>251</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P3">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>1</v>
       </c>
@@ -10422,8 +10725,11 @@
       <c r="O4">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>2</v>
       </c>
@@ -10469,8 +10775,11 @@
       <c r="O5">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>3</v>
       </c>
@@ -10516,8 +10825,11 @@
       <c r="O6">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>4</v>
       </c>
@@ -10563,8 +10875,11 @@
       <c r="O7">
         <v>35</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P7">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>5</v>
       </c>
@@ -10610,8 +10925,11 @@
       <c r="O8">
         <v>39</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>6</v>
       </c>
@@ -10657,8 +10975,11 @@
       <c r="O9">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>7</v>
       </c>
@@ -10704,8 +11025,11 @@
       <c r="O10">
         <v>34</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P10">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>8</v>
       </c>
@@ -10751,8 +11075,11 @@
       <c r="O11">
         <v>54</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="P11">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>73</v>
       </c>
@@ -10798,8 +11125,11 @@
       <c r="O12">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>36</v>
       </c>
@@ -10843,6 +11173,9 @@
         <v>0</v>
       </c>
       <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
         <v>0</v>
       </c>
     </row>
@@ -11091,16 +11424,16 @@
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8DEDEF4E-2681-4E64-A6E5-9E41742A3664}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="248ed0f8-11d3-4141-bb91-6b69a0801941"/>
     <ds:schemaRef ds:uri="8e61eea9-d51d-4f9c-960b-1b037651d93e"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
